--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6436E3-D2BC-8741-A31E-7C06CA8BA0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07F689-B3EF-1446-AEEC-B5523705FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="138">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -923,8 +923,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ25" sqref="AQ25"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
@@ -2274,15 +2274,15 @@
       </c>
       <c r="F2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2)</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2394,6 +2394,12 @@
       <c r="AJ2" t="s">
         <v>110</v>
       </c>
+      <c r="AM2">
+        <v>45</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>110</v>
+      </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
         <v>0</v>
@@ -2412,7 +2418,7 @@
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2421,7 +2427,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B29" si="4">SUM(AI3:IQ3)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C29" si="5">SUM(CY3:GU3)</f>
@@ -2437,11 +2443,11 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="8">SUM(AI3:CU3)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G29" si="9">SUM(H3:I3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H29" si="10">COUNTIF(AI3:PR3,"T")</f>
@@ -2449,7 +2455,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I29" si="11">COUNTIF(AI3:PR3,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J29" si="12">COUNTIF(AI3:PR3,"NR")</f>
@@ -2551,6 +2557,12 @@
         <f t="shared" ref="AH3:AH29" si="33">SUM(IX3,JB3,JF3,JJ3,JN3,JR3,JV3,JZ3,KD3,KH3,KL3,KP3,KT3,KX3,LB3,LF3,LJ3,LN3,LR3,LV3,LZ3,MD3,MH3,ML3,MP3,MT3,MX3,NB3,NF3,NJ3,NN3,NR3,NV3,NZ3,OD3,OH3,OL3,OP3,OT3,OX3,PB3,PF3,PJ3,PN3,PR3)</f>
         <v>0</v>
       </c>
+      <c r="AM3">
+        <v>45</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>137</v>
+      </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="34">COUNTIF(AI3:PR3,"HG")</f>
         <v>0</v>
@@ -2569,7 +2581,7 @@
       </c>
       <c r="PW3">
         <f t="shared" ref="PW3:PW29" si="37">G3-(K3+O3+S3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:439" x14ac:dyDescent="0.2">
@@ -2741,7 +2753,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <f t="shared" si="5"/>
@@ -2757,15 +2769,15 @@
       </c>
       <c r="F5">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="11"/>
@@ -2877,6 +2889,12 @@
       <c r="AJ5" t="s">
         <v>110</v>
       </c>
+      <c r="AM5">
+        <v>45</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>110</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -2895,7 +2913,7 @@
       </c>
       <c r="PW5">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -2904,7 +2922,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <f t="shared" si="5"/>
@@ -2920,11 +2938,11 @@
       </c>
       <c r="F6">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G6">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="10"/>
@@ -2932,7 +2950,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="12"/>
@@ -3040,6 +3058,12 @@
       <c r="AJ6" t="s">
         <v>110</v>
       </c>
+      <c r="AM6">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>137</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -3058,7 +3082,7 @@
       </c>
       <c r="PW6">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3387,7 +3411,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
@@ -3403,11 +3427,11 @@
       </c>
       <c r="F9">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="10"/>
@@ -3415,7 +3439,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="12"/>
@@ -3523,6 +3547,12 @@
       <c r="AJ9" t="s">
         <v>110</v>
       </c>
+      <c r="AM9">
+        <v>45</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>137</v>
+      </c>
       <c r="PS9" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -3541,7 +3571,7 @@
       </c>
       <c r="PW9">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -3550,7 +3580,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
@@ -3566,11 +3596,11 @@
       </c>
       <c r="F10">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="10"/>
@@ -3578,7 +3608,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="12"/>
@@ -3686,6 +3716,12 @@
       <c r="AJ10" t="s">
         <v>137</v>
       </c>
+      <c r="AM10">
+        <v>45</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>137</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -3704,7 +3740,7 @@
       </c>
       <c r="PW10">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -3713,7 +3749,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
@@ -3729,15 +3765,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="11"/>
@@ -3849,6 +3885,12 @@
       <c r="AJ11" t="s">
         <v>110</v>
       </c>
+      <c r="AM11">
+        <v>45</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>110</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -3867,7 +3909,7 @@
       </c>
       <c r="PW11">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -3876,7 +3918,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
@@ -3892,15 +3934,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="11"/>
@@ -4012,6 +4054,12 @@
       <c r="AJ12" t="s">
         <v>110</v>
       </c>
+      <c r="AM12">
+        <v>45</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>110</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4030,7 +4078,7 @@
       </c>
       <c r="PW12">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -4039,7 +4087,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
@@ -4055,11 +4103,11 @@
       </c>
       <c r="F13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="10"/>
@@ -4067,7 +4115,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="12"/>
@@ -4169,6 +4217,12 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
+      <c r="AM13">
+        <v>30</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>137</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4187,7 +4241,7 @@
       </c>
       <c r="PW13">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -4196,7 +4250,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
@@ -4212,11 +4266,11 @@
       </c>
       <c r="F14">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="10"/>
@@ -4224,7 +4278,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="12"/>
@@ -4332,6 +4386,12 @@
       <c r="AJ14" t="s">
         <v>110</v>
       </c>
+      <c r="AM14">
+        <v>45</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>137</v>
+      </c>
       <c r="PS14" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4350,7 +4410,7 @@
       </c>
       <c r="PW14">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -4359,7 +4419,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
@@ -4375,15 +4435,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="11"/>
@@ -4495,6 +4555,12 @@
       <c r="AJ15" t="s">
         <v>137</v>
       </c>
+      <c r="AM15">
+        <v>45</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>110</v>
+      </c>
       <c r="PS15" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4513,7 +4579,7 @@
       </c>
       <c r="PW15">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -4522,7 +4588,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
@@ -4538,11 +4604,11 @@
       </c>
       <c r="F16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="10"/>
@@ -4550,7 +4616,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="12"/>
@@ -4614,7 +4680,7 @@
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="25"/>
@@ -4642,7 +4708,7 @@
       </c>
       <c r="AF16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <f t="shared" si="32"/>
@@ -4652,6 +4718,15 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
+      <c r="AM16">
+        <v>45</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
       <c r="PS16" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4670,7 +4745,7 @@
       </c>
       <c r="PW16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -4679,7 +4754,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
@@ -4695,11 +4770,11 @@
       </c>
       <c r="F17">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="10"/>
@@ -4707,7 +4782,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="12"/>
@@ -4763,7 +4838,7 @@
       </c>
       <c r="W17" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="4">
         <f t="shared" si="23"/>
@@ -4795,7 +4870,7 @@
       </c>
       <c r="AE17">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <f t="shared" si="31"/>
@@ -4815,6 +4890,15 @@
       <c r="AJ17" t="s">
         <v>110</v>
       </c>
+      <c r="AM17">
+        <v>45</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
       <c r="PS17" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4833,7 +4917,7 @@
       </c>
       <c r="PW17">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -4842,7 +4926,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -4858,15 +4942,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="11"/>
@@ -4978,6 +5062,12 @@
       <c r="AJ18" t="s">
         <v>110</v>
       </c>
+      <c r="AM18">
+        <v>45</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>110</v>
+      </c>
       <c r="PS18" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4996,7 +5086,7 @@
       </c>
       <c r="PW18">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -5005,7 +5095,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
@@ -5021,11 +5111,11 @@
       </c>
       <c r="F19">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="10"/>
@@ -5033,7 +5123,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="12"/>
@@ -5141,6 +5231,12 @@
       <c r="AJ19" t="s">
         <v>137</v>
       </c>
+      <c r="AM19">
+        <v>45</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>137</v>
+      </c>
       <c r="PS19" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5159,7 +5255,7 @@
       </c>
       <c r="PW19">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -5168,7 +5264,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
@@ -5184,15 +5280,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="11"/>
@@ -5304,6 +5400,12 @@
       <c r="AJ20" t="s">
         <v>110</v>
       </c>
+      <c r="AM20">
+        <v>45</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>110</v>
+      </c>
       <c r="PS20" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5322,7 +5424,7 @@
       </c>
       <c r="PW20">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -5331,7 +5433,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
@@ -5347,11 +5449,11 @@
       </c>
       <c r="F21">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="10"/>
@@ -5359,7 +5461,7 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="12"/>
@@ -5467,6 +5569,12 @@
       <c r="AJ21" t="s">
         <v>137</v>
       </c>
+      <c r="AM21">
+        <v>15</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>137</v>
+      </c>
       <c r="PS21" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5485,7 +5593,7 @@
       </c>
       <c r="PW21">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:439" x14ac:dyDescent="0.2">
@@ -5494,7 +5602,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
@@ -5510,15 +5618,15 @@
       </c>
       <c r="F22">
         <f t="shared" si="8"/>
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="11"/>
@@ -5633,6 +5741,12 @@
       <c r="AK22">
         <v>1</v>
       </c>
+      <c r="AM22">
+        <v>45</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>110</v>
+      </c>
       <c r="PS22" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5651,7 +5765,7 @@
       </c>
       <c r="PW22">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -5817,7 +5931,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
@@ -5833,15 +5947,15 @@
       </c>
       <c r="F24">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="11"/>
@@ -5953,6 +6067,12 @@
       <c r="AJ24" t="s">
         <v>137</v>
       </c>
+      <c r="AM24">
+        <v>45</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>110</v>
+      </c>
       <c r="PS24" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5971,7 +6091,7 @@
       </c>
       <c r="PW24">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -5980,7 +6100,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
@@ -5996,11 +6116,11 @@
       </c>
       <c r="F25">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="G25">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="10"/>
@@ -6008,7 +6128,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="12"/>
@@ -6119,6 +6239,12 @@
       <c r="AK25">
         <v>1</v>
       </c>
+      <c r="AM25">
+        <v>45</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>137</v>
+      </c>
       <c r="PS25" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -6137,7 +6263,7 @@
       </c>
       <c r="PW25">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
@@ -6146,7 +6272,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
@@ -6162,15 +6288,15 @@
       </c>
       <c r="F26">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="G26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="11"/>
@@ -6285,6 +6411,12 @@
       <c r="AK26">
         <v>1</v>
       </c>
+      <c r="AM26">
+        <v>45</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>110</v>
+      </c>
       <c r="PS26" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -6303,7 +6435,7 @@
       </c>
       <c r="PW26">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07F689-B3EF-1446-AEEC-B5523705FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8A5B2-06B2-4543-A4B8-2D5F4D68F330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="138">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -923,8 +923,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR15" sqref="AR15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
@@ -2274,15 +2274,15 @@
       </c>
       <c r="F2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2)</f>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2400,6 +2400,12 @@
       <c r="AN2" t="s">
         <v>110</v>
       </c>
+      <c r="AQ2">
+        <v>45</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>110</v>
+      </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
         <v>0</v>
@@ -2418,7 +2424,7 @@
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2426,75 +2432,75 @@
         <v>112</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B29" si="4">SUM(AI3:IQ3)</f>
+        <f>SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3,CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3,GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3,IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
         <v>45</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C29" si="5">SUM(CY3:GU3)</f>
+        <f t="shared" ref="C3:C29" si="4">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D29" si="6">SUM(GY3:IQ3)</f>
+        <f t="shared" ref="D3:D29" si="5">SUM(GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E29" si="7">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
+        <f t="shared" ref="E3:E29" si="6">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F29" si="8">SUM(AI3:CU3)</f>
+        <f t="shared" ref="F3:F29" si="7">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
         <v>45</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G29" si="9">SUM(H3:I3)</f>
+        <f t="shared" ref="G3:G29" si="8">SUM(H3:I3)</f>
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H29" si="10">COUNTIF(AI3:PR3,"T")</f>
+        <f t="shared" ref="H3:H29" si="9">COUNTIF(AI3:PR3,"T")</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I29" si="11">COUNTIF(AI3:PR3,"R")</f>
+        <f t="shared" ref="I3:I29" si="10">COUNTIF(AI3:PR3,"R")</f>
         <v>1</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J29" si="12">COUNTIF(AI3:PR3,"NR")</f>
+        <f t="shared" ref="J3:J29" si="11">COUNTIF(AI3:PR3,"NR")</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K29" si="13">SUM(L3:M3)</f>
+        <f t="shared" ref="K3:K29" si="12">SUM(L3:M3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L29" si="14">COUNTIF(CY3:GX3,"T")</f>
+        <f t="shared" ref="L3:L29" si="13">COUNTIF(CY3:GX3,"T")</f>
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M29" si="15">COUNTIF(CY3:GX3,"R")</f>
+        <f t="shared" ref="M3:M29" si="14">COUNTIF(CY3:GX3,"R")</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N29" si="16">COUNTIF(CY3:GX3,"NR")</f>
+        <f t="shared" ref="N3:N29" si="15">COUNTIF(CY3:GX3,"NR")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O29" si="17">SUM(P3:Q3)</f>
+        <f t="shared" ref="O3:O29" si="16">SUM(P3:Q3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P29" si="18">COUNTIF(GY3:IT3,"T")</f>
+        <f t="shared" ref="P3:P29" si="17">COUNTIF(GY3:IT3,"T")</f>
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q29" si="19">COUNTIF(GY3:IT3,"R")</f>
+        <f t="shared" ref="Q3:Q29" si="18">COUNTIF(GY3:IT3,"R")</f>
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R29" si="20">COUNTIF(GY3:IT3,"NR")</f>
+        <f t="shared" ref="R3:R29" si="19">COUNTIF(GY3:IT3,"NR")</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S29" si="21">SUM(T3:U3)</f>
+        <f t="shared" ref="S3:S29" si="20">SUM(T3:U3)</f>
         <v>0</v>
       </c>
       <c r="T3" s="3">
@@ -2510,51 +2516,51 @@
         <v>0</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W29" si="22">SUM(AK3,AO3,AS3,AW3,BA3,BE3,BI3,BM3,BQ3,BU3,BY3,CC3,CG3,CK3,CO3,CS3,CW3,DA3,DE3,DI3,DM3,DQ3,DU3,DY3,EC3,EG3,EK3,EO3,ES3,EW3,FA3,FE3,FI3,FM3,FQ3,FU3,FY3,GC3,GG3,GK3,GO3,GS3,GW3,HA3,HE3,HI3,HM3,HQ3,HU3,HY3,IC3,IG3,IK3,IO3,IS3,IW3,JA3,JE3,JI3,JM3,JQ3,JU3,JY3,KC3,KG3,KK3,KO3,KS3,KW3,LA3,LE3,LI3,LM3,LQ3,LU3,LY3,MC3,MG3,MK3,MO3,MS3,MW3,NA3,NE3,NI3,NM3,NQ3,NU3,NY3,OC3,OG3,OK3,OO3,OS3,OW3,PA3,PE3,PI3,PM3,PQ3)</f>
+        <f t="shared" ref="W3:W29" si="21">SUM(AK3,AO3,AS3,AW3,BA3,BE3,BI3,BM3,BQ3,BU3,BY3,CC3,CG3,CK3,CO3,CS3,CW3,DA3,DE3,DI3,DM3,DQ3,DU3,DY3,EC3,EG3,EK3,EO3,ES3,EW3,FA3,FE3,FI3,FM3,FQ3,FU3,FY3,GC3,GG3,GK3,GO3,GS3,GW3,HA3,HE3,HI3,HM3,HQ3,HU3,HY3,IC3,IG3,IK3,IO3,IS3,IW3,JA3,JE3,JI3,JM3,JQ3,JU3,JY3,KC3,KG3,KK3,KO3,KS3,KW3,LA3,LE3,LI3,LM3,LQ3,LU3,LY3,MC3,MG3,MK3,MO3,MS3,MW3,NA3,NE3,NI3,NM3,NQ3,NU3,NY3,OC3,OG3,OK3,OO3,OS3,OW3,PA3,PE3,PI3,PM3,PQ3)</f>
         <v>0</v>
       </c>
       <c r="X3" s="4">
-        <f t="shared" ref="X3:X29" si="23">SUM(DA3,DE3,DI3,DM3,DQ3,DU3,DY3,EC3,EG3,EK3,EO3,ES3,EW3,FA3,FE3,FI3,FM3,FQ3,FU3,FY3,GC3,GG3,GK3,GO3,GS3,GW3,HA3,HE3,HI3,HM3,HQ3,HU3,HY3,IC3,IG3,IK3,IO3,IS3,IW3,JA3,JE3,JI3,JM3,JQ3,JU3,JY3,KC3,KG3,KK3,KO3,KS3,KW3,LA3,LE3,LI3,LM3,LQ3,LU3,LY3,MC3,MG3,MK3,MO3,MS3,MW3,NA3,NE3,NI3,NM3,NQ3,NU3,NY3,OC3,OG3,OK3,OO3,OS3,OW3,PA3,PE3,PI3,PM3,PQ3)</f>
+        <f t="shared" ref="X3:X29" si="22">SUM(DA3,DE3,DI3,DM3,DQ3,DU3,DY3,EC3,EG3,EK3,EO3,ES3,EW3,FA3,FE3,FI3,FM3,FQ3,FU3,FY3,GC3,GG3,GK3,GO3,GS3,GW3,HA3,HE3,HI3,HM3,HQ3,HU3,HY3,IC3,IG3,IK3,IO3,IS3,IW3,JA3,JE3,JI3,JM3,JQ3,JU3,JY3,KC3,KG3,KK3,KO3,KS3,KW3,LA3,LE3,LI3,LM3,LQ3,LU3,LY3,MC3,MG3,MK3,MO3,MS3,MW3,NA3,NE3,NI3,NM3,NQ3,NU3,NY3,OC3,OG3,OK3,OO3,OS3,OW3,PA3,PE3,PI3,PM3,PQ3)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="4">
-        <f t="shared" ref="Y3:Y29" si="24">SUM(AL3,AP3,AT3,AX3,BB3,BF3,BJ3,BN3,BR3,BV3,BZ3,CD3,CH3,CL3,CP3,CT3,CX3,DB3,DF3,DJ3,DN3,DR3,DV3,DZ3,ED3,EH3,EL3,EP3,ET3,EX3,FB3,FF3,FJ3,FN3,FR3,FV3,FZ3,GD3,GH3,GL3,GP3,GT3,GX3,HB3,HF3,HJ3,HN3,HR3,HV3,HZ3,ID3,IH3,IL3,IP3,IT3,IX3,JB3,JF3,JJ3,JN3,JR3,JV3,JZ3,KD3,KH3,KL3,KP3,KT3,KX3,LB3,LF3,LJ3,LN3,LR3,LV3,LZ3,MD3,MH3,ML3,MP3,MT3,MX3,NB3,NF3,NJ3,NN3,NR3,NV3,NZ3,OD3,OH3,OL3,OP3,OT3,OX3,PB3,PF3,PJ3,PN3,PR3)</f>
+        <f t="shared" ref="Y3:Y29" si="23">SUM(AL3,AP3,AT3,AX3,BB3,BF3,BJ3,BN3,BR3,BV3,BZ3,CD3,CH3,CL3,CP3,CT3,CX3,DB3,DF3,DJ3,DN3,DR3,DV3,DZ3,ED3,EH3,EL3,EP3,ET3,EX3,FB3,FF3,FJ3,FN3,FR3,FV3,FZ3,GD3,GH3,GL3,GP3,GT3,GX3,HB3,HF3,HJ3,HN3,HR3,HV3,HZ3,ID3,IH3,IL3,IP3,IT3,IX3,JB3,JF3,JJ3,JN3,JR3,JV3,JZ3,KD3,KH3,KL3,KP3,KT3,KX3,LB3,LF3,LJ3,LN3,LR3,LV3,LZ3,MD3,MH3,ML3,MP3,MT3,MX3,NB3,NF3,NJ3,NN3,NR3,NV3,NZ3,OD3,OH3,OL3,OP3,OT3,OX3,PB3,PF3,PJ3,PN3,PR3)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z29" si="25">SUM(DB3,DF3,DJ3,DN3,DR3,DV3,DZ3,ED3,EH3,EL3,EP3,ET3,EX3,FB3,FF3,FJ3,FN3,FR3,FV3,FZ3,GD3,GH3,GL3,GP3,GT3,GX3,HB3,HF3,HJ3,HN3,HR3,HV3,HZ3,ID3,IH3,IL3,IP3,IT3,IX3,JB3,JF3,JJ3,JN3,JR3,JV3,JZ3,KD3,KH3,KL3,KP3,KT3,KX3,LB3,LF3,LJ3,LN3,LR3,LV3,LZ3,MD3,MH3,ML3,MP3,MT3,MX3,NB3,NF3,NJ3,NN3,NR3,NV3,NZ3,OD3,OH3,OL3,OP3,OT3,OX3,PB3,PF3,PJ3,PN3,PR3)</f>
+        <f t="shared" ref="Z3:Z29" si="24">SUM(DB3,DF3,DJ3,DN3,DR3,DV3,DZ3,ED3,EH3,EL3,EP3,ET3,EX3,FB3,FF3,FJ3,FN3,FR3,FV3,FZ3,GD3,GH3,GL3,GP3,GT3,GX3,HB3,HF3,HJ3,HN3,HR3,HV3,HZ3,ID3,IH3,IL3,IP3,IT3,IX3,JB3,JF3,JJ3,JN3,JR3,JV3,JZ3,KD3,KH3,KL3,KP3,KT3,KX3,LB3,LF3,LJ3,LN3,LR3,LV3,LZ3,MD3,MH3,ML3,MP3,MT3,MX3,NB3,NF3,NJ3,NN3,NR3,NV3,NZ3,OD3,OH3,OL3,OP3,OT3,OX3,PB3,PF3,PJ3,PN3,PR3)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA29" si="26">SUM(DA3,DE3,DI3,DM3,DQ3,DU3,DY3,EC3,EG3,EK3,EO3,ES3,EW3,FA3,FE3,FI3,FM3,FQ3,FU3,FY3,GC3,GG3,GK3,GO3,GS3,GW3)</f>
+        <f t="shared" ref="AA3:AA29" si="25">SUM(DA3,DE3,DI3,DM3,DQ3,DU3,DY3,EC3,EG3,EK3,EO3,ES3,EW3,FA3,FE3,FI3,FM3,FQ3,FU3,FY3,GC3,GG3,GK3,GO3,GS3,GW3)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB29" si="27">SUM(DB3,DF3,DJ3,DN3,DR3,DV3,DZ3,ED3,EH3,EL3,EP3,ET3,EX3,FB3,FF3,FJ3,FN3,FR3,FV3,FZ3,GD3,GH3,GL3,GP3,GT3,GX3)</f>
+        <f t="shared" ref="AB3:AB29" si="26">SUM(DB3,DF3,DJ3,DN3,DR3,DV3,DZ3,ED3,EH3,EL3,EP3,ET3,EX3,FB3,FF3,FJ3,FN3,FR3,FV3,FZ3,GD3,GH3,GL3,GP3,GT3,GX3)</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC29" si="28">SUM(HA3,HE3,HI3,HM3,HQ3,HU3,HY3,IC3,IG3,IK3,IO3,IS3)</f>
+        <f t="shared" ref="AC3:AC29" si="27">SUM(HA3,HE3,HI3,HM3,HQ3,HU3,HY3,IC3,IG3,IK3,IO3,IS3)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD29" si="29">SUM(HB3,HF3,HJ3,HN3,HR3,HV3,HZ3,ID3,IH3,IL3,IP3,IT3)</f>
+        <f t="shared" ref="AD3:AD29" si="28">SUM(HB3,HF3,HJ3,HN3,HR3,HV3,HZ3,ID3,IH3,IL3,IP3,IT3)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE29" si="30">SUM(AK3,AO3,AS3,AW3,BA3,BE3,BI3,BM3,BQ3,BU3,BY3,CC3,CG3,CK3,CO3,CS3,CW3)</f>
+        <f t="shared" ref="AE3:AE29" si="29">SUM(AK3,AO3,AS3,AW3,BA3,BE3,BI3,BM3,BQ3,BU3,BY3,CC3,CG3,CK3,CO3,CS3,CW3)</f>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF29" si="31">SUM(AL3,AP3,AT3,AX3,BB3,BF3,BJ3,BN3,BR3,BV3,BZ3,CD3,CH3,CL3,CP3,CT3,CX3)</f>
+        <f t="shared" ref="AF3:AF29" si="30">SUM(AL3,AP3,AT3,AX3,BB3,BF3,BJ3,BN3,BR3,BV3,BZ3,CD3,CH3,CL3,CP3,CT3,CX3)</f>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG29" si="32">SUM(IW3,JA3,JE3,JI3,JM3,JQ3,JU3,JY3,KC3,KG3,KK3,KO3,KS3,KW3,LA3,LE3,LI3,LM3,LQ3,LU3,LY3,MC3,MG3,MK3,MO3,MS3,MW3,NA3,NE3,NI3,NM3,NQ3,NU3,NY3,OC3,OG3,OK3,OO3,OS3,OW3,PA3,PE3,PI3,PM3,PQ3)</f>
+        <f t="shared" ref="AG3:AG29" si="31">SUM(IW3,JA3,JE3,JI3,JM3,JQ3,JU3,JY3,KC3,KG3,KK3,KO3,KS3,KW3,LA3,LE3,LI3,LM3,LQ3,LU3,LY3,MC3,MG3,MK3,MO3,MS3,MW3,NA3,NE3,NI3,NM3,NQ3,NU3,NY3,OC3,OG3,OK3,OO3,OS3,OW3,PA3,PE3,PI3,PM3,PQ3)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH29" si="33">SUM(IX3,JB3,JF3,JJ3,JN3,JR3,JV3,JZ3,KD3,KH3,KL3,KP3,KT3,KX3,LB3,LF3,LJ3,LN3,LR3,LV3,LZ3,MD3,MH3,ML3,MP3,MT3,MX3,NB3,NF3,NJ3,NN3,NR3,NV3,NZ3,OD3,OH3,OL3,OP3,OT3,OX3,PB3,PF3,PJ3,PN3,PR3)</f>
+        <f t="shared" ref="AH3:AH29" si="32">SUM(IX3,JB3,JF3,JJ3,JN3,JR3,JV3,JZ3,KD3,KH3,KL3,KP3,KT3,KX3,LB3,LF3,LJ3,LN3,LR3,LV3,LZ3,MD3,MH3,ML3,MP3,MT3,MX3,NB3,NF3,NJ3,NN3,NR3,NV3,NZ3,OD3,OH3,OL3,OP3,OT3,OX3,PB3,PF3,PJ3,PN3,PR3)</f>
         <v>0</v>
       </c>
       <c r="AM3">
@@ -2564,15 +2570,15 @@
         <v>137</v>
       </c>
       <c r="PS3" s="3">
-        <f t="shared" ref="PS3:PS29" si="34">COUNTIF(AI3:PR3,"HG")</f>
+        <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
         <v>0</v>
       </c>
       <c r="PT3" s="3">
-        <f t="shared" ref="PT3:PT29" si="35">COUNTIF(CY3:GX3,"HG")</f>
+        <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
         <v>0</v>
       </c>
       <c r="PU3" s="3">
-        <f t="shared" ref="PU3:PU29" si="36">COUNTIF(GY3:IT3,"HG")</f>
+        <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
         <v>0</v>
       </c>
       <c r="PV3">
@@ -2580,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="PW3">
-        <f t="shared" ref="PW3:PW29" si="37">G3-(K3+O3+S3)</f>
+        <f t="shared" ref="PW3:PW29" si="36">G3-(K3+O3+S3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2589,75 +2595,75 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4" si="38">SUM(AI4:IQ4)</f>
-        <v>45</v>
+        <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
+        <v>90</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4" si="39">SUM(CY4:GU4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4" si="40">SUM(GY4:IQ4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4" si="41">SUM(IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4" si="42">SUM(AI4:CU4)</f>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4" si="43">SUM(H4:I4)</f>
-        <v>1</v>
+        <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4" si="44">COUNTIF(AI4:PR4,"T")</f>
+        <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4" si="45">COUNTIF(AI4:PR4,"R")</f>
-        <v>1</v>
+        <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
+        <v>2</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4" si="46">COUNTIF(AI4:PR4,"NR")</f>
+        <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4" si="47">SUM(L4:M4)</f>
+        <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4" si="48">COUNTIF(CY4:GX4,"T")</f>
+        <f t="shared" ref="L4" si="43">COUNTIF(CY4:GX4,"T")</f>
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4" si="49">COUNTIF(CY4:GX4,"R")</f>
+        <f t="shared" ref="M4" si="44">COUNTIF(CY4:GX4,"R")</f>
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4" si="50">COUNTIF(CY4:GX4,"NR")</f>
+        <f t="shared" ref="N4" si="45">COUNTIF(CY4:GX4,"NR")</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4" si="51">SUM(P4:Q4)</f>
+        <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4" si="52">COUNTIF(GY4:IT4,"T")</f>
+        <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" ref="Q4" si="53">COUNTIF(GY4:IT4,"R")</f>
+        <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" ref="R4" si="54">COUNTIF(GY4:IT4,"NR")</f>
+        <f t="shared" ref="R4" si="49">COUNTIF(GY4:IT4,"NR")</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4" si="55">SUM(T4:U4)</f>
+        <f t="shared" ref="S4" si="50">SUM(T4:U4)</f>
         <v>0</v>
       </c>
       <c r="T4" s="3">
@@ -2673,51 +2679,51 @@
         <v>0</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" ref="W4" si="56">SUM(AK4,AO4,AS4,AW4,BA4,BE4,BI4,BM4,BQ4,BU4,BY4,CC4,CG4,CK4,CO4,CS4,CW4,DA4,DE4,DI4,DM4,DQ4,DU4,DY4,EC4,EG4,EK4,EO4,ES4,EW4,FA4,FE4,FI4,FM4,FQ4,FU4,FY4,GC4,GG4,GK4,GO4,GS4,GW4,HA4,HE4,HI4,HM4,HQ4,HU4,HY4,IC4,IG4,IK4,IO4,IS4,IW4,JA4,JE4,JI4,JM4,JQ4,JU4,JY4,KC4,KG4,KK4,KO4,KS4,KW4,LA4,LE4,LI4,LM4,LQ4,LU4,LY4,MC4,MG4,MK4,MO4,MS4,MW4,NA4,NE4,NI4,NM4,NQ4,NU4,NY4,OC4,OG4,OK4,OO4,OS4,OW4,PA4,PE4,PI4,PM4,PQ4)</f>
+        <f t="shared" ref="W4" si="51">SUM(AK4,AO4,AS4,AW4,BA4,BE4,BI4,BM4,BQ4,BU4,BY4,CC4,CG4,CK4,CO4,CS4,CW4,DA4,DE4,DI4,DM4,DQ4,DU4,DY4,EC4,EG4,EK4,EO4,ES4,EW4,FA4,FE4,FI4,FM4,FQ4,FU4,FY4,GC4,GG4,GK4,GO4,GS4,GW4,HA4,HE4,HI4,HM4,HQ4,HU4,HY4,IC4,IG4,IK4,IO4,IS4,IW4,JA4,JE4,JI4,JM4,JQ4,JU4,JY4,KC4,KG4,KK4,KO4,KS4,KW4,LA4,LE4,LI4,LM4,LQ4,LU4,LY4,MC4,MG4,MK4,MO4,MS4,MW4,NA4,NE4,NI4,NM4,NQ4,NU4,NY4,OC4,OG4,OK4,OO4,OS4,OW4,PA4,PE4,PI4,PM4,PQ4)</f>
         <v>0</v>
       </c>
       <c r="X4" s="4">
-        <f t="shared" ref="X4" si="57">SUM(DA4,DE4,DI4,DM4,DQ4,DU4,DY4,EC4,EG4,EK4,EO4,ES4,EW4,FA4,FE4,FI4,FM4,FQ4,FU4,FY4,GC4,GG4,GK4,GO4,GS4,GW4,HA4,HE4,HI4,HM4,HQ4,HU4,HY4,IC4,IG4,IK4,IO4,IS4,IW4,JA4,JE4,JI4,JM4,JQ4,JU4,JY4,KC4,KG4,KK4,KO4,KS4,KW4,LA4,LE4,LI4,LM4,LQ4,LU4,LY4,MC4,MG4,MK4,MO4,MS4,MW4,NA4,NE4,NI4,NM4,NQ4,NU4,NY4,OC4,OG4,OK4,OO4,OS4,OW4,PA4,PE4,PI4,PM4,PQ4)</f>
+        <f t="shared" ref="X4" si="52">SUM(DA4,DE4,DI4,DM4,DQ4,DU4,DY4,EC4,EG4,EK4,EO4,ES4,EW4,FA4,FE4,FI4,FM4,FQ4,FU4,FY4,GC4,GG4,GK4,GO4,GS4,GW4,HA4,HE4,HI4,HM4,HQ4,HU4,HY4,IC4,IG4,IK4,IO4,IS4,IW4,JA4,JE4,JI4,JM4,JQ4,JU4,JY4,KC4,KG4,KK4,KO4,KS4,KW4,LA4,LE4,LI4,LM4,LQ4,LU4,LY4,MC4,MG4,MK4,MO4,MS4,MW4,NA4,NE4,NI4,NM4,NQ4,NU4,NY4,OC4,OG4,OK4,OO4,OS4,OW4,PA4,PE4,PI4,PM4,PQ4)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="4">
-        <f t="shared" ref="Y4" si="58">SUM(AL4,AP4,AT4,AX4,BB4,BF4,BJ4,BN4,BR4,BV4,BZ4,CD4,CH4,CL4,CP4,CT4,CX4,DB4,DF4,DJ4,DN4,DR4,DV4,DZ4,ED4,EH4,EL4,EP4,ET4,EX4,FB4,FF4,FJ4,FN4,FR4,FV4,FZ4,GD4,GH4,GL4,GP4,GT4,GX4,HB4,HF4,HJ4,HN4,HR4,HV4,HZ4,ID4,IH4,IL4,IP4,IT4,IX4,JB4,JF4,JJ4,JN4,JR4,JV4,JZ4,KD4,KH4,KL4,KP4,KT4,KX4,LB4,LF4,LJ4,LN4,LR4,LV4,LZ4,MD4,MH4,ML4,MP4,MT4,MX4,NB4,NF4,NJ4,NN4,NR4,NV4,NZ4,OD4,OH4,OL4,OP4,OT4,OX4,PB4,PF4,PJ4,PN4,PR4)</f>
+        <f t="shared" ref="Y4" si="53">SUM(AL4,AP4,AT4,AX4,BB4,BF4,BJ4,BN4,BR4,BV4,BZ4,CD4,CH4,CL4,CP4,CT4,CX4,DB4,DF4,DJ4,DN4,DR4,DV4,DZ4,ED4,EH4,EL4,EP4,ET4,EX4,FB4,FF4,FJ4,FN4,FR4,FV4,FZ4,GD4,GH4,GL4,GP4,GT4,GX4,HB4,HF4,HJ4,HN4,HR4,HV4,HZ4,ID4,IH4,IL4,IP4,IT4,IX4,JB4,JF4,JJ4,JN4,JR4,JV4,JZ4,KD4,KH4,KL4,KP4,KT4,KX4,LB4,LF4,LJ4,LN4,LR4,LV4,LZ4,MD4,MH4,ML4,MP4,MT4,MX4,NB4,NF4,NJ4,NN4,NR4,NV4,NZ4,OD4,OH4,OL4,OP4,OT4,OX4,PB4,PF4,PJ4,PN4,PR4)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="4">
-        <f t="shared" ref="Z4" si="59">SUM(DB4,DF4,DJ4,DN4,DR4,DV4,DZ4,ED4,EH4,EL4,EP4,ET4,EX4,FB4,FF4,FJ4,FN4,FR4,FV4,FZ4,GD4,GH4,GL4,GP4,GT4,GX4,HB4,HF4,HJ4,HN4,HR4,HV4,HZ4,ID4,IH4,IL4,IP4,IT4,IX4,JB4,JF4,JJ4,JN4,JR4,JV4,JZ4,KD4,KH4,KL4,KP4,KT4,KX4,LB4,LF4,LJ4,LN4,LR4,LV4,LZ4,MD4,MH4,ML4,MP4,MT4,MX4,NB4,NF4,NJ4,NN4,NR4,NV4,NZ4,OD4,OH4,OL4,OP4,OT4,OX4,PB4,PF4,PJ4,PN4,PR4)</f>
+        <f t="shared" ref="Z4" si="54">SUM(DB4,DF4,DJ4,DN4,DR4,DV4,DZ4,ED4,EH4,EL4,EP4,ET4,EX4,FB4,FF4,FJ4,FN4,FR4,FV4,FZ4,GD4,GH4,GL4,GP4,GT4,GX4,HB4,HF4,HJ4,HN4,HR4,HV4,HZ4,ID4,IH4,IL4,IP4,IT4,IX4,JB4,JF4,JJ4,JN4,JR4,JV4,JZ4,KD4,KH4,KL4,KP4,KT4,KX4,LB4,LF4,LJ4,LN4,LR4,LV4,LZ4,MD4,MH4,ML4,MP4,MT4,MX4,NB4,NF4,NJ4,NN4,NR4,NV4,NZ4,OD4,OH4,OL4,OP4,OT4,OX4,PB4,PF4,PJ4,PN4,PR4)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4" si="60">SUM(DA4,DE4,DI4,DM4,DQ4,DU4,DY4,EC4,EG4,EK4,EO4,ES4,EW4,FA4,FE4,FI4,FM4,FQ4,FU4,FY4,GC4,GG4,GK4,GO4,GS4,GW4)</f>
+        <f t="shared" ref="AA4" si="55">SUM(DA4,DE4,DI4,DM4,DQ4,DU4,DY4,EC4,EG4,EK4,EO4,ES4,EW4,FA4,FE4,FI4,FM4,FQ4,FU4,FY4,GC4,GG4,GK4,GO4,GS4,GW4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4" si="61">SUM(DB4,DF4,DJ4,DN4,DR4,DV4,DZ4,ED4,EH4,EL4,EP4,ET4,EX4,FB4,FF4,FJ4,FN4,FR4,FV4,FZ4,GD4,GH4,GL4,GP4,GT4,GX4)</f>
+        <f t="shared" ref="AB4" si="56">SUM(DB4,DF4,DJ4,DN4,DR4,DV4,DZ4,ED4,EH4,EL4,EP4,ET4,EX4,FB4,FF4,FJ4,FN4,FR4,FV4,FZ4,GD4,GH4,GL4,GP4,GT4,GX4)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4" si="62">SUM(HA4,HE4,HI4,HM4,HQ4,HU4,HY4,IC4,IG4,IK4,IO4,IS4)</f>
+        <f t="shared" ref="AC4" si="57">SUM(HA4,HE4,HI4,HM4,HQ4,HU4,HY4,IC4,IG4,IK4,IO4,IS4)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" ref="AD4" si="63">SUM(HB4,HF4,HJ4,HN4,HR4,HV4,HZ4,ID4,IH4,IL4,IP4,IT4)</f>
+        <f t="shared" ref="AD4" si="58">SUM(HB4,HF4,HJ4,HN4,HR4,HV4,HZ4,ID4,IH4,IL4,IP4,IT4)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4" si="64">SUM(AK4,AO4,AS4,AW4,BA4,BE4,BI4,BM4,BQ4,BU4,BY4,CC4,CG4,CK4,CO4,CS4,CW4)</f>
+        <f t="shared" ref="AE4" si="59">SUM(AK4,AO4,AS4,AW4,BA4,BE4,BI4,BM4,BQ4,BU4,BY4,CC4,CG4,CK4,CO4,CS4,CW4)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4" si="65">SUM(AL4,AP4,AT4,AX4,BB4,BF4,BJ4,BN4,BR4,BV4,BZ4,CD4,CH4,CL4,CP4,CT4,CX4)</f>
+        <f t="shared" ref="AF4" si="60">SUM(AL4,AP4,AT4,AX4,BB4,BF4,BJ4,BN4,BR4,BV4,BZ4,CD4,CH4,CL4,CP4,CT4,CX4)</f>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4" si="66">SUM(IW4,JA4,JE4,JI4,JM4,JQ4,JU4,JY4,KC4,KG4,KK4,KO4,KS4,KW4,LA4,LE4,LI4,LM4,LQ4,LU4,LY4,MC4,MG4,MK4,MO4,MS4,MW4,NA4,NE4,NI4,NM4,NQ4,NU4,NY4,OC4,OG4,OK4,OO4,OS4,OW4,PA4,PE4,PI4,PM4,PQ4)</f>
+        <f t="shared" ref="AG4" si="61">SUM(IW4,JA4,JE4,JI4,JM4,JQ4,JU4,JY4,KC4,KG4,KK4,KO4,KS4,KW4,LA4,LE4,LI4,LM4,LQ4,LU4,LY4,MC4,MG4,MK4,MO4,MS4,MW4,NA4,NE4,NI4,NM4,NQ4,NU4,NY4,OC4,OG4,OK4,OO4,OS4,OW4,PA4,PE4,PI4,PM4,PQ4)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4" si="67">SUM(IX4,JB4,JF4,JJ4,JN4,JR4,JV4,JZ4,KD4,KH4,KL4,KP4,KT4,KX4,LB4,LF4,LJ4,LN4,LR4,LV4,LZ4,MD4,MH4,ML4,MP4,MT4,MX4,NB4,NF4,NJ4,NN4,NR4,NV4,NZ4,OD4,OH4,OL4,OP4,OT4,OX4,PB4,PF4,PJ4,PN4,PR4)</f>
+        <f t="shared" ref="AH4" si="62">SUM(IX4,JB4,JF4,JJ4,JN4,JR4,JV4,JZ4,KD4,KH4,KL4,KP4,KT4,KX4,LB4,LF4,LJ4,LN4,LR4,LV4,LZ4,MD4,MH4,ML4,MP4,MT4,MX4,NB4,NF4,NJ4,NN4,NR4,NV4,NZ4,OD4,OH4,OL4,OP4,OT4,OX4,PB4,PF4,PJ4,PN4,PR4)</f>
         <v>0</v>
       </c>
       <c r="AI4">
@@ -2726,16 +2732,22 @@
       <c r="AJ4" t="s">
         <v>137</v>
       </c>
+      <c r="AQ4">
+        <v>45</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>137</v>
+      </c>
       <c r="PS4" s="3">
-        <f t="shared" ref="PS4" si="68">COUNTIF(AI4:PR4,"HG")</f>
+        <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
         <v>0</v>
       </c>
       <c r="PT4" s="3">
-        <f t="shared" ref="PT4" si="69">COUNTIF(CY4:GX4,"HG")</f>
+        <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
         <v>0</v>
       </c>
       <c r="PU4" s="3">
-        <f t="shared" ref="PU4" si="70">COUNTIF(GY4:IT4,"HG")</f>
+        <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
         <v>0</v>
       </c>
       <c r="PV4">
@@ -2743,8 +2755,8 @@
         <v>0</v>
       </c>
       <c r="PW4">
-        <f t="shared" ref="PW4" si="71">G4-(K4+O4+S4)</f>
-        <v>1</v>
+        <f t="shared" ref="PW4" si="66">G4-(K4+O4+S4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:439" x14ac:dyDescent="0.2">
@@ -2752,75 +2764,75 @@
         <v>114</v>
       </c>
       <c r="B5">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>135</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T5" s="3">
@@ -2836,51 +2848,51 @@
         <v>0</v>
       </c>
       <c r="W5" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI5">
@@ -2895,16 +2907,22 @@
       <c r="AN5" t="s">
         <v>110</v>
       </c>
+      <c r="AQ5">
+        <v>45</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>110</v>
+      </c>
       <c r="PS5" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT5" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT5" s="3">
+      <c r="PU5" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU5" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV5">
@@ -2912,8 +2930,8 @@
         <v>0</v>
       </c>
       <c r="PW5">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -2921,75 +2939,75 @@
         <v>115</v>
       </c>
       <c r="B6">
+        <f t="shared" si="37"/>
+        <v>150</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="8"/>
-        <v>105</v>
-      </c>
-      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T6" s="3">
@@ -3005,51 +3023,51 @@
         <v>0</v>
       </c>
       <c r="W6" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Y6" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Z6" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AA6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI6">
@@ -3064,16 +3082,22 @@
       <c r="AN6" t="s">
         <v>137</v>
       </c>
+      <c r="AQ6">
+        <v>45</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>137</v>
+      </c>
       <c r="PS6" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT6" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT6" s="3">
+      <c r="PU6" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU6" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV6">
@@ -3081,8 +3105,8 @@
         <v>0</v>
       </c>
       <c r="PW6">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3090,75 +3114,75 @@
         <v>116</v>
       </c>
       <c r="B7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="P7" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T7" s="3">
@@ -3174,63 +3198,63 @@
         <v>0</v>
       </c>
       <c r="W7" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AA7">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AH7">
+      <c r="PS7" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="PS7" s="3">
+      <c r="PT7" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT7" s="3">
+      <c r="PU7" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU7" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV7">
@@ -3238,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="PW7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -3247,75 +3271,75 @@
         <v>117</v>
       </c>
       <c r="B8">
+        <f t="shared" si="37"/>
+        <v>90</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T8" s="3">
@@ -3331,51 +3355,51 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Z8" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AA8">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI8">
@@ -3384,16 +3408,22 @@
       <c r="AJ8" t="s">
         <v>137</v>
       </c>
+      <c r="AQ8">
+        <v>45</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>137</v>
+      </c>
       <c r="PS8" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT8" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT8" s="3">
+      <c r="PU8" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU8" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV8">
@@ -3401,8 +3431,8 @@
         <v>0</v>
       </c>
       <c r="PW8">
-        <f t="shared" si="37"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -3410,75 +3440,75 @@
         <v>118</v>
       </c>
       <c r="B9">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>135</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="L9" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="P9" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T9" s="3">
@@ -3494,51 +3524,51 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AA9">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI9">
@@ -3553,16 +3583,22 @@
       <c r="AN9" t="s">
         <v>137</v>
       </c>
+      <c r="AQ9">
+        <v>45</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>110</v>
+      </c>
       <c r="PS9" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT9" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT9" s="3">
+      <c r="PU9" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU9" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV9">
@@ -3570,8 +3606,8 @@
         <v>0</v>
       </c>
       <c r="PW9">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -3579,75 +3615,75 @@
         <v>119</v>
       </c>
       <c r="B10">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>135</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H10" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T10" s="3">
@@ -3663,51 +3699,51 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Z10" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AA10">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI10">
@@ -3722,16 +3758,22 @@
       <c r="AN10" t="s">
         <v>137</v>
       </c>
+      <c r="AQ10">
+        <v>45</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>110</v>
+      </c>
       <c r="PS10" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT10" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT10" s="3">
+      <c r="PU10" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU10" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV10">
@@ -3739,8 +3781,8 @@
         <v>0</v>
       </c>
       <c r="PW10">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -3748,75 +3790,75 @@
         <v>120</v>
       </c>
       <c r="B11">
+        <f t="shared" si="37"/>
+        <v>90</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="L11" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="P11" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T11" s="3">
@@ -3832,51 +3874,51 @@
         <v>0</v>
       </c>
       <c r="W11" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Z11" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AA11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI11">
@@ -3892,15 +3934,15 @@
         <v>110</v>
       </c>
       <c r="PS11" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT11" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT11" s="3">
+      <c r="PU11" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU11" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV11">
@@ -3908,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="PW11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
     </row>
@@ -3917,75 +3959,75 @@
         <v>121</v>
       </c>
       <c r="B12">
+        <f t="shared" si="37"/>
+        <v>160</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>160</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="8"/>
-        <v>115</v>
-      </c>
-      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T12" s="3">
@@ -4001,51 +4043,51 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AA12">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI12">
@@ -4060,16 +4102,22 @@
       <c r="AN12" t="s">
         <v>110</v>
       </c>
+      <c r="AQ12">
+        <v>45</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>137</v>
+      </c>
       <c r="PS12" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT12" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT12" s="3">
+      <c r="PU12" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU12" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV12">
@@ -4077,8 +4125,8 @@
         <v>0</v>
       </c>
       <c r="PW12">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -4086,75 +4134,75 @@
         <v>122</v>
       </c>
       <c r="B13">
+        <f t="shared" si="37"/>
+        <v>75</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>75</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="L13" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="P13" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T13" s="3">
@@ -4170,51 +4218,51 @@
         <v>0</v>
       </c>
       <c r="W13" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Z13" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AA13">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM13">
@@ -4223,16 +4271,22 @@
       <c r="AN13" t="s">
         <v>137</v>
       </c>
+      <c r="AQ13">
+        <v>45</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>110</v>
+      </c>
       <c r="PS13" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT13" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT13" s="3">
+      <c r="PU13" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU13" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV13">
@@ -4240,8 +4294,8 @@
         <v>0</v>
       </c>
       <c r="PW13">
-        <f t="shared" si="37"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -4249,75 +4303,75 @@
         <v>123</v>
       </c>
       <c r="B14">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>135</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T14" s="3">
@@ -4333,51 +4387,51 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Z14" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AA14">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI14">
@@ -4392,16 +4446,22 @@
       <c r="AN14" t="s">
         <v>137</v>
       </c>
+      <c r="AQ14">
+        <v>45</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>110</v>
+      </c>
       <c r="PS14" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT14" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT14" s="3">
+      <c r="PU14" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU14" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV14">
@@ -4409,8 +4469,8 @@
         <v>0</v>
       </c>
       <c r="PW14">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -4418,75 +4478,75 @@
         <v>124</v>
       </c>
       <c r="B15">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
+        <v>135</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="L15" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="P15" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T15" s="3">
@@ -4502,51 +4562,51 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Z15" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AA15">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI15">
@@ -4561,16 +4621,22 @@
       <c r="AN15" t="s">
         <v>110</v>
       </c>
+      <c r="AQ15">
+        <v>45</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>110</v>
+      </c>
       <c r="PS15" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT15" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT15" s="3">
+      <c r="PU15" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU15" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV15">
@@ -4578,8 +4644,8 @@
         <v>0</v>
       </c>
       <c r="PW15">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -4587,75 +4653,75 @@
         <v>125</v>
       </c>
       <c r="B16">
+        <f t="shared" si="37"/>
+        <v>90</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="L16" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="P16" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T16" s="3">
@@ -4671,51 +4737,51 @@
         <v>0</v>
       </c>
       <c r="W16" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF16">
+      <c r="AG16">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM16">
@@ -4727,16 +4793,22 @@
       <c r="AP16">
         <v>1</v>
       </c>
+      <c r="AQ16">
+        <v>45</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>110</v>
+      </c>
       <c r="PS16" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT16" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT16" s="3">
+      <c r="PU16" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU16" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV16">
@@ -4744,8 +4816,8 @@
         <v>0</v>
       </c>
       <c r="PW16">
-        <f t="shared" si="37"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -4753,75 +4825,75 @@
         <v>126</v>
       </c>
       <c r="B17">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
+        <v>135</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="L17" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="P17" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T17" s="3">
@@ -4837,51 +4909,51 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="4">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="X17" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE17">
+      <c r="AF17">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI17">
@@ -4899,16 +4971,22 @@
       <c r="AO17">
         <v>1</v>
       </c>
+      <c r="AQ17">
+        <v>45</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>137</v>
+      </c>
       <c r="PS17" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT17" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT17" s="3">
+      <c r="PU17" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU17" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV17">
@@ -4916,8 +4994,8 @@
         <v>0</v>
       </c>
       <c r="PW17">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -4925,75 +5003,75 @@
         <v>127</v>
       </c>
       <c r="B18">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
+        <v>135</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="L18" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="P18" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T18" s="3">
@@ -5009,51 +5087,51 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AA18">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI18">
@@ -5068,16 +5146,25 @@
       <c r="AN18" t="s">
         <v>110</v>
       </c>
+      <c r="AQ18">
+        <v>45</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
       <c r="PS18" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT18" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT18" s="3">
+      <c r="PU18" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU18" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV18">
@@ -5085,8 +5172,8 @@
         <v>0</v>
       </c>
       <c r="PW18">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -5094,75 +5181,75 @@
         <v>128</v>
       </c>
       <c r="B19">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
+        <v>135</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="L19" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="P19" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T19" s="3">
@@ -5178,51 +5265,51 @@
         <v>0</v>
       </c>
       <c r="W19" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Z19" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AA19">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI19">
@@ -5237,16 +5324,22 @@
       <c r="AN19" t="s">
         <v>137</v>
       </c>
+      <c r="AQ19">
+        <v>45</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>110</v>
+      </c>
       <c r="PS19" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT19" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT19" s="3">
+      <c r="PU19" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU19" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV19">
@@ -5254,8 +5347,8 @@
         <v>0</v>
       </c>
       <c r="PW19">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -5263,75 +5356,75 @@
         <v>129</v>
       </c>
       <c r="B20">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
+        <v>135</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="L20" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="P20" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T20" s="3">
@@ -5347,51 +5440,51 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Z20" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AA20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI20">
@@ -5406,16 +5499,25 @@
       <c r="AN20" t="s">
         <v>110</v>
       </c>
+      <c r="AQ20">
+        <v>45</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
       <c r="PS20" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT20" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT20" s="3">
+      <c r="PU20" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU20" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV20">
@@ -5423,8 +5525,8 @@
         <v>0</v>
       </c>
       <c r="PW20">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -5432,75 +5534,75 @@
         <v>130</v>
       </c>
       <c r="B21">
+        <f t="shared" si="37"/>
+        <v>65</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
+        <v>65</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="L21" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="P21" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T21" s="3">
@@ -5516,51 +5618,51 @@
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Z21" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AA21">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI21">
@@ -5575,16 +5677,22 @@
       <c r="AN21" t="s">
         <v>137</v>
       </c>
+      <c r="AQ21">
+        <v>30</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>137</v>
+      </c>
       <c r="PS21" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT21" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT21" s="3">
+      <c r="PU21" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU21" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV21">
@@ -5592,8 +5700,8 @@
         <v>0</v>
       </c>
       <c r="PW21">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:439" x14ac:dyDescent="0.2">
@@ -5601,75 +5709,75 @@
         <v>131</v>
       </c>
       <c r="B22">
+        <f t="shared" si="37"/>
+        <v>150</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
+        <v>150</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="8"/>
-        <v>106</v>
-      </c>
-      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="L22" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="P22" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T22" s="3">
@@ -5685,51 +5793,51 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="X22" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE22">
+      <c r="AF22">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI22">
@@ -5747,16 +5855,22 @@
       <c r="AN22" t="s">
         <v>110</v>
       </c>
+      <c r="AQ22">
+        <v>45</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>110</v>
+      </c>
       <c r="PS22" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT22" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT22" s="3">
+      <c r="PU22" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU22" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV22">
@@ -5764,8 +5878,8 @@
         <v>0</v>
       </c>
       <c r="PW22">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -5773,75 +5887,75 @@
         <v>132</v>
       </c>
       <c r="B23">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="H23" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="L23" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="P23" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T23" s="3">
@@ -5857,63 +5971,63 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Z23" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AA23">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AH23">
+      <c r="PS23" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="PS23" s="3">
+      <c r="PT23" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT23" s="3">
+      <c r="PU23" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU23" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV23">
@@ -5921,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="PW23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -5930,75 +6044,75 @@
         <v>133</v>
       </c>
       <c r="B24">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>135</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="L24" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="P24" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T24" s="3">
@@ -6014,51 +6128,51 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Z24" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AA24">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI24">
@@ -6073,16 +6187,22 @@
       <c r="AN24" t="s">
         <v>110</v>
       </c>
+      <c r="AQ24">
+        <v>45</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>110</v>
+      </c>
       <c r="PS24" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT24" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT24" s="3">
+      <c r="PU24" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU24" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV24">
@@ -6090,8 +6210,8 @@
         <v>0</v>
       </c>
       <c r="PW24">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -6099,75 +6219,75 @@
         <v>134</v>
       </c>
       <c r="B25">
+        <f t="shared" si="37"/>
+        <v>90</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
+        <v>90</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H25" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="L25" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="P25" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T25" s="3">
@@ -6183,51 +6303,51 @@
         <v>0</v>
       </c>
       <c r="W25" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="X25" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE25">
+      <c r="AF25">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI25">
@@ -6246,15 +6366,15 @@
         <v>137</v>
       </c>
       <c r="PS25" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT25" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT25" s="3">
+      <c r="PU25" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU25" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV25">
@@ -6262,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="PW25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
     </row>
@@ -6271,75 +6391,75 @@
         <v>136</v>
       </c>
       <c r="B26">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
+        <v>135</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H26" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="L26" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="P26" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T26" s="3">
@@ -6355,51 +6475,51 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="X26" s="4">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="X26" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
+      <c r="AF26">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI26">
@@ -6417,16 +6537,22 @@
       <c r="AN26" t="s">
         <v>110</v>
       </c>
+      <c r="AQ26">
+        <v>45</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>137</v>
+      </c>
       <c r="PS26" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="PT26" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT26" s="3">
+      <c r="PU26" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU26" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV26">
@@ -6434,8 +6560,8 @@
         <v>0</v>
       </c>
       <c r="PW26">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">
@@ -6443,75 +6569,75 @@
         <v>135</v>
       </c>
       <c r="B27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="H27" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K27">
+      <c r="L27" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="P27" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T27" s="3">
@@ -6527,63 +6653,63 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Y27" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Z27" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AA27">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AH27">
+      <c r="PS27" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="PS27" s="3">
+      <c r="PT27" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT27" s="3">
+      <c r="PU27" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU27" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV27">
@@ -6591,81 +6717,81 @@
         <v>0</v>
       </c>
       <c r="PW27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:439" x14ac:dyDescent="0.2">
       <c r="B28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="H28" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K28">
+      <c r="L28" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O28">
+      <c r="P28" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R28" s="3">
+      <c r="S28">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T28" s="3">
@@ -6681,63 +6807,63 @@
         <v>0</v>
       </c>
       <c r="W28" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Y28" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Z28" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="AA28">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AH28">
+      <c r="PS28" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="PS28" s="3">
+      <c r="PT28" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT28" s="3">
+      <c r="PU28" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU28" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV28">
@@ -6745,81 +6871,81 @@
         <v>0</v>
       </c>
       <c r="PW28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:439" x14ac:dyDescent="0.2">
       <c r="B29">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="H29" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K29">
+      <c r="L29" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O29">
+      <c r="P29" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T29" s="3">
@@ -6835,63 +6961,63 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y29" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Z29" s="4">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AA29">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AH29">
+      <c r="PS29" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="PS29" s="3">
+      <c r="PT29" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="PT29" s="3">
+      <c r="PU29" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="PU29" s="3">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="PV29">
@@ -6899,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="PW29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8A5B2-06B2-4543-A4B8-2D5F4D68F330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60330A7F-A784-3B40-B5F1-15FC6EC0F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -440,9 +440,6 @@
     <t>Yoan Zouma</t>
   </si>
   <si>
-    <t>Ilyes Bougahnmi</t>
-  </si>
-  <si>
     <t>Yoann Martelat</t>
   </si>
   <si>
@@ -450,6 +447,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Ilyes Boughanmi</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2567,7 +2567,7 @@
         <v>45</v>
       </c>
       <c r="AN3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
@@ -2730,13 +2730,13 @@
         <v>45</v>
       </c>
       <c r="AJ4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ4">
         <v>45</v>
       </c>
       <c r="AR4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
@@ -3080,13 +3080,13 @@
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ6">
         <v>45</v>
       </c>
       <c r="AR6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
@@ -3406,13 +3406,13 @@
         <v>45</v>
       </c>
       <c r="AJ8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ8">
         <v>45</v>
       </c>
       <c r="AR8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
@@ -3581,7 +3581,7 @@
         <v>45</v>
       </c>
       <c r="AN9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ9">
         <v>45</v>
@@ -3750,13 +3750,13 @@
         <v>45</v>
       </c>
       <c r="AJ10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM10">
         <v>45</v>
       </c>
       <c r="AN10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ10">
         <v>45</v>
@@ -4106,7 +4106,7 @@
         <v>45</v>
       </c>
       <c r="AR12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
@@ -4269,7 +4269,7 @@
         <v>30</v>
       </c>
       <c r="AN13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ13">
         <v>45</v>
@@ -4444,7 +4444,7 @@
         <v>45</v>
       </c>
       <c r="AN14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ14">
         <v>45</v>
@@ -4613,7 +4613,7 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM15">
         <v>45</v>
@@ -4788,7 +4788,7 @@
         <v>45</v>
       </c>
       <c r="AN16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AP16">
         <v>1</v>
@@ -4966,7 +4966,7 @@
         <v>45</v>
       </c>
       <c r="AN17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -4975,7 +4975,7 @@
         <v>45</v>
       </c>
       <c r="AR17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
@@ -5150,7 +5150,7 @@
         <v>45</v>
       </c>
       <c r="AR18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -5316,13 +5316,13 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM19">
         <v>45</v>
       </c>
       <c r="AN19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ19">
         <v>45</v>
@@ -5503,7 +5503,7 @@
         <v>45</v>
       </c>
       <c r="AR20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS20">
         <v>1</v>
@@ -5669,19 +5669,19 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM21">
         <v>15</v>
       </c>
       <c r="AN21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ21">
         <v>30</v>
       </c>
       <c r="AR21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
@@ -6179,7 +6179,7 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM24">
         <v>45</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
@@ -6354,7 +6354,7 @@
         <v>45</v>
       </c>
       <c r="AJ25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK25">
         <v>1</v>
@@ -6363,7 +6363,7 @@
         <v>45</v>
       </c>
       <c r="AN25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
@@ -6526,7 +6526,7 @@
         <v>45</v>
       </c>
       <c r="AJ26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK26">
         <v>1</v>
@@ -6541,7 +6541,7 @@
         <v>45</v>
       </c>
       <c r="AR26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27">
         <f t="shared" si="37"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60330A7F-A784-3B40-B5F1-15FC6EC0F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBB072C-A0A0-C047-82ED-942B242C1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="138">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -923,8 +923,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B30" sqref="B30"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
@@ -2274,15 +2274,15 @@
       </c>
       <c r="F2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2)</f>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2406,6 +2406,12 @@
       <c r="AR2" t="s">
         <v>110</v>
       </c>
+      <c r="AU2">
+        <v>60</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>110</v>
+      </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
         <v>0</v>
@@ -2424,7 +2430,7 @@
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2596,7 +2602,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <f t="shared" si="4"/>
@@ -2612,19 +2618,19 @@
       </c>
       <c r="F4">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
@@ -2738,6 +2744,18 @@
       <c r="AR4" t="s">
         <v>136</v>
       </c>
+      <c r="AU4">
+        <v>30</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY4">
+        <v>90</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>110</v>
+      </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
         <v>0</v>
@@ -2756,7 +2774,7 @@
       </c>
       <c r="PW4">
         <f t="shared" ref="PW4" si="66">G4-(K4+O4+S4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:439" x14ac:dyDescent="0.2">
@@ -2765,7 +2783,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="C5">
         <f t="shared" si="4"/>
@@ -2781,19 +2799,19 @@
       </c>
       <c r="F5">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G5">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="11"/>
@@ -2913,6 +2931,18 @@
       <c r="AR5" t="s">
         <v>110</v>
       </c>
+      <c r="AU5">
+        <v>60</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY5">
+        <v>45</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>136</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -2931,7 +2961,7 @@
       </c>
       <c r="PW5">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -2940,7 +2970,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="37"/>
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="C6">
         <f t="shared" si="4"/>
@@ -2956,19 +2986,19 @@
       </c>
       <c r="F6">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="G6">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="11"/>
@@ -3088,6 +3118,18 @@
       <c r="AR6" t="s">
         <v>136</v>
       </c>
+      <c r="AU6">
+        <v>45</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY6">
+        <v>45</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>110</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3106,7 +3148,7 @@
       </c>
       <c r="PW6">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3115,7 +3157,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
@@ -3131,19 +3173,19 @@
       </c>
       <c r="F7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="11"/>
@@ -3245,6 +3287,18 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="AU7">
+        <v>30</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY7">
+        <v>60</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>110</v>
+      </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3263,7 +3317,7 @@
       </c>
       <c r="PW7">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:439" x14ac:dyDescent="0.2">
@@ -3272,7 +3326,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -3288,11 +3342,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="9"/>
@@ -3300,7 +3354,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="11"/>
@@ -3414,6 +3468,18 @@
       <c r="AR8" t="s">
         <v>136</v>
       </c>
+      <c r="AU8">
+        <v>30</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY8">
+        <v>30</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>136</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3432,7 +3498,7 @@
       </c>
       <c r="PW8">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -3441,7 +3507,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -3457,15 +3523,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="G9">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="10"/>
@@ -3533,7 +3599,7 @@
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="24"/>
@@ -3561,7 +3627,7 @@
       </c>
       <c r="AF9">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="31"/>
@@ -3589,6 +3655,21 @@
       <c r="AR9" t="s">
         <v>110</v>
       </c>
+      <c r="AU9">
+        <v>60</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>60</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>110</v>
+      </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3607,7 +3688,7 @@
       </c>
       <c r="PW9">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -3616,7 +3697,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -3632,11 +3713,11 @@
       </c>
       <c r="F10">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="G10">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="9"/>
@@ -3644,7 +3725,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="11"/>
@@ -3764,6 +3845,18 @@
       <c r="AR10" t="s">
         <v>110</v>
       </c>
+      <c r="AU10">
+        <v>45</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY10">
+        <v>45</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>136</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3782,7 +3875,7 @@
       </c>
       <c r="PW10">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -3791,7 +3884,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -3807,15 +3900,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G11">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
@@ -3933,6 +4026,18 @@
       <c r="AN11" t="s">
         <v>110</v>
       </c>
+      <c r="AU11">
+        <v>45</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY11">
+        <v>45</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>110</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3951,7 +4056,7 @@
       </c>
       <c r="PW11">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -3960,7 +4065,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="37"/>
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -3976,15 +4081,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="10"/>
@@ -4108,6 +4213,18 @@
       <c r="AR12" t="s">
         <v>136</v>
       </c>
+      <c r="AU12">
+        <v>60</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY12">
+        <v>70</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>110</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4126,7 +4243,7 @@
       </c>
       <c r="PW12">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -4135,7 +4252,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="37"/>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -4151,15 +4268,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="G13">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="10"/>
@@ -4277,6 +4394,18 @@
       <c r="AR13" t="s">
         <v>110</v>
       </c>
+      <c r="AU13">
+        <v>45</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY13">
+        <v>60</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>110</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4295,7 +4424,7 @@
       </c>
       <c r="PW13">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -4304,7 +4433,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -4320,11 +4449,11 @@
       </c>
       <c r="F14">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="G14">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="9"/>
@@ -4332,7 +4461,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="11"/>
@@ -4452,6 +4581,18 @@
       <c r="AR14" t="s">
         <v>110</v>
       </c>
+      <c r="AU14">
+        <v>45</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY14">
+        <v>45</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>136</v>
+      </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4470,7 +4611,7 @@
       </c>
       <c r="PW14">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -4479,7 +4620,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -4495,15 +4636,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="G15">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="10"/>
@@ -4563,7 +4704,7 @@
       </c>
       <c r="W15" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="4">
         <f t="shared" si="22"/>
@@ -4595,7 +4736,7 @@
       </c>
       <c r="AE15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <f t="shared" si="30"/>
@@ -4627,6 +4768,21 @@
       <c r="AR15" t="s">
         <v>110</v>
       </c>
+      <c r="AU15">
+        <v>60</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>60</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>110</v>
+      </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4645,7 +4801,7 @@
       </c>
       <c r="PW15">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -4654,7 +4810,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -4670,15 +4826,15 @@
       </c>
       <c r="F16">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="10"/>
@@ -4799,6 +4955,18 @@
       <c r="AR16" t="s">
         <v>110</v>
       </c>
+      <c r="AU16">
+        <v>45</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY16">
+        <v>60</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>110</v>
+      </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4817,7 +4985,7 @@
       </c>
       <c r="PW16">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -5004,7 +5172,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -5020,19 +5188,19 @@
       </c>
       <c r="F18">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="G18">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="11"/>
@@ -5155,6 +5323,18 @@
       <c r="AT18">
         <v>1</v>
       </c>
+      <c r="AU18">
+        <v>45</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY18">
+        <v>45</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>110</v>
+      </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5173,7 +5353,7 @@
       </c>
       <c r="PW18">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -5182,7 +5362,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -5198,15 +5378,15 @@
       </c>
       <c r="F19">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="G19">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="10"/>
@@ -5330,6 +5510,12 @@
       <c r="AR19" t="s">
         <v>110</v>
       </c>
+      <c r="AU19">
+        <v>60</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>110</v>
+      </c>
       <c r="PS19" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5348,7 +5534,7 @@
       </c>
       <c r="PW19">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -5357,7 +5543,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -5373,19 +5559,19 @@
       </c>
       <c r="F20">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="11"/>
@@ -5508,6 +5694,18 @@
       <c r="AS20">
         <v>1</v>
       </c>
+      <c r="AU20">
+        <v>20</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY20">
+        <v>45</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>136</v>
+      </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5526,7 +5724,7 @@
       </c>
       <c r="PW20">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -5535,7 +5733,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="37"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
@@ -5551,11 +5749,11 @@
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G21">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="9"/>
@@ -5563,7 +5761,7 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="11"/>
@@ -5683,6 +5881,18 @@
       <c r="AR21" t="s">
         <v>136</v>
       </c>
+      <c r="AU21">
+        <v>30</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY21">
+        <v>20</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>136</v>
+      </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5701,7 +5911,7 @@
       </c>
       <c r="PW21">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:439" x14ac:dyDescent="0.2">
@@ -5710,7 +5920,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -5726,15 +5936,15 @@
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="10"/>
@@ -5794,7 +6004,7 @@
       </c>
       <c r="W22" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X22" s="4">
         <f t="shared" si="22"/>
@@ -5826,7 +6036,7 @@
       </c>
       <c r="AE22">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF22">
         <f t="shared" si="30"/>
@@ -5861,6 +6071,21 @@
       <c r="AR22" t="s">
         <v>110</v>
       </c>
+      <c r="AU22">
+        <v>60</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>70</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>110</v>
+      </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5879,7 +6104,7 @@
       </c>
       <c r="PW22">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -6045,7 +6270,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -6061,11 +6286,11 @@
       </c>
       <c r="F24">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="9"/>
@@ -6073,7 +6298,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="11"/>
@@ -6193,6 +6418,12 @@
       <c r="AR24" t="s">
         <v>110</v>
       </c>
+      <c r="AU24">
+        <v>45</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>136</v>
+      </c>
       <c r="PS24" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -6211,7 +6442,7 @@
       </c>
       <c r="PW24">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -6220,7 +6451,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -6236,11 +6467,11 @@
       </c>
       <c r="F25">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="9"/>
@@ -6248,7 +6479,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="11"/>
@@ -6365,6 +6596,12 @@
       <c r="AN25" t="s">
         <v>136</v>
       </c>
+      <c r="AY25">
+        <v>30</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>136</v>
+      </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -6383,7 +6620,7 @@
       </c>
       <c r="PW25">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
@@ -6392,7 +6629,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -6408,11 +6645,11 @@
       </c>
       <c r="F26">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="9"/>
@@ -6420,7 +6657,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="11"/>
@@ -6543,6 +6780,18 @@
       <c r="AR26" t="s">
         <v>136</v>
       </c>
+      <c r="AU26">
+        <v>30</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY26">
+        <v>30</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>136</v>
+      </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -6561,7 +6810,7 @@
       </c>
       <c r="PW26">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBB072C-A0A0-C047-82ED-942B242C1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18607A-A1AB-EE4A-A35C-1D8CDD188F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="138">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -923,8 +923,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC16" sqref="BC16"/>
+      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF22" sqref="BF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
@@ -2274,15 +2274,15 @@
       </c>
       <c r="F2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2)</f>
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2412,6 +2412,12 @@
       <c r="AV2" t="s">
         <v>110</v>
       </c>
+      <c r="BC2">
+        <v>90</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>110</v>
+      </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
         <v>0</v>
@@ -2430,7 +2436,7 @@
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2783,7 +2789,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <f t="shared" si="4"/>
@@ -2799,15 +2805,15 @@
       </c>
       <c r="F5">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="G5">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="10"/>
@@ -2943,6 +2949,12 @@
       <c r="AZ5" t="s">
         <v>136</v>
       </c>
+      <c r="BC5">
+        <v>60</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>110</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -2961,7 +2973,7 @@
       </c>
       <c r="PW5">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -2970,7 +2982,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="37"/>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C6">
         <f t="shared" si="4"/>
@@ -2986,11 +2998,11 @@
       </c>
       <c r="F6">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="9"/>
@@ -2998,7 +3010,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="11"/>
@@ -3130,6 +3142,12 @@
       <c r="AZ6" t="s">
         <v>110</v>
       </c>
+      <c r="BC6">
+        <v>30</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>136</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3148,7 +3166,7 @@
       </c>
       <c r="PW6">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3157,7 +3175,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
@@ -3173,15 +3191,15 @@
       </c>
       <c r="F7">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="10"/>
@@ -3299,6 +3317,12 @@
       <c r="AZ7" t="s">
         <v>110</v>
       </c>
+      <c r="BC7">
+        <v>70</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>110</v>
+      </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3317,7 +3341,7 @@
       </c>
       <c r="PW7">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:439" x14ac:dyDescent="0.2">
@@ -3326,7 +3350,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -3342,11 +3366,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G8">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="9"/>
@@ -3354,7 +3378,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="11"/>
@@ -3480,6 +3504,12 @@
       <c r="AZ8" t="s">
         <v>136</v>
       </c>
+      <c r="BC8">
+        <v>20</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>136</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3498,7 +3528,7 @@
       </c>
       <c r="PW8">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -3507,7 +3537,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -3523,15 +3553,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="G9">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="10"/>
@@ -3670,6 +3700,12 @@
       <c r="AZ9" t="s">
         <v>110</v>
       </c>
+      <c r="BC9">
+        <v>70</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>110</v>
+      </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3688,7 +3724,7 @@
       </c>
       <c r="PW9">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -3697,7 +3733,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -3713,15 +3749,15 @@
       </c>
       <c r="F10">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="G10">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="10"/>
@@ -3857,6 +3893,12 @@
       <c r="AZ10" t="s">
         <v>136</v>
       </c>
+      <c r="BC10">
+        <v>70</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>110</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3875,7 +3917,7 @@
       </c>
       <c r="PW10">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -3884,7 +3926,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -3900,11 +3942,11 @@
       </c>
       <c r="F11">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G11">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
@@ -3912,7 +3954,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="11"/>
@@ -4038,6 +4080,12 @@
       <c r="AZ11" t="s">
         <v>110</v>
       </c>
+      <c r="BC11">
+        <v>20</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>136</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4056,7 +4104,7 @@
       </c>
       <c r="PW11">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -4065,7 +4113,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="37"/>
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -4081,15 +4129,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="G12">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="10"/>
@@ -4225,6 +4273,12 @@
       <c r="AZ12" t="s">
         <v>110</v>
       </c>
+      <c r="BC12">
+        <v>76</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>110</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4243,7 +4297,7 @@
       </c>
       <c r="PW12">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -4252,7 +4306,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="37"/>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -4268,15 +4322,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G13">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="10"/>
@@ -4406,6 +4460,12 @@
       <c r="AZ13" t="s">
         <v>110</v>
       </c>
+      <c r="BC13">
+        <v>60</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>110</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4424,7 +4484,7 @@
       </c>
       <c r="PW13">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -4433,7 +4493,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -4449,11 +4509,11 @@
       </c>
       <c r="F14">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="9"/>
@@ -4461,7 +4521,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="11"/>
@@ -4593,6 +4653,12 @@
       <c r="AZ14" t="s">
         <v>136</v>
       </c>
+      <c r="BC14">
+        <v>30</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>136</v>
+      </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4611,7 +4677,7 @@
       </c>
       <c r="PW14">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -4620,7 +4686,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -4636,15 +4702,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="G15">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="10"/>
@@ -4704,7 +4770,7 @@
       </c>
       <c r="W15" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" s="4">
         <f t="shared" si="22"/>
@@ -4736,7 +4802,7 @@
       </c>
       <c r="AE15">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="30"/>
@@ -4783,6 +4849,15 @@
       <c r="AZ15" t="s">
         <v>110</v>
       </c>
+      <c r="BC15">
+        <v>60</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4801,7 +4876,7 @@
       </c>
       <c r="PW15">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -4810,7 +4885,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -4826,15 +4901,15 @@
       </c>
       <c r="F16">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="10"/>
@@ -4967,6 +5042,12 @@
       <c r="AZ16" t="s">
         <v>110</v>
       </c>
+      <c r="BC16">
+        <v>60</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>110</v>
+      </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4985,7 +5066,7 @@
       </c>
       <c r="PW16">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -4994,7 +5075,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
@@ -5010,15 +5091,15 @@
       </c>
       <c r="F17">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="G17">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="10"/>
@@ -5086,7 +5167,7 @@
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="24"/>
@@ -5114,7 +5195,7 @@
       </c>
       <c r="AF17">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
         <f t="shared" si="31"/>
@@ -5145,6 +5226,15 @@
       <c r="AR17" t="s">
         <v>136</v>
       </c>
+      <c r="BC17">
+        <v>45</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5163,7 +5253,7 @@
       </c>
       <c r="PW17">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -5172,7 +5262,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -5188,11 +5278,11 @@
       </c>
       <c r="F18">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G18">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="9"/>
@@ -5200,7 +5290,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="11"/>
@@ -5335,6 +5425,12 @@
       <c r="AZ18" t="s">
         <v>110</v>
       </c>
+      <c r="BC18">
+        <v>30</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>136</v>
+      </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5353,7 +5449,7 @@
       </c>
       <c r="PW18">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -5543,7 +5639,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -5559,11 +5655,11 @@
       </c>
       <c r="F20">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
@@ -5571,7 +5667,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="11"/>
@@ -5627,7 +5723,7 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
@@ -5659,7 +5755,7 @@
       </c>
       <c r="AE20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF20">
         <f t="shared" si="30"/>
@@ -5706,6 +5802,15 @@
       <c r="AZ20" t="s">
         <v>136</v>
       </c>
+      <c r="BC20">
+        <v>45</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5724,7 +5829,7 @@
       </c>
       <c r="PW20">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -5920,7 +6025,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -5936,15 +6041,15 @@
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="10"/>
@@ -6086,6 +6191,12 @@
       <c r="AZ22" t="s">
         <v>110</v>
       </c>
+      <c r="BC22">
+        <v>90</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>110</v>
+      </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -6104,7 +6215,7 @@
       </c>
       <c r="PW22">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -6451,7 +6562,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -6467,11 +6578,11 @@
       </c>
       <c r="F25">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="9"/>
@@ -6479,7 +6590,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="11"/>
@@ -6602,6 +6713,12 @@
       <c r="AZ25" t="s">
         <v>136</v>
       </c>
+      <c r="BC25">
+        <v>15</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>136</v>
+      </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -6620,7 +6737,7 @@
       </c>
       <c r="PW25">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
@@ -6629,7 +6746,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -6645,11 +6762,11 @@
       </c>
       <c r="F26">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="9"/>
@@ -6657,7 +6774,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="11"/>
@@ -6792,6 +6909,12 @@
       <c r="AZ26" t="s">
         <v>136</v>
       </c>
+      <c r="BC26">
+        <v>30</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>136</v>
+      </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -6810,7 +6933,7 @@
       </c>
       <c r="PW26">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18607A-A1AB-EE4A-A35C-1D8CDD188F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE315EF-93B6-E84B-A907-341B2C295C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="138">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -923,8 +923,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF22" sqref="BF22"/>
+      <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB18" sqref="DB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>285</v>
+        <v>375</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2416,6 +2416,12 @@
         <v>90</v>
       </c>
       <c r="BD2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY2">
+        <v>90</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>110</v>
       </c>
       <c r="PS2" s="3">
@@ -2789,11 +2795,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="C5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <f t="shared" si="5"/>
@@ -2809,11 +2815,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="10"/>
@@ -2825,11 +2831,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="14"/>
@@ -2953,6 +2959,12 @@
         <v>60</v>
       </c>
       <c r="BD5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY5">
+        <v>90</v>
+      </c>
+      <c r="CZ5" t="s">
         <v>110</v>
       </c>
       <c r="PS5" s="3">
@@ -3537,11 +3549,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <f t="shared" si="5"/>
@@ -3557,11 +3569,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="10"/>
@@ -3573,11 +3585,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="14"/>
@@ -3704,6 +3716,12 @@
         <v>70</v>
       </c>
       <c r="BD9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY9">
+        <v>90</v>
+      </c>
+      <c r="CZ9" t="s">
         <v>110</v>
       </c>
       <c r="PS9" s="3">
@@ -3733,11 +3751,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <f t="shared" si="5"/>
@@ -3753,11 +3771,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="10"/>
@@ -3769,11 +3787,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="14"/>
@@ -3897,6 +3915,12 @@
         <v>70</v>
       </c>
       <c r="BD10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY10">
+        <v>81</v>
+      </c>
+      <c r="CZ10" t="s">
         <v>110</v>
       </c>
       <c r="PS10" s="3">
@@ -3926,11 +3950,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
@@ -3946,7 +3970,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
@@ -3954,7 +3978,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="11"/>
@@ -3962,7 +3986,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="13"/>
@@ -3970,7 +3994,7 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="15"/>
@@ -4084,6 +4108,12 @@
         <v>20</v>
       </c>
       <c r="BD11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CY11">
+        <v>9</v>
+      </c>
+      <c r="CZ11" t="s">
         <v>136</v>
       </c>
       <c r="PS11" s="3">
@@ -4113,11 +4143,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="37"/>
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <f t="shared" si="5"/>
@@ -4133,11 +4163,11 @@
       </c>
       <c r="G12">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="10"/>
@@ -4149,11 +4179,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="14"/>
@@ -4277,6 +4307,12 @@
         <v>76</v>
       </c>
       <c r="BD12" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY12">
+        <v>90</v>
+      </c>
+      <c r="CZ12" t="s">
         <v>110</v>
       </c>
       <c r="PS12" s="3">
@@ -4493,11 +4529,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
@@ -4513,11 +4549,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="10"/>
@@ -4529,11 +4565,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="14"/>
@@ -4658,6 +4694,12 @@
       </c>
       <c r="BD14" t="s">
         <v>136</v>
+      </c>
+      <c r="CY14">
+        <v>90</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>110</v>
       </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
@@ -4686,11 +4728,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
@@ -4706,11 +4748,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="10"/>
@@ -4722,11 +4764,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="14"/>
@@ -4770,11 +4812,11 @@
       </c>
       <c r="W15" s="3">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X15" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="23"/>
@@ -4786,7 +4828,7 @@
       </c>
       <c r="AA15">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <f t="shared" si="26"/>
@@ -4856,6 +4898,15 @@
         <v>110</v>
       </c>
       <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="CY15">
+        <v>76</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA15">
         <v>1</v>
       </c>
       <c r="PS15" s="3">
@@ -4885,11 +4936,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
@@ -4905,11 +4956,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="10"/>
@@ -4921,11 +4972,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="14"/>
@@ -5046,6 +5097,12 @@
         <v>60</v>
       </c>
       <c r="BD16" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY16">
+        <v>90</v>
+      </c>
+      <c r="CZ16" t="s">
         <v>110</v>
       </c>
       <c r="PS16" s="3">
@@ -5639,11 +5696,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
@@ -5659,11 +5716,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
@@ -5675,11 +5732,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="14"/>
@@ -5723,11 +5780,11 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
@@ -5739,7 +5796,7 @@
       </c>
       <c r="AA20">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
@@ -5809,6 +5866,15 @@
         <v>136</v>
       </c>
       <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="CY20">
+        <v>86</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA20">
         <v>1</v>
       </c>
       <c r="PS20" s="3">
@@ -6025,11 +6091,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
@@ -6045,11 +6111,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="10"/>
@@ -6061,11 +6127,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="14"/>
@@ -6195,6 +6261,12 @@
         <v>90</v>
       </c>
       <c r="BD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY22">
+        <v>90</v>
+      </c>
+      <c r="CZ22" t="s">
         <v>110</v>
       </c>
       <c r="PS22" s="3">
@@ -6381,11 +6453,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
@@ -6401,11 +6473,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
@@ -6417,11 +6489,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="14"/>
@@ -6534,6 +6606,12 @@
       </c>
       <c r="AV24" t="s">
         <v>136</v>
+      </c>
+      <c r="CY24">
+        <v>90</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>110</v>
       </c>
       <c r="PS24" s="3">
         <f t="shared" si="33"/>
@@ -6562,11 +6640,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
@@ -6582,7 +6660,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="9"/>
@@ -6590,7 +6668,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="11"/>
@@ -6598,7 +6676,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="13"/>
@@ -6606,7 +6684,7 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="15"/>
@@ -6717,6 +6795,12 @@
         <v>15</v>
       </c>
       <c r="BD25" t="s">
+        <v>136</v>
+      </c>
+      <c r="CY25">
+        <v>14</v>
+      </c>
+      <c r="CZ25" t="s">
         <v>136</v>
       </c>
       <c r="PS25" s="3">
@@ -6746,11 +6830,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
@@ -6766,7 +6850,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="9"/>
@@ -6774,7 +6858,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="11"/>
@@ -6782,7 +6866,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="13"/>
@@ -6790,7 +6874,7 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="15"/>
@@ -6913,6 +6997,12 @@
         <v>30</v>
       </c>
       <c r="BD26" t="s">
+        <v>136</v>
+      </c>
+      <c r="CY26">
+        <v>4</v>
+      </c>
+      <c r="CZ26" t="s">
         <v>136</v>
       </c>
       <c r="PS26" s="3">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE315EF-93B6-E84B-A907-341B2C295C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788F4CF6-55ED-364A-AC80-BA56C40C30EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="138">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -923,8 +923,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB18" sqref="DB18"/>
+      <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DH16" sqref="DH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2422,6 +2422,12 @@
         <v>90</v>
       </c>
       <c r="CZ2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC2">
+        <v>90</v>
+      </c>
+      <c r="DD2" t="s">
         <v>110</v>
       </c>
       <c r="PS2" s="3">
@@ -2795,11 +2801,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="C5">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D5">
         <f t="shared" si="5"/>
@@ -2815,11 +2821,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="10"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="14"/>
@@ -2965,6 +2971,12 @@
         <v>90</v>
       </c>
       <c r="CZ5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC5">
+        <v>90</v>
+      </c>
+      <c r="DD5" t="s">
         <v>110</v>
       </c>
       <c r="PS5" s="3">
@@ -3549,11 +3561,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D9">
         <f t="shared" si="5"/>
@@ -3569,11 +3581,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="10"/>
@@ -3585,11 +3597,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="14"/>
@@ -3722,6 +3734,12 @@
         <v>90</v>
       </c>
       <c r="CZ9" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC9">
+        <v>90</v>
+      </c>
+      <c r="DD9" t="s">
         <v>110</v>
       </c>
       <c r="PS9" s="3">
@@ -3950,11 +3968,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
@@ -3970,11 +3988,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
@@ -3986,11 +4004,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="14"/>
@@ -4115,6 +4133,12 @@
       </c>
       <c r="CZ11" t="s">
         <v>136</v>
+      </c>
+      <c r="DC11">
+        <v>78</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>110</v>
       </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
@@ -4143,11 +4167,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="37"/>
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D12">
         <f t="shared" si="5"/>
@@ -4163,11 +4187,11 @@
       </c>
       <c r="G12">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="10"/>
@@ -4179,11 +4203,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="14"/>
@@ -4313,6 +4337,12 @@
         <v>90</v>
       </c>
       <c r="CZ12" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC12">
+        <v>49</v>
+      </c>
+      <c r="DD12" t="s">
         <v>110</v>
       </c>
       <c r="PS12" s="3">
@@ -4342,11 +4372,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="37"/>
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <f t="shared" si="5"/>
@@ -4362,11 +4392,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="10"/>
@@ -4378,11 +4408,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="14"/>
@@ -4500,6 +4530,12 @@
         <v>60</v>
       </c>
       <c r="BD13" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC13">
+        <v>65</v>
+      </c>
+      <c r="DD13" t="s">
         <v>110</v>
       </c>
       <c r="PS13" s="3">
@@ -4529,11 +4565,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
@@ -4549,7 +4585,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="9"/>
@@ -4557,7 +4593,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="11"/>
@@ -4565,7 +4601,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="13"/>
@@ -4573,7 +4609,7 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="15"/>
@@ -4700,6 +4736,12 @@
       </c>
       <c r="CZ14" t="s">
         <v>110</v>
+      </c>
+      <c r="DC14">
+        <v>25</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>136</v>
       </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
@@ -4728,11 +4770,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
@@ -4748,11 +4790,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="10"/>
@@ -4764,11 +4806,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="14"/>
@@ -4812,11 +4854,11 @@
       </c>
       <c r="W15" s="3">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X15" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="23"/>
@@ -4828,7 +4870,7 @@
       </c>
       <c r="AA15">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15">
         <f t="shared" si="26"/>
@@ -4907,6 +4949,15 @@
         <v>110</v>
       </c>
       <c r="DA15">
+        <v>1</v>
+      </c>
+      <c r="DC15">
+        <v>72</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>110</v>
+      </c>
+      <c r="DE15">
         <v>1</v>
       </c>
       <c r="PS15" s="3">
@@ -4936,11 +4987,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
@@ -4956,11 +5007,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="10"/>
@@ -4972,11 +5023,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="14"/>
@@ -5028,11 +5079,11 @@
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
@@ -5040,7 +5091,7 @@
       </c>
       <c r="AB16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
@@ -5104,6 +5155,15 @@
       </c>
       <c r="CZ16" t="s">
         <v>110</v>
+      </c>
+      <c r="DC16">
+        <v>90</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF16">
+        <v>1</v>
       </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
@@ -5319,11 +5379,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
@@ -5339,7 +5399,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="9"/>
@@ -5347,7 +5407,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="11"/>
@@ -5355,7 +5415,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="13"/>
@@ -5363,7 +5423,7 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="15"/>
@@ -5486,6 +5546,12 @@
         <v>30</v>
       </c>
       <c r="BD18" t="s">
+        <v>136</v>
+      </c>
+      <c r="DC18">
+        <v>18</v>
+      </c>
+      <c r="DD18" t="s">
         <v>136</v>
       </c>
       <c r="PS18" s="3">
@@ -5696,11 +5762,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>331</v>
+        <v>409</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
@@ -5716,11 +5782,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
@@ -5732,11 +5798,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="14"/>
@@ -5876,6 +5942,12 @@
       </c>
       <c r="DA20">
         <v>1</v>
+      </c>
+      <c r="DC20">
+        <v>78</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>110</v>
       </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
@@ -6091,11 +6163,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
@@ -6111,11 +6183,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="10"/>
@@ -6127,11 +6199,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="14"/>
@@ -6267,6 +6339,12 @@
         <v>90</v>
       </c>
       <c r="CZ22" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC22">
+        <v>90</v>
+      </c>
+      <c r="DD22" t="s">
         <v>110</v>
       </c>
       <c r="PS22" s="3">
@@ -6453,11 +6531,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
@@ -6473,11 +6551,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
@@ -6489,11 +6567,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="14"/>
@@ -6611,6 +6689,12 @@
         <v>90</v>
       </c>
       <c r="CZ24" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC24">
+        <v>90</v>
+      </c>
+      <c r="DD24" t="s">
         <v>110</v>
       </c>
       <c r="PS24" s="3">
@@ -6640,11 +6724,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
@@ -6660,7 +6744,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="9"/>
@@ -6668,7 +6752,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="11"/>
@@ -6676,7 +6760,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="13"/>
@@ -6684,7 +6768,7 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="15"/>
@@ -6801,6 +6885,12 @@
         <v>14</v>
       </c>
       <c r="CZ25" t="s">
+        <v>136</v>
+      </c>
+      <c r="DC25">
+        <v>12</v>
+      </c>
+      <c r="DD25" t="s">
         <v>136</v>
       </c>
       <c r="PS25" s="3">
@@ -6830,11 +6920,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
@@ -6850,7 +6940,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="9"/>
@@ -6858,7 +6948,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="11"/>
@@ -6866,7 +6956,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="13"/>
@@ -6874,7 +6964,7 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="15"/>
@@ -7003,6 +7093,12 @@
         <v>4</v>
       </c>
       <c r="CZ26" t="s">
+        <v>136</v>
+      </c>
+      <c r="DC26">
+        <v>12</v>
+      </c>
+      <c r="DD26" t="s">
         <v>136</v>
       </c>
       <c r="PS26" s="3">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788F4CF6-55ED-364A-AC80-BA56C40C30EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160C0775-87C4-5A41-891C-4FA1B9042C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="140">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Ilyes Boughanmi</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>HG</t>
   </si>
 </sst>
 </file>
@@ -923,8 +929,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DH16" sqref="DH16"/>
+      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DG24" sqref="DG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2593,13 +2599,19 @@
       <c r="AN3" t="s">
         <v>136</v>
       </c>
+      <c r="CZ3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>139</v>
+      </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2774,13 +2786,19 @@
       <c r="AZ4" t="s">
         <v>110</v>
       </c>
+      <c r="CZ4" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>139</v>
+      </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT4" s="3">
         <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU4" s="3">
         <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
@@ -3038,7 +3056,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="12"/>
@@ -3054,7 +3072,7 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="16"/>
@@ -3172,13 +3190,19 @@
       <c r="BD6" t="s">
         <v>136</v>
       </c>
+      <c r="CZ6" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>139</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3347,13 +3371,19 @@
       <c r="BD7" t="s">
         <v>110</v>
       </c>
+      <c r="CZ7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>139</v>
+      </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT7" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU7" s="3">
         <f t="shared" si="35"/>
@@ -3406,7 +3436,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="12"/>
@@ -3422,7 +3452,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="16"/>
@@ -3534,13 +3564,19 @@
       <c r="BD8" t="s">
         <v>136</v>
       </c>
+      <c r="CZ8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>138</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3941,13 +3977,16 @@
       <c r="CZ10" t="s">
         <v>110</v>
       </c>
+      <c r="DD10" t="s">
+        <v>139</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU10" s="3">
         <f t="shared" si="35"/>
@@ -4532,6 +4571,9 @@
       <c r="BD13" t="s">
         <v>110</v>
       </c>
+      <c r="CZ13" t="s">
+        <v>139</v>
+      </c>
       <c r="DC13">
         <v>65</v>
       </c>
@@ -4540,11 +4582,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5352,13 +5394,19 @@
       <c r="BF17">
         <v>1</v>
       </c>
+      <c r="CZ17" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>139</v>
+      </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT17" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU17" s="3">
         <f t="shared" si="35"/>
@@ -5548,6 +5596,9 @@
       <c r="BD18" t="s">
         <v>136</v>
       </c>
+      <c r="CZ18" t="s">
+        <v>139</v>
+      </c>
       <c r="DC18">
         <v>18</v>
       </c>
@@ -5556,11 +5607,11 @@
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT18" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU18" s="3">
         <f t="shared" si="35"/>
@@ -5735,13 +5786,19 @@
       <c r="AV19" t="s">
         <v>110</v>
       </c>
+      <c r="CZ19" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>139</v>
+      </c>
       <c r="PS19" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT19" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU19" s="3">
         <f t="shared" si="35"/>
@@ -6136,13 +6193,19 @@
       <c r="AZ21" t="s">
         <v>136</v>
       </c>
+      <c r="CZ21" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD21" t="s">
+        <v>139</v>
+      </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -6504,13 +6567,19 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="CZ23" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>139</v>
+      </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160C0775-87C4-5A41-891C-4FA1B9042C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B95D9-A87A-3048-8B31-64C1F0D9D8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10120" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="140">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -929,8 +929,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DG24" sqref="DG24"/>
+      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DI14" sqref="DI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2264,11 +2264,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>465</v>
+        <v>555</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2284,11 +2284,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2434,6 +2434,12 @@
         <v>90</v>
       </c>
       <c r="DD2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG2">
+        <v>90</v>
+      </c>
+      <c r="DH2" t="s">
         <v>110</v>
       </c>
       <c r="PS2" s="3">
@@ -2605,13 +2611,16 @@
       <c r="DD3" t="s">
         <v>139</v>
       </c>
+      <c r="DH3" t="s">
+        <v>139</v>
+      </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
@@ -2680,7 +2689,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4" si="45">COUNTIF(CY4:GX4,"NR")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
@@ -2787,18 +2796,21 @@
         <v>110</v>
       </c>
       <c r="CZ4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DD4" t="s">
         <v>139</v>
       </c>
+      <c r="DH4" t="s">
+        <v>138</v>
+      </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="PT4" s="3">
         <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="PU4" s="3">
         <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
@@ -2997,13 +3009,16 @@
       <c r="DD5" t="s">
         <v>110</v>
       </c>
+      <c r="DH5" t="s">
+        <v>139</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
@@ -3196,13 +3211,16 @@
       <c r="DD6" t="s">
         <v>139</v>
       </c>
+      <c r="DH6" t="s">
+        <v>139</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3223,11 +3241,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
@@ -3243,11 +3261,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="10"/>
@@ -3259,11 +3277,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="14"/>
@@ -3376,6 +3394,12 @@
       </c>
       <c r="DD7" t="s">
         <v>139</v>
+      </c>
+      <c r="DG7">
+        <v>59</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>110</v>
       </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
@@ -3570,13 +3594,16 @@
       <c r="DD8" t="s">
         <v>138</v>
       </c>
+      <c r="DH8" t="s">
+        <v>139</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3597,11 +3624,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D9">
         <f t="shared" si="5"/>
@@ -3617,11 +3644,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="10"/>
@@ -3633,11 +3660,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="14"/>
@@ -3776,6 +3803,12 @@
         <v>90</v>
       </c>
       <c r="DD9" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG9">
+        <v>90</v>
+      </c>
+      <c r="DH9" t="s">
         <v>110</v>
       </c>
       <c r="PS9" s="3">
@@ -3980,13 +4013,16 @@
       <c r="DD10" t="s">
         <v>139</v>
       </c>
+      <c r="DH10" t="s">
+        <v>139</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU10" s="3">
         <f t="shared" si="35"/>
@@ -4007,11 +4043,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
@@ -4027,11 +4063,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
@@ -4043,11 +4079,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="14"/>
@@ -4177,6 +4213,12 @@
         <v>78</v>
       </c>
       <c r="DD11" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG11">
+        <v>90</v>
+      </c>
+      <c r="DH11" t="s">
         <v>110</v>
       </c>
       <c r="PS11" s="3">
@@ -4384,13 +4426,16 @@
       <c r="DD12" t="s">
         <v>110</v>
       </c>
+      <c r="DH12" t="s">
+        <v>139</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
@@ -4411,11 +4456,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="37"/>
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D13">
         <f t="shared" si="5"/>
@@ -4431,11 +4476,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="10"/>
@@ -4447,11 +4492,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="14"/>
@@ -4578,6 +4623,12 @@
         <v>65</v>
       </c>
       <c r="DD13" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG13">
+        <v>90</v>
+      </c>
+      <c r="DH13" t="s">
         <v>110</v>
       </c>
       <c r="PS13" s="3">
@@ -4607,11 +4658,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
@@ -4627,11 +4678,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="10"/>
@@ -4643,11 +4694,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="14"/>
@@ -4784,6 +4835,12 @@
       </c>
       <c r="DD14" t="s">
         <v>136</v>
+      </c>
+      <c r="DG14">
+        <v>75</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>110</v>
       </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
@@ -4812,11 +4869,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
@@ -4832,7 +4889,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
@@ -4840,7 +4897,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="11"/>
@@ -4848,7 +4905,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="13"/>
@@ -4856,7 +4913,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="15"/>
@@ -5001,6 +5058,12 @@
       </c>
       <c r="DE15">
         <v>1</v>
+      </c>
+      <c r="DG15">
+        <v>31</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>136</v>
       </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
@@ -5029,11 +5092,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
@@ -5049,11 +5112,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="10"/>
@@ -5065,11 +5128,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="14"/>
@@ -5206,6 +5269,12 @@
       </c>
       <c r="DF16">
         <v>1</v>
+      </c>
+      <c r="DG16">
+        <v>90</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>110</v>
       </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
@@ -5400,13 +5469,16 @@
       <c r="DD17" t="s">
         <v>139</v>
       </c>
+      <c r="DH17" t="s">
+        <v>139</v>
+      </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT17" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU17" s="3">
         <f t="shared" si="35"/>
@@ -5427,11 +5499,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>273</v>
+        <v>332</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
@@ -5447,11 +5519,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="10"/>
@@ -5463,11 +5535,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="14"/>
@@ -5604,6 +5676,12 @@
       </c>
       <c r="DD18" t="s">
         <v>136</v>
+      </c>
+      <c r="DG18">
+        <v>59</v>
+      </c>
+      <c r="DH18" t="s">
+        <v>110</v>
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
@@ -5632,11 +5710,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
@@ -5652,7 +5730,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="9"/>
@@ -5660,7 +5738,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="11"/>
@@ -5668,7 +5746,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="13"/>
@@ -5676,7 +5754,7 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="15"/>
@@ -5791,6 +5869,12 @@
       </c>
       <c r="DD19" t="s">
         <v>139</v>
+      </c>
+      <c r="DG19">
+        <v>31</v>
+      </c>
+      <c r="DH19" t="s">
+        <v>136</v>
       </c>
       <c r="PS19" s="3">
         <f t="shared" si="33"/>
@@ -5819,11 +5903,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
@@ -5839,11 +5923,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
@@ -5855,11 +5939,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="14"/>
@@ -6004,6 +6088,12 @@
         <v>78</v>
       </c>
       <c r="DD20" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG20">
+        <v>75</v>
+      </c>
+      <c r="DH20" t="s">
         <v>110</v>
       </c>
       <c r="PS20" s="3">
@@ -6199,13 +6289,16 @@
       <c r="DD21" t="s">
         <v>139</v>
       </c>
+      <c r="DH21" t="s">
+        <v>139</v>
+      </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -6226,11 +6319,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
@@ -6246,11 +6339,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="10"/>
@@ -6262,11 +6355,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="14"/>
@@ -6408,6 +6501,12 @@
         <v>90</v>
       </c>
       <c r="DD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG22">
+        <v>90</v>
+      </c>
+      <c r="DH22" t="s">
         <v>110</v>
       </c>
       <c r="PS22" s="3">
@@ -6573,13 +6672,16 @@
       <c r="DD23" t="s">
         <v>139</v>
       </c>
+      <c r="DH23" t="s">
+        <v>139</v>
+      </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -6600,11 +6702,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
@@ -6620,11 +6722,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
@@ -6636,11 +6738,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="14"/>
@@ -6764,6 +6866,12 @@
         <v>90</v>
       </c>
       <c r="DD24" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG24">
+        <v>90</v>
+      </c>
+      <c r="DH24" t="s">
         <v>110</v>
       </c>
       <c r="PS24" s="3">
@@ -6793,11 +6901,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
@@ -6813,7 +6921,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="9"/>
@@ -6821,7 +6929,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="11"/>
@@ -6829,7 +6937,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="13"/>
@@ -6837,7 +6945,7 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="15"/>
@@ -6960,6 +7068,12 @@
         <v>12</v>
       </c>
       <c r="DD25" t="s">
+        <v>136</v>
+      </c>
+      <c r="DG25">
+        <v>15</v>
+      </c>
+      <c r="DH25" t="s">
         <v>136</v>
       </c>
       <c r="PS25" s="3">
@@ -6989,11 +7103,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
@@ -7009,7 +7123,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="9"/>
@@ -7017,7 +7131,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="11"/>
@@ -7025,7 +7139,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="13"/>
@@ -7033,7 +7147,7 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="15"/>
@@ -7168,6 +7282,12 @@
         <v>12</v>
       </c>
       <c r="DD26" t="s">
+        <v>136</v>
+      </c>
+      <c r="DG26">
+        <v>15</v>
+      </c>
+      <c r="DH26" t="s">
         <v>136</v>
       </c>
       <c r="PS26" s="3">
@@ -7327,13 +7447,16 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="DH27" t="s">
+        <v>139</v>
+      </c>
       <c r="PS27" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT27" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU27" s="3">
         <f t="shared" si="35"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B95D9-A87A-3048-8B31-64C1F0D9D8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ECB6F8-0940-464A-9FD6-EDFC6EF255BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10120" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="143">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>HG</t>
+  </si>
+  <si>
+    <t>CDF T3</t>
+  </si>
+  <si>
+    <t>Malik Boussaid</t>
+  </si>
+  <si>
+    <t>Kamal Bafounta</t>
   </si>
 </sst>
 </file>
@@ -929,8 +938,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DI14" sqref="DI14"/>
+      <pane xSplit="1" topLeftCell="GX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HD19" sqref="HD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1568,7 @@
         <v>71</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="GZ1" s="1" t="s">
         <v>92</v>
@@ -2641,7 +2650,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <f t="shared" si="4"/>
@@ -2649,7 +2658,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <f t="shared" si="6"/>
@@ -2661,11 +2670,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2693,11 +2702,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
@@ -2803,6 +2812,12 @@
       </c>
       <c r="DH4" t="s">
         <v>138</v>
+      </c>
+      <c r="GY4">
+        <v>90</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>110</v>
       </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
@@ -3241,7 +3256,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
@@ -3249,7 +3264,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <f t="shared" si="6"/>
@@ -3261,11 +3276,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="10"/>
@@ -3293,11 +3308,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="18"/>
@@ -3399,6 +3414,12 @@
         <v>59</v>
       </c>
       <c r="DH7" t="s">
+        <v>110</v>
+      </c>
+      <c r="GY7">
+        <v>90</v>
+      </c>
+      <c r="GZ7" t="s">
         <v>110</v>
       </c>
       <c r="PS7" s="3">
@@ -3428,7 +3449,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -3436,7 +3457,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <f t="shared" si="6"/>
@@ -3448,7 +3469,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="9"/>
@@ -3456,7 +3477,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="11"/>
@@ -3480,7 +3501,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="17"/>
@@ -3488,7 +3509,7 @@
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="19"/>
@@ -3596,6 +3617,12 @@
       </c>
       <c r="DH8" t="s">
         <v>139</v>
+      </c>
+      <c r="GY8">
+        <v>11</v>
+      </c>
+      <c r="GZ8" t="s">
+        <v>136</v>
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
@@ -4043,7 +4070,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>377</v>
+        <v>467</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -4051,7 +4078,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <f t="shared" si="6"/>
@@ -4063,11 +4090,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
@@ -4095,11 +4122,11 @@
       </c>
       <c r="O11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="18"/>
@@ -4219,6 +4246,12 @@
         <v>90</v>
       </c>
       <c r="DH11" t="s">
+        <v>110</v>
+      </c>
+      <c r="GY11">
+        <v>90</v>
+      </c>
+      <c r="GZ11" t="s">
         <v>110</v>
       </c>
       <c r="PS11" s="3">
@@ -4658,7 +4691,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>445</v>
+        <v>535</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -4666,7 +4699,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <f t="shared" si="6"/>
@@ -4678,11 +4711,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="10"/>
@@ -4710,11 +4743,11 @@
       </c>
       <c r="O14">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="18"/>
@@ -4840,6 +4873,12 @@
         <v>75</v>
       </c>
       <c r="DH14" t="s">
+        <v>110</v>
+      </c>
+      <c r="GY14">
+        <v>90</v>
+      </c>
+      <c r="GZ14" t="s">
         <v>110</v>
       </c>
       <c r="PS14" s="3">
@@ -4869,7 +4908,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -4877,7 +4916,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
@@ -4889,11 +4928,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="10"/>
@@ -4921,11 +4960,11 @@
       </c>
       <c r="O15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="18"/>
@@ -5064,6 +5103,12 @@
       </c>
       <c r="DH15" t="s">
         <v>136</v>
+      </c>
+      <c r="GY15">
+        <v>59</v>
+      </c>
+      <c r="GZ15" t="s">
+        <v>110</v>
       </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
@@ -5092,7 +5137,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -5100,7 +5145,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <f t="shared" si="6"/>
@@ -5112,7 +5157,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="9"/>
@@ -5120,7 +5165,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="11"/>
@@ -5144,7 +5189,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="17"/>
@@ -5152,7 +5197,7 @@
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="19"/>
@@ -5176,11 +5221,11 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
@@ -5200,7 +5245,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <f t="shared" si="28"/>
@@ -5275,6 +5320,15 @@
       </c>
       <c r="DH16" t="s">
         <v>110</v>
+      </c>
+      <c r="GY16">
+        <v>18</v>
+      </c>
+      <c r="GZ16" t="s">
+        <v>136</v>
+      </c>
+      <c r="HA16">
+        <v>1</v>
       </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
@@ -5499,7 +5553,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -5507,7 +5561,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <f t="shared" si="6"/>
@@ -5519,7 +5573,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="9"/>
@@ -5527,7 +5581,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="11"/>
@@ -5551,7 +5605,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="17"/>
@@ -5559,7 +5613,7 @@
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="19"/>
@@ -5682,6 +5736,12 @@
       </c>
       <c r="DH18" t="s">
         <v>110</v>
+      </c>
+      <c r="GY18">
+        <v>18</v>
+      </c>
+      <c r="GZ18" t="s">
+        <v>136</v>
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
@@ -5710,7 +5770,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -5718,7 +5778,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <f t="shared" si="6"/>
@@ -5730,11 +5790,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="10"/>
@@ -5762,11 +5822,11 @@
       </c>
       <c r="O19">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="18"/>
@@ -5875,6 +5935,12 @@
       </c>
       <c r="DH19" t="s">
         <v>136</v>
+      </c>
+      <c r="GY19">
+        <v>72</v>
+      </c>
+      <c r="GZ19" t="s">
+        <v>110</v>
       </c>
       <c r="PS19" s="3">
         <f t="shared" si="33"/>
@@ -5903,7 +5969,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -5911,7 +5977,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
@@ -5923,7 +5989,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
@@ -5931,7 +5997,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="11"/>
@@ -5955,7 +6021,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="17"/>
@@ -5963,7 +6029,7 @@
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="19"/>
@@ -5987,11 +6053,11 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
@@ -6011,7 +6077,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <f t="shared" si="28"/>
@@ -6095,6 +6161,15 @@
       </c>
       <c r="DH20" t="s">
         <v>110</v>
+      </c>
+      <c r="GY20">
+        <v>31</v>
+      </c>
+      <c r="GZ20" t="s">
+        <v>136</v>
+      </c>
+      <c r="HA20">
+        <v>1</v>
       </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
@@ -6319,7 +6394,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -6327,7 +6402,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
@@ -6339,11 +6414,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="10"/>
@@ -6371,11 +6446,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="18"/>
@@ -6507,6 +6582,12 @@
         <v>90</v>
       </c>
       <c r="DH22" t="s">
+        <v>110</v>
+      </c>
+      <c r="GY22">
+        <v>90</v>
+      </c>
+      <c r="GZ22" t="s">
         <v>110</v>
       </c>
       <c r="PS22" s="3">
@@ -6702,7 +6783,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -6710,7 +6791,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
@@ -6722,11 +6803,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
@@ -6754,11 +6835,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="18"/>
@@ -6872,6 +6953,12 @@
         <v>90</v>
       </c>
       <c r="DH24" t="s">
+        <v>110</v>
+      </c>
+      <c r="GY24">
+        <v>90</v>
+      </c>
+      <c r="GZ24" t="s">
         <v>110</v>
       </c>
       <c r="PS24" s="3">
@@ -6901,7 +6988,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -6909,7 +6996,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
@@ -6921,11 +7008,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
@@ -6953,11 +7040,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="18"/>
@@ -6985,11 +7072,11 @@
       </c>
       <c r="W25" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="23"/>
@@ -7009,7 +7096,7 @@
       </c>
       <c r="AC25">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <f t="shared" si="28"/>
@@ -7075,6 +7162,15 @@
       </c>
       <c r="DH25" t="s">
         <v>136</v>
+      </c>
+      <c r="GY25">
+        <v>90</v>
+      </c>
+      <c r="GZ25" t="s">
+        <v>110</v>
+      </c>
+      <c r="HA25">
+        <v>1</v>
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
@@ -7103,7 +7199,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -7111,7 +7207,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
@@ -7123,11 +7219,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
@@ -7155,11 +7251,11 @@
       </c>
       <c r="O26">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="18"/>
@@ -7289,6 +7385,12 @@
       </c>
       <c r="DH26" t="s">
         <v>136</v>
+      </c>
+      <c r="GY26">
+        <v>72</v>
+      </c>
+      <c r="GZ26" t="s">
+        <v>110</v>
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
@@ -7472,9 +7574,12 @@
       </c>
     </row>
     <row r="28" spans="1:439" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -7482,7 +7587,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
@@ -7494,11 +7599,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="10"/>
@@ -7526,11 +7631,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="18"/>
@@ -7604,6 +7709,12 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="GY28">
+        <v>79</v>
+      </c>
+      <c r="GZ28" t="s">
+        <v>110</v>
+      </c>
       <c r="PS28" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -7626,6 +7737,9 @@
       </c>
     </row>
     <row r="29" spans="1:439" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B29">
         <f t="shared" si="37"/>
         <v>0</v>
@@ -7781,7 +7895,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A22:A27">
+  <conditionalFormatting sqref="A22:A29">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ECB6F8-0940-464A-9FD6-EDFC6EF255BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB07B4-1DFD-F347-8ADE-DFB756598060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="143">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -938,8 +938,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HD19" sqref="HD19"/>
+      <pane xSplit="1" topLeftCell="MD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="MJ20" sqref="MJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>555</v>
+        <v>645</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2293,11 +2293,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2309,11 +2309,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2341,11 +2341,11 @@
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T2" s="3">
         <f t="shared" ref="T2:T29" si="0">COUNTIF(IU:PR,"T")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U2" s="3">
         <f t="shared" ref="U2:U29" si="1">COUNTIF(IU:PR,"R")</f>
@@ -2451,6 +2451,12 @@
       <c r="DH2" t="s">
         <v>110</v>
       </c>
+      <c r="DK2">
+        <v>90</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>110</v>
+      </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
         <v>0</v>
@@ -2469,7 +2475,7 @@
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2478,7 +2484,7 @@
       </c>
       <c r="B3">
         <f>SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3,CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3,GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3,IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C29" si="4">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
@@ -2490,7 +2496,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E29" si="6">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="7">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
@@ -2498,11 +2504,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G29" si="8">SUM(H3:I3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H29" si="9">COUNTIF(AI3:PR3,"T")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I29" si="10">COUNTIF(AI3:PR3,"R")</f>
@@ -2546,11 +2552,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S29" si="20">SUM(T3:U3)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" si="1"/>
@@ -2623,13 +2629,28 @@
       <c r="DH3" t="s">
         <v>139</v>
       </c>
+      <c r="DL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="IY3">
+        <v>90</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="ME3">
+        <v>90</v>
+      </c>
+      <c r="MF3" t="s">
+        <v>110</v>
+      </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2641,7 +2662,7 @@
       </c>
       <c r="PW3">
         <f t="shared" ref="PW3:PW29" si="36">G3-(K3+O3+S3)</f>
-        <v>1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="4" spans="1:439" x14ac:dyDescent="0.2">
@@ -2650,7 +2671,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="C4">
         <f t="shared" si="4"/>
@@ -2662,7 +2683,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <f t="shared" si="7"/>
@@ -2670,11 +2691,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2682,7 +2703,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
@@ -2698,7 +2719,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4" si="45">COUNTIF(CY4:GX4,"NR")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
@@ -2718,11 +2739,11 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4" si="50">SUM(T4:U4)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="1"/>
@@ -2813,12 +2834,21 @@
       <c r="DH4" t="s">
         <v>138</v>
       </c>
+      <c r="DL4" t="s">
+        <v>138</v>
+      </c>
       <c r="GY4">
         <v>90</v>
       </c>
       <c r="GZ4" t="s">
         <v>110</v>
       </c>
+      <c r="IU4">
+        <v>90</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>110</v>
+      </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
         <v>1</v>
@@ -2837,7 +2867,7 @@
       </c>
       <c r="PW4">
         <f t="shared" ref="PW4" si="66">G4-(K4+O4+S4)</f>
-        <v>4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="5" spans="1:439" x14ac:dyDescent="0.2">
@@ -2914,11 +2944,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="1"/>
@@ -3027,13 +3057,16 @@
       <c r="DH5" t="s">
         <v>139</v>
       </c>
+      <c r="DL5" t="s">
+        <v>139</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
@@ -3045,7 +3078,7 @@
       </c>
       <c r="PW5">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -3122,11 +3155,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="1"/>
@@ -3229,13 +3262,16 @@
       <c r="DH6" t="s">
         <v>139</v>
       </c>
+      <c r="DL6" t="s">
+        <v>139</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3247,7 +3283,7 @@
       </c>
       <c r="PW6">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3256,11 +3292,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
@@ -3276,11 +3312,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="10"/>
@@ -3292,11 +3328,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="14"/>
@@ -3324,11 +3360,11 @@
       </c>
       <c r="S7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="1"/>
@@ -3414,6 +3450,12 @@
         <v>59</v>
       </c>
       <c r="DH7" t="s">
+        <v>110</v>
+      </c>
+      <c r="DK7">
+        <v>90</v>
+      </c>
+      <c r="DL7" t="s">
         <v>110</v>
       </c>
       <c r="GY7">
@@ -3440,7 +3482,7 @@
       </c>
       <c r="PW7">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8" spans="1:439" x14ac:dyDescent="0.2">
@@ -3449,7 +3491,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -3461,7 +3503,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F8">
         <f t="shared" si="7"/>
@@ -3469,11 +3511,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="10"/>
@@ -3517,11 +3559,11 @@
       </c>
       <c r="S8">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="1"/>
@@ -3618,19 +3660,34 @@
       <c r="DH8" t="s">
         <v>139</v>
       </c>
+      <c r="DL8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
       <c r="GZ8" t="s">
         <v>136</v>
       </c>
+      <c r="IU8">
+        <v>90</v>
+      </c>
+      <c r="IV8" t="s">
+        <v>110</v>
+      </c>
+      <c r="IY8">
+        <v>90</v>
+      </c>
+      <c r="IZ8" t="s">
+        <v>110</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3642,7 +3699,7 @@
       </c>
       <c r="PW8">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -3651,11 +3708,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D9">
         <f t="shared" si="5"/>
@@ -3671,11 +3728,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="10"/>
@@ -3687,11 +3744,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="14"/>
@@ -3719,11 +3776,11 @@
       </c>
       <c r="S9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="1"/>
@@ -3838,6 +3895,12 @@
       <c r="DH9" t="s">
         <v>110</v>
       </c>
+      <c r="DK9">
+        <v>90</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>110</v>
+      </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -3856,7 +3919,7 @@
       </c>
       <c r="PW9">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -3933,11 +3996,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="1"/>
@@ -4043,13 +4106,16 @@
       <c r="DH10" t="s">
         <v>139</v>
       </c>
+      <c r="DL10" t="s">
+        <v>139</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU10" s="3">
         <f t="shared" si="35"/>
@@ -4061,7 +4127,7 @@
       </c>
       <c r="PW10">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -4070,11 +4136,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
@@ -4090,11 +4156,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
@@ -4106,11 +4172,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="14"/>
@@ -4138,11 +4204,11 @@
       </c>
       <c r="S11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="1"/>
@@ -4248,6 +4314,12 @@
       <c r="DH11" t="s">
         <v>110</v>
       </c>
+      <c r="DK11">
+        <v>66</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>110</v>
+      </c>
       <c r="GY11">
         <v>90</v>
       </c>
@@ -4272,7 +4344,7 @@
       </c>
       <c r="PW11">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -4349,11 +4421,11 @@
       </c>
       <c r="S12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="1"/>
@@ -4462,13 +4534,16 @@
       <c r="DH12" t="s">
         <v>139</v>
       </c>
+      <c r="DL12" t="s">
+        <v>139</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
@@ -4480,7 +4555,7 @@
       </c>
       <c r="PW12">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -4557,11 +4632,11 @@
       </c>
       <c r="S13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="1"/>
@@ -4664,13 +4739,16 @@
       <c r="DH13" t="s">
         <v>110</v>
       </c>
+      <c r="DL13" t="s">
+        <v>139</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -4682,7 +4760,7 @@
       </c>
       <c r="PW13">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -4691,11 +4769,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
@@ -4711,11 +4789,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="10"/>
@@ -4727,11 +4805,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="14"/>
@@ -4759,11 +4837,11 @@
       </c>
       <c r="S14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
@@ -4875,6 +4953,12 @@
       <c r="DH14" t="s">
         <v>110</v>
       </c>
+      <c r="DK14">
+        <v>77</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>110</v>
+      </c>
       <c r="GY14">
         <v>90</v>
       </c>
@@ -4899,7 +4983,7 @@
       </c>
       <c r="PW14">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -4908,11 +4992,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
@@ -4928,11 +5012,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="10"/>
@@ -4944,11 +5028,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="14"/>
@@ -4976,11 +5060,11 @@
       </c>
       <c r="S15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="1"/>
@@ -5104,6 +5188,12 @@
       <c r="DH15" t="s">
         <v>136</v>
       </c>
+      <c r="DK15">
+        <v>77</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>110</v>
+      </c>
       <c r="GY15">
         <v>59</v>
       </c>
@@ -5128,7 +5218,7 @@
       </c>
       <c r="PW15">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -5137,11 +5227,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>543</v>
+        <v>633</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
@@ -5157,11 +5247,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="10"/>
@@ -5173,11 +5263,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="14"/>
@@ -5205,11 +5295,11 @@
       </c>
       <c r="S16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="1"/>
@@ -5321,6 +5411,12 @@
       <c r="DH16" t="s">
         <v>110</v>
       </c>
+      <c r="DK16">
+        <v>90</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>110</v>
+      </c>
       <c r="GY16">
         <v>18</v>
       </c>
@@ -5348,7 +5444,7 @@
       </c>
       <c r="PW16">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -5357,11 +5453,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
@@ -5377,7 +5473,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="9"/>
@@ -5385,7 +5481,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="11"/>
@@ -5393,7 +5489,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="13"/>
@@ -5401,7 +5497,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="15"/>
@@ -5425,11 +5521,11 @@
       </c>
       <c r="S17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="1"/>
@@ -5525,6 +5621,12 @@
       </c>
       <c r="DH17" t="s">
         <v>139</v>
+      </c>
+      <c r="DK17">
+        <v>13</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>136</v>
       </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
@@ -5544,7 +5646,7 @@
       </c>
       <c r="PW17">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -5553,11 +5655,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
@@ -5573,7 +5675,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="9"/>
@@ -5581,7 +5683,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="11"/>
@@ -5589,7 +5691,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="13"/>
@@ -5597,7 +5699,7 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="15"/>
@@ -5621,11 +5723,11 @@
       </c>
       <c r="S18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" si="1"/>
@@ -5737,6 +5839,12 @@
       <c r="DH18" t="s">
         <v>110</v>
       </c>
+      <c r="DK18">
+        <v>6</v>
+      </c>
+      <c r="DL18" t="s">
+        <v>136</v>
+      </c>
       <c r="GY18">
         <v>18</v>
       </c>
@@ -5761,7 +5869,7 @@
       </c>
       <c r="PW18">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -5770,7 +5878,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -5782,7 +5890,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <f t="shared" si="7"/>
@@ -5790,11 +5898,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="10"/>
@@ -5838,11 +5946,11 @@
       </c>
       <c r="S19">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="1"/>
@@ -5936,19 +6044,28 @@
       <c r="DH19" t="s">
         <v>136</v>
       </c>
+      <c r="DL19" t="s">
+        <v>139</v>
+      </c>
       <c r="GY19">
         <v>72</v>
       </c>
       <c r="GZ19" t="s">
         <v>110</v>
       </c>
+      <c r="IY19">
+        <v>90</v>
+      </c>
+      <c r="IZ19" t="s">
+        <v>110</v>
+      </c>
       <c r="PS19" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT19" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU19" s="3">
         <f t="shared" si="35"/>
@@ -5960,7 +6077,7 @@
       </c>
       <c r="PW19">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -5969,11 +6086,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
@@ -5989,11 +6106,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
@@ -6005,11 +6122,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="14"/>
@@ -6037,11 +6154,11 @@
       </c>
       <c r="S20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="1"/>
@@ -6162,6 +6279,12 @@
       <c r="DH20" t="s">
         <v>110</v>
       </c>
+      <c r="DK20">
+        <v>84</v>
+      </c>
+      <c r="DL20" t="s">
+        <v>110</v>
+      </c>
       <c r="GY20">
         <v>31</v>
       </c>
@@ -6189,7 +6312,7 @@
       </c>
       <c r="PW20">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -6198,7 +6321,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="37"/>
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
@@ -6210,7 +6333,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
@@ -6218,11 +6341,11 @@
       </c>
       <c r="G21">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="10"/>
@@ -6266,11 +6389,11 @@
       </c>
       <c r="S21">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="1"/>
@@ -6367,13 +6490,22 @@
       <c r="DH21" t="s">
         <v>139</v>
       </c>
+      <c r="DL21" t="s">
+        <v>139</v>
+      </c>
+      <c r="IU21">
+        <v>68</v>
+      </c>
+      <c r="IV21" t="s">
+        <v>110</v>
+      </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -6385,7 +6517,7 @@
       </c>
       <c r="PW21">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:439" x14ac:dyDescent="0.2">
@@ -6394,11 +6526,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
@@ -6414,11 +6546,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="10"/>
@@ -6430,11 +6562,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="14"/>
@@ -6462,11 +6594,11 @@
       </c>
       <c r="S22">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="1"/>
@@ -6584,6 +6716,12 @@
       <c r="DH22" t="s">
         <v>110</v>
       </c>
+      <c r="DK22">
+        <v>90</v>
+      </c>
+      <c r="DL22" t="s">
+        <v>110</v>
+      </c>
       <c r="GY22">
         <v>90</v>
       </c>
@@ -6608,7 +6746,7 @@
       </c>
       <c r="PW22">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -6617,7 +6755,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -6629,7 +6767,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F23">
         <f t="shared" si="7"/>
@@ -6637,11 +6775,11 @@
       </c>
       <c r="G23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="10"/>
@@ -6685,11 +6823,11 @@
       </c>
       <c r="S23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" si="1"/>
@@ -6756,13 +6894,28 @@
       <c r="DH23" t="s">
         <v>139</v>
       </c>
+      <c r="DL23" t="s">
+        <v>139</v>
+      </c>
+      <c r="IU23">
+        <v>90</v>
+      </c>
+      <c r="IV23" t="s">
+        <v>110</v>
+      </c>
+      <c r="ME23">
+        <v>90</v>
+      </c>
+      <c r="MF23" t="s">
+        <v>110</v>
+      </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -6774,7 +6927,7 @@
       </c>
       <c r="PW23">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="24" spans="1:439" x14ac:dyDescent="0.2">
@@ -6783,11 +6936,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
@@ -6803,11 +6956,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
@@ -6819,11 +6972,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="14"/>
@@ -6851,11 +7004,11 @@
       </c>
       <c r="S24">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" si="1"/>
@@ -6955,6 +7108,12 @@
       <c r="DH24" t="s">
         <v>110</v>
       </c>
+      <c r="DK24">
+        <v>90</v>
+      </c>
+      <c r="DL24" t="s">
+        <v>110</v>
+      </c>
       <c r="GY24">
         <v>90</v>
       </c>
@@ -6979,7 +7138,7 @@
       </c>
       <c r="PW24">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -6988,7 +7147,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -7000,7 +7159,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <f t="shared" si="7"/>
@@ -7008,11 +7167,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
@@ -7056,11 +7215,11 @@
       </c>
       <c r="S25">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" si="1"/>
@@ -7163,6 +7322,9 @@
       <c r="DH25" t="s">
         <v>136</v>
       </c>
+      <c r="DL25" t="s">
+        <v>139</v>
+      </c>
       <c r="GY25">
         <v>90</v>
       </c>
@@ -7172,13 +7334,19 @@
       <c r="HA25">
         <v>1</v>
       </c>
+      <c r="IY25">
+        <v>90</v>
+      </c>
+      <c r="IZ25" t="s">
+        <v>110</v>
+      </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -7190,7 +7358,7 @@
       </c>
       <c r="PW25">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
@@ -7199,11 +7367,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
@@ -7219,11 +7387,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
@@ -7235,11 +7403,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="14"/>
@@ -7267,11 +7435,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="1"/>
@@ -7386,6 +7554,12 @@
       <c r="DH26" t="s">
         <v>136</v>
       </c>
+      <c r="DK26">
+        <v>13</v>
+      </c>
+      <c r="DL26" t="s">
+        <v>110</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -7410,7 +7584,7 @@
       </c>
       <c r="PW26">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">
@@ -7487,11 +7661,11 @@
       </c>
       <c r="S27">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" si="1"/>
@@ -7552,13 +7726,16 @@
       <c r="DH27" t="s">
         <v>139</v>
       </c>
+      <c r="DL27" t="s">
+        <v>139</v>
+      </c>
       <c r="PS27" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT27" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU27" s="3">
         <f t="shared" si="35"/>
@@ -7570,7 +7747,7 @@
       </c>
       <c r="PW27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="28" spans="1:439" x14ac:dyDescent="0.2">
@@ -7579,11 +7756,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <f t="shared" si="5"/>
@@ -7591,7 +7768,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <f t="shared" si="7"/>
@@ -7599,11 +7776,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="10"/>
@@ -7615,11 +7792,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="14"/>
@@ -7647,11 +7824,11 @@
       </c>
       <c r="S28">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" si="1"/>
@@ -7709,12 +7886,24 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="DK28">
+        <v>24</v>
+      </c>
+      <c r="DL28" t="s">
+        <v>110</v>
+      </c>
       <c r="GY28">
         <v>79</v>
       </c>
       <c r="GZ28" t="s">
         <v>110</v>
       </c>
+      <c r="IU28">
+        <v>90</v>
+      </c>
+      <c r="IV28" t="s">
+        <v>110</v>
+      </c>
       <c r="PS28" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -7733,7 +7922,7 @@
       </c>
       <c r="PW28">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="29" spans="1:439" x14ac:dyDescent="0.2">
@@ -7742,11 +7931,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
@@ -7762,11 +7951,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="10"/>
@@ -7778,11 +7967,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="14"/>
@@ -7810,11 +7999,11 @@
       </c>
       <c r="S29">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U29" s="3">
         <f t="shared" si="1"/>
@@ -7872,6 +8061,12 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="DK29">
+        <v>90</v>
+      </c>
+      <c r="DL29" t="s">
+        <v>110</v>
+      </c>
       <c r="PS29" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -7890,7 +8085,7 @@
       </c>
       <c r="PW29">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
   </sheetData>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB07B4-1DFD-F347-8ADE-DFB756598060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49CD20F-8554-4448-A2EF-E14EB1DA5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -938,8 +938,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="MJ20" sqref="MJ20"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2341,18 +2341,18 @@
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" ref="T2:T29" si="0">COUNTIF(IU:PR,"T")</f>
-        <v>11</v>
+        <f>COUNTIF(IU2:PR2,"T")</f>
+        <v>0</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U29" si="1">COUNTIF(IU:PR,"R")</f>
+        <f t="shared" ref="U2:U29" si="0">COUNTIF(IU:PR,"R")</f>
         <v>0</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" ref="V2:V29" si="2">COUNTIF(IU:PR,"NR")</f>
+        <f t="shared" ref="V2:V29" si="1">COUNTIF(IU:PR,"NR")</f>
         <v>0</v>
       </c>
       <c r="W2" s="3">
@@ -2470,12 +2470,12 @@
         <v>0</v>
       </c>
       <c r="PV2">
-        <f t="shared" ref="PV2:PV29" si="3">COUNTIF(IU:PR,"HG")</f>
+        <f t="shared" ref="PV2:PV29" si="2">COUNTIF(IU:PR,"HG")</f>
         <v>0</v>
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>-6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2487,83 +2487,83 @@
         <v>225</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C29" si="4">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
+        <f t="shared" ref="C3:C29" si="3">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D29" si="5">SUM(GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3)</f>
+        <f t="shared" ref="D3:D29" si="4">SUM(GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E29" si="6">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
+        <f t="shared" ref="E3:E29" si="5">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
         <v>180</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F29" si="7">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
+        <f t="shared" ref="F3:F29" si="6">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
         <v>45</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G29" si="8">SUM(H3:I3)</f>
+        <f t="shared" ref="G3:G29" si="7">SUM(H3:I3)</f>
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H29" si="9">COUNTIF(AI3:PR3,"T")</f>
+        <f t="shared" ref="H3:H29" si="8">COUNTIF(AI3:PR3,"T")</f>
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I29" si="10">COUNTIF(AI3:PR3,"R")</f>
+        <f t="shared" ref="I3:I29" si="9">COUNTIF(AI3:PR3,"R")</f>
         <v>1</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J29" si="11">COUNTIF(AI3:PR3,"NR")</f>
+        <f t="shared" ref="J3:J29" si="10">COUNTIF(AI3:PR3,"NR")</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K29" si="12">SUM(L3:M3)</f>
+        <f t="shared" ref="K3:K29" si="11">SUM(L3:M3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L29" si="13">COUNTIF(CY3:GX3,"T")</f>
+        <f t="shared" ref="L3:L29" si="12">COUNTIF(CY3:GX3,"T")</f>
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M29" si="14">COUNTIF(CY3:GX3,"R")</f>
+        <f t="shared" ref="M3:M29" si="13">COUNTIF(CY3:GX3,"R")</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N29" si="15">COUNTIF(CY3:GX3,"NR")</f>
+        <f t="shared" ref="N3:N29" si="14">COUNTIF(CY3:GX3,"NR")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O29" si="16">SUM(P3:Q3)</f>
+        <f t="shared" ref="O3:O29" si="15">SUM(P3:Q3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P29" si="17">COUNTIF(GY3:IT3,"T")</f>
+        <f t="shared" ref="P3:P29" si="16">COUNTIF(GY3:IT3,"T")</f>
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q29" si="18">COUNTIF(GY3:IT3,"R")</f>
+        <f t="shared" ref="Q3:Q29" si="17">COUNTIF(GY3:IT3,"R")</f>
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R29" si="19">COUNTIF(GY3:IT3,"NR")</f>
+        <f t="shared" ref="R3:R29" si="18">COUNTIF(GY3:IT3,"NR")</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S29" si="20">SUM(T3:U3)</f>
-        <v>11</v>
+        <f t="shared" ref="S3:S29" si="19">SUM(T3:U3)</f>
+        <v>2</v>
       </c>
       <c r="T3" s="3">
+        <f t="shared" ref="T3:T29" si="20">COUNTIF(IU3:PR3,"T")</f>
+        <v>2</v>
+      </c>
+      <c r="U3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W3" s="3">
@@ -2657,12 +2657,12 @@
         <v>0</v>
       </c>
       <c r="PV3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW3">
         <f t="shared" ref="PW3:PW29" si="36">G3-(K3+O3+S3)</f>
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:439" x14ac:dyDescent="0.2">
@@ -2674,19 +2674,19 @@
         <v>390</v>
       </c>
       <c r="C4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="G4">
@@ -2739,18 +2739,18 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4" si="50">SUM(T4:U4)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W4" s="3">
@@ -2862,12 +2862,12 @@
         <v>0</v>
       </c>
       <c r="PV4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW4">
         <f t="shared" ref="PW4" si="66">G4-(K4+O4+S4)</f>
-        <v>-6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:439" x14ac:dyDescent="0.2">
@@ -2879,83 +2879,83 @@
         <v>480</v>
       </c>
       <c r="C5">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="T5" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W5" s="3">
@@ -3073,12 +3073,12 @@
         <v>0</v>
       </c>
       <c r="PV5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW5">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -3090,83 +3090,83 @@
         <v>270</v>
       </c>
       <c r="C6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>270</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="7"/>
-        <v>270</v>
-      </c>
-      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="T6" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W6" s="3">
@@ -3278,12 +3278,12 @@
         <v>0</v>
       </c>
       <c r="PV6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW6">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3295,83 +3295,83 @@
         <v>399</v>
       </c>
       <c r="C7">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="4"/>
-        <v>149</v>
-      </c>
-      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>160</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="T7" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="3">
@@ -3477,12 +3477,12 @@
         <v>0</v>
       </c>
       <c r="PV7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW7">
         <f t="shared" si="36"/>
-        <v>-8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:439" x14ac:dyDescent="0.2">
@@ -3494,83 +3494,83 @@
         <v>361</v>
       </c>
       <c r="C8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="E8">
+        <v>180</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="F8">
+        <v>170</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="T8" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T8" s="3">
+        <v>2</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="3">
@@ -3694,12 +3694,12 @@
         <v>0</v>
       </c>
       <c r="PV8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW8">
         <f t="shared" si="36"/>
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -3711,83 +3711,83 @@
         <v>685</v>
       </c>
       <c r="C9">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="4"/>
-        <v>360</v>
-      </c>
-      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>325</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="7"/>
-        <v>325</v>
-      </c>
-      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="P9" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="T9" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="3">
@@ -3914,12 +3914,12 @@
         <v>0</v>
       </c>
       <c r="PV9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW9">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -3931,83 +3931,83 @@
         <v>376</v>
       </c>
       <c r="C10">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>295</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="7"/>
-        <v>295</v>
-      </c>
-      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="3">
@@ -4122,12 +4122,12 @@
         <v>0</v>
       </c>
       <c r="PV10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW10">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -4139,83 +4139,83 @@
         <v>533</v>
       </c>
       <c r="C11">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="4"/>
-        <v>243</v>
-      </c>
-      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="T11" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="3">
@@ -4339,12 +4339,12 @@
         <v>0</v>
       </c>
       <c r="PV11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW11">
         <f t="shared" si="36"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -4356,83 +4356,83 @@
         <v>505</v>
       </c>
       <c r="C12">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>366</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="7"/>
-        <v>366</v>
-      </c>
-      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="H12" s="3">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="3">
@@ -4550,12 +4550,12 @@
         <v>0</v>
       </c>
       <c r="PV12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW12">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -4567,83 +4567,83 @@
         <v>395</v>
       </c>
       <c r="C13">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>240</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="P13" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="T13" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="3">
@@ -4755,12 +4755,12 @@
         <v>0</v>
       </c>
       <c r="PV13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW13">
         <f t="shared" si="36"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -4772,83 +4772,83 @@
         <v>612</v>
       </c>
       <c r="C14">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="4"/>
-        <v>267</v>
-      </c>
-      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>255</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="7"/>
-        <v>255</v>
-      </c>
-      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="T14" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="3">
@@ -4978,12 +4978,12 @@
         <v>0</v>
       </c>
       <c r="PV14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW14">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -4995,83 +4995,83 @@
         <v>630</v>
       </c>
       <c r="C15">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="D15">
+        <v>59</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
+        <v>315</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="7"/>
-        <v>315</v>
-      </c>
-      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="H15" s="3">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="T15" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="3">
@@ -5213,12 +5213,12 @@
         <v>0</v>
       </c>
       <c r="PV15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW15">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -5230,83 +5230,83 @@
         <v>633</v>
       </c>
       <c r="C16">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="4"/>
-        <v>360</v>
-      </c>
-      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <v>255</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="7"/>
-        <v>255</v>
-      </c>
-      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="T16" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="3">
@@ -5439,12 +5439,12 @@
         <v>0</v>
       </c>
       <c r="PV16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW16">
         <f t="shared" si="36"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -5456,83 +5456,83 @@
         <v>193</v>
       </c>
       <c r="C17">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
+        <v>180</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="P17" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="T17" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="3">
@@ -5641,12 +5641,12 @@
         <v>0</v>
       </c>
       <c r="PV17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW17">
         <f t="shared" si="36"/>
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -5658,83 +5658,83 @@
         <v>356</v>
       </c>
       <c r="C18">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
+        <v>255</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="7"/>
-        <v>255</v>
-      </c>
-      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="T18" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="3">
@@ -5864,12 +5864,12 @@
         <v>0</v>
       </c>
       <c r="PV18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW18">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -5881,83 +5881,83 @@
         <v>388</v>
       </c>
       <c r="C19">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="D19">
+        <v>72</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F19">
+        <v>195</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R19" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="S19">
+        <f>SUM(T19:U19)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="3">
@@ -6072,12 +6072,12 @@
         <v>0</v>
       </c>
       <c r="PV19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW19">
         <f t="shared" si="36"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -6089,83 +6089,83 @@
         <v>599</v>
       </c>
       <c r="C20">
+        <f t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="4"/>
-        <v>323</v>
-      </c>
-      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
+        <v>245</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="7"/>
-        <v>245</v>
-      </c>
-      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="H20" s="3">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="L20" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="T20" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="3">
@@ -6307,12 +6307,12 @@
         <v>0</v>
       </c>
       <c r="PV20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW20">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -6324,83 +6324,83 @@
         <v>183</v>
       </c>
       <c r="C21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
+        <v>68</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="F21">
+        <v>115</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="7"/>
-        <v>115</v>
-      </c>
-      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="L21" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="P21" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="3">
@@ -6512,12 +6512,12 @@
         <v>0</v>
       </c>
       <c r="PV21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW21">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:439" x14ac:dyDescent="0.2">
@@ -6529,83 +6529,83 @@
         <v>820</v>
       </c>
       <c r="C22">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="4"/>
-        <v>360</v>
-      </c>
-      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
+        <v>370</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="T22" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="3">
@@ -6741,12 +6741,12 @@
         <v>0</v>
       </c>
       <c r="PV22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW22">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -6758,83 +6758,83 @@
         <v>180</v>
       </c>
       <c r="C23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
+        <v>180</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
+      <c r="T23" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T23" s="3">
+        <v>2</v>
+      </c>
+      <c r="U23" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="3">
@@ -6922,12 +6922,12 @@
         <v>0</v>
       </c>
       <c r="PV23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW23">
         <f t="shared" si="36"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:439" x14ac:dyDescent="0.2">
@@ -6939,83 +6939,83 @@
         <v>630</v>
       </c>
       <c r="C24">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="4"/>
-        <v>360</v>
-      </c>
-      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>180</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="H24" s="3">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="T24" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="3">
@@ -7133,12 +7133,12 @@
         <v>0</v>
       </c>
       <c r="PV24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW24">
         <f t="shared" si="36"/>
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -7150,83 +7150,83 @@
         <v>356</v>
       </c>
       <c r="C25">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F25">
+        <v>135</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="7"/>
-        <v>135</v>
-      </c>
-      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="3">
+        <v>7</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="3">
@@ -7353,12 +7353,12 @@
         <v>0</v>
       </c>
       <c r="PV25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW25">
         <f t="shared" si="36"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
@@ -7370,83 +7370,83 @@
         <v>341</v>
       </c>
       <c r="C26">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="D26">
+        <v>72</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
+        <v>225</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="7"/>
-        <v>225</v>
-      </c>
-      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S26">
+      <c r="T26" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="3">
@@ -7579,12 +7579,12 @@
         <v>0</v>
       </c>
       <c r="PV26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW26">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">
@@ -7596,83 +7596,83 @@
         <v>0</v>
       </c>
       <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="H27" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K27">
+      <c r="L27" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="P27" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="T27" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="3">
@@ -7742,12 +7742,12 @@
         <v>0</v>
       </c>
       <c r="PV27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW27">
         <f t="shared" si="36"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:439" x14ac:dyDescent="0.2">
@@ -7759,83 +7759,83 @@
         <v>193</v>
       </c>
       <c r="C28">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="D28">
+        <v>79</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="E28">
+        <v>90</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R28" s="3">
+      <c r="S28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="3">
@@ -7917,12 +7917,12 @@
         <v>0</v>
       </c>
       <c r="PV28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW28">
         <f t="shared" si="36"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:439" x14ac:dyDescent="0.2">
@@ -7934,83 +7934,83 @@
         <v>90</v>
       </c>
       <c r="C29">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O29">
+      <c r="P29" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S29">
+      <c r="T29" s="3">
         <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="3">
@@ -8080,12 +8080,12 @@
         <v>0</v>
       </c>
       <c r="PV29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="PW29">
         <f t="shared" si="36"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49CD20F-8554-4448-A2EF-E14EB1DA5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBC9E9-304E-F04F-AE1F-DD96BA41EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="144">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>Kamal Bafounta</t>
+  </si>
+  <si>
+    <t>CDF T4</t>
   </si>
 </sst>
 </file>
@@ -938,8 +941,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V31" sqref="V31"/>
+      <pane xSplit="1" topLeftCell="GX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HJ20" sqref="HJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1583,7 @@
         <v>71</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="HD1" s="1" t="s">
         <v>92</v>
@@ -2305,7 +2308,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTIF(AI2:PR2,"NR")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
@@ -2337,7 +2340,7 @@
       </c>
       <c r="R2" s="3">
         <f>COUNTIF(GY2:IT2,"NR")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
@@ -2456,6 +2459,9 @@
       </c>
       <c r="DL2" t="s">
         <v>110</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>138</v>
       </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
@@ -2632,6 +2638,9 @@
       <c r="DL3" t="s">
         <v>139</v>
       </c>
+      <c r="HD3" t="s">
+        <v>139</v>
+      </c>
       <c r="IY3">
         <v>90</v>
       </c>
@@ -2646,7 +2655,7 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
@@ -2654,7 +2663,7 @@
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV3">
         <f t="shared" si="2"/>
@@ -2671,7 +2680,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
@@ -2691,11 +2700,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2723,11 +2732,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
@@ -2841,6 +2850,12 @@
         <v>90</v>
       </c>
       <c r="GZ4" t="s">
+        <v>110</v>
+      </c>
+      <c r="HC4">
+        <v>90</v>
+      </c>
+      <c r="HD4" t="s">
         <v>110</v>
       </c>
       <c r="IU4">
@@ -3060,9 +3075,12 @@
       <c r="DL5" t="s">
         <v>139</v>
       </c>
+      <c r="HD5" t="s">
+        <v>139</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
@@ -3070,7 +3088,7 @@
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV5">
         <f t="shared" si="2"/>
@@ -3265,9 +3283,12 @@
       <c r="DL6" t="s">
         <v>139</v>
       </c>
+      <c r="HD6" t="s">
+        <v>139</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
@@ -3275,7 +3296,7 @@
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV6">
         <f t="shared" si="2"/>
@@ -3292,7 +3313,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -3300,7 +3321,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
@@ -3312,11 +3333,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3344,11 +3365,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="17"/>
@@ -3462,6 +3483,12 @@
         <v>90</v>
       </c>
       <c r="GZ7" t="s">
+        <v>110</v>
+      </c>
+      <c r="HC7">
+        <v>90</v>
+      </c>
+      <c r="HD7" t="s">
         <v>110</v>
       </c>
       <c r="PS7" s="3">
@@ -3491,7 +3518,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -3499,7 +3526,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <f t="shared" si="5"/>
@@ -3511,7 +3538,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="8"/>
@@ -3519,7 +3546,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="10"/>
@@ -3543,7 +3570,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="16"/>
@@ -3551,7 +3578,7 @@
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="18"/>
@@ -3667,6 +3694,12 @@
         <v>11</v>
       </c>
       <c r="GZ8" t="s">
+        <v>136</v>
+      </c>
+      <c r="HC8">
+        <v>13</v>
+      </c>
+      <c r="HD8" t="s">
         <v>136</v>
       </c>
       <c r="IU8">
@@ -3708,7 +3741,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -3716,7 +3749,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -3728,7 +3761,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
@@ -3736,7 +3769,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="10"/>
@@ -3760,7 +3793,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="16"/>
@@ -3768,7 +3801,7 @@
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="18"/>
@@ -3900,6 +3933,12 @@
       </c>
       <c r="DL9" t="s">
         <v>110</v>
+      </c>
+      <c r="HC9">
+        <v>45</v>
+      </c>
+      <c r="HD9" t="s">
+        <v>136</v>
       </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
@@ -4109,9 +4148,12 @@
       <c r="DL10" t="s">
         <v>139</v>
       </c>
+      <c r="HD10" t="s">
+        <v>139</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
@@ -4119,7 +4161,7 @@
       </c>
       <c r="PU10" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV10">
         <f t="shared" si="2"/>
@@ -4326,9 +4368,12 @@
       <c r="GZ11" t="s">
         <v>110</v>
       </c>
+      <c r="HD11" t="s">
+        <v>139</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
@@ -4336,7 +4381,7 @@
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV11">
         <f t="shared" si="2"/>
@@ -4742,9 +4787,12 @@
       <c r="DL13" t="s">
         <v>139</v>
       </c>
+      <c r="HD13" t="s">
+        <v>139</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
@@ -4752,7 +4800,7 @@
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV13">
         <f t="shared" si="2"/>
@@ -4769,7 +4817,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>612</v>
+        <v>702</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -4777,7 +4825,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -4789,11 +4837,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -4821,11 +4869,11 @@
       </c>
       <c r="O14">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="17"/>
@@ -4963,6 +5011,12 @@
         <v>90</v>
       </c>
       <c r="GZ14" t="s">
+        <v>110</v>
+      </c>
+      <c r="HC14">
+        <v>90</v>
+      </c>
+      <c r="HD14" t="s">
         <v>110</v>
       </c>
       <c r="PS14" s="3">
@@ -5200,9 +5254,12 @@
       <c r="GZ15" t="s">
         <v>110</v>
       </c>
+      <c r="HD15" t="s">
+        <v>139</v>
+      </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT15" s="3">
         <f t="shared" si="34"/>
@@ -5210,7 +5267,7 @@
       </c>
       <c r="PU15" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV15">
         <f t="shared" si="2"/>
@@ -5227,7 +5284,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>633</v>
+        <v>723</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -5235,7 +5292,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -5247,11 +5304,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5279,11 +5336,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="17"/>
@@ -5319,11 +5376,11 @@
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
@@ -5339,7 +5396,7 @@
       </c>
       <c r="AD16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
         <f t="shared" si="29"/>
@@ -5424,6 +5481,15 @@
         <v>136</v>
       </c>
       <c r="HA16">
+        <v>1</v>
+      </c>
+      <c r="HC16">
+        <v>90</v>
+      </c>
+      <c r="HD16" t="s">
+        <v>110</v>
+      </c>
+      <c r="HF16">
         <v>1</v>
       </c>
       <c r="PS16" s="3">
@@ -5453,7 +5519,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
@@ -5461,7 +5527,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
@@ -5473,11 +5539,11 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
@@ -5505,11 +5571,11 @@
       </c>
       <c r="O17">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="17"/>
@@ -5627,6 +5693,12 @@
       </c>
       <c r="DL17" t="s">
         <v>136</v>
+      </c>
+      <c r="HC17">
+        <v>58</v>
+      </c>
+      <c r="HD17" t="s">
+        <v>110</v>
       </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
@@ -5655,7 +5727,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -5663,7 +5735,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -5675,11 +5747,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -5707,11 +5779,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="17"/>
@@ -5747,11 +5819,11 @@
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <f t="shared" si="25"/>
@@ -5767,7 +5839,7 @@
       </c>
       <c r="AD18">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
         <f t="shared" si="29"/>
@@ -5850,6 +5922,15 @@
       </c>
       <c r="GZ18" t="s">
         <v>136</v>
+      </c>
+      <c r="HC18">
+        <v>58</v>
+      </c>
+      <c r="HD18" t="s">
+        <v>110</v>
+      </c>
+      <c r="HF18">
+        <v>1</v>
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
@@ -5878,7 +5959,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -5886,7 +5967,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
@@ -5898,7 +5979,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -5906,7 +5987,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -5930,7 +6011,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="16"/>
@@ -5938,7 +6019,7 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="18"/>
@@ -6052,6 +6133,12 @@
       </c>
       <c r="GZ19" t="s">
         <v>110</v>
+      </c>
+      <c r="HC19">
+        <v>32</v>
+      </c>
+      <c r="HD19" t="s">
+        <v>136</v>
       </c>
       <c r="IY19">
         <v>90</v>
@@ -6086,7 +6173,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -6094,7 +6181,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
@@ -6106,7 +6193,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
@@ -6114,7 +6201,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="10"/>
@@ -6138,7 +6225,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="16"/>
@@ -6146,7 +6233,7 @@
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="18"/>
@@ -6170,11 +6257,11 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
@@ -6194,7 +6281,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20">
         <f t="shared" si="28"/>
@@ -6293,6 +6380,15 @@
       </c>
       <c r="HA20">
         <v>1</v>
+      </c>
+      <c r="HC20">
+        <v>32</v>
+      </c>
+      <c r="HD20" t="s">
+        <v>136</v>
+      </c>
+      <c r="HE20">
+        <v>2</v>
       </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
@@ -6493,6 +6589,9 @@
       <c r="DL21" t="s">
         <v>139</v>
       </c>
+      <c r="HD21" t="s">
+        <v>139</v>
+      </c>
       <c r="IU21">
         <v>68</v>
       </c>
@@ -6501,7 +6600,7 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
@@ -6509,7 +6608,7 @@
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV21">
         <f t="shared" si="2"/>
@@ -6526,7 +6625,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>820</v>
+        <v>910</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -6534,7 +6633,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
@@ -6546,11 +6645,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -6578,11 +6677,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="17"/>
@@ -6610,11 +6709,11 @@
       </c>
       <c r="W22" s="3">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X22" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="23"/>
@@ -6634,7 +6733,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <f t="shared" si="28"/>
@@ -6727,6 +6826,15 @@
       </c>
       <c r="GZ22" t="s">
         <v>110</v>
+      </c>
+      <c r="HC22">
+        <v>90</v>
+      </c>
+      <c r="HD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="HE22">
+        <v>1</v>
       </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
@@ -6897,6 +7005,9 @@
       <c r="DL23" t="s">
         <v>139</v>
       </c>
+      <c r="HD23" t="s">
+        <v>139</v>
+      </c>
       <c r="IU23">
         <v>90</v>
       </c>
@@ -6911,7 +7022,7 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
@@ -6919,7 +7030,7 @@
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV23">
         <f t="shared" si="2"/>
@@ -6936,7 +7047,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
@@ -6944,7 +7055,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
@@ -6956,11 +7067,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -6988,11 +7099,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="17"/>
@@ -7118,6 +7229,12 @@
         <v>90</v>
       </c>
       <c r="GZ24" t="s">
+        <v>110</v>
+      </c>
+      <c r="HC24">
+        <v>90</v>
+      </c>
+      <c r="HD24" t="s">
         <v>110</v>
       </c>
       <c r="PS24" s="3">
@@ -7334,6 +7451,9 @@
       <c r="HA25">
         <v>1</v>
       </c>
+      <c r="HD25" t="s">
+        <v>139</v>
+      </c>
       <c r="IY25">
         <v>90</v>
       </c>
@@ -7342,7 +7462,7 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
@@ -7350,7 +7470,7 @@
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV25">
         <f t="shared" si="2"/>
@@ -7367,7 +7487,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -7375,7 +7495,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
@@ -7387,11 +7507,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
@@ -7419,11 +7539,11 @@
       </c>
       <c r="O26">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="17"/>
@@ -7564,6 +7684,12 @@
         <v>72</v>
       </c>
       <c r="GZ26" t="s">
+        <v>110</v>
+      </c>
+      <c r="HC26">
+        <v>45</v>
+      </c>
+      <c r="HD26" t="s">
         <v>110</v>
       </c>
       <c r="PS26" s="3">
@@ -7729,9 +7855,12 @@
       <c r="DL27" t="s">
         <v>139</v>
       </c>
+      <c r="HD27" t="s">
+        <v>139</v>
+      </c>
       <c r="PS27" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT27" s="3">
         <f t="shared" si="34"/>
@@ -7739,7 +7868,7 @@
       </c>
       <c r="PU27" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV27">
         <f t="shared" si="2"/>
@@ -7756,7 +7885,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -7764,7 +7893,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
@@ -7776,11 +7905,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -7808,11 +7937,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="17"/>
@@ -7896,6 +8025,12 @@
         <v>79</v>
       </c>
       <c r="GZ28" t="s">
+        <v>110</v>
+      </c>
+      <c r="HC28">
+        <v>77</v>
+      </c>
+      <c r="HD28" t="s">
         <v>110</v>
       </c>
       <c r="IU28">
@@ -7931,7 +8066,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
@@ -7939,7 +8074,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
@@ -7951,11 +8086,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="9"/>
@@ -7983,11 +8118,11 @@
       </c>
       <c r="O29">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="17"/>
@@ -8065,6 +8200,12 @@
         <v>90</v>
       </c>
       <c r="DL29" t="s">
+        <v>110</v>
+      </c>
+      <c r="HC29">
+        <v>90</v>
+      </c>
+      <c r="HD29" t="s">
         <v>110</v>
       </c>
       <c r="PS29" s="3">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBC9E9-304E-F04F-AE1F-DD96BA41EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05CD37A-713C-BC41-B663-2960C1C4C481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="144">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -941,8 +941,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HJ20" sqref="HJ20"/>
+      <pane xSplit="1" topLeftCell="DO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DT20" sqref="DT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2276,11 +2276,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2296,11 +2296,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2458,6 +2458,12 @@
         <v>90</v>
       </c>
       <c r="DL2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO2">
+        <v>90</v>
+      </c>
+      <c r="DP2" t="s">
         <v>110</v>
       </c>
       <c r="HD2" t="s">
@@ -2638,6 +2644,9 @@
       <c r="DL3" t="s">
         <v>139</v>
       </c>
+      <c r="DP3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2655,11 +2664,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2846,6 +2855,9 @@
       <c r="DL4" t="s">
         <v>138</v>
       </c>
+      <c r="DP4" t="s">
+        <v>139</v>
+      </c>
       <c r="GY4">
         <v>90</v>
       </c>
@@ -2866,11 +2878,11 @@
       </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT4" s="3">
         <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU4" s="3">
         <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
@@ -3075,16 +3087,19 @@
       <c r="DL5" t="s">
         <v>139</v>
       </c>
+      <c r="DP5" t="s">
+        <v>139</v>
+      </c>
       <c r="HD5" t="s">
         <v>139</v>
       </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
@@ -3283,16 +3298,19 @@
       <c r="DL6" t="s">
         <v>139</v>
       </c>
+      <c r="DP6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3313,11 +3331,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
@@ -3333,11 +3351,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3349,11 +3367,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="13"/>
@@ -3477,6 +3495,12 @@
         <v>90</v>
       </c>
       <c r="DL7" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO7">
+        <v>90</v>
+      </c>
+      <c r="DP7" t="s">
         <v>110</v>
       </c>
       <c r="GY7">
@@ -3690,6 +3714,9 @@
       <c r="DL8" t="s">
         <v>139</v>
       </c>
+      <c r="DP8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -3716,11 +3743,11 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3741,11 +3768,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -3761,11 +3788,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -3777,11 +3804,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="13"/>
@@ -3932,6 +3959,12 @@
         <v>90</v>
       </c>
       <c r="DL9" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO9">
+        <v>90</v>
+      </c>
+      <c r="DP9" t="s">
         <v>110</v>
       </c>
       <c r="HC9">
@@ -4148,16 +4181,19 @@
       <c r="DL10" t="s">
         <v>139</v>
       </c>
+      <c r="DP10" t="s">
+        <v>139</v>
+      </c>
       <c r="HD10" t="s">
         <v>139</v>
       </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU10" s="3">
         <f t="shared" si="35"/>
@@ -4178,11 +4214,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
@@ -4198,11 +4234,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
@@ -4214,11 +4250,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="13"/>
@@ -4360,6 +4396,12 @@
         <v>66</v>
       </c>
       <c r="DL11" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO11">
+        <v>40</v>
+      </c>
+      <c r="DP11" t="s">
         <v>110</v>
       </c>
       <c r="GY11">
@@ -4582,13 +4624,16 @@
       <c r="DL12" t="s">
         <v>139</v>
       </c>
+      <c r="DP12" t="s">
+        <v>139</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
@@ -4787,16 +4832,19 @@
       <c r="DL13" t="s">
         <v>139</v>
       </c>
+      <c r="DP13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -4817,11 +4865,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>702</v>
+        <v>792</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -4837,11 +4885,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -4853,11 +4901,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="13"/>
@@ -5005,6 +5053,12 @@
         <v>77</v>
       </c>
       <c r="DL14" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO14">
+        <v>90</v>
+      </c>
+      <c r="DP14" t="s">
         <v>110</v>
       </c>
       <c r="GY14">
@@ -5046,11 +5100,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -5066,7 +5120,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
@@ -5074,7 +5128,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="10"/>
@@ -5082,7 +5136,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="12"/>
@@ -5090,7 +5144,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="14"/>
@@ -5247,6 +5301,12 @@
       </c>
       <c r="DL15" t="s">
         <v>110</v>
+      </c>
+      <c r="DO15">
+        <v>45</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>136</v>
       </c>
       <c r="GY15">
         <v>59</v>
@@ -5284,11 +5344,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>723</v>
+        <v>800</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -5304,11 +5364,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5320,11 +5380,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="13"/>
@@ -5368,27 +5428,27 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB16">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
@@ -5473,6 +5533,18 @@
       </c>
       <c r="DL16" t="s">
         <v>110</v>
+      </c>
+      <c r="DO16">
+        <v>77</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ16">
+        <v>2</v>
+      </c>
+      <c r="DR16">
+        <v>1</v>
       </c>
       <c r="GY16">
         <v>18</v>
@@ -5519,11 +5591,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
@@ -5539,7 +5611,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
@@ -5547,7 +5619,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="10"/>
@@ -5555,7 +5627,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="12"/>
@@ -5563,7 +5635,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
@@ -5692,6 +5764,12 @@
         <v>13</v>
       </c>
       <c r="DL17" t="s">
+        <v>136</v>
+      </c>
+      <c r="DO17">
+        <v>13</v>
+      </c>
+      <c r="DP17" t="s">
         <v>136</v>
       </c>
       <c r="HC17">
@@ -5727,11 +5805,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
@@ -5747,11 +5825,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -5763,11 +5841,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="13"/>
@@ -5811,11 +5889,11 @@
       </c>
       <c r="W18" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="23"/>
@@ -5827,7 +5905,7 @@
       </c>
       <c r="AA18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <f t="shared" si="26"/>
@@ -5916,6 +5994,15 @@
       </c>
       <c r="DL18" t="s">
         <v>136</v>
+      </c>
+      <c r="DO18">
+        <v>69</v>
+      </c>
+      <c r="DP18" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ18">
+        <v>1</v>
       </c>
       <c r="GY18">
         <v>18</v>
@@ -5959,11 +6046,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
@@ -5979,7 +6066,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -5987,7 +6074,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -5995,7 +6082,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
@@ -6003,7 +6090,7 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="14"/>
@@ -6127,6 +6214,12 @@
       </c>
       <c r="DL19" t="s">
         <v>139</v>
+      </c>
+      <c r="DO19">
+        <v>21</v>
+      </c>
+      <c r="DP19" t="s">
+        <v>136</v>
       </c>
       <c r="GY19">
         <v>72</v>
@@ -6173,11 +6266,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -6193,11 +6286,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -6209,11 +6302,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="13"/>
@@ -6257,27 +6350,27 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <f t="shared" si="27"/>
@@ -6371,6 +6464,18 @@
       </c>
       <c r="DL20" t="s">
         <v>110</v>
+      </c>
+      <c r="DO20">
+        <v>77</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ20">
+        <v>1</v>
+      </c>
+      <c r="DR20">
+        <v>1</v>
       </c>
       <c r="GY20">
         <v>31</v>
@@ -6589,6 +6694,9 @@
       <c r="DL21" t="s">
         <v>139</v>
       </c>
+      <c r="DP21" t="s">
+        <v>139</v>
+      </c>
       <c r="HD21" t="s">
         <v>139</v>
       </c>
@@ -6600,11 +6708,11 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -6625,11 +6733,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>910</v>
+        <v>1000</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -6645,11 +6753,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -6661,11 +6769,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="13"/>
@@ -6717,11 +6825,11 @@
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <f t="shared" si="25"/>
@@ -6729,7 +6837,7 @@
       </c>
       <c r="AB22">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <f t="shared" si="27"/>
@@ -6820,6 +6928,15 @@
       </c>
       <c r="DL22" t="s">
         <v>110</v>
+      </c>
+      <c r="DO22">
+        <v>90</v>
+      </c>
+      <c r="DP22" t="s">
+        <v>110</v>
+      </c>
+      <c r="DR22">
+        <v>1</v>
       </c>
       <c r="GY22">
         <v>90</v>
@@ -7005,6 +7122,9 @@
       <c r="DL23" t="s">
         <v>139</v>
       </c>
+      <c r="DP23" t="s">
+        <v>139</v>
+      </c>
       <c r="HD23" t="s">
         <v>139</v>
       </c>
@@ -7022,11 +7142,11 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -7047,11 +7167,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
@@ -7067,11 +7187,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -7083,11 +7203,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="13"/>
@@ -7223,6 +7343,12 @@
         <v>90</v>
       </c>
       <c r="DL24" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO24">
+        <v>90</v>
+      </c>
+      <c r="DP24" t="s">
         <v>110</v>
       </c>
       <c r="GY24">
@@ -7264,11 +7390,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
@@ -7284,7 +7410,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="8"/>
@@ -7292,7 +7418,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="10"/>
@@ -7300,7 +7426,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="12"/>
@@ -7308,7 +7434,7 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="14"/>
@@ -7441,6 +7567,12 @@
       </c>
       <c r="DL25" t="s">
         <v>139</v>
+      </c>
+      <c r="DO25">
+        <v>13</v>
+      </c>
+      <c r="DP25" t="s">
+        <v>136</v>
       </c>
       <c r="GY25">
         <v>90</v>
@@ -7680,6 +7812,9 @@
       <c r="DL26" t="s">
         <v>110</v>
       </c>
+      <c r="DP26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -7694,11 +7829,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -7855,16 +7990,19 @@
       <c r="DL27" t="s">
         <v>139</v>
       </c>
+      <c r="DP27" t="s">
+        <v>139</v>
+      </c>
       <c r="HD27" t="s">
         <v>139</v>
       </c>
       <c r="PS27" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT27" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU27" s="3">
         <f t="shared" si="35"/>
@@ -7885,11 +8023,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
@@ -7905,7 +8043,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
@@ -7913,7 +8051,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="10"/>
@@ -7921,7 +8059,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="12"/>
@@ -7929,7 +8067,7 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="14"/>
@@ -7977,11 +8115,11 @@
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <f t="shared" si="25"/>
@@ -7989,7 +8127,7 @@
       </c>
       <c r="AB28">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <f t="shared" si="27"/>
@@ -8020,6 +8158,15 @@
       </c>
       <c r="DL28" t="s">
         <v>110</v>
+      </c>
+      <c r="DO28">
+        <v>50</v>
+      </c>
+      <c r="DP28" t="s">
+        <v>136</v>
+      </c>
+      <c r="DR28">
+        <v>1</v>
       </c>
       <c r="GY28">
         <v>79</v>
@@ -8066,11 +8213,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
@@ -8086,11 +8233,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="9"/>
@@ -8102,11 +8249,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="13"/>
@@ -8200,6 +8347,12 @@
         <v>90</v>
       </c>
       <c r="DL29" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO29">
+        <v>45</v>
+      </c>
+      <c r="DP29" t="s">
         <v>110</v>
       </c>
       <c r="HC29">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05CD37A-713C-BC41-B663-2960C1C4C481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDACFA-4DC2-D04E-BBEB-899F0574BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="145">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>CDF T4</t>
+  </si>
+  <si>
+    <t>CDF T5</t>
   </si>
 </sst>
 </file>
@@ -941,8 +944,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DT20" sqref="DT20"/>
+      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HK23" sqref="HK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,7 +1598,7 @@
         <v>71</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="HH1" s="1" t="s">
         <v>92</v>
@@ -2308,7 +2311,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTIF(AI2:PR2,"NR")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
@@ -2340,7 +2343,7 @@
       </c>
       <c r="R2" s="3">
         <f>COUNTIF(GY2:IT2,"NR")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
@@ -2467,6 +2470,9 @@
         <v>110</v>
       </c>
       <c r="HD2" t="s">
+        <v>138</v>
+      </c>
+      <c r="HH2" t="s">
         <v>138</v>
       </c>
       <c r="PS2" s="3">
@@ -2650,6 +2656,9 @@
       <c r="HD3" t="s">
         <v>139</v>
       </c>
+      <c r="HH3" t="s">
+        <v>139</v>
+      </c>
       <c r="IY3">
         <v>90</v>
       </c>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
@@ -2672,7 +2681,7 @@
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV3">
         <f t="shared" si="2"/>
@@ -2689,7 +2698,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2697,7 +2706,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
@@ -2709,11 +2718,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2741,11 +2750,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
@@ -2868,6 +2877,12 @@
         <v>90</v>
       </c>
       <c r="HD4" t="s">
+        <v>110</v>
+      </c>
+      <c r="HG4">
+        <v>90</v>
+      </c>
+      <c r="HH4" t="s">
         <v>110</v>
       </c>
       <c r="IU4">
@@ -2903,7 +2918,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
@@ -2911,7 +2926,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <f t="shared" si="5"/>
@@ -2923,11 +2938,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="9"/>
@@ -2955,11 +2970,11 @@
       </c>
       <c r="O5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="17"/>
@@ -3092,6 +3107,12 @@
       </c>
       <c r="HD5" t="s">
         <v>139</v>
+      </c>
+      <c r="HG5">
+        <v>85</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>110</v>
       </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
@@ -3304,9 +3325,12 @@
       <c r="HD6" t="s">
         <v>139</v>
       </c>
+      <c r="HH6" t="s">
+        <v>139</v>
+      </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
@@ -3314,7 +3338,7 @@
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV6">
         <f t="shared" si="2"/>
@@ -3331,7 +3355,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>579</v>
+        <v>669</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -3339,7 +3363,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
@@ -3351,11 +3375,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3383,11 +3407,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="17"/>
@@ -3513,6 +3537,12 @@
         <v>90</v>
       </c>
       <c r="HD7" t="s">
+        <v>110</v>
+      </c>
+      <c r="HG7">
+        <v>90</v>
+      </c>
+      <c r="HH7" t="s">
         <v>110</v>
       </c>
       <c r="PS7" s="3">
@@ -3729,6 +3759,9 @@
       <c r="HD8" t="s">
         <v>136</v>
       </c>
+      <c r="HH8" t="s">
+        <v>139</v>
+      </c>
       <c r="IU8">
         <v>90</v>
       </c>
@@ -3743,7 +3776,7 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
@@ -3751,7 +3784,7 @@
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV8">
         <f t="shared" si="2"/>
@@ -3768,7 +3801,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>820</v>
+        <v>910</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -3776,7 +3809,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -3788,11 +3821,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -3820,11 +3853,11 @@
       </c>
       <c r="O9">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="17"/>
@@ -3972,6 +4005,12 @@
       </c>
       <c r="HD9" t="s">
         <v>136</v>
+      </c>
+      <c r="HG9">
+        <v>90</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>110</v>
       </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
@@ -4187,9 +4226,12 @@
       <c r="HD10" t="s">
         <v>139</v>
       </c>
+      <c r="HH10" t="s">
+        <v>139</v>
+      </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
@@ -4197,7 +4239,7 @@
       </c>
       <c r="PU10" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV10">
         <f t="shared" si="2"/>
@@ -4413,9 +4455,12 @@
       <c r="HD11" t="s">
         <v>139</v>
       </c>
+      <c r="HH11" t="s">
+        <v>139</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
@@ -4423,7 +4468,7 @@
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV11">
         <f t="shared" si="2"/>
@@ -4838,9 +4883,12 @@
       <c r="HD13" t="s">
         <v>139</v>
       </c>
+      <c r="HH13" t="s">
+        <v>139</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
@@ -4848,7 +4896,7 @@
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV13">
         <f t="shared" si="2"/>
@@ -4865,7 +4913,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>792</v>
+        <v>837</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -4873,7 +4921,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -4885,7 +4933,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
@@ -4893,7 +4941,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="10"/>
@@ -4917,7 +4965,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="16"/>
@@ -4925,7 +4973,7 @@
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="18"/>
@@ -4949,11 +4997,11 @@
       </c>
       <c r="W14" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="23"/>
@@ -4973,7 +5021,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f t="shared" si="28"/>
@@ -5072,6 +5120,15 @@
       </c>
       <c r="HD14" t="s">
         <v>110</v>
+      </c>
+      <c r="HG14">
+        <v>45</v>
+      </c>
+      <c r="HH14" t="s">
+        <v>136</v>
+      </c>
+      <c r="HI14">
+        <v>1</v>
       </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
@@ -5100,7 +5157,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -5108,7 +5165,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
@@ -5120,11 +5177,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
@@ -5152,11 +5209,11 @@
       </c>
       <c r="O15">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="17"/>
@@ -5316,6 +5373,12 @@
       </c>
       <c r="HD15" t="s">
         <v>139</v>
+      </c>
+      <c r="HG15">
+        <v>45</v>
+      </c>
+      <c r="HH15" t="s">
+        <v>110</v>
       </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
@@ -5344,7 +5407,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>800</v>
+        <v>845</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -5352,7 +5415,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -5364,7 +5427,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
@@ -5372,7 +5435,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="10"/>
@@ -5396,7 +5459,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="16"/>
@@ -5404,7 +5467,7 @@
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="18"/>
@@ -5563,6 +5626,12 @@
       </c>
       <c r="HF16">
         <v>1</v>
+      </c>
+      <c r="HG16">
+        <v>45</v>
+      </c>
+      <c r="HH16" t="s">
+        <v>136</v>
       </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
@@ -5778,9 +5847,12 @@
       <c r="HD17" t="s">
         <v>110</v>
       </c>
+      <c r="HH17" t="s">
+        <v>139</v>
+      </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT17" s="3">
         <f t="shared" si="34"/>
@@ -5788,7 +5860,7 @@
       </c>
       <c r="PU17" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV17">
         <f t="shared" si="2"/>
@@ -5805,7 +5877,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>483</v>
+        <v>573</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -5813,7 +5885,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -5825,11 +5897,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -5857,11 +5929,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="17"/>
@@ -6018,6 +6090,12 @@
       </c>
       <c r="HF18">
         <v>1</v>
+      </c>
+      <c r="HG18">
+        <v>90</v>
+      </c>
+      <c r="HH18" t="s">
+        <v>110</v>
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
@@ -6046,7 +6124,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -6054,7 +6132,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
@@ -6066,11 +6144,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
@@ -6098,11 +6176,11 @@
       </c>
       <c r="O19">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="17"/>
@@ -6232,6 +6310,12 @@
       </c>
       <c r="HD19" t="s">
         <v>136</v>
+      </c>
+      <c r="HG19">
+        <v>65</v>
+      </c>
+      <c r="HH19" t="s">
+        <v>110</v>
       </c>
       <c r="IY19">
         <v>90</v>
@@ -6266,7 +6350,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>708</v>
+        <v>753</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -6274,7 +6358,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
@@ -6286,11 +6370,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -6318,11 +6402,11 @@
       </c>
       <c r="O20">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="17"/>
@@ -6494,6 +6578,12 @@
       </c>
       <c r="HE20">
         <v>2</v>
+      </c>
+      <c r="HG20">
+        <v>45</v>
+      </c>
+      <c r="HH20" t="s">
+        <v>110</v>
       </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
@@ -6700,6 +6790,9 @@
       <c r="HD21" t="s">
         <v>139</v>
       </c>
+      <c r="HH21" t="s">
+        <v>139</v>
+      </c>
       <c r="IU21">
         <v>68</v>
       </c>
@@ -6708,7 +6801,7 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
@@ -6716,7 +6809,7 @@
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV21">
         <f t="shared" si="2"/>
@@ -6733,7 +6826,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -6741,7 +6834,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
@@ -6753,11 +6846,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -6785,11 +6878,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="17"/>
@@ -6952,6 +7045,12 @@
       </c>
       <c r="HE22">
         <v>1</v>
+      </c>
+      <c r="HG22">
+        <v>90</v>
+      </c>
+      <c r="HH22" t="s">
+        <v>110</v>
       </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
@@ -7128,6 +7227,9 @@
       <c r="HD23" t="s">
         <v>139</v>
       </c>
+      <c r="HH23" t="s">
+        <v>139</v>
+      </c>
       <c r="IU23">
         <v>90</v>
       </c>
@@ -7142,7 +7244,7 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
@@ -7150,7 +7252,7 @@
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV23">
         <f t="shared" si="2"/>
@@ -7167,7 +7269,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
@@ -7175,7 +7277,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
@@ -7187,7 +7289,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
@@ -7195,7 +7297,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="10"/>
@@ -7219,7 +7321,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="16"/>
@@ -7227,7 +7329,7 @@
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="18"/>
@@ -7362,6 +7464,12 @@
       </c>
       <c r="HD24" t="s">
         <v>110</v>
+      </c>
+      <c r="HG24">
+        <v>5</v>
+      </c>
+      <c r="HH24" t="s">
+        <v>136</v>
       </c>
       <c r="PS24" s="3">
         <f t="shared" si="33"/>
@@ -7390,7 +7498,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
@@ -7398,7 +7506,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
@@ -7410,7 +7518,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="8"/>
@@ -7418,7 +7526,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="10"/>
@@ -7442,7 +7550,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" si="16"/>
@@ -7450,7 +7558,7 @@
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="3">
         <f t="shared" si="18"/>
@@ -7585,6 +7693,12 @@
       </c>
       <c r="HD25" t="s">
         <v>139</v>
+      </c>
+      <c r="HG25">
+        <v>25</v>
+      </c>
+      <c r="HH25" t="s">
+        <v>136</v>
       </c>
       <c r="IY25">
         <v>90</v>
@@ -7827,9 +7941,12 @@
       <c r="HD26" t="s">
         <v>110</v>
       </c>
+      <c r="HH26" t="s">
+        <v>139</v>
+      </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
@@ -7837,7 +7954,7 @@
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV26">
         <f t="shared" si="2"/>
@@ -7854,7 +7971,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -7862,7 +7979,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
@@ -7874,11 +7991,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -7906,11 +8023,11 @@
       </c>
       <c r="O27">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="17"/>
@@ -7995,6 +8112,12 @@
       </c>
       <c r="HD27" t="s">
         <v>139</v>
+      </c>
+      <c r="HG27">
+        <v>90</v>
+      </c>
+      <c r="HH27" t="s">
+        <v>110</v>
       </c>
       <c r="PS27" s="3">
         <f t="shared" si="33"/>
@@ -8023,7 +8146,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -8031,7 +8154,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
@@ -8043,11 +8166,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -8075,11 +8198,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="17"/>
@@ -8178,6 +8301,12 @@
         <v>77</v>
       </c>
       <c r="HD28" t="s">
+        <v>110</v>
+      </c>
+      <c r="HG28">
+        <v>90</v>
+      </c>
+      <c r="HH28" t="s">
         <v>110</v>
       </c>
       <c r="IU28">
@@ -8361,9 +8490,12 @@
       <c r="HD29" t="s">
         <v>110</v>
       </c>
+      <c r="HH29" t="s">
+        <v>139</v>
+      </c>
       <c r="PS29" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT29" s="3">
         <f t="shared" si="34"/>
@@ -8371,7 +8503,7 @@
       </c>
       <c r="PU29" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV29">
         <f t="shared" si="2"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDACFA-4DC2-D04E-BBEB-899F0574BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20606603-C96A-B142-8A8F-64004C7F768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="145">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -944,8 +944,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HK23" sqref="HK23"/>
+      <pane xSplit="1" topLeftCell="DR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DX23" sqref="DX23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,11 +2279,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2315,11 +2315,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2467,6 +2467,12 @@
         <v>90</v>
       </c>
       <c r="DP2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DS2">
+        <v>90</v>
+      </c>
+      <c r="DT2" t="s">
         <v>110</v>
       </c>
       <c r="HD2" t="s">
@@ -2653,6 +2659,9 @@
       <c r="DP3" t="s">
         <v>139</v>
       </c>
+      <c r="DT3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2673,11 +2682,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
@@ -2746,7 +2755,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4" si="45">COUNTIF(CY4:GX4,"NR")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
@@ -2866,6 +2875,9 @@
       </c>
       <c r="DP4" t="s">
         <v>139</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>138</v>
       </c>
       <c r="GY4">
         <v>90</v>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D5">
         <f t="shared" si="4"/>
@@ -2938,11 +2950,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="13"/>
@@ -3104,6 +3116,12 @@
       </c>
       <c r="DP5" t="s">
         <v>139</v>
+      </c>
+      <c r="DS5">
+        <v>90</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>110</v>
       </c>
       <c r="HD5" t="s">
         <v>139</v>
@@ -3322,6 +3340,9 @@
       <c r="DP6" t="s">
         <v>139</v>
       </c>
+      <c r="DT6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3330,11 +3351,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3355,11 +3376,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
@@ -3375,11 +3396,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3391,11 +3412,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="13"/>
@@ -3525,6 +3546,12 @@
         <v>90</v>
       </c>
       <c r="DP7" t="s">
+        <v>110</v>
+      </c>
+      <c r="DS7">
+        <v>90</v>
+      </c>
+      <c r="DT7" t="s">
         <v>110</v>
       </c>
       <c r="GY7">
@@ -3747,6 +3774,9 @@
       <c r="DP8" t="s">
         <v>139</v>
       </c>
+      <c r="DT8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -3776,11 +3806,11 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3801,11 +3831,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>910</v>
+        <v>1000</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -3821,11 +3851,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -3837,11 +3867,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="13"/>
@@ -3998,6 +4028,12 @@
         <v>90</v>
       </c>
       <c r="DP9" t="s">
+        <v>110</v>
+      </c>
+      <c r="DS9">
+        <v>90</v>
+      </c>
+      <c r="DT9" t="s">
         <v>110</v>
       </c>
       <c r="HC9">
@@ -4223,6 +4259,9 @@
       <c r="DP10" t="s">
         <v>139</v>
       </c>
+      <c r="DT10" t="s">
+        <v>139</v>
+      </c>
       <c r="HD10" t="s">
         <v>139</v>
       </c>
@@ -4231,11 +4270,11 @@
       </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU10" s="3">
         <f t="shared" si="35"/>
@@ -4288,7 +4327,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" si="11"/>
@@ -4304,7 +4343,7 @@
       </c>
       <c r="N11" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <f t="shared" si="15"/>
@@ -4445,6 +4484,9 @@
       </c>
       <c r="DP11" t="s">
         <v>110</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>138</v>
       </c>
       <c r="GY11">
         <v>90</v>
@@ -4672,13 +4714,16 @@
       <c r="DP12" t="s">
         <v>139</v>
       </c>
+      <c r="DT12" t="s">
+        <v>139</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
@@ -4880,6 +4925,9 @@
       <c r="DP13" t="s">
         <v>139</v>
       </c>
+      <c r="DT13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -4888,11 +4936,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -4913,11 +4961,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>837</v>
+        <v>927</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -4933,11 +4981,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -4949,11 +4997,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="13"/>
@@ -4997,11 +5045,11 @@
       </c>
       <c r="W14" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="23"/>
@@ -5013,7 +5061,7 @@
       </c>
       <c r="AA14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f t="shared" si="26"/>
@@ -5108,6 +5156,15 @@
       </c>
       <c r="DP14" t="s">
         <v>110</v>
+      </c>
+      <c r="DS14">
+        <v>90</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>110</v>
+      </c>
+      <c r="DU14">
+        <v>1</v>
       </c>
       <c r="GY14">
         <v>90</v>
@@ -5157,11 +5214,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -5177,11 +5234,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
@@ -5193,11 +5250,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="13"/>
@@ -5364,6 +5421,12 @@
       </c>
       <c r="DP15" t="s">
         <v>136</v>
+      </c>
+      <c r="DS15">
+        <v>60</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>110</v>
       </c>
       <c r="GY15">
         <v>59</v>
@@ -5407,11 +5470,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>845</v>
+        <v>933</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>437</v>
+        <v>525</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -5427,11 +5490,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5443,11 +5506,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="13"/>
@@ -5499,11 +5562,11 @@
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
@@ -5511,7 +5574,7 @@
       </c>
       <c r="AB16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
@@ -5607,6 +5670,15 @@
         <v>2</v>
       </c>
       <c r="DR16">
+        <v>1</v>
+      </c>
+      <c r="DS16">
+        <v>88</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>110</v>
+      </c>
+      <c r="DV16">
         <v>1</v>
       </c>
       <c r="GY16">
@@ -5841,6 +5913,9 @@
       <c r="DP17" t="s">
         <v>136</v>
       </c>
+      <c r="DT17" t="s">
+        <v>139</v>
+      </c>
       <c r="HC17">
         <v>58</v>
       </c>
@@ -5852,11 +5927,11 @@
       </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT17" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU17" s="3">
         <f t="shared" si="35"/>
@@ -5877,11 +5952,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
@@ -5897,7 +5972,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
@@ -5905,7 +5980,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="10"/>
@@ -5913,7 +5988,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="12"/>
@@ -5921,7 +5996,7 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="14"/>
@@ -6075,6 +6150,12 @@
       </c>
       <c r="DQ18">
         <v>1</v>
+      </c>
+      <c r="DS18">
+        <v>30</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>136</v>
       </c>
       <c r="GY18">
         <v>18</v>
@@ -6124,11 +6205,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
@@ -6144,7 +6225,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -6152,7 +6233,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -6160,7 +6241,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
@@ -6168,7 +6249,7 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="14"/>
@@ -6297,6 +6378,12 @@
         <v>21</v>
       </c>
       <c r="DP19" t="s">
+        <v>136</v>
+      </c>
+      <c r="DS19">
+        <v>2</v>
+      </c>
+      <c r="DT19" t="s">
         <v>136</v>
       </c>
       <c r="GY19">
@@ -6350,11 +6437,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>753</v>
+        <v>833</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -6370,11 +6457,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -6386,11 +6473,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="13"/>
@@ -6560,6 +6647,12 @@
       </c>
       <c r="DR20">
         <v>1</v>
+      </c>
+      <c r="DS20">
+        <v>80</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>110</v>
       </c>
       <c r="GY20">
         <v>31</v>
@@ -6787,6 +6880,9 @@
       <c r="DP21" t="s">
         <v>139</v>
       </c>
+      <c r="DT21" t="s">
+        <v>139</v>
+      </c>
       <c r="HD21" t="s">
         <v>139</v>
       </c>
@@ -6801,11 +6897,11 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -6826,11 +6922,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1090</v>
+        <v>1180</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -6846,11 +6942,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -6862,11 +6958,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="13"/>
@@ -7030,6 +7126,12 @@
       </c>
       <c r="DR22">
         <v>1</v>
+      </c>
+      <c r="DS22">
+        <v>90</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>110</v>
       </c>
       <c r="GY22">
         <v>90</v>
@@ -7224,6 +7326,9 @@
       <c r="DP23" t="s">
         <v>139</v>
       </c>
+      <c r="DT23" t="s">
+        <v>139</v>
+      </c>
       <c r="HD23" t="s">
         <v>139</v>
       </c>
@@ -7244,11 +7349,11 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -7453,6 +7558,9 @@
       <c r="DP24" t="s">
         <v>110</v>
       </c>
+      <c r="DT24" t="s">
+        <v>139</v>
+      </c>
       <c r="GY24">
         <v>90</v>
       </c>
@@ -7473,11 +7581,11 @@
       </c>
       <c r="PS24" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT24" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU24" s="3">
         <f t="shared" si="35"/>
@@ -7498,11 +7606,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
@@ -7518,7 +7626,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="8"/>
@@ -7526,7 +7634,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="10"/>
@@ -7534,7 +7642,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="12"/>
@@ -7542,7 +7650,7 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="14"/>
@@ -7680,6 +7788,12 @@
         <v>13</v>
       </c>
       <c r="DP25" t="s">
+        <v>136</v>
+      </c>
+      <c r="DS25">
+        <v>10</v>
+      </c>
+      <c r="DT25" t="s">
         <v>136</v>
       </c>
       <c r="GY25">
@@ -7929,6 +8043,9 @@
       <c r="DP26" t="s">
         <v>139</v>
       </c>
+      <c r="DT26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -7946,11 +8063,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -7971,11 +8088,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
@@ -7991,11 +8108,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8007,11 +8124,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="13"/>
@@ -8109,6 +8226,12 @@
       </c>
       <c r="DP27" t="s">
         <v>139</v>
+      </c>
+      <c r="DS27">
+        <v>90</v>
+      </c>
+      <c r="DT27" t="s">
+        <v>110</v>
       </c>
       <c r="HD27" t="s">
         <v>139</v>
@@ -8146,11 +8269,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
@@ -8166,11 +8289,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -8182,11 +8305,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="13"/>
@@ -8290,6 +8413,12 @@
       </c>
       <c r="DR28">
         <v>1</v>
+      </c>
+      <c r="DS28">
+        <v>90</v>
+      </c>
+      <c r="DT28" t="s">
+        <v>110</v>
       </c>
       <c r="GY28">
         <v>79</v>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20606603-C96A-B142-8A8F-64004C7F768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D5B65-77AD-384D-8E4D-F71F65E0EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="145">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -944,8 +944,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DX23" sqref="DX23"/>
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JK14" sqref="JK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="37"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
@@ -3179,11 +3179,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="9"/>
@@ -3227,11 +3227,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="0"/>
@@ -3348,6 +3348,12 @@
       </c>
       <c r="HH6" t="s">
         <v>139</v>
+      </c>
+      <c r="JC6">
+        <v>90</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>110</v>
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
@@ -3599,7 +3605,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>374</v>
+        <v>464</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -3611,7 +3617,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
@@ -3619,11 +3625,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="9"/>
@@ -3667,11 +3673,11 @@
       </c>
       <c r="S8">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="0"/>
@@ -3802,6 +3808,12 @@
         <v>90</v>
       </c>
       <c r="IZ8" t="s">
+        <v>110</v>
+      </c>
+      <c r="JC8">
+        <v>90</v>
+      </c>
+      <c r="JD8" t="s">
         <v>110</v>
       </c>
       <c r="PS8" s="3">
@@ -4075,7 +4087,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>376</v>
+        <v>511</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
@@ -4087,7 +4099,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F10">
         <f t="shared" si="6"/>
@@ -4095,11 +4107,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="9"/>
@@ -4143,11 +4155,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="0"/>
@@ -4267,6 +4279,18 @@
       </c>
       <c r="HH10" t="s">
         <v>139</v>
+      </c>
+      <c r="JC10">
+        <v>45</v>
+      </c>
+      <c r="JD10" t="s">
+        <v>110</v>
+      </c>
+      <c r="JG10">
+        <v>90</v>
+      </c>
+      <c r="JH10" t="s">
+        <v>110</v>
       </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
@@ -7847,7 +7871,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>386</v>
+        <v>476</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -7859,7 +7883,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
@@ -7867,11 +7891,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
@@ -7915,11 +7939,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="0"/>
@@ -8060,6 +8084,12 @@
       </c>
       <c r="HH26" t="s">
         <v>139</v>
+      </c>
+      <c r="JC26">
+        <v>90</v>
+      </c>
+      <c r="JD26" t="s">
+        <v>110</v>
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D5B65-77AD-384D-8E4D-F71F65E0EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4B6640-40A1-9D4E-9700-AEC8C4FE19B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="146">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>CDF T5</t>
+  </si>
+  <si>
+    <t>CDF T6</t>
   </si>
 </sst>
 </file>
@@ -944,8 +947,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JK14" sqref="JK14"/>
+      <pane xSplit="1" topLeftCell="JA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JP22" sqref="JP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1613,7 @@
         <v>71</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="HL1" s="1" t="s">
         <v>92</v>
@@ -2311,7 +2314,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTIF(AI2:PR2,"NR")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="R2" s="3">
         <f>COUNTIF(GY2:IT2,"NR")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
@@ -2479,6 +2482,9 @@
         <v>138</v>
       </c>
       <c r="HH2" t="s">
+        <v>138</v>
+      </c>
+      <c r="HL2" t="s">
         <v>138</v>
       </c>
       <c r="PS2" s="3">
@@ -2508,7 +2514,7 @@
       </c>
       <c r="B3">
         <f>SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3,CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3,GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3,IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C29" si="3">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
@@ -2520,7 +2526,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E29" si="5">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="6">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G29" si="7">SUM(H3:I3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H29" si="8">COUNTIF(AI3:PR3,"T")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I29" si="9">COUNTIF(AI3:PR3,"R")</f>
@@ -2576,11 +2582,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S29" si="19">SUM(T3:U3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:T29" si="20">COUNTIF(IU3:PR3,"T")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" si="0"/>
@@ -2668,10 +2674,19 @@
       <c r="HH3" t="s">
         <v>139</v>
       </c>
+      <c r="HL3" t="s">
+        <v>139</v>
+      </c>
       <c r="IY3">
         <v>90</v>
       </c>
       <c r="IZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="JK3">
+        <v>90</v>
+      </c>
+      <c r="JL3" t="s">
         <v>110</v>
       </c>
       <c r="ME3">
@@ -2682,7 +2697,7 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
@@ -2690,7 +2705,7 @@
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV3">
         <f t="shared" si="2"/>
@@ -2707,7 +2722,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>570</v>
+        <v>660</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2715,7 +2730,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
@@ -2727,11 +2742,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2759,11 +2774,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
@@ -2895,6 +2910,12 @@
         <v>90</v>
       </c>
       <c r="HH4" t="s">
+        <v>110</v>
+      </c>
+      <c r="HK4">
+        <v>90</v>
+      </c>
+      <c r="HL4" t="s">
         <v>110</v>
       </c>
       <c r="IU4">
@@ -2930,7 +2951,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
@@ -2938,7 +2959,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <f t="shared" si="5"/>
@@ -2950,11 +2971,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="9"/>
@@ -2982,11 +3003,11 @@
       </c>
       <c r="O5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="17"/>
@@ -3130,6 +3151,12 @@
         <v>85</v>
       </c>
       <c r="HH5" t="s">
+        <v>110</v>
+      </c>
+      <c r="HK5">
+        <v>90</v>
+      </c>
+      <c r="HL5" t="s">
         <v>110</v>
       </c>
       <c r="PS5" s="3">
@@ -3349,6 +3376,9 @@
       <c r="HH6" t="s">
         <v>139</v>
       </c>
+      <c r="HL6" t="s">
+        <v>139</v>
+      </c>
       <c r="JC6">
         <v>90</v>
       </c>
@@ -3357,7 +3387,7 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
@@ -3365,7 +3395,7 @@
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV6">
         <f t="shared" si="2"/>
@@ -3382,7 +3412,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>759</v>
+        <v>849</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -3390,7 +3420,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
@@ -3402,11 +3432,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3434,11 +3464,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="17"/>
@@ -3576,6 +3606,12 @@
         <v>90</v>
       </c>
       <c r="HH7" t="s">
+        <v>110</v>
+      </c>
+      <c r="HK7">
+        <v>90</v>
+      </c>
+      <c r="HL7" t="s">
         <v>110</v>
       </c>
       <c r="PS7" s="3">
@@ -3798,6 +3834,9 @@
       <c r="HH8" t="s">
         <v>139</v>
       </c>
+      <c r="HL8" t="s">
+        <v>139</v>
+      </c>
       <c r="IU8">
         <v>90</v>
       </c>
@@ -3818,7 +3857,7 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
@@ -3826,7 +3865,7 @@
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV8">
         <f t="shared" si="2"/>
@@ -3843,7 +3882,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -3851,7 +3890,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -3863,7 +3902,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
@@ -3871,7 +3910,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="10"/>
@@ -3895,7 +3934,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="16"/>
@@ -3903,7 +3942,7 @@
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="18"/>
@@ -3935,11 +3974,11 @@
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="25"/>
@@ -3955,7 +3994,7 @@
       </c>
       <c r="AD9">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="29"/>
@@ -4059,6 +4098,15 @@
       </c>
       <c r="HH9" t="s">
         <v>110</v>
+      </c>
+      <c r="HK9">
+        <v>26</v>
+      </c>
+      <c r="HL9" t="s">
+        <v>136</v>
+      </c>
+      <c r="HN9">
+        <v>1</v>
       </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
@@ -4087,7 +4135,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
@@ -4095,7 +4143,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
@@ -4107,7 +4155,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="8"/>
@@ -4115,7 +4163,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
@@ -4139,7 +4187,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="16"/>
@@ -4147,7 +4195,7 @@
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="18"/>
@@ -4171,11 +4219,11 @@
       </c>
       <c r="W10" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="23"/>
@@ -4195,7 +4243,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" si="28"/>
@@ -4279,6 +4327,15 @@
       </c>
       <c r="HH10" t="s">
         <v>139</v>
+      </c>
+      <c r="HK10">
+        <v>45</v>
+      </c>
+      <c r="HL10" t="s">
+        <v>136</v>
+      </c>
+      <c r="HM10">
+        <v>1</v>
       </c>
       <c r="JC10">
         <v>45</v>
@@ -4319,7 +4376,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -4327,7 +4384,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
@@ -4339,11 +4396,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
@@ -4371,11 +4428,11 @@
       </c>
       <c r="O11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="17"/>
@@ -4523,6 +4580,12 @@
       </c>
       <c r="HH11" t="s">
         <v>139</v>
+      </c>
+      <c r="HK11">
+        <v>64</v>
+      </c>
+      <c r="HL11" t="s">
+        <v>110</v>
       </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
@@ -4741,9 +4804,12 @@
       <c r="DT12" t="s">
         <v>139</v>
       </c>
+      <c r="HL12" t="s">
+        <v>139</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
@@ -4751,7 +4817,7 @@
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV12">
         <f t="shared" si="2"/>
@@ -4958,9 +5024,12 @@
       <c r="HH13" t="s">
         <v>139</v>
       </c>
+      <c r="HL13" t="s">
+        <v>139</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
@@ -4968,7 +5037,7 @@
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV13">
         <f t="shared" si="2"/>
@@ -4985,7 +5054,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>927</v>
+        <v>1017</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -4993,7 +5062,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -5005,11 +5074,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -5037,11 +5106,11 @@
       </c>
       <c r="O14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="17"/>
@@ -5077,11 +5146,11 @@
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="25"/>
@@ -5097,7 +5166,7 @@
       </c>
       <c r="AD14">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="29"/>
@@ -5209,6 +5278,15 @@
         <v>136</v>
       </c>
       <c r="HI14">
+        <v>1</v>
+      </c>
+      <c r="HK14">
+        <v>90</v>
+      </c>
+      <c r="HL14" t="s">
+        <v>110</v>
+      </c>
+      <c r="HN14">
         <v>1</v>
       </c>
       <c r="PS14" s="3">
@@ -5238,7 +5316,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -5246,7 +5324,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
@@ -5258,7 +5336,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
@@ -5266,7 +5344,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="10"/>
@@ -5290,7 +5368,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="16"/>
@@ -5298,7 +5376,7 @@
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="18"/>
@@ -5330,11 +5408,11 @@
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <f t="shared" si="25"/>
@@ -5350,7 +5428,7 @@
       </c>
       <c r="AD15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
         <f t="shared" si="29"/>
@@ -5466,6 +5544,15 @@
       </c>
       <c r="HH15" t="s">
         <v>110</v>
+      </c>
+      <c r="HK15">
+        <v>26</v>
+      </c>
+      <c r="HL15" t="s">
+        <v>136</v>
+      </c>
+      <c r="HN15">
+        <v>1</v>
       </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
@@ -5494,7 +5581,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>933</v>
+        <v>959</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -5502,7 +5589,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -5514,7 +5601,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
@@ -5522,7 +5609,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="10"/>
@@ -5546,7 +5633,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="16"/>
@@ -5554,7 +5641,7 @@
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="18"/>
@@ -5578,11 +5665,11 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
@@ -5602,7 +5689,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16">
         <f t="shared" si="28"/>
@@ -5728,6 +5815,15 @@
       </c>
       <c r="HH16" t="s">
         <v>136</v>
+      </c>
+      <c r="HK16">
+        <v>26</v>
+      </c>
+      <c r="HL16" t="s">
+        <v>136</v>
+      </c>
+      <c r="HM16">
+        <v>1</v>
       </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
@@ -5949,9 +6045,12 @@
       <c r="HH17" t="s">
         <v>139</v>
       </c>
+      <c r="HL17" t="s">
+        <v>139</v>
+      </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT17" s="3">
         <f t="shared" si="34"/>
@@ -5959,7 +6058,7 @@
       </c>
       <c r="PU17" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV17">
         <f t="shared" si="2"/>
@@ -5976,7 +6075,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -5984,7 +6083,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -5996,11 +6095,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -6028,11 +6127,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="17"/>
@@ -6068,11 +6167,11 @@
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18">
         <f t="shared" si="25"/>
@@ -6088,7 +6187,7 @@
       </c>
       <c r="AD18">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18">
         <f t="shared" si="29"/>
@@ -6201,6 +6300,15 @@
       </c>
       <c r="HH18" t="s">
         <v>110</v>
+      </c>
+      <c r="HK18">
+        <v>45</v>
+      </c>
+      <c r="HL18" t="s">
+        <v>110</v>
+      </c>
+      <c r="HN18">
+        <v>1</v>
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
@@ -6428,6 +6536,9 @@
       <c r="HH19" t="s">
         <v>110</v>
       </c>
+      <c r="HL19" t="s">
+        <v>139</v>
+      </c>
       <c r="IY19">
         <v>90</v>
       </c>
@@ -6436,7 +6547,7 @@
       </c>
       <c r="PS19" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT19" s="3">
         <f t="shared" si="34"/>
@@ -6444,7 +6555,7 @@
       </c>
       <c r="PU19" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV19">
         <f t="shared" si="2"/>
@@ -6461,7 +6572,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>833</v>
+        <v>923</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -6469,7 +6580,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
@@ -6481,11 +6592,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -6513,11 +6624,11 @@
       </c>
       <c r="O20">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="17"/>
@@ -6545,19 +6656,19 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20">
         <f t="shared" si="25"/>
@@ -6569,11 +6680,11 @@
       </c>
       <c r="AC20">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD20">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
         <f t="shared" si="29"/>
@@ -6701,6 +6812,18 @@
       </c>
       <c r="HH20" t="s">
         <v>110</v>
+      </c>
+      <c r="HK20">
+        <v>90</v>
+      </c>
+      <c r="HL20" t="s">
+        <v>110</v>
+      </c>
+      <c r="HM20">
+        <v>4</v>
+      </c>
+      <c r="HN20">
+        <v>1</v>
       </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
@@ -6913,6 +7036,9 @@
       <c r="HH21" t="s">
         <v>139</v>
       </c>
+      <c r="HL21" t="s">
+        <v>139</v>
+      </c>
       <c r="IU21">
         <v>68</v>
       </c>
@@ -6921,7 +7047,7 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
@@ -6929,7 +7055,7 @@
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV21">
         <f t="shared" si="2"/>
@@ -6946,7 +7072,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1180</v>
+        <v>1244</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -6954,7 +7080,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
@@ -6966,11 +7092,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -6998,11 +7124,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="17"/>
@@ -7030,19 +7156,19 @@
       </c>
       <c r="W22" s="3">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X22" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
         <f t="shared" si="25"/>
@@ -7054,11 +7180,11 @@
       </c>
       <c r="AC22">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD22">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
         <f t="shared" si="29"/>
@@ -7177,6 +7303,18 @@
       </c>
       <c r="HH22" t="s">
         <v>110</v>
+      </c>
+      <c r="HK22">
+        <v>64</v>
+      </c>
+      <c r="HL22" t="s">
+        <v>110</v>
+      </c>
+      <c r="HM22">
+        <v>1</v>
+      </c>
+      <c r="HN22">
+        <v>1</v>
       </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
@@ -7359,6 +7497,9 @@
       <c r="HH23" t="s">
         <v>139</v>
       </c>
+      <c r="HL23" t="s">
+        <v>139</v>
+      </c>
       <c r="IU23">
         <v>90</v>
       </c>
@@ -7373,7 +7514,7 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
@@ -7381,7 +7522,7 @@
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV23">
         <f t="shared" si="2"/>
@@ -7603,9 +7744,12 @@
       <c r="HH24" t="s">
         <v>136</v>
       </c>
+      <c r="HL24" t="s">
+        <v>139</v>
+      </c>
       <c r="PS24" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT24" s="3">
         <f t="shared" si="34"/>
@@ -7613,7 +7757,7 @@
       </c>
       <c r="PU24" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV24">
         <f t="shared" si="2"/>
@@ -7630,7 +7774,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>404</v>
+        <v>494</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
@@ -7638,7 +7782,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
@@ -7650,11 +7794,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
@@ -7682,11 +7826,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="17"/>
@@ -7714,11 +7858,11 @@
       </c>
       <c r="W25" s="3">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="23"/>
@@ -7738,7 +7882,7 @@
       </c>
       <c r="AC25">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD25">
         <f t="shared" si="28"/>
@@ -7837,6 +7981,15 @@
       </c>
       <c r="HH25" t="s">
         <v>136</v>
+      </c>
+      <c r="HK25">
+        <v>90</v>
+      </c>
+      <c r="HL25" t="s">
+        <v>110</v>
+      </c>
+      <c r="HM25">
+        <v>3</v>
       </c>
       <c r="IY25">
         <v>90</v>
@@ -7871,7 +8024,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>476</v>
+        <v>566</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -7883,7 +8036,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
@@ -7891,11 +8044,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
@@ -7939,11 +8092,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="0"/>
@@ -8085,15 +8238,24 @@
       <c r="HH26" t="s">
         <v>139</v>
       </c>
+      <c r="HL26" t="s">
+        <v>139</v>
+      </c>
       <c r="JC26">
         <v>90</v>
       </c>
       <c r="JD26" t="s">
+        <v>110</v>
+      </c>
+      <c r="JK26">
+        <v>90</v>
+      </c>
+      <c r="JL26" t="s">
         <v>110</v>
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
@@ -8101,7 +8263,7 @@
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV26">
         <f t="shared" si="2"/>
@@ -8118,7 +8280,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -8126,7 +8288,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
@@ -8138,11 +8300,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8170,11 +8332,11 @@
       </c>
       <c r="O27">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="17"/>
@@ -8270,6 +8432,12 @@
         <v>90</v>
       </c>
       <c r="HH27" t="s">
+        <v>110</v>
+      </c>
+      <c r="HK27">
+        <v>90</v>
+      </c>
+      <c r="HL27" t="s">
         <v>110</v>
       </c>
       <c r="PS27" s="3">
@@ -8299,7 +8467,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -8307,7 +8475,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
@@ -8319,11 +8487,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -8351,11 +8519,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="17"/>
@@ -8391,11 +8559,11 @@
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA28">
         <f t="shared" si="25"/>
@@ -8411,7 +8579,7 @@
       </c>
       <c r="AD28">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE28">
         <f t="shared" si="29"/>
@@ -8467,6 +8635,15 @@
       </c>
       <c r="HH28" t="s">
         <v>110</v>
+      </c>
+      <c r="HK28">
+        <v>64</v>
+      </c>
+      <c r="HL28" t="s">
+        <v>110</v>
+      </c>
+      <c r="HN28">
+        <v>2</v>
       </c>
       <c r="IU28">
         <v>90</v>
@@ -8652,9 +8829,12 @@
       <c r="HH29" t="s">
         <v>139</v>
       </c>
+      <c r="HL29" t="s">
+        <v>139</v>
+      </c>
       <c r="PS29" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT29" s="3">
         <f t="shared" si="34"/>
@@ -8662,7 +8842,7 @@
       </c>
       <c r="PU29" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV29">
         <f t="shared" si="2"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4B6640-40A1-9D4E-9700-AEC8C4FE19B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9E9BF-E88F-234E-8E27-55868B6111F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="146">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -947,8 +947,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JP22" sqref="JP22"/>
+      <pane xSplit="1" topLeftCell="DV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ED13" sqref="ED13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,11 +2282,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>825</v>
+        <v>915</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2476,6 +2476,12 @@
         <v>90</v>
       </c>
       <c r="DT2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW2">
+        <v>90</v>
+      </c>
+      <c r="DX2" t="s">
         <v>110</v>
       </c>
       <c r="HD2" t="s">
@@ -2668,6 +2674,9 @@
       <c r="DT3" t="s">
         <v>139</v>
       </c>
+      <c r="DX3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2697,11 +2706,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2894,6 +2903,9 @@
       <c r="DT4" t="s">
         <v>138</v>
       </c>
+      <c r="DX4" t="s">
+        <v>139</v>
+      </c>
       <c r="GY4">
         <v>90</v>
       </c>
@@ -2926,11 +2938,11 @@
       </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT4" s="3">
         <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU4" s="3">
         <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>745</v>
+        <v>796</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="D5">
         <f t="shared" si="4"/>
@@ -2971,11 +2983,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="9"/>
@@ -2987,11 +2999,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="13"/>
@@ -3142,6 +3154,12 @@
         <v>90</v>
       </c>
       <c r="DT5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW5">
+        <v>51</v>
+      </c>
+      <c r="DX5" t="s">
         <v>110</v>
       </c>
       <c r="HD5" t="s">
@@ -3370,6 +3388,9 @@
       <c r="DT6" t="s">
         <v>139</v>
       </c>
+      <c r="DX6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3387,11 +3408,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3590,6 +3611,9 @@
       <c r="DT7" t="s">
         <v>110</v>
       </c>
+      <c r="DX7" t="s">
+        <v>139</v>
+      </c>
       <c r="GY7">
         <v>90</v>
       </c>
@@ -3616,11 +3640,11 @@
       </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT7" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU7" s="3">
         <f t="shared" si="35"/>
@@ -3819,6 +3843,9 @@
       <c r="DT8" t="s">
         <v>139</v>
       </c>
+      <c r="DX8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -3857,11 +3884,11 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3882,11 +3909,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1026</v>
+        <v>1102</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -3902,11 +3929,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -3918,11 +3945,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="13"/>
@@ -4085,6 +4112,12 @@
         <v>90</v>
       </c>
       <c r="DT9" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW9">
+        <v>76</v>
+      </c>
+      <c r="DX9" t="s">
         <v>110</v>
       </c>
       <c r="HC9">
@@ -4135,11 +4168,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
@@ -4155,7 +4188,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="8"/>
@@ -4163,7 +4196,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
@@ -4171,7 +4204,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="12"/>
@@ -4179,7 +4212,7 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="14"/>
@@ -4321,6 +4354,12 @@
       </c>
       <c r="DT10" t="s">
         <v>139</v>
+      </c>
+      <c r="DW10">
+        <v>39</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>136</v>
       </c>
       <c r="HD10" t="s">
         <v>139</v>
@@ -4376,11 +4415,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
@@ -4396,7 +4435,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
@@ -4404,7 +4443,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="10"/>
@@ -4412,7 +4451,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="12"/>
@@ -4420,7 +4459,7 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="14"/>
@@ -4568,6 +4607,12 @@
       </c>
       <c r="DT11" t="s">
         <v>138</v>
+      </c>
+      <c r="DW11">
+        <v>14</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>136</v>
       </c>
       <c r="GY11">
         <v>90</v>
@@ -4804,16 +4849,19 @@
       <c r="DT12" t="s">
         <v>139</v>
       </c>
+      <c r="DX12" t="s">
+        <v>139</v>
+      </c>
       <c r="HL12" t="s">
         <v>139</v>
       </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
@@ -5018,6 +5066,9 @@
       <c r="DT13" t="s">
         <v>139</v>
       </c>
+      <c r="DX13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5029,11 +5080,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5054,11 +5105,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1017</v>
+        <v>1107</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>447</v>
+        <v>537</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -5074,11 +5125,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -5090,11 +5141,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="13"/>
@@ -5146,11 +5197,11 @@
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <f t="shared" si="25"/>
@@ -5158,7 +5209,7 @@
       </c>
       <c r="AB14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="27"/>
@@ -5257,6 +5308,15 @@
         <v>110</v>
       </c>
       <c r="DU14">
+        <v>1</v>
+      </c>
+      <c r="DW14">
+        <v>90</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>110</v>
+      </c>
+      <c r="DZ14">
         <v>1</v>
       </c>
       <c r="GY14">
@@ -5316,11 +5376,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -5336,7 +5396,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
@@ -5344,7 +5404,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="10"/>
@@ -5352,7 +5412,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="12"/>
@@ -5360,7 +5420,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="14"/>
@@ -5529,6 +5589,12 @@
       </c>
       <c r="DT15" t="s">
         <v>110</v>
+      </c>
+      <c r="DW15">
+        <v>31</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>136</v>
       </c>
       <c r="GY15">
         <v>59</v>
@@ -5581,11 +5647,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>959</v>
+        <v>1035</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -5601,11 +5667,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5617,11 +5683,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="13"/>
@@ -5665,27 +5731,27 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB16">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
@@ -5790,6 +5856,18 @@
         <v>110</v>
       </c>
       <c r="DV16">
+        <v>1</v>
+      </c>
+      <c r="DW16">
+        <v>76</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>110</v>
+      </c>
+      <c r="DY16">
+        <v>2</v>
+      </c>
+      <c r="DZ16">
         <v>1</v>
       </c>
       <c r="GY16">
@@ -5852,11 +5930,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
@@ -5872,7 +5950,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
@@ -5880,7 +5958,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="10"/>
@@ -5888,7 +5966,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="12"/>
@@ -5896,7 +5974,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
@@ -6035,6 +6113,12 @@
       </c>
       <c r="DT17" t="s">
         <v>139</v>
+      </c>
+      <c r="DW17">
+        <v>14</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>136</v>
       </c>
       <c r="HC17">
         <v>58</v>
@@ -6075,11 +6159,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>648</v>
+        <v>707</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
@@ -6095,11 +6179,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -6111,11 +6195,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="13"/>
@@ -6279,6 +6363,12 @@
       </c>
       <c r="DT18" t="s">
         <v>136</v>
+      </c>
+      <c r="DW18">
+        <v>59</v>
+      </c>
+      <c r="DX18" t="s">
+        <v>110</v>
       </c>
       <c r="GY18">
         <v>18</v>
@@ -6337,11 +6427,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
@@ -6357,7 +6447,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -6365,7 +6455,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -6373,7 +6463,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
@@ -6381,7 +6471,7 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="14"/>
@@ -6516,6 +6606,12 @@
         <v>2</v>
       </c>
       <c r="DT19" t="s">
+        <v>136</v>
+      </c>
+      <c r="DW19">
+        <v>14</v>
+      </c>
+      <c r="DX19" t="s">
         <v>136</v>
       </c>
       <c r="GY19">
@@ -6572,11 +6668,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>923</v>
+        <v>999</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -6592,11 +6688,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -6608,11 +6704,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="13"/>
@@ -6656,27 +6752,27 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA20">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC20">
         <f t="shared" si="27"/>
@@ -6788,6 +6884,18 @@
       </c>
       <c r="DT20" t="s">
         <v>110</v>
+      </c>
+      <c r="DW20">
+        <v>76</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>110</v>
+      </c>
+      <c r="DY20">
+        <v>1</v>
+      </c>
+      <c r="DZ20">
+        <v>1</v>
       </c>
       <c r="GY20">
         <v>31</v>
@@ -7030,6 +7138,9 @@
       <c r="DT21" t="s">
         <v>139</v>
       </c>
+      <c r="DX21" t="s">
+        <v>139</v>
+      </c>
       <c r="HD21" t="s">
         <v>139</v>
       </c>
@@ -7047,11 +7158,11 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -7072,11 +7183,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1244</v>
+        <v>1334</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -7092,11 +7203,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -7108,11 +7219,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="13"/>
@@ -7156,27 +7267,27 @@
       </c>
       <c r="W22" s="3">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X22" s="4">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC22">
         <f t="shared" si="27"/>
@@ -7282,6 +7393,18 @@
       </c>
       <c r="DT22" t="s">
         <v>110</v>
+      </c>
+      <c r="DW22">
+        <v>90</v>
+      </c>
+      <c r="DX22" t="s">
+        <v>110</v>
+      </c>
+      <c r="DY22">
+        <v>1</v>
+      </c>
+      <c r="DZ22">
+        <v>1</v>
       </c>
       <c r="GY22">
         <v>90</v>
@@ -7491,6 +7614,9 @@
       <c r="DT23" t="s">
         <v>139</v>
       </c>
+      <c r="DX23" t="s">
+        <v>139</v>
+      </c>
       <c r="HD23" t="s">
         <v>139</v>
       </c>
@@ -7514,11 +7640,11 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -7539,11 +7665,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>815</v>
+        <v>905</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
@@ -7559,11 +7685,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -7575,11 +7701,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="13"/>
@@ -7725,6 +7851,12 @@
       </c>
       <c r="DT24" t="s">
         <v>139</v>
+      </c>
+      <c r="DW24">
+        <v>90</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>110</v>
       </c>
       <c r="GY24">
         <v>90</v>
@@ -7964,6 +8096,9 @@
       <c r="DT25" t="s">
         <v>136</v>
       </c>
+      <c r="DX25" t="s">
+        <v>139</v>
+      </c>
       <c r="GY25">
         <v>90</v>
       </c>
@@ -7999,11 +8134,11 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -8223,6 +8358,9 @@
       <c r="DT26" t="s">
         <v>139</v>
       </c>
+      <c r="DX26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -8255,11 +8393,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -8280,11 +8418,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
@@ -8300,11 +8438,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8316,11 +8454,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="13"/>
@@ -8423,6 +8561,12 @@
         <v>90</v>
       </c>
       <c r="DT27" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW27">
+        <v>90</v>
+      </c>
+      <c r="DX27" t="s">
         <v>110</v>
       </c>
       <c r="HD27" t="s">
@@ -8467,11 +8611,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>564</v>
+        <v>654</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
@@ -8487,11 +8631,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -8503,11 +8647,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="13"/>
@@ -8616,6 +8760,12 @@
         <v>90</v>
       </c>
       <c r="DT28" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW28">
+        <v>90</v>
+      </c>
+      <c r="DX28" t="s">
         <v>110</v>
       </c>
       <c r="GY28">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9E9BF-E88F-234E-8E27-55868B6111F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F051D0-C2B8-434A-9D07-4FA4B5D2B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="146">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -947,8 +947,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ED13" sqref="ED13"/>
+      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JU23" sqref="JU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,11 +2282,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>915</v>
+        <v>1005</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2482,6 +2482,12 @@
         <v>90</v>
       </c>
       <c r="DX2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA2">
+        <v>90</v>
+      </c>
+      <c r="EB2" t="s">
         <v>110</v>
       </c>
       <c r="HD2" t="s">
@@ -2520,7 +2526,7 @@
       </c>
       <c r="B3">
         <f>SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3,CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3,GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3,IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C29" si="3">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
@@ -2532,7 +2538,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E29" si="5">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="6">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
@@ -2540,11 +2546,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G29" si="7">SUM(H3:I3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H29" si="8">COUNTIF(AI3:PR3,"T")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I29" si="9">COUNTIF(AI3:PR3,"R")</f>
@@ -2588,11 +2594,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S29" si="19">SUM(T3:U3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:T29" si="20">COUNTIF(IU3:PR3,"T")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" si="0"/>
@@ -2677,6 +2683,9 @@
       <c r="DX3" t="s">
         <v>139</v>
       </c>
+      <c r="EB3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2696,6 +2705,12 @@
         <v>90</v>
       </c>
       <c r="JL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="JO3">
+        <v>90</v>
+      </c>
+      <c r="JP3" t="s">
         <v>110</v>
       </c>
       <c r="ME3">
@@ -2706,11 +2721,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2763,7 +2778,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
@@ -2779,7 +2794,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4" si="45">COUNTIF(CY4:GX4,"NR")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
@@ -2905,6 +2920,9 @@
       </c>
       <c r="DX4" t="s">
         <v>139</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>138</v>
       </c>
       <c r="GY4">
         <v>90</v>
@@ -3162,6 +3180,9 @@
       <c r="DX5" t="s">
         <v>110</v>
       </c>
+      <c r="EB5" t="s">
+        <v>139</v>
+      </c>
       <c r="HD5" t="s">
         <v>139</v>
       </c>
@@ -3179,11 +3200,11 @@
       </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
@@ -3391,6 +3412,9 @@
       <c r="DX6" t="s">
         <v>139</v>
       </c>
+      <c r="EB6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3408,11 +3432,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3433,11 +3457,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>849</v>
+        <v>939</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
@@ -3453,11 +3477,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3469,11 +3493,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="13"/>
@@ -3613,6 +3637,12 @@
       </c>
       <c r="DX7" t="s">
         <v>139</v>
+      </c>
+      <c r="EA7">
+        <v>90</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>110</v>
       </c>
       <c r="GY7">
         <v>90</v>
@@ -3846,6 +3876,9 @@
       <c r="DX8" t="s">
         <v>139</v>
       </c>
+      <c r="EB8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -3884,11 +3917,11 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3909,11 +3942,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1102</v>
+        <v>1192</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -3929,11 +3962,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -3945,11 +3978,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="13"/>
@@ -4118,6 +4151,12 @@
         <v>76</v>
       </c>
       <c r="DX9" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA9">
+        <v>90</v>
+      </c>
+      <c r="EB9" t="s">
         <v>110</v>
       </c>
       <c r="HC9">
@@ -4200,7 +4239,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="11"/>
@@ -4216,7 +4255,7 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="15"/>
@@ -4360,6 +4399,9 @@
       </c>
       <c r="DX10" t="s">
         <v>136</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>138</v>
       </c>
       <c r="HD10" t="s">
         <v>139</v>
@@ -4415,11 +4457,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
@@ -4435,7 +4477,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
@@ -4443,7 +4485,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="10"/>
@@ -4451,7 +4493,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="12"/>
@@ -4459,7 +4501,7 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="14"/>
@@ -4612,6 +4654,12 @@
         <v>14</v>
       </c>
       <c r="DX11" t="s">
+        <v>136</v>
+      </c>
+      <c r="EA11">
+        <v>13</v>
+      </c>
+      <c r="EB11" t="s">
         <v>136</v>
       </c>
       <c r="GY11">
@@ -4852,16 +4900,19 @@
       <c r="DX12" t="s">
         <v>139</v>
       </c>
+      <c r="EB12" t="s">
+        <v>139</v>
+      </c>
       <c r="HL12" t="s">
         <v>139</v>
       </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
@@ -5069,6 +5120,9 @@
       <c r="DX13" t="s">
         <v>139</v>
       </c>
+      <c r="EB13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5080,11 +5134,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5319,6 +5373,9 @@
       <c r="DZ14">
         <v>1</v>
       </c>
+      <c r="EB14" t="s">
+        <v>139</v>
+      </c>
       <c r="GY14">
         <v>90</v>
       </c>
@@ -5351,11 +5408,11 @@
       </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT14" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU14" s="3">
         <f t="shared" si="35"/>
@@ -5376,11 +5433,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>837</v>
+        <v>914</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>392</v>
+        <v>469</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -5396,11 +5453,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
@@ -5412,11 +5469,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="13"/>
@@ -5595,6 +5652,12 @@
       </c>
       <c r="DX15" t="s">
         <v>136</v>
+      </c>
+      <c r="EA15">
+        <v>77</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>110</v>
       </c>
       <c r="GY15">
         <v>59</v>
@@ -5647,11 +5710,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1035</v>
+        <v>1125</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>601</v>
+        <v>691</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -5667,11 +5730,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5683,11 +5746,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="13"/>
@@ -5869,6 +5932,12 @@
       </c>
       <c r="DZ16">
         <v>1</v>
+      </c>
+      <c r="EA16">
+        <v>90</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>110</v>
       </c>
       <c r="GY16">
         <v>18</v>
@@ -5930,11 +5999,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
@@ -5950,7 +6019,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
@@ -5958,7 +6027,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="10"/>
@@ -5966,7 +6035,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="12"/>
@@ -5974,7 +6043,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
@@ -6118,6 +6187,12 @@
         <v>14</v>
       </c>
       <c r="DX17" t="s">
+        <v>136</v>
+      </c>
+      <c r="EA17">
+        <v>2</v>
+      </c>
+      <c r="EB17" t="s">
         <v>136</v>
       </c>
       <c r="HC17">
@@ -6370,6 +6445,9 @@
       <c r="DX18" t="s">
         <v>110</v>
       </c>
+      <c r="EB18" t="s">
+        <v>139</v>
+      </c>
       <c r="GY18">
         <v>18</v>
       </c>
@@ -6402,11 +6480,11 @@
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT18" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU18" s="3">
         <f t="shared" si="35"/>
@@ -6427,11 +6505,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
@@ -6447,11 +6525,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
@@ -6463,11 +6541,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="13"/>
@@ -6613,6 +6691,12 @@
       </c>
       <c r="DX19" t="s">
         <v>136</v>
+      </c>
+      <c r="EA19">
+        <v>77</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>110</v>
       </c>
       <c r="GY19">
         <v>72</v>
@@ -6668,11 +6752,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>999</v>
+        <v>1087</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>556</v>
+        <v>644</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -6688,11 +6772,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -6704,11 +6788,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="13"/>
@@ -6896,6 +6980,12 @@
       </c>
       <c r="DZ20">
         <v>1</v>
+      </c>
+      <c r="EA20">
+        <v>88</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>110</v>
       </c>
       <c r="GY20">
         <v>31</v>
@@ -7141,6 +7231,9 @@
       <c r="DX21" t="s">
         <v>139</v>
       </c>
+      <c r="EB21" t="s">
+        <v>139</v>
+      </c>
       <c r="HD21" t="s">
         <v>139</v>
       </c>
@@ -7158,11 +7251,11 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -7183,11 +7276,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1334</v>
+        <v>1424</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -7203,11 +7296,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -7219,11 +7312,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="13"/>
@@ -7405,6 +7498,12 @@
       </c>
       <c r="DZ22">
         <v>1</v>
+      </c>
+      <c r="EA22">
+        <v>90</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>110</v>
       </c>
       <c r="GY22">
         <v>90</v>
@@ -7617,6 +7716,9 @@
       <c r="DX23" t="s">
         <v>139</v>
       </c>
+      <c r="EB23" t="s">
+        <v>139</v>
+      </c>
       <c r="HD23" t="s">
         <v>139</v>
       </c>
@@ -7640,11 +7742,11 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -7665,11 +7767,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>905</v>
+        <v>995</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
@@ -7685,11 +7787,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -7701,11 +7803,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="13"/>
@@ -7856,6 +7958,12 @@
         <v>90</v>
       </c>
       <c r="DX24" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA24">
+        <v>90</v>
+      </c>
+      <c r="EB24" t="s">
         <v>110</v>
       </c>
       <c r="GY24">
@@ -7906,11 +8014,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
@@ -7926,7 +8034,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="8"/>
@@ -7934,7 +8042,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="10"/>
@@ -7942,7 +8050,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="12"/>
@@ -7950,7 +8058,7 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="14"/>
@@ -8098,6 +8206,12 @@
       </c>
       <c r="DX25" t="s">
         <v>139</v>
+      </c>
+      <c r="EA25">
+        <v>13</v>
+      </c>
+      <c r="EB25" t="s">
+        <v>136</v>
       </c>
       <c r="GY25">
         <v>90</v>
@@ -8159,7 +8273,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>566</v>
+        <v>656</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -8171,7 +8285,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
@@ -8179,11 +8293,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
@@ -8227,11 +8341,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="0"/>
@@ -8361,6 +8475,9 @@
       <c r="DX26" t="s">
         <v>139</v>
       </c>
+      <c r="EB26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -8391,13 +8508,19 @@
       <c r="JL26" t="s">
         <v>110</v>
       </c>
+      <c r="JO26">
+        <v>90</v>
+      </c>
+      <c r="JP26" t="s">
+        <v>110</v>
+      </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -8418,11 +8541,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
@@ -8438,11 +8561,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8454,11 +8577,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="13"/>
@@ -8567,6 +8690,12 @@
         <v>90</v>
       </c>
       <c r="DX27" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA27">
+        <v>90</v>
+      </c>
+      <c r="EB27" t="s">
         <v>110</v>
       </c>
       <c r="HD27" t="s">
@@ -8611,11 +8740,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>654</v>
+        <v>744</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
@@ -8631,11 +8760,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -8647,11 +8776,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="13"/>
@@ -8766,6 +8895,12 @@
         <v>90</v>
       </c>
       <c r="DX28" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA28">
+        <v>90</v>
+      </c>
+      <c r="EB28" t="s">
         <v>110</v>
       </c>
       <c r="GY28">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F051D0-C2B8-434A-9D07-4FA4B5D2B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76C6F4-F232-E542-A667-0BCC8883DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="147">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>CDF T6</t>
+  </si>
+  <si>
+    <t>CDF T7</t>
   </si>
 </sst>
 </file>
@@ -947,8 +950,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JU23" sqref="JU23"/>
+      <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HX15" sqref="HX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1628,7 @@
         <v>71</v>
       </c>
       <c r="HO1" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="HP1" s="1" t="s">
         <v>92</v>
@@ -2314,7 +2317,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTIF(AI2:PR2,"NR")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
@@ -2346,7 +2349,7 @@
       </c>
       <c r="R2" s="3">
         <f>COUNTIF(GY2:IT2,"NR")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
@@ -2497,6 +2500,9 @@
         <v>138</v>
       </c>
       <c r="HL2" t="s">
+        <v>138</v>
+      </c>
+      <c r="HP2" t="s">
         <v>138</v>
       </c>
       <c r="PS2" s="3">
@@ -2695,6 +2701,9 @@
       <c r="HL3" t="s">
         <v>139</v>
       </c>
+      <c r="HP3" t="s">
+        <v>139</v>
+      </c>
       <c r="IY3">
         <v>90</v>
       </c>
@@ -2721,7 +2730,7 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
@@ -2729,7 +2738,7 @@
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PV3">
         <f t="shared" si="2"/>
@@ -2746,7 +2755,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2754,7 +2763,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
@@ -2766,11 +2775,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2798,11 +2807,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
@@ -2946,6 +2955,12 @@
         <v>90</v>
       </c>
       <c r="HL4" t="s">
+        <v>110</v>
+      </c>
+      <c r="HO4">
+        <v>90</v>
+      </c>
+      <c r="HP4" t="s">
         <v>110</v>
       </c>
       <c r="IU4">
@@ -3198,9 +3213,12 @@
       <c r="HL5" t="s">
         <v>110</v>
       </c>
+      <c r="HP5" t="s">
+        <v>139</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
@@ -3208,7 +3226,7 @@
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV5">
         <f t="shared" si="2"/>
@@ -3424,6 +3442,9 @@
       <c r="HL6" t="s">
         <v>139</v>
       </c>
+      <c r="HP6" t="s">
+        <v>139</v>
+      </c>
       <c r="JC6">
         <v>90</v>
       </c>
@@ -3432,7 +3453,7 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
@@ -3440,7 +3461,7 @@
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PV6">
         <f t="shared" si="2"/>
@@ -3457,7 +3478,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>939</v>
+        <v>1009</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -3465,7 +3486,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
@@ -3477,11 +3498,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3509,11 +3530,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="17"/>
@@ -3666,6 +3687,12 @@
         <v>90</v>
       </c>
       <c r="HL7" t="s">
+        <v>110</v>
+      </c>
+      <c r="HO7">
+        <v>70</v>
+      </c>
+      <c r="HP7" t="s">
         <v>110</v>
       </c>
       <c r="PS7" s="3">
@@ -3727,7 +3754,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <f t="shared" si="11"/>
@@ -3759,7 +3786,7 @@
       </c>
       <c r="R8" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="19"/>
@@ -3896,6 +3923,9 @@
       </c>
       <c r="HL8" t="s">
         <v>139</v>
+      </c>
+      <c r="HP8" t="s">
+        <v>138</v>
       </c>
       <c r="IU8">
         <v>90</v>
@@ -3942,7 +3972,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1192</v>
+        <v>1282</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -3950,7 +3980,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -3962,11 +3992,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -3994,11 +4024,11 @@
       </c>
       <c r="O9">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="17"/>
@@ -4034,11 +4064,11 @@
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9">
         <f t="shared" si="25"/>
@@ -4054,7 +4084,7 @@
       </c>
       <c r="AD9">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9">
         <f t="shared" si="29"/>
@@ -4178,6 +4208,15 @@
         <v>136</v>
       </c>
       <c r="HN9">
+        <v>1</v>
+      </c>
+      <c r="HO9">
+        <v>90</v>
+      </c>
+      <c r="HP9" t="s">
+        <v>110</v>
+      </c>
+      <c r="HR9">
         <v>1</v>
       </c>
       <c r="PS9" s="3">
@@ -4207,7 +4246,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
@@ -4215,7 +4254,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
@@ -4227,7 +4266,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="8"/>
@@ -4235,7 +4274,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
@@ -4259,7 +4298,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="16"/>
@@ -4267,7 +4306,7 @@
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="18"/>
@@ -4291,11 +4330,11 @@
       </c>
       <c r="W10" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="23"/>
@@ -4315,7 +4354,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10">
         <f t="shared" si="28"/>
@@ -4416,6 +4455,15 @@
         <v>136</v>
       </c>
       <c r="HM10">
+        <v>1</v>
+      </c>
+      <c r="HO10">
+        <v>35</v>
+      </c>
+      <c r="HP10" t="s">
+        <v>136</v>
+      </c>
+      <c r="HQ10">
         <v>1</v>
       </c>
       <c r="JC10">
@@ -4457,7 +4505,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -4465,7 +4513,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
@@ -4477,11 +4525,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
@@ -4509,11 +4557,11 @@
       </c>
       <c r="O11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="17"/>
@@ -4678,6 +4726,12 @@
         <v>64</v>
       </c>
       <c r="HL11" t="s">
+        <v>110</v>
+      </c>
+      <c r="HO11">
+        <v>55</v>
+      </c>
+      <c r="HP11" t="s">
         <v>110</v>
       </c>
       <c r="PS11" s="3">
@@ -4903,12 +4957,9 @@
       <c r="EB12" t="s">
         <v>139</v>
       </c>
-      <c r="HL12" t="s">
-        <v>139</v>
-      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
@@ -4916,7 +4967,7 @@
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PV12">
         <f t="shared" si="2"/>
@@ -5132,9 +5183,12 @@
       <c r="HL13" t="s">
         <v>139</v>
       </c>
+      <c r="HP13" t="s">
+        <v>139</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
@@ -5142,7 +5196,7 @@
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PV13">
         <f t="shared" si="2"/>
@@ -5159,7 +5213,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1107</v>
+        <v>1197</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -5167,7 +5221,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -5179,11 +5233,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -5211,11 +5265,11 @@
       </c>
       <c r="O14">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="17"/>
@@ -5405,6 +5459,12 @@
       </c>
       <c r="HN14">
         <v>1</v>
+      </c>
+      <c r="HO14">
+        <v>90</v>
+      </c>
+      <c r="HP14" t="s">
+        <v>110</v>
       </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
@@ -5683,9 +5743,12 @@
       <c r="HN15">
         <v>1</v>
       </c>
+      <c r="HP15" t="s">
+        <v>139</v>
+      </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT15" s="3">
         <f t="shared" si="34"/>
@@ -5693,7 +5756,7 @@
       </c>
       <c r="PU15" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV15">
         <f t="shared" si="2"/>
@@ -5710,7 +5773,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1125</v>
+        <v>1205</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -5718,7 +5781,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -5730,11 +5793,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5762,11 +5825,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="17"/>
@@ -5794,11 +5857,11 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
@@ -5818,7 +5881,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD16">
         <f t="shared" si="28"/>
@@ -5970,6 +6033,15 @@
         <v>136</v>
       </c>
       <c r="HM16">
+        <v>1</v>
+      </c>
+      <c r="HO16">
+        <v>80</v>
+      </c>
+      <c r="HP16" t="s">
+        <v>110</v>
+      </c>
+      <c r="HQ16">
         <v>1</v>
       </c>
       <c r="PS16" s="3">
@@ -5999,7 +6071,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
@@ -6007,7 +6079,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
@@ -6019,11 +6091,11 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
@@ -6051,11 +6123,11 @@
       </c>
       <c r="O17">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="17"/>
@@ -6206,6 +6278,12 @@
       </c>
       <c r="HL17" t="s">
         <v>139</v>
+      </c>
+      <c r="HO17">
+        <v>70</v>
+      </c>
+      <c r="HP17" t="s">
+        <v>110</v>
       </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
@@ -6234,7 +6312,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -6242,7 +6320,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -6254,7 +6332,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
@@ -6262,7 +6340,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="10"/>
@@ -6286,7 +6364,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="16"/>
@@ -6294,7 +6372,7 @@
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="18"/>
@@ -6477,6 +6555,12 @@
       </c>
       <c r="HN18">
         <v>1</v>
+      </c>
+      <c r="HO18">
+        <v>10</v>
+      </c>
+      <c r="HP18" t="s">
+        <v>136</v>
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
@@ -6505,7 +6589,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -6513,7 +6597,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
@@ -6525,7 +6609,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -6533,7 +6617,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -6557,7 +6641,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="16"/>
@@ -6565,7 +6649,7 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="18"/>
@@ -6718,6 +6802,12 @@
       </c>
       <c r="HL19" t="s">
         <v>139</v>
+      </c>
+      <c r="HO19">
+        <v>20</v>
+      </c>
+      <c r="HP19" t="s">
+        <v>136</v>
       </c>
       <c r="IY19">
         <v>90</v>
@@ -6752,7 +6842,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -6760,7 +6850,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
@@ -6772,7 +6862,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
@@ -6780,7 +6870,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="10"/>
@@ -6804,7 +6894,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="16"/>
@@ -6812,7 +6902,7 @@
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="18"/>
@@ -7022,6 +7112,12 @@
       </c>
       <c r="HN20">
         <v>1</v>
+      </c>
+      <c r="HO20">
+        <v>20</v>
+      </c>
+      <c r="HP20" t="s">
+        <v>136</v>
       </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
@@ -7243,6 +7339,9 @@
       <c r="HL21" t="s">
         <v>139</v>
       </c>
+      <c r="HP21" t="s">
+        <v>139</v>
+      </c>
       <c r="IU21">
         <v>68</v>
       </c>
@@ -7251,7 +7350,7 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
@@ -7259,7 +7358,7 @@
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PV21">
         <f t="shared" si="2"/>
@@ -7276,7 +7375,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1424</v>
+        <v>1514</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -7284,7 +7383,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
@@ -7296,11 +7395,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -7328,11 +7427,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="17"/>
@@ -7537,6 +7636,12 @@
       </c>
       <c r="HN22">
         <v>1</v>
+      </c>
+      <c r="HO22">
+        <v>90</v>
+      </c>
+      <c r="HP22" t="s">
+        <v>110</v>
       </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
@@ -7728,6 +7833,9 @@
       <c r="HL23" t="s">
         <v>139</v>
       </c>
+      <c r="HP23" t="s">
+        <v>139</v>
+      </c>
       <c r="IU23">
         <v>90</v>
       </c>
@@ -7742,7 +7850,7 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
@@ -7750,7 +7858,7 @@
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PV23">
         <f t="shared" si="2"/>
@@ -7767,7 +7875,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>995</v>
+        <v>1085</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
@@ -7775,7 +7883,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
@@ -7787,11 +7895,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -7819,11 +7927,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="17"/>
@@ -7986,6 +8094,12 @@
       </c>
       <c r="HL24" t="s">
         <v>139</v>
+      </c>
+      <c r="HO24">
+        <v>90</v>
+      </c>
+      <c r="HP24" t="s">
+        <v>110</v>
       </c>
       <c r="PS24" s="3">
         <f t="shared" si="33"/>
@@ -8014,7 +8128,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
@@ -8022,7 +8136,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
@@ -8034,11 +8148,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
@@ -8066,11 +8180,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="17"/>
@@ -8239,6 +8353,12 @@
       </c>
       <c r="HM25">
         <v>3</v>
+      </c>
+      <c r="HO25">
+        <v>70</v>
+      </c>
+      <c r="HP25" t="s">
+        <v>110</v>
       </c>
       <c r="IY25">
         <v>90</v>
@@ -8273,7 +8393,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -8281,7 +8401,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
@@ -8293,7 +8413,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
@@ -8301,7 +8421,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="10"/>
@@ -8325,7 +8445,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="16"/>
@@ -8333,7 +8453,7 @@
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" si="18"/>
@@ -8495,6 +8615,12 @@
       </c>
       <c r="HL26" t="s">
         <v>139</v>
+      </c>
+      <c r="HO26">
+        <v>20</v>
+      </c>
+      <c r="HP26" t="s">
+        <v>136</v>
       </c>
       <c r="JC26">
         <v>90</v>
@@ -8541,7 +8667,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -8549,7 +8675,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
@@ -8561,11 +8687,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8593,11 +8719,11 @@
       </c>
       <c r="O27">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="17"/>
@@ -8711,6 +8837,12 @@
         <v>90</v>
       </c>
       <c r="HL27" t="s">
+        <v>110</v>
+      </c>
+      <c r="HO27">
+        <v>90</v>
+      </c>
+      <c r="HP27" t="s">
         <v>110</v>
       </c>
       <c r="PS27" s="3">
@@ -8930,6 +9062,9 @@
       <c r="HN28">
         <v>2</v>
       </c>
+      <c r="HP28" t="s">
+        <v>139</v>
+      </c>
       <c r="IU28">
         <v>90</v>
       </c>
@@ -8938,7 +9073,7 @@
       </c>
       <c r="PS28" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT28" s="3">
         <f t="shared" si="34"/>
@@ -8946,7 +9081,7 @@
       </c>
       <c r="PU28" s="3">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PV28">
         <f t="shared" si="2"/>
@@ -9117,9 +9252,12 @@
       <c r="HL29" t="s">
         <v>139</v>
       </c>
+      <c r="HP29" t="s">
+        <v>139</v>
+      </c>
       <c r="PS29" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT29" s="3">
         <f t="shared" si="34"/>
@@ -9127,7 +9265,7 @@
       </c>
       <c r="PU29" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV29">
         <f t="shared" si="2"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76C6F4-F232-E542-A667-0BCC8883DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861B5E7-890E-A74B-B405-C915A79C4F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="147">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -950,8 +950,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HX15" sqref="HX15"/>
+      <pane xSplit="1" topLeftCell="JR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JW22" sqref="JW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>1005</v>
+        <v>1095</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2305,11 +2305,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2321,11 +2321,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2491,6 +2491,12 @@
         <v>90</v>
       </c>
       <c r="EB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE2">
+        <v>90</v>
+      </c>
+      <c r="EF2" t="s">
         <v>110</v>
       </c>
       <c r="HD2" t="s">
@@ -2692,6 +2698,9 @@
       <c r="EB3" t="s">
         <v>139</v>
       </c>
+      <c r="EF3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2730,11 +2739,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2755,7 +2764,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2767,7 +2776,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F4">
         <f t="shared" si="6"/>
@@ -2775,11 +2784,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2823,11 +2832,11 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4" si="50">SUM(T4:U4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="0"/>
@@ -2933,6 +2942,9 @@
       <c r="EB4" t="s">
         <v>138</v>
       </c>
+      <c r="EF4" t="s">
+        <v>139</v>
+      </c>
       <c r="GY4">
         <v>90</v>
       </c>
@@ -2967,15 +2979,21 @@
         <v>90</v>
       </c>
       <c r="IV4" t="s">
+        <v>110</v>
+      </c>
+      <c r="JS4">
+        <v>90</v>
+      </c>
+      <c r="JT4" t="s">
         <v>110</v>
       </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT4" s="3">
         <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU4" s="3">
         <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
@@ -3198,6 +3216,9 @@
       <c r="EB5" t="s">
         <v>139</v>
       </c>
+      <c r="EF5" t="s">
+        <v>139</v>
+      </c>
       <c r="HD5" t="s">
         <v>139</v>
       </c>
@@ -3218,11 +3239,11 @@
       </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
@@ -3433,6 +3454,9 @@
       <c r="EB6" t="s">
         <v>139</v>
       </c>
+      <c r="EF6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3453,11 +3477,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3478,11 +3502,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1009</v>
+        <v>1099</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>419</v>
+        <v>509</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
@@ -3498,11 +3522,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3514,11 +3538,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="13"/>
@@ -3663,6 +3687,12 @@
         <v>90</v>
       </c>
       <c r="EB7" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE7">
+        <v>90</v>
+      </c>
+      <c r="EF7" t="s">
         <v>110</v>
       </c>
       <c r="GY7">
@@ -3722,7 +3752,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>464</v>
+        <v>554</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -3734,7 +3764,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
@@ -3742,11 +3772,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="9"/>
@@ -3790,11 +3820,11 @@
       </c>
       <c r="S8">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="0"/>
@@ -3906,6 +3936,9 @@
       <c r="EB8" t="s">
         <v>139</v>
       </c>
+      <c r="EF8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -3945,13 +3978,19 @@
       <c r="JD8" t="s">
         <v>110</v>
       </c>
+      <c r="JS8">
+        <v>90</v>
+      </c>
+      <c r="JT8" t="s">
+        <v>110</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -3972,11 +4011,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1282</v>
+        <v>1372</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -3992,11 +4031,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -4008,11 +4047,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="13"/>
@@ -4187,6 +4226,12 @@
         <v>90</v>
       </c>
       <c r="EB9" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE9">
+        <v>90</v>
+      </c>
+      <c r="EF9" t="s">
         <v>110</v>
       </c>
       <c r="HC9">
@@ -4246,11 +4291,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
@@ -4266,7 +4311,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="8"/>
@@ -4274,7 +4319,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
@@ -4282,7 +4327,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="12"/>
@@ -4290,7 +4335,7 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="14"/>
@@ -4441,6 +4486,12 @@
       </c>
       <c r="EB10" t="s">
         <v>138</v>
+      </c>
+      <c r="EE10">
+        <v>15</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>136</v>
       </c>
       <c r="HD10" t="s">
         <v>139</v>
@@ -4505,7 +4556,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -4517,7 +4568,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <f t="shared" si="6"/>
@@ -4525,11 +4576,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
@@ -4573,11 +4624,11 @@
       </c>
       <c r="S11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="0"/>
@@ -4710,6 +4761,9 @@
       <c r="EB11" t="s">
         <v>136</v>
       </c>
+      <c r="EF11" t="s">
+        <v>139</v>
+      </c>
       <c r="GY11">
         <v>90</v>
       </c>
@@ -4734,13 +4788,19 @@
       <c r="HP11" t="s">
         <v>110</v>
       </c>
+      <c r="JS11">
+        <v>90</v>
+      </c>
+      <c r="JT11" t="s">
+        <v>110</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
@@ -4957,13 +5017,16 @@
       <c r="EB12" t="s">
         <v>139</v>
       </c>
+      <c r="EF12" t="s">
+        <v>139</v>
+      </c>
       <c r="PS12" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT12" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU12" s="3">
         <f t="shared" si="35"/>
@@ -5174,6 +5237,9 @@
       <c r="EB13" t="s">
         <v>139</v>
       </c>
+      <c r="EF13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5188,11 +5254,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5213,11 +5279,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1197</v>
+        <v>1279</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -5233,11 +5299,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -5249,11 +5315,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="13"/>
@@ -5305,11 +5371,11 @@
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA14">
         <f t="shared" si="25"/>
@@ -5317,7 +5383,7 @@
       </c>
       <c r="AB14">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC14">
         <f t="shared" si="27"/>
@@ -5429,6 +5495,15 @@
       </c>
       <c r="EB14" t="s">
         <v>139</v>
+      </c>
+      <c r="EE14">
+        <v>82</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>110</v>
+      </c>
+      <c r="EH14">
+        <v>1</v>
       </c>
       <c r="GY14">
         <v>90</v>
@@ -5493,11 +5568,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -5513,7 +5588,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
@@ -5521,7 +5596,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="10"/>
@@ -5529,7 +5604,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="12"/>
@@ -5537,7 +5612,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="14"/>
@@ -5718,6 +5793,12 @@
       </c>
       <c r="EB15" t="s">
         <v>110</v>
+      </c>
+      <c r="EE15">
+        <v>15</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>136</v>
       </c>
       <c r="GY15">
         <v>59</v>
@@ -5773,11 +5854,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1205</v>
+        <v>1287</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -5793,11 +5874,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5809,11 +5890,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="13"/>
@@ -5857,27 +5938,27 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB16">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
@@ -6001,6 +6082,18 @@
       </c>
       <c r="EB16" t="s">
         <v>110</v>
+      </c>
+      <c r="EE16">
+        <v>82</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG16">
+        <v>2</v>
+      </c>
+      <c r="EH16">
+        <v>1</v>
       </c>
       <c r="GY16">
         <v>18</v>
@@ -6071,11 +6164,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
@@ -6091,7 +6184,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
@@ -6099,7 +6192,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="10"/>
@@ -6107,7 +6200,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="12"/>
@@ -6115,7 +6208,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="14"/>
@@ -6265,6 +6358,12 @@
         <v>2</v>
       </c>
       <c r="EB17" t="s">
+        <v>136</v>
+      </c>
+      <c r="EE17">
+        <v>8</v>
+      </c>
+      <c r="EF17" t="s">
         <v>136</v>
       </c>
       <c r="HC17">
@@ -6312,11 +6411,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>717</v>
+        <v>782</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
@@ -6332,11 +6431,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -6348,11 +6447,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="13"/>
@@ -6525,6 +6624,12 @@
       </c>
       <c r="EB18" t="s">
         <v>139</v>
+      </c>
+      <c r="EE18">
+        <v>65</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>110</v>
       </c>
       <c r="GY18">
         <v>18</v>
@@ -6589,11 +6694,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
@@ -6609,7 +6714,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -6617,7 +6722,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -6625,7 +6730,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
@@ -6633,7 +6738,7 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="14"/>
@@ -6781,6 +6886,12 @@
       </c>
       <c r="EB19" t="s">
         <v>110</v>
+      </c>
+      <c r="EE19">
+        <v>25</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>136</v>
       </c>
       <c r="GY19">
         <v>72</v>
@@ -6842,11 +6953,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1107</v>
+        <v>1182</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -6862,11 +6973,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -6878,11 +6989,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="13"/>
@@ -6926,27 +7037,27 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA20">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC20">
         <f t="shared" si="27"/>
@@ -7076,6 +7187,18 @@
       </c>
       <c r="EB20" t="s">
         <v>110</v>
+      </c>
+      <c r="EE20">
+        <v>75</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG20">
+        <v>1</v>
+      </c>
+      <c r="EH20">
+        <v>1</v>
       </c>
       <c r="GY20">
         <v>31</v>
@@ -7330,6 +7453,9 @@
       <c r="EB21" t="s">
         <v>139</v>
       </c>
+      <c r="EF21" t="s">
+        <v>139</v>
+      </c>
       <c r="HD21" t="s">
         <v>139</v>
       </c>
@@ -7350,11 +7476,11 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -7375,11 +7501,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1514</v>
+        <v>1604</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -7395,11 +7521,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -7411,11 +7537,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="13"/>
@@ -7459,27 +7585,27 @@
       </c>
       <c r="W22" s="3">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X22" s="4">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA22">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB22">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22">
         <f t="shared" si="27"/>
@@ -7603,6 +7729,18 @@
       </c>
       <c r="EB22" t="s">
         <v>110</v>
+      </c>
+      <c r="EE22">
+        <v>90</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG22">
+        <v>1</v>
+      </c>
+      <c r="EH22">
+        <v>1</v>
       </c>
       <c r="GY22">
         <v>90</v>
@@ -7824,6 +7962,9 @@
       <c r="EB23" t="s">
         <v>139</v>
       </c>
+      <c r="EF23" t="s">
+        <v>139</v>
+      </c>
       <c r="HD23" t="s">
         <v>139</v>
       </c>
@@ -7850,11 +7991,11 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -7875,11 +8016,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1085</v>
+        <v>1175</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
@@ -7895,11 +8036,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -7911,11 +8052,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="13"/>
@@ -8072,6 +8213,12 @@
         <v>90</v>
       </c>
       <c r="EB24" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE24">
+        <v>90</v>
+      </c>
+      <c r="EF24" t="s">
         <v>110</v>
       </c>
       <c r="GY24">
@@ -8128,7 +8275,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="37"/>
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
@@ -8140,7 +8287,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="F25">
         <f t="shared" si="6"/>
@@ -8148,11 +8295,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
@@ -8196,11 +8343,11 @@
       </c>
       <c r="S25">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" si="0"/>
@@ -8212,11 +8359,11 @@
       </c>
       <c r="W25" s="3">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="23"/>
@@ -8252,7 +8399,7 @@
       </c>
       <c r="AG25">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
         <f t="shared" si="32"/>
@@ -8327,6 +8474,9 @@
       <c r="EB25" t="s">
         <v>136</v>
       </c>
+      <c r="EF25" t="s">
+        <v>139</v>
+      </c>
       <c r="GY25">
         <v>90</v>
       </c>
@@ -8366,13 +8516,22 @@
       <c r="IZ25" t="s">
         <v>110</v>
       </c>
+      <c r="JS25">
+        <v>75</v>
+      </c>
+      <c r="JT25" t="s">
+        <v>110</v>
+      </c>
+      <c r="JU25">
+        <v>1</v>
+      </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -8393,7 +8552,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>676</v>
+        <v>751</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -8405,7 +8564,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
@@ -8413,11 +8572,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
@@ -8461,11 +8620,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="0"/>
@@ -8477,11 +8636,11 @@
       </c>
       <c r="W26" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="4">
         <f t="shared" si="23"/>
@@ -8517,7 +8676,7 @@
       </c>
       <c r="AG26">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH26">
         <f t="shared" si="32"/>
@@ -8598,6 +8757,9 @@
       <c r="EB26" t="s">
         <v>139</v>
       </c>
+      <c r="EF26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -8640,13 +8802,22 @@
       <c r="JP26" t="s">
         <v>110</v>
       </c>
+      <c r="JS26">
+        <v>75</v>
+      </c>
+      <c r="JT26" t="s">
+        <v>110</v>
+      </c>
+      <c r="JU26">
+        <v>2</v>
+      </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -8667,11 +8838,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
@@ -8687,11 +8858,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8703,11 +8874,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="13"/>
@@ -8822,6 +8993,12 @@
         <v>90</v>
       </c>
       <c r="EB27" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE27">
+        <v>90</v>
+      </c>
+      <c r="EF27" t="s">
         <v>110</v>
       </c>
       <c r="HD27" t="s">
@@ -8872,11 +9049,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
@@ -8892,11 +9069,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -8908,11 +9085,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="13"/>
@@ -9033,6 +9210,12 @@
         <v>90</v>
       </c>
       <c r="EB28" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE28">
+        <v>75</v>
+      </c>
+      <c r="EF28" t="s">
         <v>110</v>
       </c>
       <c r="GY28">
@@ -9098,11 +9281,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
@@ -9118,7 +9301,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="8"/>
@@ -9126,7 +9309,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="10"/>
@@ -9134,7 +9317,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="12"/>
@@ -9142,7 +9325,7 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="14"/>
@@ -9239,6 +9422,12 @@
       </c>
       <c r="DP29" t="s">
         <v>110</v>
+      </c>
+      <c r="EE29">
+        <v>8</v>
+      </c>
+      <c r="EF29" t="s">
+        <v>136</v>
       </c>
       <c r="HC29">
         <v>90</v>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861B5E7-890E-A74B-B405-C915A79C4F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C95578-EB34-1B48-A956-D29F4C3A7463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="147">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -950,8 +950,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JW22" sqref="JW22"/>
+      <pane xSplit="1" topLeftCell="HR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HX19" sqref="HX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTIF(AI2:PR2,"NR")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="R2" s="3">
         <f>COUNTIF(GY2:IT2,"NR")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
@@ -2509,6 +2509,9 @@
         <v>138</v>
       </c>
       <c r="HP2" t="s">
+        <v>138</v>
+      </c>
+      <c r="HT2" t="s">
         <v>138</v>
       </c>
       <c r="PS2" s="3">
@@ -2713,6 +2716,9 @@
       <c r="HP3" t="s">
         <v>139</v>
       </c>
+      <c r="HT3" t="s">
+        <v>139</v>
+      </c>
       <c r="IY3">
         <v>90</v>
       </c>
@@ -2739,7 +2745,7 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
@@ -2747,7 +2753,7 @@
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PV3">
         <f t="shared" si="2"/>
@@ -2764,7 +2770,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2772,7 +2778,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
@@ -2784,11 +2790,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2816,11 +2822,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
@@ -2973,6 +2979,12 @@
         <v>90</v>
       </c>
       <c r="HP4" t="s">
+        <v>110</v>
+      </c>
+      <c r="HS4">
+        <v>90</v>
+      </c>
+      <c r="HT4" t="s">
         <v>110</v>
       </c>
       <c r="IU4">
@@ -3237,9 +3249,12 @@
       <c r="HP5" t="s">
         <v>139</v>
       </c>
+      <c r="HT5" t="s">
+        <v>139</v>
+      </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
@@ -3247,7 +3262,7 @@
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV5">
         <f t="shared" si="2"/>
@@ -3469,6 +3484,9 @@
       <c r="HP6" t="s">
         <v>139</v>
       </c>
+      <c r="HT6" t="s">
+        <v>139</v>
+      </c>
       <c r="JC6">
         <v>90</v>
       </c>
@@ -3477,7 +3495,7 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
@@ -3485,7 +3503,7 @@
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PV6">
         <f t="shared" si="2"/>
@@ -3502,7 +3520,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1099</v>
+        <v>1189</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -3510,7 +3528,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
@@ -3522,11 +3540,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3554,11 +3572,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="17"/>
@@ -3586,11 +3604,11 @@
       </c>
       <c r="W7" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="23"/>
@@ -3610,7 +3628,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="28"/>
@@ -3724,6 +3742,15 @@
       </c>
       <c r="HP7" t="s">
         <v>110</v>
+      </c>
+      <c r="HS7">
+        <v>90</v>
+      </c>
+      <c r="HT7" t="s">
+        <v>110</v>
+      </c>
+      <c r="HU7">
+        <v>1</v>
       </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
@@ -3960,6 +3987,9 @@
       <c r="HP8" t="s">
         <v>138</v>
       </c>
+      <c r="HT8" t="s">
+        <v>139</v>
+      </c>
       <c r="IU8">
         <v>90</v>
       </c>
@@ -3986,7 +4016,7 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
@@ -3994,7 +4024,7 @@
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV8">
         <f t="shared" si="2"/>
@@ -4011,7 +4041,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1372</v>
+        <v>1462</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -4019,7 +4049,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -4031,11 +4061,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -4063,11 +4093,11 @@
       </c>
       <c r="O9">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="17"/>
@@ -4263,6 +4293,12 @@
       </c>
       <c r="HR9">
         <v>1</v>
+      </c>
+      <c r="HS9">
+        <v>90</v>
+      </c>
+      <c r="HT9" t="s">
+        <v>110</v>
       </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
@@ -4323,7 +4359,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <f t="shared" si="11"/>
@@ -4355,7 +4391,7 @@
       </c>
       <c r="R10" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" si="19"/>
@@ -4516,6 +4552,9 @@
       </c>
       <c r="HQ10">
         <v>1</v>
+      </c>
+      <c r="HT10" t="s">
+        <v>138</v>
       </c>
       <c r="JC10">
         <v>45</v>
@@ -4588,7 +4627,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <f t="shared" si="11"/>
@@ -4620,7 +4659,7 @@
       </c>
       <c r="R11" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <f t="shared" si="19"/>
@@ -4787,6 +4826,9 @@
       </c>
       <c r="HP11" t="s">
         <v>110</v>
+      </c>
+      <c r="HT11" t="s">
+        <v>138</v>
       </c>
       <c r="JS11">
         <v>90</v>
@@ -5252,9 +5294,12 @@
       <c r="HP13" t="s">
         <v>139</v>
       </c>
+      <c r="HT13" t="s">
+        <v>139</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
@@ -5262,7 +5307,7 @@
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PV13">
         <f t="shared" si="2"/>
@@ -5279,7 +5324,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1279</v>
+        <v>1354</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -5287,7 +5332,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -5299,11 +5344,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -5331,11 +5376,11 @@
       </c>
       <c r="O14">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="17"/>
@@ -5539,6 +5584,12 @@
         <v>90</v>
       </c>
       <c r="HP14" t="s">
+        <v>110</v>
+      </c>
+      <c r="HS14">
+        <v>75</v>
+      </c>
+      <c r="HT14" t="s">
         <v>110</v>
       </c>
       <c r="PS14" s="3">
@@ -5568,7 +5619,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>929</v>
+        <v>995</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -5576,7 +5627,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
@@ -5588,11 +5639,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
@@ -5620,11 +5671,11 @@
       </c>
       <c r="O15">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="17"/>
@@ -5826,6 +5877,12 @@
       </c>
       <c r="HP15" t="s">
         <v>139</v>
+      </c>
+      <c r="HS15">
+        <v>66</v>
+      </c>
+      <c r="HT15" t="s">
+        <v>110</v>
       </c>
       <c r="PS15" s="3">
         <f t="shared" si="33"/>
@@ -5854,7 +5911,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1287</v>
+        <v>1376</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -5862,7 +5919,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -5874,11 +5931,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5906,11 +5963,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="17"/>
@@ -5946,11 +6003,11 @@
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
@@ -5966,7 +6023,7 @@
       </c>
       <c r="AD16">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16">
         <f t="shared" si="29"/>
@@ -6135,6 +6192,15 @@
         <v>110</v>
       </c>
       <c r="HQ16">
+        <v>1</v>
+      </c>
+      <c r="HS16">
+        <v>89</v>
+      </c>
+      <c r="HT16" t="s">
+        <v>110</v>
+      </c>
+      <c r="HV16">
         <v>1</v>
       </c>
       <c r="PS16" s="3">
@@ -6164,7 +6230,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
@@ -6172,7 +6238,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
@@ -6184,7 +6250,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
@@ -6192,7 +6258,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="10"/>
@@ -6216,7 +6282,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="16"/>
@@ -6224,7 +6290,7 @@
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="18"/>
@@ -6383,6 +6449,12 @@
       </c>
       <c r="HP17" t="s">
         <v>110</v>
+      </c>
+      <c r="HS17">
+        <v>1</v>
+      </c>
+      <c r="HT17" t="s">
+        <v>136</v>
       </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
@@ -6411,7 +6483,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -6419,7 +6491,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -6431,7 +6503,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
@@ -6439,7 +6511,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="10"/>
@@ -6463,7 +6535,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="16"/>
@@ -6471,7 +6543,7 @@
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="18"/>
@@ -6665,6 +6737,12 @@
         <v>10</v>
       </c>
       <c r="HP18" t="s">
+        <v>136</v>
+      </c>
+      <c r="HS18">
+        <v>24</v>
+      </c>
+      <c r="HT18" t="s">
         <v>136</v>
       </c>
       <c r="PS18" s="3">
@@ -6694,7 +6772,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -6702,7 +6780,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
@@ -6714,7 +6792,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -6722,7 +6800,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -6746,7 +6824,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="16"/>
@@ -6754,7 +6832,7 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="18"/>
@@ -6918,6 +6996,12 @@
         <v>20</v>
       </c>
       <c r="HP19" t="s">
+        <v>136</v>
+      </c>
+      <c r="HS19">
+        <v>24</v>
+      </c>
+      <c r="HT19" t="s">
         <v>136</v>
       </c>
       <c r="IY19">
@@ -6953,7 +7037,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1182</v>
+        <v>1248</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -6961,7 +7045,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
@@ -6973,11 +7057,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -7005,11 +7089,11 @@
       </c>
       <c r="O20">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="17"/>
@@ -7241,6 +7325,12 @@
       </c>
       <c r="HP20" t="s">
         <v>136</v>
+      </c>
+      <c r="HS20">
+        <v>66</v>
+      </c>
+      <c r="HT20" t="s">
+        <v>110</v>
       </c>
       <c r="PS20" s="3">
         <f t="shared" si="33"/>
@@ -7501,7 +7591,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1604</v>
+        <v>1694</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -7509,7 +7599,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>424</v>
+        <v>514</v>
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
@@ -7521,11 +7611,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -7553,11 +7643,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="17"/>
@@ -7585,11 +7675,11 @@
       </c>
       <c r="W22" s="3">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X22" s="4">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="23"/>
@@ -7609,7 +7699,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD22">
         <f t="shared" si="28"/>
@@ -7780,6 +7870,15 @@
       </c>
       <c r="HP22" t="s">
         <v>110</v>
+      </c>
+      <c r="HS22">
+        <v>90</v>
+      </c>
+      <c r="HT22" t="s">
+        <v>110</v>
+      </c>
+      <c r="HU22">
+        <v>1</v>
       </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
@@ -7977,6 +8076,9 @@
       <c r="HP23" t="s">
         <v>139</v>
       </c>
+      <c r="HT23" t="s">
+        <v>139</v>
+      </c>
       <c r="IU23">
         <v>90</v>
       </c>
@@ -7991,7 +8093,7 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
@@ -7999,7 +8101,7 @@
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PV23">
         <f t="shared" si="2"/>
@@ -8016,7 +8118,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1175</v>
+        <v>1265</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
@@ -8024,7 +8126,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
@@ -8036,11 +8138,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -8068,11 +8170,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="17"/>
@@ -8246,6 +8348,12 @@
         <v>90</v>
       </c>
       <c r="HP24" t="s">
+        <v>110</v>
+      </c>
+      <c r="HS24">
+        <v>90</v>
+      </c>
+      <c r="HT24" t="s">
         <v>110</v>
       </c>
       <c r="PS24" s="3">
@@ -8510,6 +8618,9 @@
       <c r="HP25" t="s">
         <v>110</v>
       </c>
+      <c r="HT25" t="s">
+        <v>139</v>
+      </c>
       <c r="IY25">
         <v>90</v>
       </c>
@@ -8527,7 +8638,7 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
@@ -8535,7 +8646,7 @@
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV25">
         <f t="shared" si="2"/>
@@ -8784,6 +8895,9 @@
       <c r="HP26" t="s">
         <v>136</v>
       </c>
+      <c r="HT26" t="s">
+        <v>139</v>
+      </c>
       <c r="JC26">
         <v>90</v>
       </c>
@@ -8813,7 +8927,7 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
@@ -8821,7 +8935,7 @@
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PV26">
         <f t="shared" si="2"/>
@@ -8838,7 +8952,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -8846,7 +8960,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
@@ -8858,11 +8972,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8890,11 +9004,11 @@
       </c>
       <c r="O27">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="17"/>
@@ -9020,6 +9134,12 @@
         <v>90</v>
       </c>
       <c r="HP27" t="s">
+        <v>110</v>
+      </c>
+      <c r="HS27">
+        <v>90</v>
+      </c>
+      <c r="HT27" t="s">
         <v>110</v>
       </c>
       <c r="PS27" s="3">
@@ -9049,7 +9169,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>819</v>
+        <v>909</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -9057,7 +9177,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
@@ -9069,11 +9189,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -9101,11 +9221,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="17"/>
@@ -9133,11 +9253,11 @@
       </c>
       <c r="W28" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="23"/>
@@ -9157,7 +9277,7 @@
       </c>
       <c r="AC28">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <f t="shared" si="28"/>
@@ -9247,6 +9367,15 @@
       </c>
       <c r="HP28" t="s">
         <v>139</v>
+      </c>
+      <c r="HS28">
+        <v>90</v>
+      </c>
+      <c r="HT28" t="s">
+        <v>110</v>
+      </c>
+      <c r="HU28">
+        <v>1</v>
       </c>
       <c r="IU28">
         <v>90</v>
@@ -9281,7 +9410,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
@@ -9289,7 +9418,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
@@ -9301,7 +9430,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="8"/>
@@ -9309,7 +9438,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="10"/>
@@ -9333,7 +9462,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" s="3">
         <f t="shared" si="16"/>
@@ -9341,7 +9470,7 @@
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="3">
         <f t="shared" si="18"/>
@@ -9443,6 +9572,12 @@
       </c>
       <c r="HP29" t="s">
         <v>139</v>
+      </c>
+      <c r="HS29">
+        <v>15</v>
+      </c>
+      <c r="HT29" t="s">
+        <v>136</v>
       </c>
       <c r="PS29" s="3">
         <f t="shared" si="33"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C95578-EB34-1B48-A956-D29F4C3A7463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FED3007-4A76-E240-B65B-77880394EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="148">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>CDF T7</t>
+  </si>
+  <si>
+    <t>CDF T8</t>
   </si>
 </sst>
 </file>
@@ -950,8 +953,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HX19" sqref="HX19"/>
+      <pane xSplit="1" topLeftCell="ED1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EQ15" sqref="EQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,7 +1643,7 @@
         <v>71</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="HT1" s="1" t="s">
         <v>92</v>
@@ -2285,11 +2288,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>1095</v>
+        <v>1185</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2305,11 +2308,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2321,11 +2324,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2353,7 +2356,7 @@
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="3">
         <f>COUNTIF(IU2:PR2,"T")</f>
@@ -2361,7 +2364,7 @@
       </c>
       <c r="U2" s="3">
         <f t="shared" ref="U2:U29" si="0">COUNTIF(IU:PR,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" ref="V2:V29" si="1">COUNTIF(IU:PR,"NR")</f>
@@ -2499,6 +2502,12 @@
       <c r="EF2" t="s">
         <v>110</v>
       </c>
+      <c r="EI2">
+        <v>90</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>110</v>
+      </c>
       <c r="HD2" t="s">
         <v>138</v>
       </c>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2609,7 +2618,7 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S29" si="19">SUM(T3:U3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:T29" si="20">COUNTIF(IU3:PR3,"T")</f>
@@ -2617,7 +2626,7 @@
       </c>
       <c r="U3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" si="1"/>
@@ -2704,6 +2713,9 @@
       <c r="EF3" t="s">
         <v>139</v>
       </c>
+      <c r="EJ3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2745,11 +2757,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2761,7 +2773,7 @@
       </c>
       <c r="PW3">
         <f t="shared" ref="PW3:PW29" si="36">G3-(K3+O3+S3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:439" x14ac:dyDescent="0.2">
@@ -2802,7 +2814,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
@@ -2818,7 +2830,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4" si="45">COUNTIF(CY4:GX4,"NR")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
@@ -2838,7 +2850,7 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4" si="50">SUM(T4:U4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="20"/>
@@ -2846,7 +2858,7 @@
       </c>
       <c r="U4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" si="1"/>
@@ -2950,6 +2962,9 @@
       </c>
       <c r="EF4" t="s">
         <v>139</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>138</v>
       </c>
       <c r="GY4">
         <v>90</v>
@@ -3017,7 +3032,7 @@
       </c>
       <c r="PW4">
         <f t="shared" ref="PW4" si="66">G4-(K4+O4+S4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:439" x14ac:dyDescent="0.2">
@@ -3094,7 +3109,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="20"/>
@@ -3102,7 +3117,7 @@
       </c>
       <c r="U5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" si="1"/>
@@ -3231,6 +3246,9 @@
       <c r="EF5" t="s">
         <v>139</v>
       </c>
+      <c r="EJ5" t="s">
+        <v>139</v>
+      </c>
       <c r="HD5" t="s">
         <v>139</v>
       </c>
@@ -3254,11 +3272,11 @@
       </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT5" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU5" s="3">
         <f t="shared" si="35"/>
@@ -3270,7 +3288,7 @@
       </c>
       <c r="PW5">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -3347,7 +3365,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="20"/>
@@ -3355,7 +3373,7 @@
       </c>
       <c r="U6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" si="1"/>
@@ -3472,6 +3490,9 @@
       <c r="EF6" t="s">
         <v>139</v>
       </c>
+      <c r="EJ6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3495,11 +3516,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3511,7 +3532,7 @@
       </c>
       <c r="PW6">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3520,11 +3541,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1189</v>
+        <v>1279</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
@@ -3540,11 +3561,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3556,11 +3577,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="13"/>
@@ -3588,7 +3609,7 @@
       </c>
       <c r="S7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="20"/>
@@ -3596,7 +3617,7 @@
       </c>
       <c r="U7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" si="1"/>
@@ -3711,6 +3732,12 @@
         <v>90</v>
       </c>
       <c r="EF7" t="s">
+        <v>110</v>
+      </c>
+      <c r="EI7">
+        <v>90</v>
+      </c>
+      <c r="EJ7" t="s">
         <v>110</v>
       </c>
       <c r="GY7">
@@ -3770,7 +3797,7 @@
       </c>
       <c r="PW7">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:439" x14ac:dyDescent="0.2">
@@ -3779,7 +3806,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>554</v>
+        <v>734</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -3791,7 +3818,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
@@ -3799,11 +3826,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="9"/>
@@ -3847,15 +3874,15 @@
       </c>
       <c r="S8">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" si="1"/>
@@ -3966,6 +3993,9 @@
       <c r="EF8" t="s">
         <v>139</v>
       </c>
+      <c r="EJ8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -4014,13 +4044,25 @@
       <c r="JT8" t="s">
         <v>110</v>
       </c>
+      <c r="JW8">
+        <v>90</v>
+      </c>
+      <c r="JX8" t="s">
+        <v>110</v>
+      </c>
+      <c r="KA8">
+        <v>90</v>
+      </c>
+      <c r="KB8" t="s">
+        <v>110</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -4032,7 +4074,7 @@
       </c>
       <c r="PW8">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -4041,11 +4083,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1462</v>
+        <v>1552</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>796</v>
+        <v>886</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -4061,11 +4103,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -4077,11 +4119,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="13"/>
@@ -4109,7 +4151,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="20"/>
@@ -4117,7 +4159,7 @@
       </c>
       <c r="U9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" si="1"/>
@@ -4264,6 +4306,12 @@
       <c r="EF9" t="s">
         <v>110</v>
       </c>
+      <c r="EI9">
+        <v>90</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>110</v>
+      </c>
       <c r="HC9">
         <v>45</v>
       </c>
@@ -4318,7 +4366,7 @@
       </c>
       <c r="PW9">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -4359,7 +4407,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <f t="shared" si="11"/>
@@ -4375,7 +4423,7 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <f t="shared" si="15"/>
@@ -4395,7 +4443,7 @@
       </c>
       <c r="S10">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="20"/>
@@ -4403,7 +4451,7 @@
       </c>
       <c r="U10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="1"/>
@@ -4529,6 +4577,9 @@
       <c r="EF10" t="s">
         <v>136</v>
       </c>
+      <c r="EJ10" t="s">
+        <v>138</v>
+      </c>
       <c r="HD10" t="s">
         <v>139</v>
       </c>
@@ -4586,7 +4637,7 @@
       </c>
       <c r="PW10">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -4595,7 +4646,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -4607,7 +4658,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F11">
         <f t="shared" si="6"/>
@@ -4615,11 +4666,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
@@ -4663,15 +4714,15 @@
       </c>
       <c r="S11">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="1"/>
@@ -4803,6 +4854,9 @@
       <c r="EF11" t="s">
         <v>139</v>
       </c>
+      <c r="EJ11" t="s">
+        <v>139</v>
+      </c>
       <c r="GY11">
         <v>90</v>
       </c>
@@ -4836,13 +4890,19 @@
       <c r="JT11" t="s">
         <v>110</v>
       </c>
+      <c r="KA11">
+        <v>90</v>
+      </c>
+      <c r="KB11" t="s">
+        <v>110</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
@@ -4854,7 +4914,7 @@
       </c>
       <c r="PW11">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -4931,7 +4991,7 @@
       </c>
       <c r="S12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="20"/>
@@ -4939,7 +4999,7 @@
       </c>
       <c r="U12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" si="1"/>
@@ -5080,7 +5140,7 @@
       </c>
       <c r="PW12">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -5157,7 +5217,7 @@
       </c>
       <c r="S13">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="20"/>
@@ -5165,7 +5225,7 @@
       </c>
       <c r="U13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" si="1"/>
@@ -5282,6 +5342,9 @@
       <c r="EF13" t="s">
         <v>139</v>
       </c>
+      <c r="EJ13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5299,11 +5362,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5315,7 +5378,7 @@
       </c>
       <c r="PW13">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -5324,11 +5387,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1354</v>
+        <v>1443</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -5344,11 +5407,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -5360,11 +5423,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="13"/>
@@ -5392,7 +5455,7 @@
       </c>
       <c r="S14">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="20"/>
@@ -5400,7 +5463,7 @@
       </c>
       <c r="U14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
@@ -5408,27 +5471,27 @@
       </c>
       <c r="W14" s="3">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X14" s="4">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA14">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB14">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC14">
         <f t="shared" si="27"/>
@@ -5550,6 +5613,18 @@
       <c r="EH14">
         <v>1</v>
       </c>
+      <c r="EI14">
+        <v>89</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>110</v>
+      </c>
+      <c r="EK14">
+        <v>1</v>
+      </c>
+      <c r="EL14">
+        <v>1</v>
+      </c>
       <c r="GY14">
         <v>90</v>
       </c>
@@ -5610,7 +5685,7 @@
       </c>
       <c r="PW14">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -5619,11 +5694,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -5639,7 +5714,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
@@ -5647,7 +5722,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="10"/>
@@ -5655,7 +5730,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="12"/>
@@ -5663,7 +5738,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="14"/>
@@ -5687,7 +5762,7 @@
       </c>
       <c r="S15">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="20"/>
@@ -5695,7 +5770,7 @@
       </c>
       <c r="U15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" si="1"/>
@@ -5851,6 +5926,12 @@
       <c r="EF15" t="s">
         <v>136</v>
       </c>
+      <c r="EI15">
+        <v>17</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>136</v>
+      </c>
       <c r="GY15">
         <v>59</v>
       </c>
@@ -5902,7 +5983,7 @@
       </c>
       <c r="PW15">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -5911,11 +5992,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1376</v>
+        <v>1466</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -5931,11 +6012,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -5947,11 +6028,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="13"/>
@@ -5979,7 +6060,7 @@
       </c>
       <c r="S16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="20"/>
@@ -5987,7 +6068,7 @@
       </c>
       <c r="U16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="1"/>
@@ -6152,6 +6233,12 @@
       <c r="EH16">
         <v>1</v>
       </c>
+      <c r="EI16">
+        <v>90</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>110</v>
+      </c>
       <c r="GY16">
         <v>18</v>
       </c>
@@ -6221,7 +6308,7 @@
       </c>
       <c r="PW16">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -6230,7 +6317,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
@@ -6242,7 +6329,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
@@ -6250,11 +6337,11 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
@@ -6298,15 +6385,15 @@
       </c>
       <c r="S17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="1"/>
@@ -6432,6 +6519,9 @@
       <c r="EF17" t="s">
         <v>136</v>
       </c>
+      <c r="EJ17" t="s">
+        <v>139</v>
+      </c>
       <c r="HC17">
         <v>58</v>
       </c>
@@ -6456,13 +6546,19 @@
       <c r="HT17" t="s">
         <v>136</v>
       </c>
+      <c r="KA17">
+        <v>90</v>
+      </c>
+      <c r="KB17" t="s">
+        <v>110</v>
+      </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT17" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU17" s="3">
         <f t="shared" si="35"/>
@@ -6474,7 +6570,7 @@
       </c>
       <c r="PW17">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -6483,11 +6579,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>806</v>
+        <v>879</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
@@ -6503,11 +6599,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -6519,11 +6615,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="13"/>
@@ -6551,7 +6647,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="20"/>
@@ -6559,7 +6655,7 @@
       </c>
       <c r="U18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" si="1"/>
@@ -6567,11 +6663,11 @@
       </c>
       <c r="W18" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="23"/>
@@ -6583,7 +6679,7 @@
       </c>
       <c r="AA18">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18">
         <f t="shared" si="26"/>
@@ -6703,6 +6799,15 @@
       <c r="EF18" t="s">
         <v>110</v>
       </c>
+      <c r="EI18">
+        <v>73</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>110</v>
+      </c>
+      <c r="EK18">
+        <v>1</v>
+      </c>
       <c r="GY18">
         <v>18</v>
       </c>
@@ -6763,7 +6868,7 @@
       </c>
       <c r="PW18">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -6772,11 +6877,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
@@ -6792,7 +6897,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -6800,7 +6905,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -6808,7 +6913,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
@@ -6816,7 +6921,7 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="14"/>
@@ -6840,7 +6945,7 @@
       </c>
       <c r="S19">
         <f>SUM(T19:U19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="20"/>
@@ -6848,7 +6953,7 @@
       </c>
       <c r="U19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="1"/>
@@ -6969,6 +7074,12 @@
         <v>25</v>
       </c>
       <c r="EF19" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI19">
+        <v>17</v>
+      </c>
+      <c r="EJ19" t="s">
         <v>136</v>
       </c>
       <c r="GY19">
@@ -7028,7 +7139,7 @@
       </c>
       <c r="PW19">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -7037,11 +7148,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1248</v>
+        <v>1321</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -7057,11 +7168,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -7073,11 +7184,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="13"/>
@@ -7105,7 +7216,7 @@
       </c>
       <c r="S20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="20"/>
@@ -7113,7 +7224,7 @@
       </c>
       <c r="U20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" si="1"/>
@@ -7284,6 +7395,12 @@
       <c r="EH20">
         <v>1</v>
       </c>
+      <c r="EI20">
+        <v>73</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>110</v>
+      </c>
       <c r="GY20">
         <v>31</v>
       </c>
@@ -7350,7 +7467,7 @@
       </c>
       <c r="PW20">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -7427,7 +7544,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="20"/>
@@ -7435,7 +7552,7 @@
       </c>
       <c r="U21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="3">
         <f t="shared" si="1"/>
@@ -7546,6 +7663,9 @@
       <c r="EF21" t="s">
         <v>139</v>
       </c>
+      <c r="EJ21" t="s">
+        <v>139</v>
+      </c>
       <c r="HD21" t="s">
         <v>139</v>
       </c>
@@ -7566,11 +7686,11 @@
       </c>
       <c r="PS21" s="3">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PT21" s="3">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PU21" s="3">
         <f t="shared" si="35"/>
@@ -7582,7 +7702,7 @@
       </c>
       <c r="PW21">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:439" x14ac:dyDescent="0.2">
@@ -7591,11 +7711,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1694</v>
+        <v>1784</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -7611,11 +7731,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -7627,11 +7747,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="13"/>
@@ -7659,7 +7779,7 @@
       </c>
       <c r="S22">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="20"/>
@@ -7667,7 +7787,7 @@
       </c>
       <c r="U22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="3">
         <f t="shared" si="1"/>
@@ -7832,6 +7952,12 @@
       <c r="EH22">
         <v>1</v>
       </c>
+      <c r="EI22">
+        <v>90</v>
+      </c>
+      <c r="EJ22" t="s">
+        <v>110</v>
+      </c>
       <c r="GY22">
         <v>90</v>
       </c>
@@ -7898,7 +8024,7 @@
       </c>
       <c r="PW22">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -7907,7 +8033,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="37"/>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
@@ -7919,7 +8045,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F23">
         <f t="shared" si="6"/>
@@ -7927,7 +8053,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="8"/>
@@ -7935,7 +8061,7 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="10"/>
@@ -7975,7 +8101,7 @@
       </c>
       <c r="S23">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="20"/>
@@ -7983,7 +8109,7 @@
       </c>
       <c r="U23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="3">
         <f t="shared" si="1"/>
@@ -8064,6 +8190,9 @@
       <c r="EF23" t="s">
         <v>139</v>
       </c>
+      <c r="EJ23" t="s">
+        <v>139</v>
+      </c>
       <c r="HD23" t="s">
         <v>139</v>
       </c>
@@ -8084,6 +8213,12 @@
       </c>
       <c r="IV23" t="s">
         <v>110</v>
+      </c>
+      <c r="JW23">
+        <v>10</v>
+      </c>
+      <c r="JX23" t="s">
+        <v>136</v>
       </c>
       <c r="ME23">
         <v>90</v>
@@ -8093,11 +8228,11 @@
       </c>
       <c r="PS23" s="3">
         <f t="shared" si="33"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="PT23" s="3">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PU23" s="3">
         <f t="shared" si="35"/>
@@ -8118,11 +8253,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1265</v>
+        <v>1355</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
@@ -8138,11 +8273,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -8154,11 +8289,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="13"/>
@@ -8186,7 +8321,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="20"/>
@@ -8194,7 +8329,7 @@
       </c>
       <c r="U24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3">
         <f t="shared" si="1"/>
@@ -8210,11 +8345,11 @@
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <f t="shared" si="25"/>
@@ -8222,7 +8357,7 @@
       </c>
       <c r="AB24">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <f t="shared" si="27"/>
@@ -8322,6 +8457,15 @@
       </c>
       <c r="EF24" t="s">
         <v>110</v>
+      </c>
+      <c r="EI24">
+        <v>90</v>
+      </c>
+      <c r="EJ24" t="s">
+        <v>110</v>
+      </c>
+      <c r="EL24">
+        <v>1</v>
       </c>
       <c r="GY24">
         <v>90</v>
@@ -8374,7 +8518,7 @@
       </c>
       <c r="PW24">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -8451,7 +8595,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="20"/>
@@ -8459,7 +8603,7 @@
       </c>
       <c r="U25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="3">
         <f t="shared" si="1"/>
@@ -8585,6 +8729,9 @@
       <c r="EF25" t="s">
         <v>139</v>
       </c>
+      <c r="EJ25" t="s">
+        <v>139</v>
+      </c>
       <c r="GY25">
         <v>90</v>
       </c>
@@ -8638,11 +8785,11 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -8654,7 +8801,7 @@
       </c>
       <c r="PW25">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
@@ -8731,7 +8878,7 @@
       </c>
       <c r="S26">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="20"/>
@@ -8739,7 +8886,7 @@
       </c>
       <c r="U26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="3">
         <f t="shared" si="1"/>
@@ -8871,6 +9018,9 @@
       <c r="EF26" t="s">
         <v>139</v>
       </c>
+      <c r="EJ26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -8927,11 +9077,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -8943,7 +9093,7 @@
       </c>
       <c r="PW26">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">
@@ -8952,11 +9102,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
@@ -8972,11 +9122,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -8988,11 +9138,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="13"/>
@@ -9020,7 +9170,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="20"/>
@@ -9028,7 +9178,7 @@
       </c>
       <c r="U27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="3">
         <f t="shared" si="1"/>
@@ -9113,6 +9263,12 @@
         <v>90</v>
       </c>
       <c r="EF27" t="s">
+        <v>110</v>
+      </c>
+      <c r="EI27">
+        <v>90</v>
+      </c>
+      <c r="EJ27" t="s">
         <v>110</v>
       </c>
       <c r="HD27" t="s">
@@ -9160,7 +9316,7 @@
       </c>
       <c r="PW27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:439" x14ac:dyDescent="0.2">
@@ -9169,11 +9325,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>909</v>
+        <v>999</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>419</v>
+        <v>509</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
@@ -9189,11 +9345,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -9205,11 +9361,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="13"/>
@@ -9237,7 +9393,7 @@
       </c>
       <c r="S28">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="20"/>
@@ -9245,7 +9401,7 @@
       </c>
       <c r="U28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="3">
         <f t="shared" si="1"/>
@@ -9338,6 +9494,12 @@
       <c r="EF28" t="s">
         <v>110</v>
       </c>
+      <c r="EI28">
+        <v>90</v>
+      </c>
+      <c r="EJ28" t="s">
+        <v>110</v>
+      </c>
       <c r="GY28">
         <v>79</v>
       </c>
@@ -9401,7 +9563,7 @@
       </c>
       <c r="PW28">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:439" x14ac:dyDescent="0.2">
@@ -9410,11 +9572,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>248</v>
+        <v>339</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
@@ -9422,7 +9584,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <f t="shared" si="6"/>
@@ -9430,15 +9592,15 @@
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="10"/>
@@ -9446,7 +9608,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="12"/>
@@ -9454,7 +9616,7 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="14"/>
@@ -9478,15 +9640,15 @@
       </c>
       <c r="S29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="3">
         <f t="shared" si="1"/>
@@ -9558,6 +9720,12 @@
       <c r="EF29" t="s">
         <v>136</v>
       </c>
+      <c r="EI29">
+        <v>1</v>
+      </c>
+      <c r="EJ29" t="s">
+        <v>136</v>
+      </c>
       <c r="HC29">
         <v>90</v>
       </c>
@@ -9578,6 +9746,12 @@
       </c>
       <c r="HT29" t="s">
         <v>136</v>
+      </c>
+      <c r="KA29">
+        <v>90</v>
+      </c>
+      <c r="KB29" t="s">
+        <v>110</v>
       </c>
       <c r="PS29" s="3">
         <f t="shared" si="33"/>
@@ -9597,7 +9771,7 @@
       </c>
       <c r="PW29">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FED3007-4A76-E240-B65B-77880394EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525B4B8-5323-7644-8095-697D0AB54E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="148">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -953,8 +953,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="ED1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EQ15" sqref="EQ15"/>
+      <pane xSplit="1" topLeftCell="KE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KJ24" sqref="KJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>930</v>
+        <v>1020</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F4">
         <f t="shared" si="6"/>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4" si="50">SUM(T4:U4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="0"/>
@@ -3012,6 +3012,12 @@
         <v>90</v>
       </c>
       <c r="JT4" t="s">
+        <v>110</v>
+      </c>
+      <c r="KE4">
+        <v>90</v>
+      </c>
+      <c r="KF4" t="s">
         <v>110</v>
       </c>
       <c r="PS4" s="3">
@@ -3297,7 +3303,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="37"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
@@ -3309,7 +3315,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
@@ -3317,11 +3323,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="9"/>
@@ -3365,11 +3371,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="0"/>
@@ -3512,6 +3518,12 @@
         <v>90</v>
       </c>
       <c r="JD6" t="s">
+        <v>110</v>
+      </c>
+      <c r="KE6">
+        <v>90</v>
+      </c>
+      <c r="KF6" t="s">
         <v>110</v>
       </c>
       <c r="PS6" s="3">
@@ -3806,7 +3818,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -3818,7 +3830,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
@@ -3826,11 +3838,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="9"/>
@@ -3874,11 +3886,11 @@
       </c>
       <c r="S8">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="0"/>
@@ -4054,6 +4066,12 @@
         <v>90</v>
       </c>
       <c r="KB8" t="s">
+        <v>110</v>
+      </c>
+      <c r="KE8">
+        <v>90</v>
+      </c>
+      <c r="KF8" t="s">
         <v>110</v>
       </c>
       <c r="PS8" s="3">
@@ -5694,7 +5712,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1012</v>
+        <v>1102</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -5706,7 +5724,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <f t="shared" si="6"/>
@@ -5714,11 +5732,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
@@ -5762,11 +5780,11 @@
       </c>
       <c r="S15">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="0"/>
@@ -5963,6 +5981,12 @@
         <v>66</v>
       </c>
       <c r="HT15" t="s">
+        <v>110</v>
+      </c>
+      <c r="KE15">
+        <v>90</v>
+      </c>
+      <c r="KF15" t="s">
         <v>110</v>
       </c>
       <c r="PS15" s="3">
@@ -6877,7 +6901,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -6889,7 +6913,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F19">
         <f t="shared" si="6"/>
@@ -6897,11 +6921,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
@@ -6945,11 +6969,11 @@
       </c>
       <c r="S19">
         <f>SUM(T19:U19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="0"/>
@@ -7119,6 +7143,12 @@
         <v>90</v>
       </c>
       <c r="IZ19" t="s">
+        <v>110</v>
+      </c>
+      <c r="KE19">
+        <v>90</v>
+      </c>
+      <c r="KF19" t="s">
         <v>110</v>
       </c>
       <c r="PS19" s="3">
@@ -8810,7 +8840,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>751</v>
+        <v>836</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -8822,7 +8852,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
@@ -8830,11 +8860,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
@@ -8878,11 +8908,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="0"/>
@@ -9074,6 +9104,12 @@
       </c>
       <c r="JU26">
         <v>2</v>
+      </c>
+      <c r="KE26">
+        <v>85</v>
+      </c>
+      <c r="KF26" t="s">
+        <v>110</v>
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525B4B8-5323-7644-8095-697D0AB54E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E95854F-CF81-F041-930B-B4C8E0B3D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="149">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>CDF T8</t>
+  </si>
+  <si>
+    <t>CDF 32ème</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
   <dimension ref="A1:PW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KJ24" sqref="KJ24"/>
+      <pane xSplit="1" topLeftCell="HV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="IA17" sqref="IA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1655,7 +1658,7 @@
         <v>71</v>
       </c>
       <c r="HW1" s="1" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="HX1" s="1" t="s">
         <v>92</v>
@@ -2320,7 +2323,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTIF(AI2:PR2,"NR")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="R2" s="3">
         <f>COUNTIF(GY2:IT2,"NR")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
@@ -2521,6 +2524,9 @@
         <v>138</v>
       </c>
       <c r="HT2" t="s">
+        <v>138</v>
+      </c>
+      <c r="HX2" t="s">
         <v>138</v>
       </c>
       <c r="PS2" s="3">
@@ -2731,6 +2737,9 @@
       <c r="HT3" t="s">
         <v>139</v>
       </c>
+      <c r="HX3" t="s">
+        <v>139</v>
+      </c>
       <c r="IY3">
         <v>90</v>
       </c>
@@ -2757,7 +2766,7 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
@@ -2765,7 +2774,7 @@
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PV3">
         <f t="shared" si="2"/>
@@ -2782,7 +2791,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2790,7 +2799,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="E4">
         <f t="shared" si="5"/>
@@ -2802,11 +2811,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2834,11 +2843,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="47">COUNTIF(GY4:IT4,"T")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="48">COUNTIF(GY4:IT4,"R")</f>
@@ -3000,6 +3009,12 @@
         <v>90</v>
       </c>
       <c r="HT4" t="s">
+        <v>110</v>
+      </c>
+      <c r="HW4">
+        <v>90</v>
+      </c>
+      <c r="HX4" t="s">
         <v>110</v>
       </c>
       <c r="IU4">
@@ -3047,7 +3062,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>796</v>
+        <v>886</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
@@ -3055,7 +3070,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="E5">
         <f t="shared" si="5"/>
@@ -3067,11 +3082,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="9"/>
@@ -3099,11 +3114,11 @@
       </c>
       <c r="O5">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="17"/>
@@ -3275,6 +3290,12 @@
       </c>
       <c r="HT5" t="s">
         <v>139</v>
+      </c>
+      <c r="HW5">
+        <v>90</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>110</v>
       </c>
       <c r="PS5" s="3">
         <f t="shared" si="33"/>
@@ -3514,6 +3535,9 @@
       <c r="HT6" t="s">
         <v>139</v>
       </c>
+      <c r="HX6" t="s">
+        <v>139</v>
+      </c>
       <c r="JC6">
         <v>90</v>
       </c>
@@ -3528,7 +3552,7 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
@@ -3536,7 +3560,7 @@
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PV6">
         <f t="shared" si="2"/>
@@ -3553,7 +3577,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1279</v>
+        <v>1369</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -3561,7 +3585,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
@@ -3573,11 +3597,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3605,11 +3629,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="17"/>
@@ -3790,6 +3814,12 @@
       </c>
       <c r="HU7">
         <v>1</v>
+      </c>
+      <c r="HW7">
+        <v>90</v>
+      </c>
+      <c r="HX7" t="s">
+        <v>110</v>
       </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
@@ -4032,6 +4062,9 @@
       <c r="HT8" t="s">
         <v>139</v>
       </c>
+      <c r="HX8" t="s">
+        <v>139</v>
+      </c>
       <c r="IU8">
         <v>90</v>
       </c>
@@ -4076,7 +4109,7 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
@@ -4084,7 +4117,7 @@
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PV8">
         <f t="shared" si="2"/>
@@ -4101,7 +4134,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1552</v>
+        <v>1642</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -4109,7 +4142,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -4121,11 +4154,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="9"/>
@@ -4153,11 +4186,11 @@
       </c>
       <c r="O9">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="17"/>
@@ -4364,6 +4397,12 @@
         <v>90</v>
       </c>
       <c r="HT9" t="s">
+        <v>110</v>
+      </c>
+      <c r="HW9">
+        <v>90</v>
+      </c>
+      <c r="HX9" t="s">
         <v>110</v>
       </c>
       <c r="PS9" s="3">
@@ -4393,7 +4432,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
@@ -4401,7 +4440,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
@@ -4413,11 +4452,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="9"/>
@@ -4445,11 +4484,11 @@
       </c>
       <c r="O10">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="17"/>
@@ -4624,6 +4663,12 @@
       </c>
       <c r="HT10" t="s">
         <v>138</v>
+      </c>
+      <c r="HW10">
+        <v>90</v>
+      </c>
+      <c r="HX10" t="s">
+        <v>110</v>
       </c>
       <c r="JC10">
         <v>45</v>
@@ -4696,7 +4741,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <f t="shared" si="11"/>
@@ -4728,7 +4773,7 @@
       </c>
       <c r="R11" s="3">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <f t="shared" si="19"/>
@@ -4900,6 +4945,9 @@
         <v>110</v>
       </c>
       <c r="HT11" t="s">
+        <v>138</v>
+      </c>
+      <c r="HX11" t="s">
         <v>138</v>
       </c>
       <c r="JS11">
@@ -5378,9 +5426,12 @@
       <c r="HT13" t="s">
         <v>139</v>
       </c>
+      <c r="HX13" t="s">
+        <v>139</v>
+      </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
@@ -5388,7 +5439,7 @@
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PV13">
         <f t="shared" si="2"/>
@@ -5405,7 +5456,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -5413,7 +5464,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -5425,7 +5476,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
@@ -5433,7 +5484,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="10"/>
@@ -5457,7 +5508,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="16"/>
@@ -5465,7 +5516,7 @@
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="18"/>
@@ -5684,6 +5735,12 @@
       </c>
       <c r="HT14" t="s">
         <v>110</v>
+      </c>
+      <c r="HW14">
+        <v>3</v>
+      </c>
+      <c r="HX14" t="s">
+        <v>136</v>
       </c>
       <c r="PS14" s="3">
         <f t="shared" si="33"/>
@@ -5712,7 +5769,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -5720,7 +5777,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
@@ -5732,7 +5789,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
@@ -5740,7 +5797,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="10"/>
@@ -5764,7 +5821,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="16"/>
@@ -5772,7 +5829,7 @@
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="18"/>
@@ -5982,6 +6039,12 @@
       </c>
       <c r="HT15" t="s">
         <v>110</v>
+      </c>
+      <c r="HW15">
+        <v>1</v>
+      </c>
+      <c r="HX15" t="s">
+        <v>136</v>
       </c>
       <c r="KE15">
         <v>90</v>
@@ -6016,7 +6079,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1466</v>
+        <v>1555</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -6024,7 +6087,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -6036,11 +6099,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="9"/>
@@ -6068,11 +6131,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="17"/>
@@ -6100,11 +6163,11 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
@@ -6124,7 +6187,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD16">
         <f t="shared" si="28"/>
@@ -6312,6 +6375,15 @@
         <v>110</v>
       </c>
       <c r="HV16">
+        <v>1</v>
+      </c>
+      <c r="HW16">
+        <v>89</v>
+      </c>
+      <c r="HX16" t="s">
+        <v>110</v>
+      </c>
+      <c r="HY16">
         <v>1</v>
       </c>
       <c r="PS16" s="3">
@@ -6341,7 +6413,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
@@ -6349,7 +6421,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
@@ -6361,7 +6433,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
@@ -6369,7 +6441,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="10"/>
@@ -6393,7 +6465,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="16"/>
@@ -6401,7 +6473,7 @@
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="18"/>
@@ -6568,6 +6640,12 @@
         <v>1</v>
       </c>
       <c r="HT17" t="s">
+        <v>136</v>
+      </c>
+      <c r="HW17">
+        <v>1</v>
+      </c>
+      <c r="HX17" t="s">
         <v>136</v>
       </c>
       <c r="KA17">
@@ -6603,7 +6681,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>879</v>
+        <v>968</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -6611,7 +6689,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>245</v>
+        <v>334</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -6623,11 +6701,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -6655,11 +6733,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="17"/>
@@ -6873,6 +6951,12 @@
       </c>
       <c r="HT18" t="s">
         <v>136</v>
+      </c>
+      <c r="HW18">
+        <v>89</v>
+      </c>
+      <c r="HX18" t="s">
+        <v>110</v>
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
@@ -6901,7 +6985,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -6909,7 +6993,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
@@ -6921,7 +7005,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -6929,7 +7013,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -6953,7 +7037,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="16"/>
@@ -6961,7 +7045,7 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="18"/>
@@ -7137,6 +7221,12 @@
         <v>24</v>
       </c>
       <c r="HT19" t="s">
+        <v>136</v>
+      </c>
+      <c r="HW19">
+        <v>1</v>
+      </c>
+      <c r="HX19" t="s">
         <v>136</v>
       </c>
       <c r="IY19">
@@ -7178,7 +7268,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1321</v>
+        <v>1410</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -7186,7 +7276,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
@@ -7198,11 +7288,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -7230,11 +7320,11 @@
       </c>
       <c r="O20">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="17"/>
@@ -7477,6 +7567,12 @@
         <v>66</v>
       </c>
       <c r="HT20" t="s">
+        <v>110</v>
+      </c>
+      <c r="HW20">
+        <v>89</v>
+      </c>
+      <c r="HX20" t="s">
         <v>110</v>
       </c>
       <c r="PS20" s="3">
@@ -7741,7 +7837,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1784</v>
+        <v>1874</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -7749,7 +7845,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
@@ -7761,11 +7857,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -7793,11 +7889,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="17"/>
@@ -8035,6 +8131,12 @@
       </c>
       <c r="HU22">
         <v>1</v>
+      </c>
+      <c r="HW22">
+        <v>90</v>
+      </c>
+      <c r="HX22" t="s">
+        <v>110</v>
       </c>
       <c r="PS22" s="3">
         <f t="shared" si="33"/>
@@ -8283,7 +8385,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1355</v>
+        <v>1442</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
@@ -8291,7 +8393,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>365</v>
+        <v>452</v>
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
@@ -8303,11 +8405,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -8335,11 +8437,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="17"/>
@@ -8528,6 +8630,12 @@
         <v>90</v>
       </c>
       <c r="HT24" t="s">
+        <v>110</v>
+      </c>
+      <c r="HW24">
+        <v>87</v>
+      </c>
+      <c r="HX24" t="s">
         <v>110</v>
       </c>
       <c r="PS24" s="3">
@@ -8589,7 +8697,7 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <f t="shared" si="11"/>
@@ -8621,7 +8729,7 @@
       </c>
       <c r="R25" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <f t="shared" si="19"/>
@@ -8797,6 +8905,9 @@
       </c>
       <c r="HT25" t="s">
         <v>139</v>
+      </c>
+      <c r="HX25" t="s">
+        <v>138</v>
       </c>
       <c r="IY25">
         <v>90</v>
@@ -8872,7 +8983,7 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <f t="shared" si="11"/>
@@ -8904,7 +9015,7 @@
       </c>
       <c r="R26" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <f t="shared" si="19"/>
@@ -9077,6 +9188,9 @@
       </c>
       <c r="HT26" t="s">
         <v>139</v>
+      </c>
+      <c r="HX26" t="s">
+        <v>138</v>
       </c>
       <c r="JC26">
         <v>90</v>
@@ -9138,7 +9252,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -9146,7 +9260,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
@@ -9158,11 +9272,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -9190,11 +9304,11 @@
       </c>
       <c r="O27">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="17"/>
@@ -9332,6 +9446,12 @@
         <v>90</v>
       </c>
       <c r="HT27" t="s">
+        <v>110</v>
+      </c>
+      <c r="HW27">
+        <v>90</v>
+      </c>
+      <c r="HX27" t="s">
         <v>110</v>
       </c>
       <c r="PS27" s="3">
@@ -9575,6 +9695,9 @@
       <c r="HU28">
         <v>1</v>
       </c>
+      <c r="HX28" t="s">
+        <v>139</v>
+      </c>
       <c r="IU28">
         <v>90</v>
       </c>
@@ -9583,7 +9706,7 @@
       </c>
       <c r="PS28" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT28" s="3">
         <f t="shared" si="34"/>
@@ -9591,7 +9714,7 @@
       </c>
       <c r="PU28" s="3">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PV28">
         <f t="shared" si="2"/>
@@ -9640,7 +9763,7 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f t="shared" si="11"/>
@@ -9672,7 +9795,7 @@
       </c>
       <c r="R29" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <f t="shared" si="19"/>
@@ -9782,6 +9905,9 @@
       </c>
       <c r="HT29" t="s">
         <v>136</v>
+      </c>
+      <c r="HX29" t="s">
+        <v>138</v>
       </c>
       <c r="KA29">
         <v>90</v>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E95854F-CF81-F041-930B-B4C8E0B3D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E245BF6-29F2-A047-A54B-8C16655045F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="150">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>CDF 32ème</t>
+  </si>
+  <si>
+    <t>Theo Owono</t>
   </si>
 </sst>
 </file>
@@ -953,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F67B87-FE0E-FC4A-8FE6-DAAF2AFECC8B}">
-  <dimension ref="A1:PW29"/>
+  <dimension ref="A1:PW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IA17" sqref="IA17"/>
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ22" sqref="BQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2451,6 +2454,9 @@
       <c r="BD2" t="s">
         <v>110</v>
       </c>
+      <c r="BH2" t="s">
+        <v>139</v>
+      </c>
       <c r="CY2">
         <v>90</v>
       </c>
@@ -2531,7 +2537,7 @@
       </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT2" s="3">
         <f>COUNTIF(CY2:GX2,"HG")</f>
@@ -2556,7 +2562,7 @@
       </c>
       <c r="B3">
         <f>SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3,CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3,GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3,IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C29" si="3">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
@@ -2571,12 +2577,12 @@
         <v>360</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F29" si="6">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
-        <v>45</v>
+        <f t="shared" ref="F3:F30" si="6">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
+        <v>90</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G29" si="7">SUM(H3:I3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H29" si="8">COUNTIF(AI3:PR3,"T")</f>
@@ -2584,7 +2590,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I29" si="9">COUNTIF(AI3:PR3,"R")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J29" si="10">COUNTIF(AI3:PR3,"NR")</f>
@@ -2692,6 +2698,12 @@
       <c r="AN3" t="s">
         <v>136</v>
       </c>
+      <c r="BG3">
+        <v>45</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>136</v>
+      </c>
       <c r="CZ3" t="s">
         <v>139</v>
       </c>
@@ -2782,7 +2794,7 @@
       </c>
       <c r="PW3">
         <f t="shared" ref="PW3:PW29" si="36">G3-(K3+O3+S3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:439" x14ac:dyDescent="0.2">
@@ -2791,7 +2803,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>1110</v>
+        <v>1155</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2807,15 +2819,15 @@
       </c>
       <c r="F4">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2945,6 +2957,12 @@
       <c r="AZ4" t="s">
         <v>110</v>
       </c>
+      <c r="BG4">
+        <v>45</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>110</v>
+      </c>
       <c r="CZ4" t="s">
         <v>138</v>
       </c>
@@ -3053,7 +3071,7 @@
       </c>
       <c r="PW4">
         <f t="shared" ref="PW4" si="66">G4-(K4+O4+S4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:439" x14ac:dyDescent="0.2">
@@ -3062,7 +3080,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>886</v>
+        <v>931</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
@@ -3078,11 +3096,11 @@
       </c>
       <c r="F5">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="G5">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="8"/>
@@ -3090,7 +3108,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="10"/>
@@ -3228,6 +3246,12 @@
       <c r="BD5" t="s">
         <v>110</v>
       </c>
+      <c r="BG5">
+        <v>45</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>136</v>
+      </c>
       <c r="CY5">
         <v>90</v>
       </c>
@@ -3315,7 +3339,7 @@
       </c>
       <c r="PW5">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -3490,6 +3514,9 @@
       <c r="BD6" t="s">
         <v>136</v>
       </c>
+      <c r="BH6" t="s">
+        <v>139</v>
+      </c>
       <c r="CZ6" t="s">
         <v>138</v>
       </c>
@@ -3552,7 +3579,7 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
@@ -3577,7 +3604,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1369</v>
+        <v>1444</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -3593,15 +3620,15 @@
       </c>
       <c r="F7">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="9"/>
@@ -3725,6 +3752,12 @@
       <c r="BD7" t="s">
         <v>110</v>
       </c>
+      <c r="BG7">
+        <v>75</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>110</v>
+      </c>
       <c r="CZ7" t="s">
         <v>139</v>
       </c>
@@ -3839,7 +3872,7 @@
       </c>
       <c r="PW7">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:439" x14ac:dyDescent="0.2">
@@ -3848,7 +3881,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>824</v>
+        <v>869</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -3864,11 +3897,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="G8">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="8"/>
@@ -3876,7 +3909,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="10"/>
@@ -4008,6 +4041,12 @@
       <c r="BD8" t="s">
         <v>136</v>
       </c>
+      <c r="BG8">
+        <v>45</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>136</v>
+      </c>
       <c r="CZ8" t="s">
         <v>139</v>
       </c>
@@ -4125,7 +4164,7 @@
       </c>
       <c r="PW8">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -4303,6 +4342,9 @@
       <c r="BD9" t="s">
         <v>110</v>
       </c>
+      <c r="BH9" t="s">
+        <v>139</v>
+      </c>
       <c r="CY9">
         <v>90</v>
       </c>
@@ -4407,7 +4449,7 @@
       </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT9" s="3">
         <f t="shared" si="34"/>
@@ -4598,6 +4640,9 @@
       <c r="BD10" t="s">
         <v>110</v>
       </c>
+      <c r="BH10" t="s">
+        <v>139</v>
+      </c>
       <c r="CY10">
         <v>81</v>
       </c>
@@ -4684,7 +4729,7 @@
       </c>
       <c r="PS10" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT10" s="3">
         <f t="shared" si="34"/>
@@ -4709,7 +4754,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>899</v>
+        <v>944</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -4725,15 +4770,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="9"/>
@@ -4869,6 +4914,12 @@
       <c r="BD11" t="s">
         <v>136</v>
       </c>
+      <c r="BG11">
+        <v>45</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>110</v>
+      </c>
       <c r="CY11">
         <v>9</v>
       </c>
@@ -4980,7 +5031,7 @@
       </c>
       <c r="PW11">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -5375,6 +5426,9 @@
       <c r="BD13" t="s">
         <v>110</v>
       </c>
+      <c r="BH13" t="s">
+        <v>139</v>
+      </c>
       <c r="CZ13" t="s">
         <v>139</v>
       </c>
@@ -5431,7 +5485,7 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
@@ -5456,7 +5510,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1446</v>
+        <v>1536</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -5472,15 +5526,15 @@
       </c>
       <c r="F14">
         <f t="shared" si="6"/>
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
@@ -5622,6 +5676,12 @@
       <c r="BD14" t="s">
         <v>136</v>
       </c>
+      <c r="BG14">
+        <v>90</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>110</v>
+      </c>
       <c r="CY14">
         <v>90</v>
       </c>
@@ -5760,7 +5820,7 @@
       </c>
       <c r="PW14">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -5769,7 +5829,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1103</v>
+        <v>1148</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -5785,11 +5845,11 @@
       </c>
       <c r="F15">
         <f t="shared" si="6"/>
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
@@ -5797,7 +5857,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="10"/>
@@ -5941,6 +6001,12 @@
       <c r="BE15">
         <v>1</v>
       </c>
+      <c r="BG15">
+        <v>45</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>136</v>
+      </c>
       <c r="CY15">
         <v>76</v>
       </c>
@@ -6070,7 +6136,7 @@
       </c>
       <c r="PW15">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -6242,6 +6308,9 @@
       <c r="BD16" t="s">
         <v>110</v>
       </c>
+      <c r="BH16" t="s">
+        <v>139</v>
+      </c>
       <c r="CY16">
         <v>90</v>
       </c>
@@ -6388,7 +6457,7 @@
       </c>
       <c r="PS16" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT16" s="3">
         <f t="shared" si="34"/>
@@ -6413,7 +6482,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
@@ -6429,15 +6498,15 @@
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="9"/>
@@ -6497,7 +6566,7 @@
       </c>
       <c r="W17" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17" s="4">
         <f t="shared" si="22"/>
@@ -6529,7 +6598,7 @@
       </c>
       <c r="AE17">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF17">
         <f t="shared" si="30"/>
@@ -6572,6 +6641,15 @@
       </c>
       <c r="BF17">
         <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>45</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
       </c>
       <c r="CZ17" t="s">
         <v>139</v>
@@ -6672,7 +6750,7 @@
       </c>
       <c r="PW17">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -6681,7 +6759,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -6697,15 +6775,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="6"/>
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="G18">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="9"/>
@@ -6773,7 +6851,7 @@
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="24"/>
@@ -6801,7 +6879,7 @@
       </c>
       <c r="AF18">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG18">
         <f t="shared" si="31"/>
@@ -6849,6 +6927,15 @@
       </c>
       <c r="BD18" t="s">
         <v>136</v>
+      </c>
+      <c r="BG18">
+        <v>45</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ18">
+        <v>2</v>
       </c>
       <c r="CZ18" t="s">
         <v>139</v>
@@ -6976,7 +7063,7 @@
       </c>
       <c r="PW18">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -6985,7 +7072,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -7001,11 +7088,11 @@
       </c>
       <c r="F19">
         <f t="shared" si="6"/>
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G19">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -7013,7 +7100,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="10"/>
@@ -7139,6 +7226,12 @@
       <c r="AV19" t="s">
         <v>110</v>
       </c>
+      <c r="BG19">
+        <v>45</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>136</v>
+      </c>
       <c r="CZ19" t="s">
         <v>139</v>
       </c>
@@ -7259,7 +7352,7 @@
       </c>
       <c r="PW19">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -7268,7 +7361,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1410</v>
+        <v>1455</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -7284,15 +7377,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="6"/>
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="G20">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -7440,6 +7533,12 @@
       <c r="BE20">
         <v>1</v>
       </c>
+      <c r="BG20">
+        <v>45</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>110</v>
+      </c>
       <c r="CY20">
         <v>86</v>
       </c>
@@ -7593,7 +7692,7 @@
       </c>
       <c r="PW20">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -7837,7 +7936,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1874</v>
+        <v>1919</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -7853,15 +7952,15 @@
       </c>
       <c r="F22">
         <f t="shared" si="6"/>
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
@@ -8009,6 +8108,12 @@
       <c r="BD22" t="s">
         <v>110</v>
       </c>
+      <c r="BG22">
+        <v>45</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>110</v>
+      </c>
       <c r="CY22">
         <v>90</v>
       </c>
@@ -8156,7 +8261,7 @@
       </c>
       <c r="PW22">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -8385,7 +8490,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1442</v>
+        <v>1502</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
@@ -8401,15 +8506,15 @@
       </c>
       <c r="F24">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G24">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
@@ -8539,6 +8644,12 @@
       <c r="AV24" t="s">
         <v>136</v>
       </c>
+      <c r="BG24">
+        <v>60</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>110</v>
+      </c>
       <c r="CY24">
         <v>90</v>
       </c>
@@ -8656,7 +8767,7 @@
       </c>
       <c r="PW24">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -8951,7 +9062,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>836</v>
+        <v>881</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -8967,11 +9078,11 @@
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="8"/>
@@ -8979,7 +9090,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="10"/>
@@ -9120,6 +9231,12 @@
       <c r="BD26" t="s">
         <v>136</v>
       </c>
+      <c r="BG26">
+        <v>45</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>136</v>
+      </c>
       <c r="CY26">
         <v>4</v>
       </c>
@@ -9243,7 +9360,7 @@
       </c>
       <c r="PW26">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">
@@ -9252,7 +9369,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>900</v>
+        <v>945</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -9268,15 +9385,15 @@
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="9"/>
@@ -9382,6 +9499,12 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="BG27">
+        <v>45</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>110</v>
+      </c>
       <c r="DH27" t="s">
         <v>139</v>
       </c>
@@ -9472,7 +9595,7 @@
       </c>
       <c r="PW27">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:439" x14ac:dyDescent="0.2">
@@ -9481,7 +9604,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>999</v>
+        <v>1089</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -9497,15 +9620,15 @@
       </c>
       <c r="F28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="9"/>
@@ -9611,6 +9734,12 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="BG28">
+        <v>90</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>110</v>
+      </c>
       <c r="DK28">
         <v>24</v>
       </c>
@@ -9722,7 +9851,7 @@
       </c>
       <c r="PW28">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:439" x14ac:dyDescent="0.2">
@@ -9731,7 +9860,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
@@ -9747,11 +9876,11 @@
       </c>
       <c r="F29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="8"/>
@@ -9759,7 +9888,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="10"/>
@@ -9861,6 +9990,12 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="BG29">
+        <v>45</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>136</v>
+      </c>
       <c r="DK29">
         <v>90</v>
       </c>
@@ -9933,12 +10068,27 @@
       </c>
       <c r="PW29">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:439" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="BG30">
+        <v>45</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A22:A29">
+  <conditionalFormatting sqref="A22:A30">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E245BF6-29F2-A047-A54B-8C16655045F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC71A93-3E1D-1D4E-92A5-F2D7A6CAD651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -959,8 +959,8 @@
   <dimension ref="A1:PW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ22" sqref="BQ22"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2362,18 +2362,18 @@
       </c>
       <c r="S2">
         <f>SUM(T2:U2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="3">
         <f>COUNTIF(IU2:PR2,"T")</f>
         <v>0</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U29" si="0">COUNTIF(IU:PR,"R")</f>
-        <v>1</v>
+        <f>COUNTIF(IU2:PR2,"R")</f>
+        <v>0</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" ref="V2:V29" si="1">COUNTIF(IU:PR,"NR")</f>
+        <f t="shared" ref="V2:V29" si="0">COUNTIF(IU:PR,"NR")</f>
         <v>0</v>
       </c>
       <c r="W2" s="3">
@@ -2548,12 +2548,12 @@
         <v>0</v>
       </c>
       <c r="PV2">
-        <f t="shared" ref="PV2:PV29" si="2">COUNTIF(IU:PR,"HG")</f>
+        <f t="shared" ref="PV2:PV29" si="1">COUNTIF(IU:PR,"HG")</f>
         <v>0</v>
       </c>
       <c r="PW2">
         <f>G2-(K2+O2+S2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:439" x14ac:dyDescent="0.2">
@@ -2565,83 +2565,83 @@
         <v>450</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C29" si="3">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
+        <f t="shared" ref="C3:C29" si="2">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D29" si="4">SUM(GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3)</f>
+        <f t="shared" ref="D3:D29" si="3">SUM(GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E29" si="5">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
+        <f t="shared" ref="E3:E29" si="4">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
         <v>360</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F30" si="6">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
+        <f t="shared" ref="F3:F30" si="5">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
         <v>90</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G29" si="7">SUM(H3:I3)</f>
+        <f t="shared" ref="G3:G29" si="6">SUM(H3:I3)</f>
         <v>6</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H29" si="8">COUNTIF(AI3:PR3,"T")</f>
+        <f t="shared" ref="H3:H29" si="7">COUNTIF(AI3:PR3,"T")</f>
         <v>4</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I29" si="9">COUNTIF(AI3:PR3,"R")</f>
+        <f t="shared" ref="I3:I29" si="8">COUNTIF(AI3:PR3,"R")</f>
         <v>2</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J29" si="10">COUNTIF(AI3:PR3,"NR")</f>
+        <f t="shared" ref="J3:J29" si="9">COUNTIF(AI3:PR3,"NR")</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K29" si="11">SUM(L3:M3)</f>
+        <f t="shared" ref="K3:K29" si="10">SUM(L3:M3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L29" si="12">COUNTIF(CY3:GX3,"T")</f>
+        <f t="shared" ref="L3:L29" si="11">COUNTIF(CY3:GX3,"T")</f>
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M29" si="13">COUNTIF(CY3:GX3,"R")</f>
+        <f t="shared" ref="M3:M29" si="12">COUNTIF(CY3:GX3,"R")</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N29" si="14">COUNTIF(CY3:GX3,"NR")</f>
+        <f t="shared" ref="N3:N29" si="13">COUNTIF(CY3:GX3,"NR")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O29" si="15">SUM(P3:Q3)</f>
+        <f t="shared" ref="O3:O29" si="14">SUM(P3:Q3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P29" si="16">COUNTIF(GY3:IT3,"T")</f>
+        <f t="shared" ref="P3:P29" si="15">COUNTIF(GY3:IT3,"T")</f>
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q29" si="17">COUNTIF(GY3:IT3,"R")</f>
+        <f t="shared" ref="Q3:Q29" si="16">COUNTIF(GY3:IT3,"R")</f>
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R29" si="18">COUNTIF(GY3:IT3,"NR")</f>
+        <f t="shared" ref="R3:R29" si="17">COUNTIF(GY3:IT3,"NR")</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S29" si="19">SUM(T3:U3)</f>
-        <v>5</v>
+        <f t="shared" ref="S3:S29" si="18">SUM(T3:U3)</f>
+        <v>4</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T29" si="20">COUNTIF(IU3:PR3,"T")</f>
+        <f t="shared" ref="T3:T29" si="19">COUNTIF(IU3:PR3,"T")</f>
         <v>4</v>
       </c>
       <c r="U3" s="3">
+        <f t="shared" ref="U3:U29" si="20">COUNTIF(IU3:PR3,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W3" s="3">
@@ -2789,12 +2789,12 @@
         <v>6</v>
       </c>
       <c r="PV3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW3">
         <f t="shared" ref="PW3:PW29" si="36">G3-(K3+O3+S3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:439" x14ac:dyDescent="0.2">
@@ -2806,19 +2806,19 @@
         <v>1155</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
+        <v>630</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="4"/>
-        <v>630</v>
-      </c>
-      <c r="E4">
+        <v>270</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="G4">
@@ -2871,18 +2871,18 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4" si="50">SUM(T4:U4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" s="3">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="U4" s="3">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W4" s="3">
@@ -3066,12 +3066,12 @@
         <v>0</v>
       </c>
       <c r="PV4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW4">
         <f t="shared" ref="PW4" si="66">G4-(K4+O4+S4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:439" x14ac:dyDescent="0.2">
@@ -3083,83 +3083,83 @@
         <v>931</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="3"/>
-        <v>321</v>
-      </c>
-      <c r="D5">
+        <v>265</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="4"/>
-        <v>265</v>
-      </c>
-      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>345</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="6"/>
-        <v>345</v>
-      </c>
-      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="H5" s="3">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="T5" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" s="3">
@@ -3334,12 +3334,12 @@
         <v>3</v>
       </c>
       <c r="PV5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW5">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:439" x14ac:dyDescent="0.2">
@@ -3351,83 +3351,83 @@
         <v>450</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="F6">
+        <v>270</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="6"/>
-        <v>270</v>
-      </c>
-      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="3">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="T6" s="3">
+        <v>2</v>
+      </c>
+      <c r="U6" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W6" s="3">
@@ -3590,12 +3590,12 @@
         <v>6</v>
       </c>
       <c r="PV6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW6">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:439" x14ac:dyDescent="0.2">
@@ -3607,83 +3607,83 @@
         <v>1444</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>599</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="3"/>
-        <v>599</v>
-      </c>
-      <c r="D7">
+        <v>610</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="4"/>
-        <v>610</v>
-      </c>
-      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>235</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="6"/>
-        <v>235</v>
-      </c>
-      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="H7" s="3">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="P7" s="3">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="T7" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W7" s="3">
@@ -3867,12 +3867,12 @@
         <v>0</v>
       </c>
       <c r="PV7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW7">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:439" x14ac:dyDescent="0.2">
@@ -3884,83 +3884,83 @@
         <v>869</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="E8">
+        <v>630</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="5"/>
-        <v>630</v>
-      </c>
-      <c r="F8">
+        <v>215</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="6"/>
-        <v>215</v>
-      </c>
-      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="H8" s="3">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f>SUM(T8:U8)</f>
         <v>7</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="S8">
+      <c r="T8" s="3">
         <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="T8" s="3">
+        <v>7</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W8" s="3">
@@ -4159,12 +4159,12 @@
         <v>4</v>
       </c>
       <c r="PV8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW8">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:439" x14ac:dyDescent="0.2">
@@ -4176,83 +4176,83 @@
         <v>1642</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>886</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="3"/>
-        <v>886</v>
-      </c>
-      <c r="D9">
+        <v>431</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="4"/>
-        <v>431</v>
-      </c>
-      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>325</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="6"/>
-        <v>325</v>
-      </c>
-      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="H9" s="3">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="P9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="T9" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W9" s="3">
@@ -4460,12 +4460,12 @@
         <v>0</v>
       </c>
       <c r="PV9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW9">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:439" x14ac:dyDescent="0.2">
@@ -4477,83 +4477,83 @@
         <v>735</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="F10">
+        <v>295</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="6"/>
-        <v>295</v>
-      </c>
-      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="3">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R10" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="S10">
+      <c r="T10" s="3">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="T10" s="3">
+        <v>2</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W10" s="3">
@@ -4740,12 +4740,12 @@
         <v>2</v>
       </c>
       <c r="PV10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW10">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:439" x14ac:dyDescent="0.2">
@@ -4757,83 +4757,83 @@
         <v>944</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="D11">
+        <v>209</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="4"/>
-        <v>209</v>
-      </c>
-      <c r="E11">
+        <v>180</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="F11">
+        <v>245</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="6"/>
-        <v>245</v>
-      </c>
-      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="H11" s="3">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="10"/>
+      <c r="M11" s="3">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="N11" s="3">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="P11" s="3">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="S11">
+      <c r="T11" s="3">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="T11" s="3">
+        <v>2</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W11" s="3">
@@ -5026,12 +5026,12 @@
         <v>2</v>
       </c>
       <c r="PV11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW11">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:439" x14ac:dyDescent="0.2">
@@ -5043,83 +5043,83 @@
         <v>505</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>366</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="6"/>
-        <v>366</v>
-      </c>
-      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="H12" s="3">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W12" s="3">
@@ -5252,12 +5252,12 @@
         <v>0</v>
       </c>
       <c r="PV12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW12">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:439" x14ac:dyDescent="0.2">
@@ -5269,83 +5269,83 @@
         <v>395</v>
       </c>
       <c r="C13">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>240</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="P13" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="T13" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W13" s="3">
@@ -5496,12 +5496,12 @@
         <v>6</v>
       </c>
       <c r="PV13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW13">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:439" x14ac:dyDescent="0.2">
@@ -5513,83 +5513,83 @@
         <v>1536</v>
       </c>
       <c r="C14">
+        <f t="shared" si="2"/>
+        <v>708</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="3"/>
-        <v>708</v>
-      </c>
-      <c r="D14">
+        <v>483</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="4"/>
-        <v>483</v>
-      </c>
-      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>345</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="6"/>
-        <v>345</v>
-      </c>
-      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="H14" s="3">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="I14" s="3">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
+      <c r="P14" s="3">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="P14" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+        <v>2</v>
+      </c>
+      <c r="R14" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="T14" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W14" s="3">
@@ -5815,12 +5815,12 @@
         <v>0</v>
       </c>
       <c r="PV14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW14">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:439" x14ac:dyDescent="0.2">
@@ -5832,83 +5832,83 @@
         <v>1148</v>
       </c>
       <c r="C15">
+        <f t="shared" si="2"/>
+        <v>501</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="3"/>
-        <v>501</v>
-      </c>
-      <c r="D15">
+        <v>197</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="4"/>
-        <v>197</v>
-      </c>
-      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="F15">
+        <v>360</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="H15" s="3">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="I15" s="3">
+        <v>9</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
+      <c r="P15" s="3">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
+        <v>2</v>
+      </c>
+      <c r="R15" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W15" s="3">
@@ -6131,12 +6131,12 @@
         <v>2</v>
       </c>
       <c r="PV15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW15">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:439" x14ac:dyDescent="0.2">
@@ -6148,83 +6148,83 @@
         <v>1555</v>
       </c>
       <c r="C16">
+        <f t="shared" si="2"/>
+        <v>863</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="3"/>
-        <v>863</v>
-      </c>
-      <c r="D16">
+        <v>437</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="4"/>
-        <v>437</v>
-      </c>
-      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <v>255</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="H16" s="3">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16" s="3">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="P16" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="Q16" s="3">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="T16" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U16" s="3">
+      <c r="V16" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W16" s="3">
@@ -6468,12 +6468,12 @@
         <v>0</v>
       </c>
       <c r="PV16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW16">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:439" x14ac:dyDescent="0.2">
@@ -6485,83 +6485,83 @@
         <v>495</v>
       </c>
       <c r="C17">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="D17">
+        <v>130</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="4"/>
-        <v>130</v>
-      </c>
-      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="F17">
+        <v>225</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="6"/>
-        <v>225</v>
-      </c>
-      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="I17" s="3">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="L17" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W17" s="3">
@@ -6745,12 +6745,12 @@
         <v>2</v>
       </c>
       <c r="PV17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW17">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:439" x14ac:dyDescent="0.2">
@@ -6762,83 +6762,83 @@
         <v>1013</v>
       </c>
       <c r="C18">
+        <f t="shared" si="2"/>
+        <v>379</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="3"/>
-        <v>379</v>
-      </c>
-      <c r="D18">
+        <v>334</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="4"/>
-        <v>334</v>
-      </c>
-      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="H18" s="3">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="I18" s="3">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="T18" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W18" s="3">
@@ -7058,12 +7058,12 @@
         <v>0</v>
       </c>
       <c r="PV18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW18">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:439" x14ac:dyDescent="0.2">
@@ -7075,83 +7075,83 @@
         <v>821</v>
       </c>
       <c r="C19">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="3"/>
-        <v>187</v>
-      </c>
-      <c r="D19">
+        <v>214</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="4"/>
-        <v>214</v>
-      </c>
-      <c r="E19">
+        <v>180</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="F19">
+        <v>240</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="L19" s="3">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
+        <v>6</v>
+      </c>
+      <c r="N19" s="3">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="N19" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="P19" s="3">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="Q19" s="3">
+        <v>4</v>
+      </c>
+      <c r="R19" s="3">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S19">
         <f>SUM(T19:U19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" s="3">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W19" s="3">
@@ -7347,12 +7347,12 @@
         <v>1</v>
       </c>
       <c r="PV19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW19">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:439" x14ac:dyDescent="0.2">
@@ -7364,83 +7364,83 @@
         <v>1455</v>
       </c>
       <c r="C20">
+        <f t="shared" si="2"/>
+        <v>792</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="3"/>
-        <v>792</v>
-      </c>
-      <c r="D20">
+        <v>373</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="4"/>
-        <v>373</v>
-      </c>
-      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
+        <v>290</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="6"/>
-        <v>290</v>
-      </c>
-      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="H20" s="3">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="I20" s="3">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20" s="3">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="P20" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="T20" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W20" s="3">
@@ -7687,12 +7687,12 @@
         <v>0</v>
       </c>
       <c r="PV20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW20">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:439" x14ac:dyDescent="0.2">
@@ -7704,83 +7704,83 @@
         <v>183</v>
       </c>
       <c r="C21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
+        <v>68</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="F21">
+        <v>115</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="6"/>
-        <v>115</v>
-      </c>
-      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="L21" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="P21" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V21" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W21" s="3">
@@ -7922,12 +7922,12 @@
         <v>4</v>
       </c>
       <c r="PV21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW21">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:439" x14ac:dyDescent="0.2">
@@ -7939,83 +7939,83 @@
         <v>1919</v>
       </c>
       <c r="C22">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D22">
+        <v>604</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="4"/>
-        <v>604</v>
-      </c>
-      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
+        <v>415</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="6"/>
-        <v>415</v>
-      </c>
-      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="P22" s="3">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="T22" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V22" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W22" s="3">
@@ -8256,12 +8256,12 @@
         <v>0</v>
       </c>
       <c r="PV22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW22">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:439" x14ac:dyDescent="0.2">
@@ -8273,83 +8273,83 @@
         <v>190</v>
       </c>
       <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
+        <v>190</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="5"/>
-        <v>190</v>
-      </c>
-      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="8"/>
+      <c r="T23" s="3">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="U23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V23" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W23" s="3">
@@ -8476,7 +8476,7 @@
         <v>5</v>
       </c>
       <c r="PV23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW23">
@@ -8493,83 +8493,83 @@
         <v>1502</v>
       </c>
       <c r="C24">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="3"/>
-        <v>810</v>
-      </c>
-      <c r="D24">
+        <v>452</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="4"/>
-        <v>452</v>
-      </c>
-      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>240</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="H24" s="3">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
+        <v>9</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="P24" s="3">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="P24" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="T24" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W24" s="3">
@@ -8762,12 +8762,12 @@
         <v>1</v>
       </c>
       <c r="PV24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW24">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:439" x14ac:dyDescent="0.2">
@@ -8779,83 +8779,83 @@
         <v>652</v>
       </c>
       <c r="C25">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="D25">
+        <v>275</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="E25">
+        <v>165</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="F25">
+        <v>135</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="6"/>
-        <v>135</v>
-      </c>
-      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="3">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25" s="3">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="P25" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="3">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25" s="3">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="T25" s="3">
+        <v>2</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W25" s="3">
@@ -9048,12 +9048,12 @@
         <v>2</v>
       </c>
       <c r="PV25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW25">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:439" x14ac:dyDescent="0.2">
@@ -9065,83 +9065,83 @@
         <v>881</v>
       </c>
       <c r="C26">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="D26">
+        <v>137</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="E26">
+        <v>430</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="5"/>
-        <v>430</v>
-      </c>
-      <c r="F26">
+        <v>270</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="6"/>
-        <v>270</v>
-      </c>
-      <c r="G26">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="H26" s="3">
+        <v>9</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="N26" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
+      <c r="P26" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="3">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="T26" s="3">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V26" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W26" s="3">
@@ -9355,12 +9355,12 @@
         <v>3</v>
       </c>
       <c r="PV26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW26">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:439" x14ac:dyDescent="0.2">
@@ -9372,83 +9372,83 @@
         <v>945</v>
       </c>
       <c r="C27">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
+        <v>45</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="M27" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
+      <c r="P27" s="3">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="T27" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W27" s="3">
@@ -9590,12 +9590,12 @@
         <v>1</v>
       </c>
       <c r="PV27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:439" x14ac:dyDescent="0.2">
@@ -9607,83 +9607,83 @@
         <v>1089</v>
       </c>
       <c r="C28">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="3"/>
-        <v>509</v>
-      </c>
-      <c r="D28">
+        <v>400</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="E28">
+        <v>90</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="H28" s="3">
+        <v>13</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28" s="3">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="L28" s="3">
+        <v>6</v>
+      </c>
+      <c r="M28" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28" s="3">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R28" s="3">
+      <c r="S28">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V28" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W28" s="3">
@@ -9846,12 +9846,12 @@
         <v>2</v>
       </c>
       <c r="PV28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW28">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:439" x14ac:dyDescent="0.2">
@@ -9863,83 +9863,83 @@
         <v>384</v>
       </c>
       <c r="C29">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="D29">
+        <v>105</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="E29">
+        <v>90</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="F29">
+        <v>45</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="H29" s="3">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K29">
+      <c r="L29" s="3">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="N29" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O29">
+      <c r="P29" s="3">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S29">
+      <c r="T29" s="3">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W29" s="3">
@@ -10063,12 +10063,12 @@
         <v>3</v>
       </c>
       <c r="PV29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="PW29">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:439" x14ac:dyDescent="0.2">
@@ -10076,7 +10076,7 @@
         <v>149</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="BG30">

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC71A93-3E1D-1D4E-92A5-F2D7A6CAD651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F69D41-B90C-D641-B3F7-44010237CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="150">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -959,8 +959,8 @@
   <dimension ref="A1:PW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U23" sqref="U23"/>
+      <pane xSplit="1" topLeftCell="EP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ET16" sqref="ET16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2517,6 +2517,9 @@
       <c r="EJ2" t="s">
         <v>110</v>
       </c>
+      <c r="ER2" t="s">
+        <v>139</v>
+      </c>
       <c r="HD2" t="s">
         <v>138</v>
       </c>
@@ -2537,11 +2540,11 @@
       </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT2" s="3">
         <f>COUNTIF(CY2:GX2,"HG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU2" s="3">
         <f>COUNTIF(GY2:IT2,"HG")</f>
@@ -2734,6 +2737,9 @@
       <c r="EJ3" t="s">
         <v>139</v>
       </c>
+      <c r="ER3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2778,11 +2784,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2803,11 +2809,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>1155</v>
+        <v>1245</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
@@ -2823,11 +2829,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2839,11 +2845,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4" si="43">COUNTIF(CY4:GX4,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4" si="44">COUNTIF(CY4:GX4,"R")</f>
@@ -2992,6 +2998,12 @@
       </c>
       <c r="EJ4" t="s">
         <v>138</v>
+      </c>
+      <c r="EQ4">
+        <v>90</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>110</v>
       </c>
       <c r="GY4">
         <v>90</v>
@@ -3080,11 +3092,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>931</v>
+        <v>1021</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>321</v>
+        <v>411</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
@@ -3100,11 +3112,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="8"/>
@@ -3116,11 +3128,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="12"/>
@@ -3293,6 +3305,12 @@
       </c>
       <c r="EJ5" t="s">
         <v>139</v>
+      </c>
+      <c r="EQ5">
+        <v>90</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>110</v>
       </c>
       <c r="HD5" t="s">
         <v>139</v>
@@ -3547,6 +3565,9 @@
       <c r="EJ6" t="s">
         <v>139</v>
       </c>
+      <c r="ER6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3579,11 +3600,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3604,11 +3625,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1444</v>
+        <v>1488</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>599</v>
+        <v>643</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
@@ -3624,11 +3645,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="8"/>
@@ -3640,11 +3661,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="12"/>
@@ -3807,6 +3828,12 @@
         <v>90</v>
       </c>
       <c r="EJ7" t="s">
+        <v>110</v>
+      </c>
+      <c r="EQ7">
+        <v>44</v>
+      </c>
+      <c r="ER7" t="s">
         <v>110</v>
       </c>
       <c r="GY7">
@@ -4077,6 +4104,9 @@
       <c r="EJ8" t="s">
         <v>139</v>
       </c>
+      <c r="ER8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -4148,11 +4178,11 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -4405,6 +4435,9 @@
       <c r="EJ9" t="s">
         <v>110</v>
       </c>
+      <c r="ER9" t="s">
+        <v>139</v>
+      </c>
       <c r="HC9">
         <v>45</v>
       </c>
@@ -4449,11 +4482,11 @@
       </c>
       <c r="PS9" s="3">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PT9" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU9" s="3">
         <f t="shared" si="35"/>
@@ -4474,11 +4507,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -4494,11 +4527,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="8"/>
@@ -4510,11 +4543,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="12"/>
@@ -4681,6 +4714,12 @@
       </c>
       <c r="EJ10" t="s">
         <v>138</v>
+      </c>
+      <c r="EQ10">
+        <v>90</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>110</v>
       </c>
       <c r="HD10" t="s">
         <v>139</v>
@@ -4971,6 +5010,9 @@
       <c r="EJ11" t="s">
         <v>139</v>
       </c>
+      <c r="ER11" t="s">
+        <v>139</v>
+      </c>
       <c r="GY11">
         <v>90</v>
       </c>
@@ -5015,11 +5057,11 @@
       </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
@@ -5465,6 +5507,9 @@
       <c r="EJ13" t="s">
         <v>139</v>
       </c>
+      <c r="ER13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5485,11 +5530,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5510,11 +5555,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1536</v>
+        <v>1593</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
@@ -5530,11 +5575,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="8"/>
@@ -5546,11 +5591,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="12"/>
@@ -5753,6 +5798,12 @@
       </c>
       <c r="EL14">
         <v>1</v>
+      </c>
+      <c r="EQ14">
+        <v>57</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>110</v>
       </c>
       <c r="GY14">
         <v>90</v>
@@ -5829,11 +5880,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
@@ -5849,7 +5900,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="7"/>
@@ -5857,7 +5908,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="9"/>
@@ -5865,7 +5916,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="11"/>
@@ -5873,7 +5924,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="13"/>
@@ -6071,6 +6122,12 @@
         <v>17</v>
       </c>
       <c r="EJ15" t="s">
+        <v>136</v>
+      </c>
+      <c r="EQ15">
+        <v>10</v>
+      </c>
+      <c r="ER15" t="s">
         <v>136</v>
       </c>
       <c r="GY15">
@@ -6145,11 +6202,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1555</v>
+        <v>1588</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>863</v>
+        <v>896</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
@@ -6165,7 +6222,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="7"/>
@@ -6173,7 +6230,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="9"/>
@@ -6181,7 +6238,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="11"/>
@@ -6189,7 +6246,7 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="13"/>
@@ -6394,6 +6451,12 @@
       </c>
       <c r="EJ16" t="s">
         <v>110</v>
+      </c>
+      <c r="EQ16">
+        <v>33</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>136</v>
       </c>
       <c r="GY16">
         <v>18</v>
@@ -6482,11 +6545,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="37"/>
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
@@ -6502,7 +6565,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="7"/>
@@ -6510,7 +6573,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="9"/>
@@ -6518,7 +6581,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="11"/>
@@ -6526,7 +6589,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="13"/>
@@ -6695,6 +6758,12 @@
       </c>
       <c r="EJ17" t="s">
         <v>139</v>
+      </c>
+      <c r="EQ17">
+        <v>10</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>136</v>
       </c>
       <c r="HC17">
         <v>58</v>
@@ -6759,11 +6828,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>1013</v>
+        <v>1093</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
@@ -6779,11 +6848,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="8"/>
@@ -6795,11 +6864,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="12"/>
@@ -6996,6 +7065,12 @@
       </c>
       <c r="EK18">
         <v>1</v>
+      </c>
+      <c r="EQ18">
+        <v>80</v>
+      </c>
+      <c r="ER18" t="s">
+        <v>110</v>
       </c>
       <c r="GY18">
         <v>18</v>
@@ -7283,6 +7358,9 @@
       <c r="EJ19" t="s">
         <v>136</v>
       </c>
+      <c r="ER19" t="s">
+        <v>139</v>
+      </c>
       <c r="GY19">
         <v>72</v>
       </c>
@@ -7336,11 +7414,11 @@
       </c>
       <c r="PS19" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT19" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU19" s="3">
         <f t="shared" si="35"/>
@@ -7361,11 +7439,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1455</v>
+        <v>1535</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>792</v>
+        <v>872</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
@@ -7381,11 +7459,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="8"/>
@@ -7397,11 +7475,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="12"/>
@@ -7618,6 +7696,12 @@
         <v>73</v>
       </c>
       <c r="EJ20" t="s">
+        <v>110</v>
+      </c>
+      <c r="EQ20">
+        <v>80</v>
+      </c>
+      <c r="ER20" t="s">
         <v>110</v>
       </c>
       <c r="GY20">
@@ -7936,11 +8020,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>1919</v>
+        <v>2009</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
@@ -7956,11 +8040,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="8"/>
@@ -7972,11 +8056,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="12"/>
@@ -8187,6 +8271,12 @@
         <v>90</v>
       </c>
       <c r="EJ22" t="s">
+        <v>110</v>
+      </c>
+      <c r="EQ22">
+        <v>90</v>
+      </c>
+      <c r="ER22" t="s">
         <v>110</v>
       </c>
       <c r="GY22">
@@ -8490,11 +8580,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1502</v>
+        <v>1592</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
@@ -8510,11 +8600,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="8"/>
@@ -8526,11 +8616,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="12"/>
@@ -8709,6 +8799,12 @@
       </c>
       <c r="EL24">
         <v>1</v>
+      </c>
+      <c r="EQ24">
+        <v>90</v>
+      </c>
+      <c r="ER24" t="s">
+        <v>110</v>
       </c>
       <c r="GY24">
         <v>90</v>
@@ -8981,6 +9077,9 @@
       <c r="EJ25" t="s">
         <v>139</v>
       </c>
+      <c r="ER25" t="s">
+        <v>139</v>
+      </c>
       <c r="GY25">
         <v>90</v>
       </c>
@@ -9037,11 +9136,11 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -9279,6 +9378,9 @@
       <c r="EJ26" t="s">
         <v>139</v>
       </c>
+      <c r="ER26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -9344,11 +9446,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -9369,11 +9471,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>945</v>
+        <v>1034</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>539</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
@@ -9389,11 +9491,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="8"/>
@@ -9405,11 +9507,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="12"/>
@@ -9542,6 +9644,12 @@
         <v>90</v>
       </c>
       <c r="EJ27" t="s">
+        <v>110</v>
+      </c>
+      <c r="EQ27">
+        <v>89</v>
+      </c>
+      <c r="ER27" t="s">
         <v>110</v>
       </c>
       <c r="HD27" t="s">
@@ -9604,11 +9712,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>1089</v>
+        <v>1179</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
@@ -9624,11 +9732,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="8"/>
@@ -9640,11 +9748,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="12"/>
@@ -9783,6 +9891,12 @@
         <v>90</v>
       </c>
       <c r="EJ28" t="s">
+        <v>110</v>
+      </c>
+      <c r="EQ28">
+        <v>90</v>
+      </c>
+      <c r="ER28" t="s">
         <v>110</v>
       </c>
       <c r="GY28">
@@ -9892,7 +10006,7 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29">
         <f t="shared" si="10"/>
@@ -9908,7 +10022,7 @@
       </c>
       <c r="N29" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <f t="shared" si="14"/>
@@ -10019,6 +10133,9 @@
       </c>
       <c r="EJ29" t="s">
         <v>136</v>
+      </c>
+      <c r="ER29" t="s">
+        <v>138</v>
       </c>
       <c r="HC29">
         <v>90</v>
@@ -10083,6 +10200,12 @@
         <v>45</v>
       </c>
       <c r="BH30" t="s">
+        <v>136</v>
+      </c>
+      <c r="EQ30">
+        <v>1</v>
+      </c>
+      <c r="ER30" t="s">
         <v>136</v>
       </c>
     </row>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F69D41-B90C-D641-B3F7-44010237CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3AAC1-1B3E-B34B-86E1-3C04A7370772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="150">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -959,8 +959,8 @@
   <dimension ref="A1:PW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ET16" sqref="ET16"/>
+      <pane xSplit="1" topLeftCell="ET1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FC25" sqref="FC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2520,6 +2520,9 @@
       <c r="ER2" t="s">
         <v>139</v>
       </c>
+      <c r="EV2" t="s">
+        <v>139</v>
+      </c>
       <c r="HD2" t="s">
         <v>138</v>
       </c>
@@ -2540,11 +2543,11 @@
       </c>
       <c r="PS2" s="3">
         <f>COUNTIF(AI2:PR2,"HG")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT2" s="3">
         <f>COUNTIF(CY2:GX2,"HG")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU2" s="3">
         <f>COUNTIF(GY2:IT2,"HG")</f>
@@ -2740,6 +2743,9 @@
       <c r="ER3" t="s">
         <v>139</v>
       </c>
+      <c r="EV3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2784,11 +2790,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2809,11 +2815,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B29" si="37">SUM(AI4,AM4,AQ4,AU4,AY4,BC4,BG4,BK4,BO4,BS4,BW4,CA4,CE4,CI4,CM4,CQ4,CU4,CY4,DC4,DG4,DK4,DO4,DS4,DW4,EA4,EE4,EI4,EM4,EQ4,EU4,EY4,FC4,FG4,FK4,FO4,FS4,FW4,GA4,GE4,GI4,GM4,GQ4,GU4,GY4,HC4,HG4,HK4,HO4,HS4,HW4,IA4,IE4,II4,IM4,IQ4,IU4,IY4,JC4,JG4,JK4,JO4,JS4,JW4,KA4,KE4,KI4,KM4,KQ4,KU4,KY4,LC4,LG4,LK4,LO4,LS4,LW4,MA4,ME4,MI4,MM4,MQ4,MU4,MY4,NC4,NG4,NK4,NO4,NS4,NW4,OA4,OE4,OI4,OM4,OQ4,OU4,OY4,PC4,PG4,PK4,PO4)</f>
-        <v>1245</v>
+        <v>1335</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
@@ -2829,11 +2835,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4" si="38">SUM(H4:I4)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="39">COUNTIF(AI4:PR4,"T")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="40">COUNTIF(AI4:PR4,"R")</f>
@@ -2845,11 +2851,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4" si="43">COUNTIF(CY4:GX4,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4" si="44">COUNTIF(CY4:GX4,"R")</f>
@@ -3003,6 +3009,12 @@
         <v>90</v>
       </c>
       <c r="ER4" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU4">
+        <v>90</v>
+      </c>
+      <c r="EV4" t="s">
         <v>110</v>
       </c>
       <c r="GY4">
@@ -3092,11 +3104,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>1021</v>
+        <v>1111</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>411</v>
+        <v>501</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
@@ -3112,11 +3124,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="8"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="12"/>
@@ -3310,6 +3322,12 @@
         <v>90</v>
       </c>
       <c r="ER5" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU5">
+        <v>90</v>
+      </c>
+      <c r="EV5" t="s">
         <v>110</v>
       </c>
       <c r="HD5" t="s">
@@ -3568,6 +3586,9 @@
       <c r="ER6" t="s">
         <v>139</v>
       </c>
+      <c r="EV6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3600,11 +3621,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3836,6 +3857,9 @@
       <c r="ER7" t="s">
         <v>110</v>
       </c>
+      <c r="EV7" t="s">
+        <v>139</v>
+      </c>
       <c r="GY7">
         <v>90</v>
       </c>
@@ -3883,11 +3907,11 @@
       </c>
       <c r="PS7" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT7" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU7" s="3">
         <f t="shared" si="35"/>
@@ -4107,6 +4131,9 @@
       <c r="ER8" t="s">
         <v>139</v>
       </c>
+      <c r="EV8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -4178,11 +4205,11 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -4203,11 +4230,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1642</v>
+        <v>1727</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>886</v>
+        <v>971</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -4223,11 +4250,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="8"/>
@@ -4239,11 +4266,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="12"/>
@@ -4437,6 +4464,12 @@
       </c>
       <c r="ER9" t="s">
         <v>139</v>
+      </c>
+      <c r="EU9">
+        <v>85</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>110</v>
       </c>
       <c r="HC9">
         <v>45</v>
@@ -4507,11 +4540,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -4527,11 +4560,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="8"/>
@@ -4543,11 +4576,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="12"/>
@@ -4719,6 +4752,12 @@
         <v>90</v>
       </c>
       <c r="ER10" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU10">
+        <v>67</v>
+      </c>
+      <c r="EV10" t="s">
         <v>110</v>
       </c>
       <c r="HD10" t="s">
@@ -5013,6 +5052,9 @@
       <c r="ER11" t="s">
         <v>139</v>
       </c>
+      <c r="EV11" t="s">
+        <v>139</v>
+      </c>
       <c r="GY11">
         <v>90</v>
       </c>
@@ -5057,11 +5099,11 @@
       </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
@@ -5510,6 +5552,9 @@
       <c r="ER13" t="s">
         <v>139</v>
       </c>
+      <c r="EV13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5530,11 +5575,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5555,11 +5600,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1593</v>
+        <v>1638</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>765</v>
+        <v>810</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
@@ -5575,11 +5620,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="8"/>
@@ -5591,11 +5636,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="12"/>
@@ -5803,6 +5848,12 @@
         <v>57</v>
       </c>
       <c r="ER14" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU14">
+        <v>45</v>
+      </c>
+      <c r="EV14" t="s">
         <v>110</v>
       </c>
       <c r="GY14">
@@ -5880,11 +5931,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
@@ -5900,7 +5951,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="7"/>
@@ -5908,7 +5959,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="9"/>
@@ -5916,7 +5967,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="11"/>
@@ -5924,7 +5975,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="13"/>
@@ -6128,6 +6179,12 @@
         <v>10</v>
       </c>
       <c r="ER15" t="s">
+        <v>136</v>
+      </c>
+      <c r="EU15">
+        <v>5</v>
+      </c>
+      <c r="EV15" t="s">
         <v>136</v>
       </c>
       <c r="GY15">
@@ -6202,11 +6259,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="37"/>
-        <v>1588</v>
+        <v>1678</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>896</v>
+        <v>986</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
@@ -6222,11 +6279,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="8"/>
@@ -6238,11 +6295,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="12"/>
@@ -6286,11 +6343,11 @@
       </c>
       <c r="W16" s="3">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="23"/>
@@ -6302,7 +6359,7 @@
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB16">
         <f t="shared" si="26"/>
@@ -6457,6 +6514,15 @@
       </c>
       <c r="ER16" t="s">
         <v>136</v>
+      </c>
+      <c r="EU16">
+        <v>90</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>110</v>
+      </c>
+      <c r="EW16">
+        <v>1</v>
       </c>
       <c r="GY16">
         <v>18</v>
@@ -6765,6 +6831,9 @@
       <c r="ER17" t="s">
         <v>136</v>
       </c>
+      <c r="EV17" t="s">
+        <v>139</v>
+      </c>
       <c r="HC17">
         <v>58</v>
       </c>
@@ -6803,11 +6872,11 @@
       </c>
       <c r="PS17" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT17" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU17" s="3">
         <f t="shared" si="35"/>
@@ -6828,11 +6897,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="37"/>
-        <v>1093</v>
+        <v>1153</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
@@ -6848,11 +6917,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="8"/>
@@ -6864,11 +6933,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="12"/>
@@ -7070,6 +7139,12 @@
         <v>80</v>
       </c>
       <c r="ER18" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU18">
+        <v>60</v>
+      </c>
+      <c r="EV18" t="s">
         <v>110</v>
       </c>
       <c r="GY18">
@@ -7179,7 +7254,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f t="shared" si="10"/>
@@ -7195,7 +7270,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <f t="shared" si="14"/>
@@ -7360,6 +7435,9 @@
       </c>
       <c r="ER19" t="s">
         <v>139</v>
+      </c>
+      <c r="EV19" t="s">
+        <v>138</v>
       </c>
       <c r="GY19">
         <v>72</v>
@@ -7439,11 +7517,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1535</v>
+        <v>1625</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>872</v>
+        <v>962</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
@@ -7459,11 +7537,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="8"/>
@@ -7475,11 +7553,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="12"/>
@@ -7523,11 +7601,11 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
@@ -7539,7 +7617,7 @@
       </c>
       <c r="AA20">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
@@ -7703,6 +7781,15 @@
       </c>
       <c r="ER20" t="s">
         <v>110</v>
+      </c>
+      <c r="EU20">
+        <v>90</v>
+      </c>
+      <c r="EV20" t="s">
+        <v>110</v>
+      </c>
+      <c r="EW20">
+        <v>1</v>
       </c>
       <c r="GY20">
         <v>31</v>
@@ -7877,11 +7964,11 @@
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <f t="shared" si="25"/>
@@ -7889,7 +7976,7 @@
       </c>
       <c r="AB21">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <f t="shared" si="27"/>
@@ -7974,6 +8061,9 @@
       </c>
       <c r="EJ21" t="s">
         <v>139</v>
+      </c>
+      <c r="EX21">
+        <v>1</v>
       </c>
       <c r="HD21" t="s">
         <v>139</v>
@@ -8020,11 +8110,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>2009</v>
+        <v>2099</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
@@ -8040,11 +8130,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="8"/>
@@ -8056,11 +8146,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="12"/>
@@ -8277,6 +8367,12 @@
         <v>90</v>
       </c>
       <c r="ER22" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU22">
+        <v>90</v>
+      </c>
+      <c r="EV22" t="s">
         <v>110</v>
       </c>
       <c r="GY22">
@@ -8580,11 +8676,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1592</v>
+        <v>1682</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
@@ -8600,11 +8696,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="8"/>
@@ -8616,11 +8712,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="12"/>
@@ -8804,6 +8900,12 @@
         <v>90</v>
       </c>
       <c r="ER24" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU24">
+        <v>90</v>
+      </c>
+      <c r="EV24" t="s">
         <v>110</v>
       </c>
       <c r="GY24">
@@ -9080,6 +9182,9 @@
       <c r="ER25" t="s">
         <v>139</v>
       </c>
+      <c r="EV25" t="s">
+        <v>139</v>
+      </c>
       <c r="GY25">
         <v>90</v>
       </c>
@@ -9136,11 +9241,11 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -9381,6 +9486,9 @@
       <c r="ER26" t="s">
         <v>139</v>
       </c>
+      <c r="EV26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -9446,11 +9554,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -9471,11 +9579,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
@@ -9491,11 +9599,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="8"/>
@@ -9507,11 +9615,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="12"/>
@@ -9650,6 +9758,12 @@
         <v>89</v>
       </c>
       <c r="ER27" t="s">
+        <v>110</v>
+      </c>
+      <c r="EU27">
+        <v>90</v>
+      </c>
+      <c r="EV27" t="s">
         <v>110</v>
       </c>
       <c r="HD27" t="s">
@@ -9712,11 +9826,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>1179</v>
+        <v>1209</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
@@ -9732,7 +9846,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="7"/>
@@ -9740,7 +9854,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="9"/>
@@ -9748,7 +9862,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="11"/>
@@ -9756,7 +9870,7 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="13"/>
@@ -9898,6 +10012,12 @@
       </c>
       <c r="ER28" t="s">
         <v>110</v>
+      </c>
+      <c r="EU28">
+        <v>30</v>
+      </c>
+      <c r="EV28" t="s">
+        <v>136</v>
       </c>
       <c r="GY28">
         <v>79</v>
@@ -9974,11 +10094,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
@@ -9994,7 +10114,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="7"/>
@@ -10002,7 +10122,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="9"/>
@@ -10010,7 +10130,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="11"/>
@@ -10018,7 +10138,7 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="13"/>
@@ -10066,11 +10186,11 @@
       </c>
       <c r="Y29" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <f t="shared" si="25"/>
@@ -10078,7 +10198,7 @@
       </c>
       <c r="AB29">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <f t="shared" si="27"/>
@@ -10136,6 +10256,15 @@
       </c>
       <c r="ER29" t="s">
         <v>138</v>
+      </c>
+      <c r="EU29">
+        <v>23</v>
+      </c>
+      <c r="EV29" t="s">
+        <v>136</v>
+      </c>
+      <c r="EX29">
+        <v>1</v>
       </c>
       <c r="HC29">
         <v>90</v>
@@ -10206,6 +10335,12 @@
         <v>1</v>
       </c>
       <c r="ER30" t="s">
+        <v>136</v>
+      </c>
+      <c r="EU30">
+        <v>45</v>
+      </c>
+      <c r="EV30" t="s">
         <v>136</v>
       </c>
     </row>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3AAC1-1B3E-B34B-86E1-3C04A7370772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296BF50-6DB6-CA40-9BA8-65CBB0EE935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -958,9 +958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F67B87-FE0E-FC4A-8FE6-DAAF2AFECC8B}">
   <dimension ref="A1:PW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="ET1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FC25" sqref="FC25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="PN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="PY31" sqref="PY31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10321,10 +10321,138 @@
       <c r="A30" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="67">SUM(AI30,AM30,AQ30,AU30,AY30,BC30,BG30,BK30,BO30,BS30,BW30,CA30,CE30,CI30,CM30,CQ30,CU30,CY30,DC30,DG30,DK30,DO30,DS30,DW30,EA30,EE30,EI30,EM30,EQ30,EU30,EY30,FC30,FG30,FK30,FO30,FS30,FW30,GA30,GE30,GI30,GM30,GQ30,GU30,GY30,HC30,HG30,HK30,HO30,HS30,HW30,IA30,IE30,II30,IM30,IQ30,IU30,IY30,JC30,JG30,JK30,JO30,JS30,JW30,KA30,KE30,KI30,KM30,KQ30,KU30,KY30,LC30,LG30,LK30,LO30,LS30,LW30,MA30,ME30,MI30,MM30,MQ30,MU30,MY30,NC30,NG30,NK30,NO30,NS30,NW30,OA30,OE30,OI30,OM30,OQ30,OU30,OY30,PC30,PG30,PK30,PO30)</f>
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30" si="68">SUM(CY30,DC30,DG30,DK30,DO30,DS30,DW30,EA30,EE30,EI30,EM30,EQ30,EU30,EY30,FC30,FG30,FK30,FO30,FS30,FW30,GA30,GE30,GI30,GM30,GQ30,GU30)</f>
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="69">SUM(GY30,HC30,HG30,HK30,HO30,HS30,HW30,IA30,IE30,II30,IM30,IQ30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="70">SUM(IU30,IY30,JC30,JG30,JK30,JO30,JS30,JW30,KA30,KE30,KI30,KM30,KQ30,KU30,KY30,LC30,LG30,LK30,LO30,LS30,LW30,MA30,ME30,MI30,MM30,MQ30,MU30,MY30,NC30,NG30,NK30,NO30,NS30,NW30,OA30,OE30,OI30,OM30,OQ30,OU30,OY30,PC30,PG30,PK30,PO30)</f>
+        <v>0</v>
+      </c>
       <c r="F30">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
+      <c r="G30">
+        <f t="shared" ref="G30" si="71">SUM(H30:I30)</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" ref="H30" si="72">COUNTIF(AI30:PR30,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" ref="I30" si="73">COUNTIF(AI30:PR30,"R")</f>
+        <v>3</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30" si="74">COUNTIF(AI30:PR30,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30" si="75">SUM(L30:M30)</f>
+        <v>2</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" ref="L30" si="76">COUNTIF(CY30:GX30,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" ref="M30" si="77">COUNTIF(CY30:GX30,"R")</f>
+        <v>2</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" ref="N30" si="78">COUNTIF(CY30:GX30,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30" si="79">SUM(P30:Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" ref="P30" si="80">COUNTIF(GY30:IT30,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" ref="Q30" si="81">COUNTIF(GY30:IT30,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" ref="R30" si="82">COUNTIF(GY30:IT30,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30" si="83">SUM(T30:U30)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" ref="T30" si="84">COUNTIF(IU30:PR30,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" ref="U30" si="85">COUNTIF(IU30:PR30,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" ref="V30" si="86">COUNTIF(IU:PR,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" ref="W30" si="87">SUM(AK30,AO30,AS30,AW30,BA30,BE30,BI30,BM30,BQ30,BU30,BY30,CC30,CG30,CK30,CO30,CS30,CW30,DA30,DE30,DI30,DM30,DQ30,DU30,DY30,EC30,EG30,EK30,EO30,ES30,EW30,FA30,FE30,FI30,FM30,FQ30,FU30,FY30,GC30,GG30,GK30,GO30,GS30,GW30,HA30,HE30,HI30,HM30,HQ30,HU30,HY30,IC30,IG30,IK30,IO30,IS30,IW30,JA30,JE30,JI30,JM30,JQ30,JU30,JY30,KC30,KG30,KK30,KO30,KS30,KW30,LA30,LE30,LI30,LM30,LQ30,LU30,LY30,MC30,MG30,MK30,MO30,MS30,MW30,NA30,NE30,NI30,NM30,NQ30,NU30,NY30,OC30,OG30,OK30,OO30,OS30,OW30,PA30,PE30,PI30,PM30,PQ30)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" ref="X30" si="88">SUM(DA30,DE30,DI30,DM30,DQ30,DU30,DY30,EC30,EG30,EK30,EO30,ES30,EW30,FA30,FE30,FI30,FM30,FQ30,FU30,FY30,GC30,GG30,GK30,GO30,GS30,GW30,HA30,HE30,HI30,HM30,HQ30,HU30,HY30,IC30,IG30,IK30,IO30,IS30,IW30,JA30,JE30,JI30,JM30,JQ30,JU30,JY30,KC30,KG30,KK30,KO30,KS30,KW30,LA30,LE30,LI30,LM30,LQ30,LU30,LY30,MC30,MG30,MK30,MO30,MS30,MW30,NA30,NE30,NI30,NM30,NQ30,NU30,NY30,OC30,OG30,OK30,OO30,OS30,OW30,PA30,PE30,PI30,PM30,PQ30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <f t="shared" ref="Y30" si="89">SUM(AL30,AP30,AT30,AX30,BB30,BF30,BJ30,BN30,BR30,BV30,BZ30,CD30,CH30,CL30,CP30,CT30,CX30,DB30,DF30,DJ30,DN30,DR30,DV30,DZ30,ED30,EH30,EL30,EP30,ET30,EX30,FB30,FF30,FJ30,FN30,FR30,FV30,FZ30,GD30,GH30,GL30,GP30,GT30,GX30,HB30,HF30,HJ30,HN30,HR30,HV30,HZ30,ID30,IH30,IL30,IP30,IT30,IX30,JB30,JF30,JJ30,JN30,JR30,JV30,JZ30,KD30,KH30,KL30,KP30,KT30,KX30,LB30,LF30,LJ30,LN30,LR30,LV30,LZ30,MD30,MH30,ML30,MP30,MT30,MX30,NB30,NF30,NJ30,NN30,NR30,NV30,NZ30,OD30,OH30,OL30,OP30,OT30,OX30,PB30,PF30,PJ30,PN30,PR30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <f t="shared" ref="Z30" si="90">SUM(DB30,DF30,DJ30,DN30,DR30,DV30,DZ30,ED30,EH30,EL30,EP30,ET30,EX30,FB30,FF30,FJ30,FN30,FR30,FV30,FZ30,GD30,GH30,GL30,GP30,GT30,GX30,HB30,HF30,HJ30,HN30,HR30,HV30,HZ30,ID30,IH30,IL30,IP30,IT30,IX30,JB30,JF30,JJ30,JN30,JR30,JV30,JZ30,KD30,KH30,KL30,KP30,KT30,KX30,LB30,LF30,LJ30,LN30,LR30,LV30,LZ30,MD30,MH30,ML30,MP30,MT30,MX30,NB30,NF30,NJ30,NN30,NR30,NV30,NZ30,OD30,OH30,OL30,OP30,OT30,OX30,PB30,PF30,PJ30,PN30,PR30)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ref="AA30" si="91">SUM(DA30,DE30,DI30,DM30,DQ30,DU30,DY30,EC30,EG30,EK30,EO30,ES30,EW30,FA30,FE30,FI30,FM30,FQ30,FU30,FY30,GC30,GG30,GK30,GO30,GS30,GW30)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" ref="AB30" si="92">SUM(DB30,DF30,DJ30,DN30,DR30,DV30,DZ30,ED30,EH30,EL30,EP30,ET30,EX30,FB30,FF30,FJ30,FN30,FR30,FV30,FZ30,GD30,GH30,GL30,GP30,GT30,GX30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" ref="AC30" si="93">SUM(HA30,HE30,HI30,HM30,HQ30,HU30,HY30,IC30,IG30,IK30,IO30,IS30)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" ref="AD30" si="94">SUM(HB30,HF30,HJ30,HN30,HR30,HV30,HZ30,ID30,IH30,IL30,IP30,IT30)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" ref="AE30" si="95">SUM(AK30,AO30,AS30,AW30,BA30,BE30,BI30,BM30,BQ30,BU30,BY30,CC30,CG30,CK30,CO30,CS30,CW30)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" ref="AF30" si="96">SUM(AL30,AP30,AT30,AX30,BB30,BF30,BJ30,BN30,BR30,BV30,BZ30,CD30,CH30,CL30,CP30,CT30,CX30)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" ref="AG30" si="97">SUM(IW30,JA30,JE30,JI30,JM30,JQ30,JU30,JY30,KC30,KG30,KK30,KO30,KS30,KW30,LA30,LE30,LI30,LM30,LQ30,LU30,LY30,MC30,MG30,MK30,MO30,MS30,MW30,NA30,NE30,NI30,NM30,NQ30,NU30,NY30,OC30,OG30,OK30,OO30,OS30,OW30,PA30,PE30,PI30,PM30,PQ30)</f>
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" ref="AH30" si="98">SUM(IX30,JB30,JF30,JJ30,JN30,JR30,JV30,JZ30,KD30,KH30,KL30,KP30,KT30,KX30,LB30,LF30,LJ30,LN30,LR30,LV30,LZ30,MD30,MH30,ML30,MP30,MT30,MX30,NB30,NF30,NJ30,NN30,NR30,NV30,NZ30,OD30,OH30,OL30,OP30,OT30,OX30,PB30,PF30,PJ30,PN30,PR30)</f>
+        <v>0</v>
+      </c>
       <c r="BG30">
         <v>45</v>
       </c>
@@ -10342,6 +10470,26 @@
       </c>
       <c r="EV30" t="s">
         <v>136</v>
+      </c>
+      <c r="PS30" s="3">
+        <f t="shared" ref="PS30" si="99">COUNTIF(AI30:PR30,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PT30" s="3">
+        <f t="shared" ref="PT30" si="100">COUNTIF(CY30:GX30,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PU30" s="3">
+        <f t="shared" ref="PU30" si="101">COUNTIF(GY30:IT30,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PV30">
+        <f t="shared" ref="PV30" si="102">COUNTIF(IU:PR,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PW30">
+        <f t="shared" ref="PW30" si="103">G30-(K30+O30+S30)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296BF50-6DB6-CA40-9BA8-65CBB0EE935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BE771-52B0-A640-9387-4D59B99BE983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="151">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Theo Owono</t>
+  </si>
+  <si>
+    <t>Mehdi Boussaid</t>
   </si>
 </sst>
 </file>
@@ -956,11 +959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F67B87-FE0E-FC4A-8FE6-DAAF2AFECC8B}">
-  <dimension ref="A1:PW30"/>
+  <dimension ref="A1:PW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="PY31" sqref="PY31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10492,9 +10495,166 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:439" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="104">SUM(AI31,AM31,AQ31,AU31,AY31,BC31,BG31,BK31,BO31,BS31,BW31,CA31,CE31,CI31,CM31,CQ31,CU31,CY31,DC31,DG31,DK31,DO31,DS31,DW31,EA31,EE31,EI31,EM31,EQ31,EU31,EY31,FC31,FG31,FK31,FO31,FS31,FW31,GA31,GE31,GI31,GM31,GQ31,GU31,GY31,HC31,HG31,HK31,HO31,HS31,HW31,IA31,IE31,II31,IM31,IQ31,IU31,IY31,JC31,JG31,JK31,JO31,JS31,JW31,KA31,KE31,KI31,KM31,KQ31,KU31,KY31,LC31,LG31,LK31,LO31,LS31,LW31,MA31,ME31,MI31,MM31,MQ31,MU31,MY31,NC31,NG31,NK31,NO31,NS31,NW31,OA31,OE31,OI31,OM31,OQ31,OU31,OY31,PC31,PG31,PK31,PO31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31" si="105">SUM(CY31,DC31,DG31,DK31,DO31,DS31,DW31,EA31,EE31,EI31,EM31,EQ31,EU31,EY31,FC31,FG31,FK31,FO31,FS31,FW31,GA31,GE31,GI31,GM31,GQ31,GU31)</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31" si="106">SUM(GY31,HC31,HG31,HK31,HO31,HS31,HW31,IA31,IE31,II31,IM31,IQ31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="107">SUM(IU31,IY31,JC31,JG31,JK31,JO31,JS31,JW31,KA31,KE31,KI31,KM31,KQ31,KU31,KY31,LC31,LG31,LK31,LO31,LS31,LW31,MA31,ME31,MI31,MM31,MQ31,MU31,MY31,NC31,NG31,NK31,NO31,NS31,NW31,OA31,OE31,OI31,OM31,OQ31,OU31,OY31,PC31,PG31,PK31,PO31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="108">SUM(AI31,AM31,AQ31,AU31,AY31,BC31,BG31,BK31,BO31,BS31,BW31,CA31,CE31,CI31,CM31,CQ31,CU31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="109">SUM(H31:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31" si="110">COUNTIF(AI31:PR31,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" ref="I31" si="111">COUNTIF(AI31:PR31,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" ref="J31" si="112">COUNTIF(AI31:PR31,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31" si="113">SUM(L31:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" ref="L31" si="114">COUNTIF(CY31:GX31,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" ref="M31" si="115">COUNTIF(CY31:GX31,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" ref="N31" si="116">COUNTIF(CY31:GX31,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31" si="117">SUM(P31:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" ref="P31" si="118">COUNTIF(GY31:IT31,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" ref="Q31" si="119">COUNTIF(GY31:IT31,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" ref="R31" si="120">COUNTIF(GY31:IT31,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31" si="121">SUM(T31:U31)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" ref="T31" si="122">COUNTIF(IU31:PR31,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" ref="U31" si="123">COUNTIF(IU31:PR31,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" ref="V31" si="124">COUNTIF(IU:PR,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" ref="W31" si="125">SUM(AK31,AO31,AS31,AW31,BA31,BE31,BI31,BM31,BQ31,BU31,BY31,CC31,CG31,CK31,CO31,CS31,CW31,DA31,DE31,DI31,DM31,DQ31,DU31,DY31,EC31,EG31,EK31,EO31,ES31,EW31,FA31,FE31,FI31,FM31,FQ31,FU31,FY31,GC31,GG31,GK31,GO31,GS31,GW31,HA31,HE31,HI31,HM31,HQ31,HU31,HY31,IC31,IG31,IK31,IO31,IS31,IW31,JA31,JE31,JI31,JM31,JQ31,JU31,JY31,KC31,KG31,KK31,KO31,KS31,KW31,LA31,LE31,LI31,LM31,LQ31,LU31,LY31,MC31,MG31,MK31,MO31,MS31,MW31,NA31,NE31,NI31,NM31,NQ31,NU31,NY31,OC31,OG31,OK31,OO31,OS31,OW31,PA31,PE31,PI31,PM31,PQ31)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" ref="X31" si="126">SUM(DA31,DE31,DI31,DM31,DQ31,DU31,DY31,EC31,EG31,EK31,EO31,ES31,EW31,FA31,FE31,FI31,FM31,FQ31,FU31,FY31,GC31,GG31,GK31,GO31,GS31,GW31,HA31,HE31,HI31,HM31,HQ31,HU31,HY31,IC31,IG31,IK31,IO31,IS31,IW31,JA31,JE31,JI31,JM31,JQ31,JU31,JY31,KC31,KG31,KK31,KO31,KS31,KW31,LA31,LE31,LI31,LM31,LQ31,LU31,LY31,MC31,MG31,MK31,MO31,MS31,MW31,NA31,NE31,NI31,NM31,NQ31,NU31,NY31,OC31,OG31,OK31,OO31,OS31,OW31,PA31,PE31,PI31,PM31,PQ31)</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <f t="shared" ref="Y31" si="127">SUM(AL31,AP31,AT31,AX31,BB31,BF31,BJ31,BN31,BR31,BV31,BZ31,CD31,CH31,CL31,CP31,CT31,CX31,DB31,DF31,DJ31,DN31,DR31,DV31,DZ31,ED31,EH31,EL31,EP31,ET31,EX31,FB31,FF31,FJ31,FN31,FR31,FV31,FZ31,GD31,GH31,GL31,GP31,GT31,GX31,HB31,HF31,HJ31,HN31,HR31,HV31,HZ31,ID31,IH31,IL31,IP31,IT31,IX31,JB31,JF31,JJ31,JN31,JR31,JV31,JZ31,KD31,KH31,KL31,KP31,KT31,KX31,LB31,LF31,LJ31,LN31,LR31,LV31,LZ31,MD31,MH31,ML31,MP31,MT31,MX31,NB31,NF31,NJ31,NN31,NR31,NV31,NZ31,OD31,OH31,OL31,OP31,OT31,OX31,PB31,PF31,PJ31,PN31,PR31)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <f t="shared" ref="Z31" si="128">SUM(DB31,DF31,DJ31,DN31,DR31,DV31,DZ31,ED31,EH31,EL31,EP31,ET31,EX31,FB31,FF31,FJ31,FN31,FR31,FV31,FZ31,GD31,GH31,GL31,GP31,GT31,GX31,HB31,HF31,HJ31,HN31,HR31,HV31,HZ31,ID31,IH31,IL31,IP31,IT31,IX31,JB31,JF31,JJ31,JN31,JR31,JV31,JZ31,KD31,KH31,KL31,KP31,KT31,KX31,LB31,LF31,LJ31,LN31,LR31,LV31,LZ31,MD31,MH31,ML31,MP31,MT31,MX31,NB31,NF31,NJ31,NN31,NR31,NV31,NZ31,OD31,OH31,OL31,OP31,OT31,OX31,PB31,PF31,PJ31,PN31,PR31)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ref="AA31" si="129">SUM(DA31,DE31,DI31,DM31,DQ31,DU31,DY31,EC31,EG31,EK31,EO31,ES31,EW31,FA31,FE31,FI31,FM31,FQ31,FU31,FY31,GC31,GG31,GK31,GO31,GS31,GW31)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ref="AB31" si="130">SUM(DB31,DF31,DJ31,DN31,DR31,DV31,DZ31,ED31,EH31,EL31,EP31,ET31,EX31,FB31,FF31,FJ31,FN31,FR31,FV31,FZ31,GD31,GH31,GL31,GP31,GT31,GX31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" ref="AC31" si="131">SUM(HA31,HE31,HI31,HM31,HQ31,HU31,HY31,IC31,IG31,IK31,IO31,IS31)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" ref="AD31" si="132">SUM(HB31,HF31,HJ31,HN31,HR31,HV31,HZ31,ID31,IH31,IL31,IP31,IT31)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" ref="AE31" si="133">SUM(AK31,AO31,AS31,AW31,BA31,BE31,BI31,BM31,BQ31,BU31,BY31,CC31,CG31,CK31,CO31,CS31,CW31)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" ref="AF31" si="134">SUM(AL31,AP31,AT31,AX31,BB31,BF31,BJ31,BN31,BR31,BV31,BZ31,CD31,CH31,CL31,CP31,CT31,CX31)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" ref="AG31" si="135">SUM(IW31,JA31,JE31,JI31,JM31,JQ31,JU31,JY31,KC31,KG31,KK31,KO31,KS31,KW31,LA31,LE31,LI31,LM31,LQ31,LU31,LY31,MC31,MG31,MK31,MO31,MS31,MW31,NA31,NE31,NI31,NM31,NQ31,NU31,NY31,OC31,OG31,OK31,OO31,OS31,OW31,PA31,PE31,PI31,PM31,PQ31)</f>
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" ref="AH31" si="136">SUM(IX31,JB31,JF31,JJ31,JN31,JR31,JV31,JZ31,KD31,KH31,KL31,KP31,KT31,KX31,LB31,LF31,LJ31,LN31,LR31,LV31,LZ31,MD31,MH31,ML31,MP31,MT31,MX31,NB31,NF31,NJ31,NN31,NR31,NV31,NZ31,OD31,OH31,OL31,OP31,OT31,OX31,PB31,PF31,PJ31,PN31,PR31)</f>
+        <v>0</v>
+      </c>
+      <c r="PS31" s="3">
+        <f t="shared" ref="PS31" si="137">COUNTIF(AI31:PR31,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PT31" s="3">
+        <f t="shared" ref="PT31" si="138">COUNTIF(CY31:GX31,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PU31" s="3">
+        <f t="shared" ref="PU31" si="139">COUNTIF(GY31:IT31,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PV31">
+        <f t="shared" ref="PV31" si="140">COUNTIF(IU:PR,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PW31">
+        <f t="shared" ref="PW31" si="141">G31-(K31+O31+S31)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A22:A30">
+  <conditionalFormatting sqref="A22:A31">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BE771-52B0-A640-9387-4D59B99BE983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609D378-183E-A048-B8D5-96C605ACE878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="151">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -961,9 +961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F67B87-FE0E-FC4A-8FE6-DAAF2AFECC8B}">
   <dimension ref="A1:PW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH36" sqref="AH36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="EL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EP25" sqref="EP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>1185</v>
+        <v>1275</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2518,6 +2518,12 @@
         <v>90</v>
       </c>
       <c r="EJ2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EM2">
+        <v>90</v>
+      </c>
+      <c r="EN2" t="s">
         <v>110</v>
       </c>
       <c r="ER2" t="s">
@@ -2743,6 +2749,9 @@
       <c r="EJ3" t="s">
         <v>139</v>
       </c>
+      <c r="EN3" t="s">
+        <v>139</v>
+      </c>
       <c r="ER3" t="s">
         <v>139</v>
       </c>
@@ -2793,11 +2802,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -2850,7 +2859,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="41">COUNTIF(AI4:PR4,"NR")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" si="42">SUM(L4:M4)</f>
@@ -2866,7 +2875,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4" si="45">COUNTIF(CY4:GX4,"NR")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4" si="46">SUM(P4:Q4)</f>
@@ -3006,6 +3015,9 @@
         <v>139</v>
       </c>
       <c r="EJ4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EN4" t="s">
         <v>138</v>
       </c>
       <c r="EQ4">
@@ -3107,11 +3119,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>1111</v>
+        <v>1201</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
@@ -3127,11 +3139,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="8"/>
@@ -3143,11 +3155,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="12"/>
@@ -3320,6 +3332,12 @@
       </c>
       <c r="EJ5" t="s">
         <v>139</v>
+      </c>
+      <c r="EM5">
+        <v>90</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>110</v>
       </c>
       <c r="EQ5">
         <v>90</v>
@@ -3586,6 +3604,9 @@
       <c r="EJ6" t="s">
         <v>139</v>
       </c>
+      <c r="EN6" t="s">
+        <v>139</v>
+      </c>
       <c r="ER6" t="s">
         <v>139</v>
       </c>
@@ -3624,11 +3645,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3649,11 +3670,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1488</v>
+        <v>1578</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
@@ -3669,11 +3690,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="8"/>
@@ -3685,11 +3706,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="12"/>
@@ -3733,11 +3754,11 @@
       </c>
       <c r="W7" s="3">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="23"/>
@@ -3749,7 +3770,7 @@
       </c>
       <c r="AA7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="26"/>
@@ -3853,6 +3874,15 @@
       </c>
       <c r="EJ7" t="s">
         <v>110</v>
+      </c>
+      <c r="EM7">
+        <v>90</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>110</v>
+      </c>
+      <c r="EO7">
+        <v>1</v>
       </c>
       <c r="EQ7">
         <v>44</v>
@@ -3967,7 +3997,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <f t="shared" si="10"/>
@@ -3983,7 +4013,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <f t="shared" si="14"/>
@@ -4130,6 +4160,9 @@
       </c>
       <c r="EJ8" t="s">
         <v>139</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>138</v>
       </c>
       <c r="ER8" t="s">
         <v>139</v>
@@ -4233,11 +4266,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -4253,7 +4286,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="7"/>
@@ -4261,7 +4294,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="9"/>
@@ -4269,7 +4302,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="11"/>
@@ -4277,7 +4310,7 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="13"/>
@@ -4464,6 +4497,12 @@
       </c>
       <c r="EJ9" t="s">
         <v>110</v>
+      </c>
+      <c r="EM9">
+        <v>5</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>136</v>
       </c>
       <c r="ER9" t="s">
         <v>139</v>
@@ -4543,11 +4582,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>892</v>
+        <v>971</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -4563,11 +4602,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="8"/>
@@ -4579,11 +4618,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="12"/>
@@ -4750,6 +4789,12 @@
       </c>
       <c r="EJ10" t="s">
         <v>138</v>
+      </c>
+      <c r="EM10">
+        <v>79</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>110</v>
       </c>
       <c r="EQ10">
         <v>90</v>
@@ -5052,6 +5097,9 @@
       <c r="EJ11" t="s">
         <v>139</v>
       </c>
+      <c r="EN11" t="s">
+        <v>139</v>
+      </c>
       <c r="ER11" t="s">
         <v>139</v>
       </c>
@@ -5102,11 +5150,11 @@
       </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
@@ -5552,6 +5600,9 @@
       <c r="EJ13" t="s">
         <v>139</v>
       </c>
+      <c r="EN13" t="s">
+        <v>139</v>
+      </c>
       <c r="ER13" t="s">
         <v>139</v>
       </c>
@@ -5578,11 +5629,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5603,11 +5654,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1638</v>
+        <v>1667</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
@@ -5623,7 +5674,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="7"/>
@@ -5631,7 +5682,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="9"/>
@@ -5639,7 +5690,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="11"/>
@@ -5647,7 +5698,7 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="13"/>
@@ -5846,6 +5897,12 @@
       </c>
       <c r="EL14">
         <v>1</v>
+      </c>
+      <c r="EM14">
+        <v>29</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>136</v>
       </c>
       <c r="EQ14">
         <v>57</v>
@@ -5934,11 +5991,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1163</v>
+        <v>1253</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>606</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
@@ -5954,11 +6011,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="8"/>
@@ -5970,11 +6027,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="12"/>
@@ -6018,11 +6075,11 @@
       </c>
       <c r="W15" s="3">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X15" s="4">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="23"/>
@@ -6034,7 +6091,7 @@
       </c>
       <c r="AA15">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB15">
         <f t="shared" si="26"/>
@@ -6177,6 +6234,15 @@
       </c>
       <c r="EJ15" t="s">
         <v>136</v>
+      </c>
+      <c r="EM15">
+        <v>90</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>110</v>
+      </c>
+      <c r="EO15">
+        <v>1</v>
       </c>
       <c r="EQ15">
         <v>10</v>
@@ -7138,6 +7204,9 @@
       <c r="EK18">
         <v>1</v>
       </c>
+      <c r="EN18" t="s">
+        <v>139</v>
+      </c>
       <c r="EQ18">
         <v>80</v>
       </c>
@@ -7200,11 +7269,11 @@
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT18" s="3">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PU18" s="3">
         <f t="shared" si="35"/>
@@ -7225,11 +7294,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>821</v>
+        <v>906</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
@@ -7245,11 +7314,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="8"/>
@@ -7261,11 +7330,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="12"/>
@@ -7317,11 +7386,11 @@
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <f t="shared" si="25"/>
@@ -7329,7 +7398,7 @@
       </c>
       <c r="AB19">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <f t="shared" si="27"/>
@@ -7435,6 +7504,15 @@
       </c>
       <c r="EJ19" t="s">
         <v>136</v>
+      </c>
+      <c r="EM19">
+        <v>85</v>
+      </c>
+      <c r="EN19" t="s">
+        <v>110</v>
+      </c>
+      <c r="EP19">
+        <v>1</v>
       </c>
       <c r="ER19" t="s">
         <v>139</v>
@@ -7520,11 +7598,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1625</v>
+        <v>1715</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
@@ -7540,11 +7618,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="8"/>
@@ -7556,11 +7634,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="12"/>
@@ -7777,6 +7855,12 @@
         <v>73</v>
       </c>
       <c r="EJ20" t="s">
+        <v>110</v>
+      </c>
+      <c r="EM20">
+        <v>90</v>
+      </c>
+      <c r="EN20" t="s">
         <v>110</v>
       </c>
       <c r="EQ20">
@@ -8113,11 +8197,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>2099</v>
+        <v>2189</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
@@ -8133,11 +8217,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="8"/>
@@ -8149,11 +8233,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="12"/>
@@ -8364,6 +8448,12 @@
         <v>90</v>
       </c>
       <c r="EJ22" t="s">
+        <v>110</v>
+      </c>
+      <c r="EM22">
+        <v>90</v>
+      </c>
+      <c r="EN22" t="s">
         <v>110</v>
       </c>
       <c r="EQ22">
@@ -8679,11 +8769,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1682</v>
+        <v>1772</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
@@ -8699,11 +8789,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="8"/>
@@ -8715,11 +8805,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="12"/>
@@ -8898,6 +8988,12 @@
       </c>
       <c r="EL24">
         <v>1</v>
+      </c>
+      <c r="EM24">
+        <v>90</v>
+      </c>
+      <c r="EN24" t="s">
+        <v>110</v>
       </c>
       <c r="EQ24">
         <v>90</v>
@@ -9182,6 +9278,9 @@
       <c r="EJ25" t="s">
         <v>139</v>
       </c>
+      <c r="EN25" t="s">
+        <v>139</v>
+      </c>
       <c r="ER25" t="s">
         <v>139</v>
       </c>
@@ -9244,11 +9343,11 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -9486,6 +9585,9 @@
       <c r="EJ26" t="s">
         <v>139</v>
       </c>
+      <c r="EN26" t="s">
+        <v>139</v>
+      </c>
       <c r="ER26" t="s">
         <v>139</v>
       </c>
@@ -9557,11 +9659,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -9582,11 +9684,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>1124</v>
+        <v>1214</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
@@ -9602,11 +9704,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="8"/>
@@ -9618,11 +9720,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="12"/>
@@ -9755,6 +9857,12 @@
         <v>90</v>
       </c>
       <c r="EJ27" t="s">
+        <v>110</v>
+      </c>
+      <c r="EM27">
+        <v>90</v>
+      </c>
+      <c r="EN27" t="s">
         <v>110</v>
       </c>
       <c r="EQ27">
@@ -9829,11 +9937,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>1209</v>
+        <v>1220</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
@@ -9849,7 +9957,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="7"/>
@@ -9857,7 +9965,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="9"/>
@@ -9865,7 +9973,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="11"/>
@@ -9873,7 +9981,7 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="13"/>
@@ -10009,6 +10117,12 @@
       </c>
       <c r="EJ28" t="s">
         <v>110</v>
+      </c>
+      <c r="EM28">
+        <v>11</v>
+      </c>
+      <c r="EN28" t="s">
+        <v>136</v>
       </c>
       <c r="EQ28">
         <v>90</v>
@@ -10097,11 +10211,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
@@ -10117,11 +10231,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="8"/>
@@ -10133,11 +10247,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="12"/>
@@ -10256,6 +10370,12 @@
       </c>
       <c r="EJ29" t="s">
         <v>136</v>
+      </c>
+      <c r="EM29">
+        <v>61</v>
+      </c>
+      <c r="EN29" t="s">
+        <v>110</v>
       </c>
       <c r="ER29" t="s">
         <v>138</v>
@@ -10462,6 +10582,9 @@
       <c r="BH30" t="s">
         <v>136</v>
       </c>
+      <c r="EN30" t="s">
+        <v>139</v>
+      </c>
       <c r="EQ30">
         <v>1</v>
       </c>
@@ -10476,11 +10599,11 @@
       </c>
       <c r="PS30" s="3">
         <f t="shared" ref="PS30" si="99">COUNTIF(AI30:PR30,"HG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT30" s="3">
         <f t="shared" ref="PT30" si="100">COUNTIF(CY30:GX30,"HG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU30" s="3">
         <f t="shared" ref="PU30" si="101">COUNTIF(GY30:IT30,"HG")</f>
@@ -10631,13 +10754,16 @@
         <f t="shared" ref="AH31" si="136">SUM(IX31,JB31,JF31,JJ31,JN31,JR31,JV31,JZ31,KD31,KH31,KL31,KP31,KT31,KX31,LB31,LF31,LJ31,LN31,LR31,LV31,LZ31,MD31,MH31,ML31,MP31,MT31,MX31,NB31,NF31,NJ31,NN31,NR31,NV31,NZ31,OD31,OH31,OL31,OP31,OT31,OX31,PB31,PF31,PJ31,PN31,PR31)</f>
         <v>0</v>
       </c>
+      <c r="EN31" t="s">
+        <v>139</v>
+      </c>
       <c r="PS31" s="3">
         <f t="shared" ref="PS31" si="137">COUNTIF(AI31:PR31,"HG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PT31" s="3">
         <f t="shared" ref="PT31" si="138">COUNTIF(CY31:GX31,"HG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU31" s="3">
         <f t="shared" ref="PU31" si="139">COUNTIF(GY31:IT31,"HG")</f>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609D378-183E-A048-B8D5-96C605ACE878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEBC190-7664-BB49-A32A-C0F622AA1DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="152">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Mehdi Boussaid</t>
+  </si>
+  <si>
+    <t>Nathanael Beta</t>
   </si>
 </sst>
 </file>
@@ -959,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F67B87-FE0E-FC4A-8FE6-DAAF2AFECC8B}">
-  <dimension ref="A1:PW31"/>
+  <dimension ref="A1:PW32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EP25" sqref="EP25"/>
+      <pane xSplit="1" topLeftCell="GU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HB4" sqref="HB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>1275</v>
+        <v>1365</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2317,11 +2320,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2333,11 +2336,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2531,6 +2534,12 @@
       </c>
       <c r="EV2" t="s">
         <v>139</v>
+      </c>
+      <c r="FC2">
+        <v>90</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>110</v>
       </c>
       <c r="HD2" t="s">
         <v>138</v>
@@ -2577,7 +2586,7 @@
       </c>
       <c r="B3">
         <f>SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3,CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3,GY3,HC3,HG3,HK3,HO3,HS3,HW3,IA3,IE3,II3,IM3,IQ3,IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C29" si="2">SUM(CY3,DC3,DG3,DK3,DO3,DS3,DW3,EA3,EE3,EI3,EM3,EQ3,EU3,EY3,FC3,FG3,FK3,FO3,FS3,FW3,GA3,GE3,GI3,GM3,GQ3,GU3)</f>
@@ -2589,7 +2598,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E29" si="4">SUM(IU3,IY3,JC3,JG3,JK3,JO3,JS3,JW3,KA3,KE3,KI3,KM3,KQ3,KU3,KY3,LC3,LG3,LK3,LO3,LS3,LW3,MA3,ME3,MI3,MM3,MQ3,MU3,MY3,NC3,NG3,NK3,NO3,NS3,NW3,OA3,OE3,OI3,OM3,OQ3,OU3,OY3,PC3,PG3,PK3,PO3)</f>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F30" si="5">SUM(AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,CI3,CM3,CQ3,CU3)</f>
@@ -2597,11 +2606,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G29" si="6">SUM(H3:I3)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H29" si="7">COUNTIF(AI3:PR3,"T")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I29" si="8">COUNTIF(AI3:PR3,"R")</f>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S29" si="18">SUM(T3:U3)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:T29" si="19">COUNTIF(IU3:PR3,"T")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" ref="U3:U29" si="20">COUNTIF(IU3:PR3,"R")</f>
@@ -2758,6 +2767,9 @@
       <c r="EV3" t="s">
         <v>139</v>
       </c>
+      <c r="FD3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2792,6 +2804,18 @@
         <v>90</v>
       </c>
       <c r="JP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="KI3">
+        <v>90</v>
+      </c>
+      <c r="KJ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="KM3">
+        <v>90</v>
+      </c>
+      <c r="KN3" t="s">
         <v>110</v>
       </c>
       <c r="ME3">
@@ -2802,11 +2826,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -3032,6 +3056,9 @@
       <c r="EV4" t="s">
         <v>110</v>
       </c>
+      <c r="FD4" t="s">
+        <v>139</v>
+      </c>
       <c r="GY4">
         <v>90</v>
       </c>
@@ -3094,11 +3121,11 @@
       </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT4" s="3">
         <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU4" s="3">
         <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
@@ -3119,11 +3146,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>1201</v>
+        <v>1291</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>591</v>
+        <v>681</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
@@ -3139,11 +3166,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="8"/>
@@ -3155,11 +3182,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="12"/>
@@ -3349,6 +3376,12 @@
         <v>90</v>
       </c>
       <c r="EV5" t="s">
+        <v>110</v>
+      </c>
+      <c r="FC5">
+        <v>90</v>
+      </c>
+      <c r="FD5" t="s">
         <v>110</v>
       </c>
       <c r="HD5" t="s">
@@ -3613,6 +3646,9 @@
       <c r="EV6" t="s">
         <v>139</v>
       </c>
+      <c r="FD6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3645,11 +3681,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3670,11 +3706,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1578</v>
+        <v>1668</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
@@ -3690,11 +3726,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="8"/>
@@ -3706,11 +3742,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="12"/>
@@ -3892,6 +3928,12 @@
       </c>
       <c r="EV7" t="s">
         <v>139</v>
+      </c>
+      <c r="FC7">
+        <v>90</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>110</v>
       </c>
       <c r="GY7">
         <v>90</v>
@@ -3965,7 +4007,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="37"/>
-        <v>869</v>
+        <v>959</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -3977,7 +4019,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="4"/>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
@@ -3985,11 +4027,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="8"/>
@@ -4033,11 +4075,11 @@
       </c>
       <c r="S8">
         <f>SUM(T8:U8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="20"/>
@@ -4170,6 +4212,9 @@
       <c r="EV8" t="s">
         <v>139</v>
       </c>
+      <c r="FD8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -4239,13 +4284,19 @@
       <c r="KF8" t="s">
         <v>110</v>
       </c>
+      <c r="KM8">
+        <v>90</v>
+      </c>
+      <c r="KN8" t="s">
+        <v>110</v>
+      </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -4266,11 +4317,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1732</v>
+        <v>1777</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>976</v>
+        <v>1021</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -4286,7 +4337,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="7"/>
@@ -4294,7 +4345,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="9"/>
@@ -4302,7 +4353,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="11"/>
@@ -4310,7 +4361,7 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="13"/>
@@ -4512,6 +4563,12 @@
       </c>
       <c r="EV9" t="s">
         <v>110</v>
+      </c>
+      <c r="FC9">
+        <v>45</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>136</v>
       </c>
       <c r="HC9">
         <v>45</v>
@@ -4582,11 +4639,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>971</v>
+        <v>1061</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>371</v>
+        <v>461</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -4602,11 +4659,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="8"/>
@@ -4618,11 +4675,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="12"/>
@@ -4806,6 +4863,12 @@
         <v>67</v>
       </c>
       <c r="EV10" t="s">
+        <v>110</v>
+      </c>
+      <c r="FC10">
+        <v>90</v>
+      </c>
+      <c r="FD10" t="s">
         <v>110</v>
       </c>
       <c r="HD10" t="s">
@@ -4880,7 +4943,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="37"/>
-        <v>944</v>
+        <v>1034</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -4892,7 +4955,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
@@ -4900,11 +4963,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="8"/>
@@ -4948,11 +5011,11 @@
       </c>
       <c r="S11">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="20"/>
@@ -5106,6 +5169,9 @@
       <c r="EV11" t="s">
         <v>139</v>
       </c>
+      <c r="FD11" t="s">
+        <v>139</v>
+      </c>
       <c r="GY11">
         <v>90</v>
       </c>
@@ -5148,13 +5214,19 @@
       <c r="KB11" t="s">
         <v>110</v>
       </c>
+      <c r="KM11">
+        <v>90</v>
+      </c>
+      <c r="KN11" t="s">
+        <v>110</v>
+      </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
@@ -5609,6 +5681,9 @@
       <c r="EV13" t="s">
         <v>139</v>
       </c>
+      <c r="FD13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5629,11 +5704,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5654,11 +5729,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1667</v>
+        <v>1674</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
@@ -5674,7 +5749,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="7"/>
@@ -5682,7 +5757,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="9"/>
@@ -5690,7 +5765,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="11"/>
@@ -5698,7 +5773,7 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="13"/>
@@ -5915,6 +5990,12 @@
       </c>
       <c r="EV14" t="s">
         <v>110</v>
+      </c>
+      <c r="FC14">
+        <v>7</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>136</v>
       </c>
       <c r="GY14">
         <v>90</v>
@@ -5991,11 +6072,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1253</v>
+        <v>1298</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>606</v>
+        <v>651</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
@@ -6011,11 +6092,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="8"/>
@@ -6027,11 +6108,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="12"/>
@@ -6255,6 +6336,12 @@
       </c>
       <c r="EV15" t="s">
         <v>136</v>
+      </c>
+      <c r="FC15">
+        <v>45</v>
+      </c>
+      <c r="FD15" t="s">
+        <v>110</v>
       </c>
       <c r="GY15">
         <v>59</v>
@@ -7219,6 +7306,9 @@
       <c r="EV18" t="s">
         <v>110</v>
       </c>
+      <c r="FD18" t="s">
+        <v>139</v>
+      </c>
       <c r="GY18">
         <v>18</v>
       </c>
@@ -7269,11 +7359,11 @@
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT18" s="3">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PU18" s="3">
         <f t="shared" si="35"/>
@@ -7294,11 +7384,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="37"/>
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
@@ -7314,11 +7404,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="8"/>
@@ -7330,11 +7420,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="12"/>
@@ -7519,6 +7609,12 @@
       </c>
       <c r="EV19" t="s">
         <v>138</v>
+      </c>
+      <c r="FC19">
+        <v>69</v>
+      </c>
+      <c r="FD19" t="s">
+        <v>110</v>
       </c>
       <c r="GY19">
         <v>72</v>
@@ -7598,11 +7694,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1715</v>
+        <v>1805</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>1052</v>
+        <v>1142</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
@@ -7618,11 +7714,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="8"/>
@@ -7634,11 +7730,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="12"/>
@@ -7682,11 +7778,11 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="23"/>
@@ -7698,7 +7794,7 @@
       </c>
       <c r="AA20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
@@ -7876,6 +7972,15 @@
         <v>110</v>
       </c>
       <c r="EW20">
+        <v>1</v>
+      </c>
+      <c r="FC20">
+        <v>90</v>
+      </c>
+      <c r="FD20" t="s">
+        <v>110</v>
+      </c>
+      <c r="FE20">
         <v>1</v>
       </c>
       <c r="GY20">
@@ -8197,11 +8302,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>2189</v>
+        <v>2279</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
@@ -8217,11 +8322,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="8"/>
@@ -8233,11 +8338,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="12"/>
@@ -8466,6 +8571,12 @@
         <v>90</v>
       </c>
       <c r="EV22" t="s">
+        <v>110</v>
+      </c>
+      <c r="FC22">
+        <v>90</v>
+      </c>
+      <c r="FD22" t="s">
         <v>110</v>
       </c>
       <c r="GY22">
@@ -8769,11 +8880,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1772</v>
+        <v>1817</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>1080</v>
+        <v>1125</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
@@ -8789,11 +8900,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="8"/>
@@ -8805,11 +8916,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="12"/>
@@ -9005,6 +9116,12 @@
         <v>90</v>
       </c>
       <c r="EV24" t="s">
+        <v>110</v>
+      </c>
+      <c r="FC24">
+        <v>45</v>
+      </c>
+      <c r="FD24" t="s">
         <v>110</v>
       </c>
       <c r="GY24">
@@ -9287,6 +9404,9 @@
       <c r="EV25" t="s">
         <v>139</v>
       </c>
+      <c r="FD25" t="s">
+        <v>139</v>
+      </c>
       <c r="GY25">
         <v>90</v>
       </c>
@@ -9343,11 +9463,11 @@
       </c>
       <c r="PS25" s="3">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PT25" s="3">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="PU25" s="3">
         <f t="shared" si="35"/>
@@ -9368,7 +9488,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="37"/>
-        <v>881</v>
+        <v>971</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -9380,7 +9500,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
@@ -9388,11 +9508,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="8"/>
@@ -9436,11 +9556,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="20"/>
@@ -9594,6 +9714,9 @@
       <c r="EV26" t="s">
         <v>139</v>
       </c>
+      <c r="FD26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -9657,13 +9780,19 @@
       <c r="KF26" t="s">
         <v>110</v>
       </c>
+      <c r="KM26">
+        <v>90</v>
+      </c>
+      <c r="KN26" t="s">
+        <v>110</v>
+      </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -9684,11 +9813,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>1214</v>
+        <v>1297</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>719</v>
+        <v>802</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
@@ -9704,11 +9833,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="8"/>
@@ -9720,11 +9849,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="12"/>
@@ -9776,11 +9905,11 @@
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <f t="shared" si="25"/>
@@ -9788,7 +9917,7 @@
       </c>
       <c r="AB27">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <f t="shared" si="27"/>
@@ -9876,6 +10005,15 @@
       </c>
       <c r="EV27" t="s">
         <v>110</v>
+      </c>
+      <c r="FC27">
+        <v>83</v>
+      </c>
+      <c r="FD27" t="s">
+        <v>110</v>
+      </c>
+      <c r="FF27">
+        <v>1</v>
       </c>
       <c r="HD27" t="s">
         <v>139</v>
@@ -9937,7 +10075,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="37"/>
-        <v>1220</v>
+        <v>1295</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -9949,7 +10087,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
@@ -9957,11 +10095,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="8"/>
@@ -10005,11 +10143,11 @@
       </c>
       <c r="S28">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" si="20"/>
@@ -10136,6 +10274,9 @@
       <c r="EV28" t="s">
         <v>136</v>
       </c>
+      <c r="FD28" t="s">
+        <v>139</v>
+      </c>
       <c r="GY28">
         <v>79</v>
       </c>
@@ -10184,13 +10325,19 @@
       <c r="IV28" t="s">
         <v>110</v>
       </c>
+      <c r="KM28">
+        <v>75</v>
+      </c>
+      <c r="KN28" t="s">
+        <v>110</v>
+      </c>
       <c r="PS28" s="3">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="PT28" s="3">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU28" s="3">
         <f t="shared" si="35"/>
@@ -10211,11 +10358,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
@@ -10231,7 +10378,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="7"/>
@@ -10239,7 +10386,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="9"/>
@@ -10247,7 +10394,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="11"/>
@@ -10255,7 +10402,7 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="13"/>
@@ -10388,6 +10535,12 @@
       </c>
       <c r="EX29">
         <v>1</v>
+      </c>
+      <c r="FC29">
+        <v>21</v>
+      </c>
+      <c r="FD29" t="s">
+        <v>136</v>
       </c>
       <c r="HC29">
         <v>90</v>
@@ -10446,11 +10599,11 @@
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="67">SUM(AI30,AM30,AQ30,AU30,AY30,BC30,BG30,BK30,BO30,BS30,BW30,CA30,CE30,CI30,CM30,CQ30,CU30,CY30,DC30,DG30,DK30,DO30,DS30,DW30,EA30,EE30,EI30,EM30,EQ30,EU30,EY30,FC30,FG30,FK30,FO30,FS30,FW30,GA30,GE30,GI30,GM30,GQ30,GU30,GY30,HC30,HG30,HK30,HO30,HS30,HW30,IA30,IE30,II30,IM30,IQ30,IU30,IY30,JC30,JG30,JK30,JO30,JS30,JW30,KA30,KE30,KI30,KM30,KQ30,KU30,KY30,LC30,LG30,LK30,LO30,LS30,LW30,MA30,ME30,MI30,MM30,MQ30,MU30,MY30,NC30,NG30,NK30,NO30,NS30,NW30,OA30,OE30,OI30,OM30,OQ30,OU30,OY30,PC30,PG30,PK30,PO30)</f>
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30" si="68">SUM(CY30,DC30,DG30,DK30,DO30,DS30,DW30,EA30,EE30,EI30,EM30,EQ30,EU30,EY30,FC30,FG30,FK30,FO30,FS30,FW30,GA30,GE30,GI30,GM30,GQ30,GU30)</f>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30" si="69">SUM(GY30,HC30,HG30,HK30,HO30,HS30,HW30,IA30,IE30,II30,IM30,IQ30)</f>
@@ -10458,7 +10611,7 @@
       </c>
       <c r="E30">
         <f t="shared" ref="E30" si="70">SUM(IU30,IY30,JC30,JG30,JK30,JO30,JS30,JW30,KA30,KE30,KI30,KM30,KQ30,KU30,KY30,LC30,LG30,LK30,LO30,LS30,LW30,MA30,ME30,MI30,MM30,MQ30,MU30,MY30,NC30,NG30,NK30,NO30,NS30,NW30,OA30,OE30,OI30,OM30,OQ30,OU30,OY30,PC30,PG30,PK30,PO30)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
@@ -10466,15 +10619,15 @@
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="71">SUM(H30:I30)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ref="H30" si="72">COUNTIF(AI30:PR30,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ref="I30" si="73">COUNTIF(AI30:PR30,"R")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ref="J30" si="74">COUNTIF(AI30:PR30,"NR")</f>
@@ -10482,7 +10635,7 @@
       </c>
       <c r="K30">
         <f t="shared" ref="K30" si="75">SUM(L30:M30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" ref="L30" si="76">COUNTIF(CY30:GX30,"T")</f>
@@ -10490,7 +10643,7 @@
       </c>
       <c r="M30" s="3">
         <f t="shared" ref="M30" si="77">COUNTIF(CY30:GX30,"R")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" ref="N30" si="78">COUNTIF(CY30:GX30,"NR")</f>
@@ -10514,11 +10667,11 @@
       </c>
       <c r="S30">
         <f t="shared" ref="S30" si="83">SUM(T30:U30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" ref="T30" si="84">COUNTIF(IU30:PR30,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="3">
         <f t="shared" ref="U30" si="85">COUNTIF(IU30:PR30,"R")</f>
@@ -10596,6 +10749,18 @@
       </c>
       <c r="EV30" t="s">
         <v>136</v>
+      </c>
+      <c r="FC30">
+        <v>45</v>
+      </c>
+      <c r="FD30" t="s">
+        <v>136</v>
+      </c>
+      <c r="KI30">
+        <v>90</v>
+      </c>
+      <c r="KJ30" t="s">
+        <v>110</v>
       </c>
       <c r="PS30" s="3">
         <f t="shared" ref="PS30" si="99">COUNTIF(AI30:PR30,"HG")</f>
@@ -10624,11 +10789,11 @@
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="104">SUM(AI31,AM31,AQ31,AU31,AY31,BC31,BG31,BK31,BO31,BS31,BW31,CA31,CE31,CI31,CM31,CQ31,CU31,CY31,DC31,DG31,DK31,DO31,DS31,DW31,EA31,EE31,EI31,EM31,EQ31,EU31,EY31,FC31,FG31,FK31,FO31,FS31,FW31,GA31,GE31,GI31,GM31,GQ31,GU31,GY31,HC31,HG31,HK31,HO31,HS31,HW31,IA31,IE31,II31,IM31,IQ31,IU31,IY31,JC31,JG31,JK31,JO31,JS31,JW31,KA31,KE31,KI31,KM31,KQ31,KU31,KY31,LC31,LG31,LK31,LO31,LS31,LW31,MA31,ME31,MI31,MM31,MQ31,MU31,MY31,NC31,NG31,NK31,NO31,NS31,NW31,OA31,OE31,OI31,OM31,OQ31,OU31,OY31,PC31,PG31,PK31,PO31)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31" si="105">SUM(CY31,DC31,DG31,DK31,DO31,DS31,DW31,EA31,EE31,EI31,EM31,EQ31,EU31,EY31,FC31,FG31,FK31,FO31,FS31,FW31,GA31,GE31,GI31,GM31,GQ31,GU31)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31" si="106">SUM(GY31,HC31,HG31,HK31,HO31,HS31,HW31,IA31,IE31,II31,IM31,IQ31)</f>
@@ -10644,11 +10809,11 @@
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="109">SUM(H31:I31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" ref="H31" si="110">COUNTIF(AI31:PR31,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" ref="I31" si="111">COUNTIF(AI31:PR31,"R")</f>
@@ -10660,11 +10825,11 @@
       </c>
       <c r="K31">
         <f t="shared" ref="K31" si="113">SUM(L31:M31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ref="L31" si="114">COUNTIF(CY31:GX31,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" ref="M31" si="115">COUNTIF(CY31:GX31,"R")</f>
@@ -10757,6 +10922,12 @@
       <c r="EN31" t="s">
         <v>139</v>
       </c>
+      <c r="FC31">
+        <v>69</v>
+      </c>
+      <c r="FD31" t="s">
+        <v>110</v>
+      </c>
       <c r="PS31" s="3">
         <f t="shared" ref="PS31" si="137">COUNTIF(AI31:PR31,"HG")</f>
         <v>1</v>
@@ -10775,12 +10946,175 @@
       </c>
       <c r="PW31">
         <f t="shared" ref="PW31" si="141">G31-(K31+O31+S31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:439" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="142">SUM(AI32,AM32,AQ32,AU32,AY32,BC32,BG32,BK32,BO32,BS32,BW32,CA32,CE32,CI32,CM32,CQ32,CU32,CY32,DC32,DG32,DK32,DO32,DS32,DW32,EA32,EE32,EI32,EM32,EQ32,EU32,EY32,FC32,FG32,FK32,FO32,FS32,FW32,GA32,GE32,GI32,GM32,GQ32,GU32,GY32,HC32,HG32,HK32,HO32,HS32,HW32,IA32,IE32,II32,IM32,IQ32,IU32,IY32,JC32,JG32,JK32,JO32,JS32,JW32,KA32,KE32,KI32,KM32,KQ32,KU32,KY32,LC32,LG32,LK32,LO32,LS32,LW32,MA32,ME32,MI32,MM32,MQ32,MU32,MY32,NC32,NG32,NK32,NO32,NS32,NW32,OA32,OE32,OI32,OM32,OQ32,OU32,OY32,PC32,PG32,PK32,PO32)</f>
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32" si="143">SUM(CY32,DC32,DG32,DK32,DO32,DS32,DW32,EA32,EE32,EI32,EM32,EQ32,EU32,EY32,FC32,FG32,FK32,FO32,FS32,FW32,GA32,GE32,GI32,GM32,GQ32,GU32)</f>
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32" si="144">SUM(GY32,HC32,HG32,HK32,HO32,HS32,HW32,IA32,IE32,II32,IM32,IQ32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32" si="145">SUM(IU32,IY32,JC32,JG32,JK32,JO32,JS32,JW32,KA32,KE32,KI32,KM32,KQ32,KU32,KY32,LC32,LG32,LK32,LO32,LS32,LW32,MA32,ME32,MI32,MM32,MQ32,MU32,MY32,NC32,NG32,NK32,NO32,NS32,NW32,OA32,OE32,OI32,OM32,OQ32,OU32,OY32,PC32,PG32,PK32,PO32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="146">SUM(AI32,AM32,AQ32,AU32,AY32,BC32,BG32,BK32,BO32,BS32,BW32,CA32,CE32,CI32,CM32,CQ32,CU32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="147">SUM(H32:I32)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ref="H32" si="148">COUNTIF(AI32:PR32,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" ref="I32" si="149">COUNTIF(AI32:PR32,"R")</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" ref="J32" si="150">COUNTIF(AI32:PR32,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32" si="151">SUM(L32:M32)</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" ref="L32" si="152">COUNTIF(CY32:GX32,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" ref="M32" si="153">COUNTIF(CY32:GX32,"R")</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" ref="N32" si="154">COUNTIF(CY32:GX32,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32" si="155">SUM(P32:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" ref="P32" si="156">COUNTIF(GY32:IT32,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" ref="Q32" si="157">COUNTIF(GY32:IT32,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" ref="R32" si="158">COUNTIF(GY32:IT32,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32" si="159">SUM(T32:U32)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" ref="T32" si="160">COUNTIF(IU32:PR32,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" ref="U32" si="161">COUNTIF(IU32:PR32,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <f t="shared" ref="V32" si="162">COUNTIF(IU:PR,"NR")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <f t="shared" ref="W32" si="163">SUM(AK32,AO32,AS32,AW32,BA32,BE32,BI32,BM32,BQ32,BU32,BY32,CC32,CG32,CK32,CO32,CS32,CW32,DA32,DE32,DI32,DM32,DQ32,DU32,DY32,EC32,EG32,EK32,EO32,ES32,EW32,FA32,FE32,FI32,FM32,FQ32,FU32,FY32,GC32,GG32,GK32,GO32,GS32,GW32,HA32,HE32,HI32,HM32,HQ32,HU32,HY32,IC32,IG32,IK32,IO32,IS32,IW32,JA32,JE32,JI32,JM32,JQ32,JU32,JY32,KC32,KG32,KK32,KO32,KS32,KW32,LA32,LE32,LI32,LM32,LQ32,LU32,LY32,MC32,MG32,MK32,MO32,MS32,MW32,NA32,NE32,NI32,NM32,NQ32,NU32,NY32,OC32,OG32,OK32,OO32,OS32,OW32,PA32,PE32,PI32,PM32,PQ32)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" ref="X32" si="164">SUM(DA32,DE32,DI32,DM32,DQ32,DU32,DY32,EC32,EG32,EK32,EO32,ES32,EW32,FA32,FE32,FI32,FM32,FQ32,FU32,FY32,GC32,GG32,GK32,GO32,GS32,GW32,HA32,HE32,HI32,HM32,HQ32,HU32,HY32,IC32,IG32,IK32,IO32,IS32,IW32,JA32,JE32,JI32,JM32,JQ32,JU32,JY32,KC32,KG32,KK32,KO32,KS32,KW32,LA32,LE32,LI32,LM32,LQ32,LU32,LY32,MC32,MG32,MK32,MO32,MS32,MW32,NA32,NE32,NI32,NM32,NQ32,NU32,NY32,OC32,OG32,OK32,OO32,OS32,OW32,PA32,PE32,PI32,PM32,PQ32)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <f t="shared" ref="Y32" si="165">SUM(AL32,AP32,AT32,AX32,BB32,BF32,BJ32,BN32,BR32,BV32,BZ32,CD32,CH32,CL32,CP32,CT32,CX32,DB32,DF32,DJ32,DN32,DR32,DV32,DZ32,ED32,EH32,EL32,EP32,ET32,EX32,FB32,FF32,FJ32,FN32,FR32,FV32,FZ32,GD32,GH32,GL32,GP32,GT32,GX32,HB32,HF32,HJ32,HN32,HR32,HV32,HZ32,ID32,IH32,IL32,IP32,IT32,IX32,JB32,JF32,JJ32,JN32,JR32,JV32,JZ32,KD32,KH32,KL32,KP32,KT32,KX32,LB32,LF32,LJ32,LN32,LR32,LV32,LZ32,MD32,MH32,ML32,MP32,MT32,MX32,NB32,NF32,NJ32,NN32,NR32,NV32,NZ32,OD32,OH32,OL32,OP32,OT32,OX32,PB32,PF32,PJ32,PN32,PR32)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="4">
+        <f t="shared" ref="Z32" si="166">SUM(DB32,DF32,DJ32,DN32,DR32,DV32,DZ32,ED32,EH32,EL32,EP32,ET32,EX32,FB32,FF32,FJ32,FN32,FR32,FV32,FZ32,GD32,GH32,GL32,GP32,GT32,GX32,HB32,HF32,HJ32,HN32,HR32,HV32,HZ32,ID32,IH32,IL32,IP32,IT32,IX32,JB32,JF32,JJ32,JN32,JR32,JV32,JZ32,KD32,KH32,KL32,KP32,KT32,KX32,LB32,LF32,LJ32,LN32,LR32,LV32,LZ32,MD32,MH32,ML32,MP32,MT32,MX32,NB32,NF32,NJ32,NN32,NR32,NV32,NZ32,OD32,OH32,OL32,OP32,OT32,OX32,PB32,PF32,PJ32,PN32,PR32)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" ref="AA32" si="167">SUM(DA32,DE32,DI32,DM32,DQ32,DU32,DY32,EC32,EG32,EK32,EO32,ES32,EW32,FA32,FE32,FI32,FM32,FQ32,FU32,FY32,GC32,GG32,GK32,GO32,GS32,GW32)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" ref="AB32" si="168">SUM(DB32,DF32,DJ32,DN32,DR32,DV32,DZ32,ED32,EH32,EL32,EP32,ET32,EX32,FB32,FF32,FJ32,FN32,FR32,FV32,FZ32,GD32,GH32,GL32,GP32,GT32,GX32)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" ref="AC32" si="169">SUM(HA32,HE32,HI32,HM32,HQ32,HU32,HY32,IC32,IG32,IK32,IO32,IS32)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" ref="AD32" si="170">SUM(HB32,HF32,HJ32,HN32,HR32,HV32,HZ32,ID32,IH32,IL32,IP32,IT32)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" ref="AE32" si="171">SUM(AK32,AO32,AS32,AW32,BA32,BE32,BI32,BM32,BQ32,BU32,BY32,CC32,CG32,CK32,CO32,CS32,CW32)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" ref="AF32" si="172">SUM(AL32,AP32,AT32,AX32,BB32,BF32,BJ32,BN32,BR32,BV32,BZ32,CD32,CH32,CL32,CP32,CT32,CX32)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" ref="AG32" si="173">SUM(IW32,JA32,JE32,JI32,JM32,JQ32,JU32,JY32,KC32,KG32,KK32,KO32,KS32,KW32,LA32,LE32,LI32,LM32,LQ32,LU32,LY32,MC32,MG32,MK32,MO32,MS32,MW32,NA32,NE32,NI32,NM32,NQ32,NU32,NY32,OC32,OG32,OK32,OO32,OS32,OW32,PA32,PE32,PI32,PM32,PQ32)</f>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" ref="AH32" si="174">SUM(IX32,JB32,JF32,JJ32,JN32,JR32,JV32,JZ32,KD32,KH32,KL32,KP32,KT32,KX32,LB32,LF32,LJ32,LN32,LR32,LV32,LZ32,MD32,MH32,ML32,MP32,MT32,MX32,NB32,NF32,NJ32,NN32,NR32,NV32,NZ32,OD32,OH32,OL32,OP32,OT32,OX32,PB32,PF32,PJ32,PN32,PR32)</f>
+        <v>0</v>
+      </c>
+      <c r="FC32">
+        <v>21</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>136</v>
+      </c>
+      <c r="PS32" s="3">
+        <f t="shared" ref="PS32" si="175">COUNTIF(AI32:PR32,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PT32" s="3">
+        <f t="shared" ref="PT32" si="176">COUNTIF(CY32:GX32,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PU32" s="3">
+        <f t="shared" ref="PU32" si="177">COUNTIF(GY32:IT32,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PV32">
+        <f t="shared" ref="PV32" si="178">COUNTIF(IU:PR,"HG")</f>
+        <v>0</v>
+      </c>
+      <c r="PW32">
+        <f t="shared" ref="PW32" si="179">G32-(K32+O32+S32)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A22:A31">
+  <conditionalFormatting sqref="A22:A32">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEBC190-7664-BB49-A32A-C0F622AA1DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB7015-68F2-2347-8187-08BD44B0052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F67B87-FE0E-FC4A-8FE6-DAAF2AFECC8B}">
   <dimension ref="A1:PW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GU1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="GQ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="HB4" sqref="HB4"/>
     </sheetView>
   </sheetViews>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB7015-68F2-2347-8187-08BD44B0052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A9A7F-F402-BC44-B5D9-FD08165AA027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -488,10 +488,10 @@
     <t>Theo Owono</t>
   </si>
   <si>
-    <t>Mehdi Boussaid</t>
-  </si>
-  <si>
     <t>Nathanael Beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehdi Boussaid </t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="GQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HB4" sqref="HB4"/>
+      <selection pane="topRight" activeCell="GS34" sqref="GS34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="31" spans="1:439" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="104">SUM(AI31,AM31,AQ31,AU31,AY31,BC31,BG31,BK31,BO31,BS31,BW31,CA31,CE31,CI31,CM31,CQ31,CU31,CY31,DC31,DG31,DK31,DO31,DS31,DW31,EA31,EE31,EI31,EM31,EQ31,EU31,EY31,FC31,FG31,FK31,FO31,FS31,FW31,GA31,GE31,GI31,GM31,GQ31,GU31,GY31,HC31,HG31,HK31,HO31,HS31,HW31,IA31,IE31,II31,IM31,IQ31,IU31,IY31,JC31,JG31,JK31,JO31,JS31,JW31,KA31,KE31,KI31,KM31,KQ31,KU31,KY31,LC31,LG31,LK31,LO31,LS31,LW31,MA31,ME31,MI31,MM31,MQ31,MU31,MY31,NC31,NG31,NK31,NO31,NS31,NW31,OA31,OE31,OI31,OM31,OQ31,OU31,OY31,PC31,PG31,PK31,PO31)</f>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="32" spans="1:439" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="142">SUM(AI32,AM32,AQ32,AU32,AY32,BC32,BG32,BK32,BO32,BS32,BW32,CA32,CE32,CI32,CM32,CQ32,CU32,CY32,DC32,DG32,DK32,DO32,DS32,DW32,EA32,EE32,EI32,EM32,EQ32,EU32,EY32,FC32,FG32,FK32,FO32,FS32,FW32,GA32,GE32,GI32,GM32,GQ32,GU32,GY32,HC32,HG32,HK32,HO32,HS32,HW32,IA32,IE32,II32,IM32,IQ32,IU32,IY32,JC32,JG32,JK32,JO32,JS32,JW32,KA32,KE32,KI32,KM32,KQ32,KU32,KY32,LC32,LG32,LK32,LO32,LS32,LW32,MA32,ME32,MI32,MM32,MQ32,MU32,MY32,NC32,NG32,NK32,NO32,NS32,NW32,OA32,OE32,OI32,OM32,OQ32,OU32,OY32,PC32,PG32,PK32,PO32)</f>
@@ -11114,7 +11114,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A22:A32">
+  <conditionalFormatting sqref="A22:A30 A32">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Temps de jeu.xlsx
+++ b/data/Temps de jeu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A9A7F-F402-BC44-B5D9-FD08165AA027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03B19D2-5163-6A4C-8503-2C0A84A95200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{4D7058D9-FEBF-074A-9E43-9512510F2605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="152">
   <si>
     <t xml:space="preserve">Match Amical 2 </t>
   </si>
@@ -964,9 +964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F67B87-FE0E-FC4A-8FE6-DAAF2AFECC8B}">
   <dimension ref="A1:PW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GS34" sqref="GS34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FM26" sqref="FM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="B2">
         <f>SUM(AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,CI2,CM2,CQ2,CU2,CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2,GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2,IU2,IY2,JC2,JG2,JK2,JO2,JS2,JW2,KA2,KE2,KI2,KM2,KQ2,KU2,KY2,LC2,LG2,LK2,LO2,LS2,LW2,MA2,ME2,MI2,MM2,MQ2,MU2,MY2,NC2,NG2,NK2,NO2,NS2,NW2,OA2,OE2,OI2,OM2,OQ2,OU2,OY2,PC2,PG2,PK2,PO2)</f>
-        <v>1365</v>
+        <v>1455</v>
       </c>
       <c r="C2">
         <f>SUM(CY2,DC2,DG2,DK2,DO2,DS2,DW2,EA2,EE2,EI2,EM2,EQ2,EU2,EY2,FC2,FG2,FK2,FO2,FS2,FW2,GA2,GE2,GI2,GM2,GQ2,GU2)</f>
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="D2">
         <f>SUM(GY2,HC2,HG2,HK2,HO2,HS2,HW2,IA2,IE2,II2,IM2,IQ2)</f>
@@ -2320,11 +2320,11 @@
       </c>
       <c r="G2">
         <f>SUM(H2:I2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3">
         <f>COUNTIF(AI2:PR2,"T")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(AI2:PR2,"R")</f>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="K2">
         <f>SUM(L2:M2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(CY2:GX2,"T")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3">
         <f>COUNTIF(CY2:GX2,"R")</f>
@@ -2539,6 +2539,12 @@
         <v>90</v>
       </c>
       <c r="FD2" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG2">
+        <v>90</v>
+      </c>
+      <c r="FH2" t="s">
         <v>110</v>
       </c>
       <c r="HD2" t="s">
@@ -2770,6 +2776,9 @@
       <c r="FD3" t="s">
         <v>139</v>
       </c>
+      <c r="FH3" t="s">
+        <v>139</v>
+      </c>
       <c r="HD3" t="s">
         <v>139</v>
       </c>
@@ -2826,11 +2835,11 @@
       </c>
       <c r="PS3" s="3">
         <f t="shared" ref="PS3:PS29" si="33">COUNTIF(AI3:PR3,"HG")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="PT3" s="3">
         <f t="shared" ref="PT3:PT29" si="34">COUNTIF(CY3:GX3,"HG")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="PU3" s="3">
         <f t="shared" ref="PU3:PU29" si="35">COUNTIF(GY3:IT3,"HG")</f>
@@ -3059,6 +3068,9 @@
       <c r="FD4" t="s">
         <v>139</v>
       </c>
+      <c r="FH4" t="s">
+        <v>139</v>
+      </c>
       <c r="GY4">
         <v>90</v>
       </c>
@@ -3121,11 +3133,11 @@
       </c>
       <c r="PS4" s="3">
         <f t="shared" ref="PS4" si="63">COUNTIF(AI4:PR4,"HG")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PT4" s="3">
         <f t="shared" ref="PT4" si="64">COUNTIF(CY4:GX4,"HG")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PU4" s="3">
         <f t="shared" ref="PU4" si="65">COUNTIF(GY4:IT4,"HG")</f>
@@ -3146,11 +3158,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="37"/>
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
@@ -3166,7 +3178,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="7"/>
@@ -3174,7 +3186,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="9"/>
@@ -3182,7 +3194,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="11"/>
@@ -3190,7 +3202,7 @@
       </c>
       <c r="M5" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="13"/>
@@ -3383,6 +3395,12 @@
       </c>
       <c r="FD5" t="s">
         <v>110</v>
+      </c>
+      <c r="FG5">
+        <v>1</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>136</v>
       </c>
       <c r="HD5" t="s">
         <v>139</v>
@@ -3649,6 +3667,9 @@
       <c r="FD6" t="s">
         <v>139</v>
       </c>
+      <c r="FH6" t="s">
+        <v>139</v>
+      </c>
       <c r="HD6" t="s">
         <v>139</v>
       </c>
@@ -3681,11 +3702,11 @@
       </c>
       <c r="PS6" s="3">
         <f t="shared" si="33"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="PT6" s="3">
         <f t="shared" si="34"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PU6" s="3">
         <f t="shared" si="35"/>
@@ -3706,11 +3727,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="37"/>
-        <v>1668</v>
+        <v>1758</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>823</v>
+        <v>913</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
@@ -3726,11 +3747,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="8"/>
@@ -3742,11 +3763,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="12"/>
@@ -3933,6 +3954,12 @@
         <v>90</v>
       </c>
       <c r="FD7" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG7">
+        <v>90</v>
+      </c>
+      <c r="FH7" t="s">
         <v>110</v>
       </c>
       <c r="GY7">
@@ -4215,6 +4242,9 @@
       <c r="FD8" t="s">
         <v>139</v>
       </c>
+      <c r="FH8" t="s">
+        <v>139</v>
+      </c>
       <c r="GY8">
         <v>11</v>
       </c>
@@ -4292,11 +4322,11 @@
       </c>
       <c r="PS8" s="3">
         <f t="shared" si="33"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="PT8" s="3">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PU8" s="3">
         <f t="shared" si="35"/>
@@ -4317,11 +4347,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="37"/>
-        <v>1777</v>
+        <v>1867</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>1021</v>
+        <v>1111</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -4337,11 +4367,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="8"/>
@@ -4353,11 +4383,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="12"/>
@@ -4569,6 +4599,12 @@
       </c>
       <c r="FD9" t="s">
         <v>136</v>
+      </c>
+      <c r="FG9">
+        <v>90</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>110</v>
       </c>
       <c r="HC9">
         <v>45</v>
@@ -4639,11 +4675,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="37"/>
-        <v>1061</v>
+        <v>1151</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>461</v>
+        <v>551</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -4659,11 +4695,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="8"/>
@@ -4675,11 +4711,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="12"/>
@@ -4869,6 +4905,12 @@
         <v>90</v>
       </c>
       <c r="FD10" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG10">
+        <v>90</v>
+      </c>
+      <c r="FH10" t="s">
         <v>110</v>
       </c>
       <c r="HD10" t="s">
@@ -5172,6 +5214,9 @@
       <c r="FD11" t="s">
         <v>139</v>
       </c>
+      <c r="FH11" t="s">
+        <v>139</v>
+      </c>
       <c r="GY11">
         <v>90</v>
       </c>
@@ -5222,11 +5267,11 @@
       </c>
       <c r="PS11" s="3">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="PT11" s="3">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="PU11" s="3">
         <f t="shared" si="35"/>
@@ -5684,6 +5729,9 @@
       <c r="FD13" t="s">
         <v>139</v>
       </c>
+      <c r="FH13" t="s">
+        <v>139</v>
+      </c>
       <c r="HD13" t="s">
         <v>139</v>
       </c>
@@ -5704,11 +5752,11 @@
       </c>
       <c r="PS13" s="3">
         <f t="shared" si="33"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="PT13" s="3">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="PU13" s="3">
         <f t="shared" si="35"/>
@@ -5729,11 +5777,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="37"/>
-        <v>1674</v>
+        <v>1692</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
@@ -5749,7 +5797,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="7"/>
@@ -5757,7 +5805,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="9"/>
@@ -5765,7 +5813,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="11"/>
@@ -5773,7 +5821,7 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="13"/>
@@ -5995,6 +6043,12 @@
         <v>7</v>
       </c>
       <c r="FD14" t="s">
+        <v>136</v>
+      </c>
+      <c r="FG14">
+        <v>18</v>
+      </c>
+      <c r="FH14" t="s">
         <v>136</v>
       </c>
       <c r="GY14">
@@ -6072,11 +6126,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="37"/>
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
@@ -6092,7 +6146,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="7"/>
@@ -6100,7 +6154,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="9"/>
@@ -6108,7 +6162,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="11"/>
@@ -6116,7 +6170,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="13"/>
@@ -6342,6 +6396,12 @@
       </c>
       <c r="FD15" t="s">
         <v>110</v>
+      </c>
+      <c r="FG15">
+        <v>8</v>
+      </c>
+      <c r="FH15" t="s">
+        <v>136</v>
       </c>
       <c r="GY15">
         <v>59</v>
@@ -7309,6 +7369,9 @@
       <c r="FD18" t="s">
         <v>139</v>
       </c>
+      <c r="FH18" t="s">
+        <v>139</v>
+      </c>
       <c r="GY18">
         <v>18</v>
       </c>
@@ -7359,11 +7422,11 @@
       </c>
       <c r="PS18" s="3">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PT18" s="3">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="PU18" s="3">
         <f t="shared" si="35"/>
@@ -7416,7 +7479,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <f t="shared" si="10"/>
@@ -7432,7 +7495,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <f t="shared" si="14"/>
@@ -7615,6 +7678,9 @@
       </c>
       <c r="FD19" t="s">
         <v>110</v>
+      </c>
+      <c r="FH19" t="s">
+        <v>138</v>
       </c>
       <c r="GY19">
         <v>72</v>
@@ -7694,11 +7760,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="37"/>
-        <v>1805</v>
+        <v>1887</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>1142</v>
+        <v>1224</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
@@ -7714,11 +7780,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="8"/>
@@ -7730,11 +7796,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="12"/>
@@ -7982,6 +8048,12 @@
       </c>
       <c r="FE20">
         <v>1</v>
+      </c>
+      <c r="FG20">
+        <v>82</v>
+      </c>
+      <c r="FH20" t="s">
+        <v>110</v>
       </c>
       <c r="GY20">
         <v>31</v>
@@ -8302,11 +8374,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="37"/>
-        <v>2279</v>
+        <v>2368</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>1260</v>
+        <v>1349</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
@@ -8322,11 +8394,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="8"/>
@@ -8338,11 +8410,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="12"/>
@@ -8577,6 +8649,12 @@
         <v>90</v>
       </c>
       <c r="FD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG22">
+        <v>89</v>
+      </c>
+      <c r="FH22" t="s">
         <v>110</v>
       </c>
       <c r="GY22">
@@ -8880,11 +8958,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="37"/>
-        <v>1817</v>
+        <v>1907</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>1125</v>
+        <v>1215</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
@@ -8900,11 +8978,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="8"/>
@@ -8916,11 +8994,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="12"/>
@@ -9122,6 +9200,12 @@
         <v>45</v>
       </c>
       <c r="FD24" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG24">
+        <v>90</v>
+      </c>
+      <c r="FH24" t="s">
         <v>110</v>
       </c>
       <c r="GY24">
@@ -9717,6 +9801,9 @@
       <c r="FD26" t="s">
         <v>139</v>
       </c>
+      <c r="FH26" t="s">
+        <v>139</v>
+      </c>
       <c r="GY26">
         <v>72</v>
       </c>
@@ -9788,11 +9875,11 @@
       </c>
       <c r="PS26" s="3">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PT26" s="3">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="PU26" s="3">
         <f t="shared" si="35"/>
@@ -9813,11 +9900,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="37"/>
-        <v>1297</v>
+        <v>1387</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>802</v>
+        <v>892</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
@@ -9833,11 +9920,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="8"/>
@@ -9849,11 +9936,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="12"/>
@@ -10014,6 +10101,12 @@
       </c>
       <c r="FF27">
         <v>1</v>
+      </c>
+      <c r="FG27">
+        <v>90</v>
+      </c>
+      <c r="FH27" t="s">
+        <v>110</v>
       </c>
       <c r="HD27" t="s">
         <v>139</v>
@@ -10277,6 +10370,9 @@
       <c r="FD28" t="s">
         <v>139</v>
       </c>
+      <c r="FH28" t="s">
+        <v>139</v>
+      </c>
       <c r="GY28">
         <v>79</v>
       </c>
@@ -10333,11 +10429,11 @@
       </c>
       <c r="PS28" s="3">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="PT28" s="3">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PU28" s="3">
         <f t="shared" si="35"/>
@@ -10358,11 +10454,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="37"/>
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
@@ -10378,11 +10474,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="8"/>
@@ -10394,11 +10490,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="12"/>
@@ -10541,6 +10637,12 @@
       </c>
       <c r="FD29" t="s">
         <v>136</v>
+      </c>
+      <c r="FG29">
+        <v>90</v>
+      </c>
+      <c r="FH29" t="s">
+        <v>110</v>
       </c>
       <c r="HC29">
         <v>90</v>
@@ -10599,11 +10701,11 @@
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="67">SUM(AI30,AM30,AQ30,AU30,AY30,BC30,BG30,BK30,BO30,BS30,BW30,CA30,CE30,CI30,CM30,CQ30,CU30,CY30,DC30,DG30,DK30,DO30,DS30,DW30,EA30,EE30,EI30,EM30,EQ30,EU30,EY30,FC30,FG30,FK30,FO30,FS30,FW30,GA30,GE30,GI30,GM30,GQ30,GU30,GY30,HC30,HG30,HK30,HO30,HS30,HW30,IA30,IE30,II30,IM30,IQ30,IU30,IY30,JC30,JG30,JK30,JO30,JS30,JW30,KA30,KE30,KI30,KM30,KQ30,KU30,KY30,LC30,LG30,LK30,LO30,LS30,LW30,MA30,ME30,MI30,MM30,MQ30,MU30,MY30,NC30,NG30,NK30,NO30,NS30,NW30,OA30,OE30,OI30,OM30,OQ30,OU30,OY30,PC30,PG30,PK30,PO30)</f>
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30" si="68">SUM(CY30,DC30,DG30,DK30,DO30,DS30,DW30,EA30,EE30,EI30,EM30,EQ30,EU30,EY30,FC30,FG30,FK30,FO30,FS30,FW30,GA30,GE30,GI30,GM30,GQ30,GU30)</f>
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30" si="69">SUM(GY30,HC30,HG30,HK30,HO30,HS30,HW30,IA30,IE30,II30,IM30,IQ30)</f>
@@ -10619,11 +10721,11 @@
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="71">SUM(H30:I30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ref="H30" si="72">COUNTIF(AI30:PR30,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ref="I30" si="73">COUNTIF(AI30:PR30,"R")</f>
@@ -10635,11 +10737,11 @@
       </c>
       <c r="K30">
         <f t="shared" ref="K30" si="75">SUM(L30:M30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" ref="L30" si="76">COUNTIF(CY30:GX30,"T")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" ref="M30" si="77">COUNTIF(CY30:GX30,"R")</f>
@@ -10755,6 +10857,12 @@
       </c>
       <c r="FD30" t="s">
         <v>136</v>
+      </c>
+      <c r="FG30">
+        <v>72</v>
+      </c>
+      <c r="FH30" t="s">
+        <v>110</v>
       </c>
       <c r="KI30">
         <v>90</v>
@@ -10789,11 +10897,11 @@
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="104">SUM(AI31,AM31,AQ31,AU31,AY31,BC31,BG31,BK31,BO31,BS31,BW31,CA31,CE31,CI31,CM31,CQ31,CU31,CY31,DC31,DG31,DK31,DO31,DS31,DW31,EA31,EE31,EI31,EM31,EQ31,EU31,EY31,FC31,FG31,FK31,FO31,FS31,FW31,GA31,GE31,GI31,GM31,GQ31,GU31,GY31,HC31,HG31,HK31,HO31,HS31,HW31,IA31,IE31,II31,IM31,IQ31,IU31,IY31,JC31,JG31,JK31,JO31,JS31,JW31,KA31,KE31,KI31,KM31,KQ31,KU31,KY31,LC31,LG31,LK31,LO31,LS31,LW31,MA31,ME31,MI31,MM31,MQ31,MU31,MY31,NC31,NG31,NK31,NO31,NS31,NW31,OA31,OE31,OI31,OM31,OQ31,OU31,OY31,PC31,PG31,PK31,PO31)</f>
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31" si="105">SUM(CY31,DC31,DG31,DK31,DO31,DS31,DW31,EA31,EE31,EI31,EM31,EQ31,EU31,EY31,FC31,FG31,FK31,FO31,FS31,FW31,GA31,GE31,GI31,GM31,GQ31,GU31)</f>
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31" si="106">SUM(GY31,HC31,HG31,HK31,HO31,HS31,HW31,IA31,IE31,II31,IM31,IQ31)</f>
@@ -10809,11 +10917,11 @@
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="109">SUM(H31:I31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" ref="H31" si="110">COUNTIF(AI31:PR31,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" ref="I31" si="111">COUNTIF(AI31:PR31,"R")</f>
@@ -10825,11 +10933,11 @@
       </c>
       <c r="K31">
         <f t="shared" ref="K31" si="113">SUM(L31:M31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ref="L31" si="114">COUNTIF(CY31:GX31,"T")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" ref="M31" si="115">COUNTIF(CY31:GX31,"R")</f>
@@ -10873,11 +10981,11 @@
       </c>
       <c r="W31" s="3">
         <f t="shared" ref="W31" si="125">SUM(AK31,AO31,AS31,AW31,BA31,BE31,BI31,BM31,BQ31,BU31,BY31,CC31,CG31,CK31,CO31,CS31,CW31,DA31,DE31,DI31,DM31,DQ31,DU31,DY31,EC31,EG31,EK31,EO31,ES31,EW31,FA31,FE31,FI31,FM31,FQ31,FU31,FY31,GC31,GG31,GK31,GO31,GS31,GW31,HA31,HE31,HI31,HM31,HQ31,HU31,HY31,IC31,IG31,IK31,IO31,IS31,IW31,JA31,JE31,JI31,JM31,JQ31,JU31,JY31,KC31,KG31,KK31,KO31,KS31,KW31,LA31,LE31,LI31,LM31,LQ31,LU31,LY31,MC31,MG31,MK31,MO31,MS31,MW31,NA31,NE31,NI31,NM31,NQ31,NU31,NY31,OC31,OG31,OK31,OO31,OS31,OW31,PA31,PE31,PI31,PM31,PQ31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="4">
         <f t="shared" ref="X31" si="126">SUM(DA31,DE31,DI31,DM31,DQ31,DU31,DY31,EC31,EG31,EK31,EO31,ES31,EW31,FA31,FE31,FI31,FM31,FQ31,FU31,FY31,GC31,GG31,GK31,GO31,GS31,GW31,HA31,HE31,HI31,HM31,HQ31,HU31,HY31,IC31,IG31,IK31,IO31,IS31,IW31,JA31,JE31,JI31,JM31,JQ31,JU31,JY31,KC31,KG31,KK31,KO31,KS31,KW31,LA31,LE31,LI31,LM31,LQ31,LU31,LY31,MC31,MG31,MK31,MO31,MS31,MW31,NA31,NE31,NI31,NM31,NQ31,NU31,NY31,OC31,OG31,OK31,OO31,OS31,OW31,PA31,PE31,PI31,PM31,PQ31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" ref="Y31" si="127">SUM(AL31,AP31,AT31,AX31,BB31,BF31,BJ31,BN31,BR31,BV31,BZ31,CD31,CH31,CL31,CP31,CT31,CX31,DB31,DF31,DJ31,DN31,DR31,DV31,DZ31,ED31,EH31,EL31,EP31,ET31,EX31,FB31,FF31,FJ31,FN31,FR31,FV31,FZ31,GD31,GH31,GL31,GP31,GT31,GX31,HB31,HF31,HJ31,HN31,HR31,HV31,HZ31,ID31,IH31,IL31,IP31,IT31,IX31,JB31,JF31,JJ31,JN31,JR31,JV31,JZ31,KD31,KH31,KL31,KP31,KT31,KX31,LB31,LF31,LJ31,LN31,LR31,LV31,LZ31,MD31,MH31,ML31,MP31,MT31,MX31,NB31,NF31,NJ31,NN31,NR31,NV31,NZ31,OD31,OH31,OL31,OP31,OT31,OX31,PB31,PF31,PJ31,PN31,PR31)</f>
@@ -10889,7 +10997,7 @@
       </c>
       <c r="AA31">
         <f t="shared" ref="AA31" si="129">SUM(DA31,DE31,DI31,DM31,DQ31,DU31,DY31,EC31,EG31,EK31,EO31,ES31,EW31,FA31,FE31,FI31,FM31,FQ31,FU31,FY31,GC31,GG31,GK31,GO31,GS31,GW31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <f t="shared" ref="AB31" si="130">SUM(DB31,DF31,DJ31,DN31,DR31,DV31,DZ31,ED31,EH31,EL31,EP31,ET31,EX31,FB31,FF31,FJ31,FN31,FR31,FV31,FZ31,GD31,GH31,GL31,GP31,GT31,GX31)</f>
@@ -10927,6 +11035,15 @@
       </c>
       <c r="FD31" t="s">
         <v>110</v>
+      </c>
+      <c r="FG31">
+        <v>82</v>
+      </c>
+      <c r="FH31" t="s">
+        <v>110</v>
+      </c>
+      <c r="FI31">
+        <v>1</v>
       </c>
       <c r="PS31" s="3">
         <f t="shared" ref="PS31" si="137">COUNTIF(AI31:PR31,"HG")</f>
@@ -10955,11 +11072,11 @@
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="142">SUM(AI32,AM32,AQ32,AU32,AY32,BC32,BG32,BK32,BO32,BS32,BW32,CA32,CE32,CI32,CM32,CQ32,CU32,CY32,DC32,DG32,DK32,DO32,DS32,DW32,EA32,EE32,EI32,EM32,EQ32,EU32,EY32,FC32,FG32,FK32,FO32,FS32,FW32,GA32,GE32,GI32,GM32,GQ32,GU32,GY32,HC32,HG32,HK32,HO32,HS32,HW32,IA32,IE32,II32,IM32,IQ32,IU32,IY32,JC32,JG32,JK32,JO32,JS32,JW32,KA32,KE32,KI32,KM32,KQ32,KU32,KY32,LC32,LG32,LK32,LO32,LS32,LW32,MA32,ME32,MI32,MM32,MQ32,MU32,MY32,NC32,NG32,NK32,NO32,NS32,NW32,OA32,OE32,OI32,OM32,OQ32,OU32,OY32,PC32,PG32,PK32,PO32)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <f t="shared" ref="C32" si="143">SUM(CY32,DC32,DG32,DK32,DO32,DS32,DW32,EA32,EE32,EI32,EM32,EQ32,EU32,EY32,FC32,FG32,FK32,FO32,FS32,FW32,GA32,GE32,GI32,GM32,GQ32,GU32)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <f t="shared" ref="D32" si="144">SUM(GY32,HC32,HG32,HK32,HO32,HS32,HW32,IA32,IE32,II32,IM32,IQ32)</f>
@@ -10975,7 +11092,7 @@
       </c>
       <c r="G32">
         <f t="shared" ref="G32" si="147">SUM(H32:I32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" ref="H32" si="148">COUNTIF(AI32:PR32,"T")</f>
@@ -10983,7 +11100,7 @@
       </c>
       <c r="I32" s="3">
         <f t="shared" ref="I32" si="149">COUNTIF(AI32:PR32,"R")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" ref="J32" si="150">COUNTIF(AI32:PR32,"NR")</f>
@@ -10991,7 +11108,7 @@
       </c>
       <c r="K32">
         <f t="shared" ref="K32" si="151">SUM(L32:M32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" ref="L32" si="152">COUNTIF(CY32:GX32,"T")</f>
@@ -10999,7 +11116,7 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" ref="M32" si="153">COUNTIF(CY32:GX32,"R")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" ref="N32" si="154">COUNTIF(CY32:GX32,"NR")</f>
@@ -11089,6 +11206,12 @@
         <v>21</v>
       </c>
       <c r="FD32" t="s">
+        <v>136</v>
+      </c>
+      <c r="FG32">
+        <v>8</v>
+      </c>
+      <c r="FH32" t="s">
         <v>136</v>
       </c>
       <c r="PS32" s="3">
